--- a/output/Lagserien 2022 kvinner 3. div.xlsx
+++ b/output/Lagserien 2022 kvinner 3. div.xlsx
@@ -616,7 +616,7 @@
         </is>
       </c>
       <c r="D3" s="3" t="n">
-        <v>13938</v>
+        <v>14133</v>
       </c>
       <c r="E3" s="4" t="inlineStr">
         <is>
@@ -728,7 +728,7 @@
         </is>
       </c>
       <c r="D7" s="3" t="n">
-        <v>12411</v>
+        <v>12425</v>
       </c>
       <c r="E7" s="4" t="inlineStr">
         <is>
@@ -836,11 +836,11 @@
       </c>
       <c r="C11" s="3" t="inlineStr">
         <is>
-          <t>(18/7)</t>
+          <t>(18/8)</t>
         </is>
       </c>
       <c r="D11" s="3" t="n">
-        <v>11207</v>
+        <v>11302</v>
       </c>
       <c r="E11" s="4" t="inlineStr">
         <is>
@@ -980,7 +980,7 @@
         </is>
       </c>
       <c r="D16" s="3" t="n">
-        <v>10354</v>
+        <v>10353</v>
       </c>
       <c r="E16" s="4" t="inlineStr">
         <is>
@@ -1027,16 +1027,16 @@
       </c>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>IL Gular</t>
+          <t>Sportsklubben Vidar 2. lag</t>
         </is>
       </c>
       <c r="C18" s="3" t="inlineStr">
         <is>
-          <t>(13/6)</t>
+          <t>(14/11)</t>
         </is>
       </c>
       <c r="D18" s="3" t="n">
-        <v>10257</v>
+        <v>10320</v>
       </c>
       <c r="E18" s="4" t="inlineStr">
         <is>
@@ -1045,7 +1045,7 @@
       </c>
       <c r="F18" s="3" t="inlineStr">
         <is>
-          <t>Hordaland</t>
+          <t>Oslo</t>
         </is>
       </c>
     </row>
@@ -1055,16 +1055,16 @@
       </c>
       <c r="B19" s="3" t="inlineStr">
         <is>
-          <t>Sportsklubben Vidar 2. lag</t>
+          <t>IL Gular</t>
         </is>
       </c>
       <c r="C19" s="3" t="inlineStr">
         <is>
-          <t>(14/12)</t>
+          <t>(13/6)</t>
         </is>
       </c>
       <c r="D19" s="3" t="n">
-        <v>10204</v>
+        <v>10257</v>
       </c>
       <c r="E19" s="4" t="inlineStr">
         <is>
@@ -1073,7 +1073,7 @@
       </c>
       <c r="F19" s="3" t="inlineStr">
         <is>
-          <t>Oslo</t>
+          <t>Hordaland</t>
         </is>
       </c>
     </row>
@@ -1120,7 +1120,7 @@
         </is>
       </c>
       <c r="D21" s="3" t="n">
-        <v>9971</v>
+        <v>9970</v>
       </c>
       <c r="E21" s="4" t="inlineStr">
         <is>
@@ -1475,16 +1475,16 @@
       </c>
       <c r="B34" s="3" t="inlineStr">
         <is>
-          <t>Lillehammer IF</t>
+          <t>Sømna IL</t>
         </is>
       </c>
       <c r="C34" s="3" t="inlineStr">
         <is>
-          <t>(13/6)</t>
+          <t>(20/9)</t>
         </is>
       </c>
       <c r="D34" s="3" t="n">
-        <v>9113</v>
+        <v>9176</v>
       </c>
       <c r="E34" s="4" t="inlineStr">
         <is>
@@ -1493,7 +1493,7 @@
       </c>
       <c r="F34" s="3" t="inlineStr">
         <is>
-          <t>Innlandet</t>
+          <t>Nordland</t>
         </is>
       </c>
     </row>
@@ -1503,16 +1503,16 @@
       </c>
       <c r="B35" s="3" t="inlineStr">
         <is>
-          <t>Norna-Salhus IL 2. lag</t>
+          <t>Lillehammer IF</t>
         </is>
       </c>
       <c r="C35" s="3" t="inlineStr">
         <is>
-          <t>(19/9)</t>
+          <t>(13/6)</t>
         </is>
       </c>
       <c r="D35" s="3" t="n">
-        <v>9069</v>
+        <v>9113</v>
       </c>
       <c r="E35" s="4" t="inlineStr">
         <is>
@@ -1521,7 +1521,7 @@
       </c>
       <c r="F35" s="3" t="inlineStr">
         <is>
-          <t>Hordaland</t>
+          <t>Innlandet</t>
         </is>
       </c>
     </row>
@@ -1531,16 +1531,16 @@
       </c>
       <c r="B36" s="3" t="inlineStr">
         <is>
-          <t>Modum FIK</t>
+          <t>Norna-Salhus IL 2. lag</t>
         </is>
       </c>
       <c r="C36" s="3" t="inlineStr">
         <is>
-          <t>(19/8)</t>
+          <t>(19/9)</t>
         </is>
       </c>
       <c r="D36" s="3" t="n">
-        <v>9041</v>
+        <v>9069</v>
       </c>
       <c r="E36" s="4" t="inlineStr">
         <is>
@@ -1549,7 +1549,7 @@
       </c>
       <c r="F36" s="3" t="inlineStr">
         <is>
-          <t>Buskerud</t>
+          <t>Hordaland</t>
         </is>
       </c>
     </row>
@@ -1559,7 +1559,7 @@
       </c>
       <c r="B37" s="3" t="inlineStr">
         <is>
-          <t>Byåsen IL</t>
+          <t>Modum FIK</t>
         </is>
       </c>
       <c r="C37" s="3" t="inlineStr">
@@ -1568,7 +1568,7 @@
         </is>
       </c>
       <c r="D37" s="3" t="n">
-        <v>8984</v>
+        <v>9041</v>
       </c>
       <c r="E37" s="4" t="inlineStr">
         <is>
@@ -1577,7 +1577,7 @@
       </c>
       <c r="F37" s="3" t="inlineStr">
         <is>
-          <t>Sør-Trøndelag</t>
+          <t>Buskerud</t>
         </is>
       </c>
     </row>
@@ -1587,16 +1587,16 @@
       </c>
       <c r="B38" s="3" t="inlineStr">
         <is>
-          <t>Sømna IL</t>
+          <t>Byåsen IL</t>
         </is>
       </c>
       <c r="C38" s="3" t="inlineStr">
         <is>
-          <t>(20/8)</t>
+          <t>(19/8)</t>
         </is>
       </c>
       <c r="D38" s="3" t="n">
-        <v>8918</v>
+        <v>8984</v>
       </c>
       <c r="E38" s="4" t="inlineStr">
         <is>
@@ -1605,7 +1605,7 @@
       </c>
       <c r="F38" s="3" t="inlineStr">
         <is>
-          <t>Nordland</t>
+          <t>Sør-Trøndelag</t>
         </is>
       </c>
     </row>
@@ -1960,7 +1960,7 @@
         </is>
       </c>
       <c r="D51" s="3" t="n">
-        <v>8177</v>
+        <v>8178</v>
       </c>
       <c r="E51" s="4" t="inlineStr">
         <is>
@@ -2044,7 +2044,7 @@
         </is>
       </c>
       <c r="D54" s="3" t="n">
-        <v>7930</v>
+        <v>7937</v>
       </c>
       <c r="E54" s="4" t="inlineStr">
         <is>
@@ -2595,16 +2595,16 @@
       </c>
       <c r="B74" s="3" t="inlineStr">
         <is>
-          <t>Eidanger Idrettslag</t>
+          <t>Sportsklubben Vidar 3. lag</t>
         </is>
       </c>
       <c r="C74" s="3" t="inlineStr">
         <is>
-          <t>(10/4)</t>
+          <t>(11/7)</t>
         </is>
       </c>
       <c r="D74" s="3" t="n">
-        <v>6773</v>
+        <v>6818</v>
       </c>
       <c r="E74" s="4" t="inlineStr">
         <is>
@@ -2613,7 +2613,7 @@
       </c>
       <c r="F74" s="3" t="inlineStr">
         <is>
-          <t>Telemark</t>
+          <t>Oslo</t>
         </is>
       </c>
     </row>
@@ -2623,16 +2623,16 @@
       </c>
       <c r="B75" s="3" t="inlineStr">
         <is>
-          <t>Ringerike Friidrettsklubb</t>
+          <t>Eidanger Idrettslag</t>
         </is>
       </c>
       <c r="C75" s="3" t="inlineStr">
         <is>
-          <t>(12/5)</t>
+          <t>(10/4)</t>
         </is>
       </c>
       <c r="D75" s="3" t="n">
-        <v>6643</v>
+        <v>6773</v>
       </c>
       <c r="E75" s="4" t="inlineStr">
         <is>
@@ -2641,7 +2641,7 @@
       </c>
       <c r="F75" s="3" t="inlineStr">
         <is>
-          <t>Buskerud</t>
+          <t>Telemark</t>
         </is>
       </c>
     </row>
@@ -2651,16 +2651,16 @@
       </c>
       <c r="B76" s="3" t="inlineStr">
         <is>
-          <t>Drøbak-Frogn IL Friidrett</t>
+          <t>Ringerike Friidrettsklubb</t>
         </is>
       </c>
       <c r="C76" s="3" t="inlineStr">
         <is>
-          <t>(15/9)</t>
+          <t>(12/5)</t>
         </is>
       </c>
       <c r="D76" s="3" t="n">
-        <v>6448</v>
+        <v>6643</v>
       </c>
       <c r="E76" s="4" t="inlineStr">
         <is>
@@ -2669,7 +2669,7 @@
       </c>
       <c r="F76" s="3" t="inlineStr">
         <is>
-          <t>Akershus</t>
+          <t>Buskerud</t>
         </is>
       </c>
     </row>
@@ -2679,16 +2679,16 @@
       </c>
       <c r="B77" s="3" t="inlineStr">
         <is>
-          <t>T&amp;IF Viking</t>
+          <t>Drøbak-Frogn IL Friidrett</t>
         </is>
       </c>
       <c r="C77" s="3" t="inlineStr">
         <is>
-          <t>(13/5)</t>
+          <t>(15/9)</t>
         </is>
       </c>
       <c r="D77" s="3" t="n">
-        <v>6434</v>
+        <v>6448</v>
       </c>
       <c r="E77" s="4" t="inlineStr">
         <is>
@@ -2697,7 +2697,7 @@
       </c>
       <c r="F77" s="3" t="inlineStr">
         <is>
-          <t>Hordaland</t>
+          <t>Akershus</t>
         </is>
       </c>
     </row>
@@ -2707,16 +2707,16 @@
       </c>
       <c r="B78" s="3" t="inlineStr">
         <is>
-          <t>Førde IL Friidrett</t>
+          <t>T&amp;IF Viking</t>
         </is>
       </c>
       <c r="C78" s="3" t="inlineStr">
         <is>
-          <t>(12/8)</t>
+          <t>(13/5)</t>
         </is>
       </c>
       <c r="D78" s="3" t="n">
-        <v>6429</v>
+        <v>6434</v>
       </c>
       <c r="E78" s="4" t="inlineStr">
         <is>
@@ -2725,7 +2725,7 @@
       </c>
       <c r="F78" s="3" t="inlineStr">
         <is>
-          <t>Sogn og Fjordane</t>
+          <t>Hordaland</t>
         </is>
       </c>
     </row>
@@ -2735,16 +2735,16 @@
       </c>
       <c r="B79" s="3" t="inlineStr">
         <is>
-          <t>Herkules Friidrett 2. lag</t>
+          <t>Førde IL Friidrett</t>
         </is>
       </c>
       <c r="C79" s="3" t="inlineStr">
         <is>
-          <t>(16/7)</t>
+          <t>(12/8)</t>
         </is>
       </c>
       <c r="D79" s="3" t="n">
-        <v>6293</v>
+        <v>6429</v>
       </c>
       <c r="E79" s="4" t="inlineStr">
         <is>
@@ -2753,7 +2753,7 @@
       </c>
       <c r="F79" s="3" t="inlineStr">
         <is>
-          <t>Telemark</t>
+          <t>Sogn og Fjordane</t>
         </is>
       </c>
     </row>
@@ -2763,16 +2763,16 @@
       </c>
       <c r="B80" s="3" t="inlineStr">
         <is>
-          <t>IL Nybrott</t>
+          <t>Herkules Friidrett 2. lag</t>
         </is>
       </c>
       <c r="C80" s="3" t="inlineStr">
         <is>
-          <t>(15/8)</t>
+          <t>(16/7)</t>
         </is>
       </c>
       <c r="D80" s="3" t="n">
-        <v>6243</v>
+        <v>6293</v>
       </c>
       <c r="E80" s="4" t="inlineStr">
         <is>
@@ -2781,7 +2781,7 @@
       </c>
       <c r="F80" s="3" t="inlineStr">
         <is>
-          <t>Nord-Trøndelag</t>
+          <t>Telemark</t>
         </is>
       </c>
     </row>
@@ -2791,16 +2791,16 @@
       </c>
       <c r="B81" s="3" t="inlineStr">
         <is>
-          <t>Lillehammer IF 2. lag</t>
+          <t>IL Nybrott</t>
         </is>
       </c>
       <c r="C81" s="3" t="inlineStr">
         <is>
-          <t>(10/6)</t>
+          <t>(15/8)</t>
         </is>
       </c>
       <c r="D81" s="3" t="n">
-        <v>6236</v>
+        <v>6243</v>
       </c>
       <c r="E81" s="4" t="inlineStr">
         <is>
@@ -2809,7 +2809,7 @@
       </c>
       <c r="F81" s="3" t="inlineStr">
         <is>
-          <t>Innlandet</t>
+          <t>Nord-Trøndelag</t>
         </is>
       </c>
     </row>
@@ -2819,16 +2819,16 @@
       </c>
       <c r="B82" s="3" t="inlineStr">
         <is>
-          <t>Raufoss Idrettslag Friidrett</t>
+          <t>Lillehammer IF 2. lag</t>
         </is>
       </c>
       <c r="C82" s="3" t="inlineStr">
         <is>
-          <t>(13/6)</t>
+          <t>(10/6)</t>
         </is>
       </c>
       <c r="D82" s="3" t="n">
-        <v>6211</v>
+        <v>6236</v>
       </c>
       <c r="E82" s="4" t="inlineStr">
         <is>
@@ -2847,16 +2847,16 @@
       </c>
       <c r="B83" s="3" t="inlineStr">
         <is>
-          <t>Bækkelagets SK 2. lag</t>
+          <t>Raufoss Idrettslag Friidrett</t>
         </is>
       </c>
       <c r="C83" s="3" t="inlineStr">
         <is>
-          <t>(15/11)</t>
+          <t>(13/6)</t>
         </is>
       </c>
       <c r="D83" s="3" t="n">
-        <v>6197</v>
+        <v>6211</v>
       </c>
       <c r="E83" s="4" t="inlineStr">
         <is>
@@ -2865,7 +2865,7 @@
       </c>
       <c r="F83" s="3" t="inlineStr">
         <is>
-          <t>Oslo</t>
+          <t>Innlandet</t>
         </is>
       </c>
     </row>
@@ -2875,16 +2875,16 @@
       </c>
       <c r="B84" s="3" t="inlineStr">
         <is>
-          <t>Varegg IL 2. lag</t>
+          <t>Osterøy IL</t>
         </is>
       </c>
       <c r="C84" s="3" t="inlineStr">
         <is>
-          <t>(13/7)</t>
+          <t>(14/8)</t>
         </is>
       </c>
       <c r="D84" s="3" t="n">
-        <v>6154</v>
+        <v>6199</v>
       </c>
       <c r="E84" s="4" t="inlineStr">
         <is>
@@ -2903,16 +2903,16 @@
       </c>
       <c r="B85" s="3" t="inlineStr">
         <is>
-          <t>Sportsklubben Vidar 3. lag</t>
+          <t>Bækkelagets SK 2. lag</t>
         </is>
       </c>
       <c r="C85" s="3" t="inlineStr">
         <is>
-          <t>(10/8)</t>
+          <t>(15/11)</t>
         </is>
       </c>
       <c r="D85" s="3" t="n">
-        <v>6153</v>
+        <v>6197</v>
       </c>
       <c r="E85" s="4" t="inlineStr">
         <is>
@@ -2931,16 +2931,16 @@
       </c>
       <c r="B86" s="3" t="inlineStr">
         <is>
-          <t>Aremark IF</t>
+          <t>Varegg IL 2. lag</t>
         </is>
       </c>
       <c r="C86" s="3" t="inlineStr">
         <is>
-          <t>(11/5)</t>
+          <t>(13/7)</t>
         </is>
       </c>
       <c r="D86" s="3" t="n">
-        <v>6135</v>
+        <v>6154</v>
       </c>
       <c r="E86" s="4" t="inlineStr">
         <is>
@@ -2949,7 +2949,7 @@
       </c>
       <c r="F86" s="3" t="inlineStr">
         <is>
-          <t>Østfold</t>
+          <t>Hordaland</t>
         </is>
       </c>
     </row>
@@ -2959,16 +2959,16 @@
       </c>
       <c r="B87" s="3" t="inlineStr">
         <is>
-          <t>IL Pioner</t>
+          <t>Aremark IF</t>
         </is>
       </c>
       <c r="C87" s="3" t="inlineStr">
         <is>
-          <t>(14/7)</t>
+          <t>(11/5)</t>
         </is>
       </c>
       <c r="D87" s="3" t="n">
-        <v>6038</v>
+        <v>6135</v>
       </c>
       <c r="E87" s="4" t="inlineStr">
         <is>
@@ -2977,7 +2977,7 @@
       </c>
       <c r="F87" s="3" t="inlineStr">
         <is>
-          <t>Troms</t>
+          <t>Østfold</t>
         </is>
       </c>
     </row>
@@ -2987,16 +2987,16 @@
       </c>
       <c r="B88" s="3" t="inlineStr">
         <is>
-          <t>Selbu IL</t>
+          <t>IL Pioner</t>
         </is>
       </c>
       <c r="C88" s="3" t="inlineStr">
         <is>
-          <t>(17/7)</t>
+          <t>(14/7)</t>
         </is>
       </c>
       <c r="D88" s="3" t="n">
-        <v>5975</v>
+        <v>6038</v>
       </c>
       <c r="E88" s="4" t="inlineStr">
         <is>
@@ -3005,7 +3005,7 @@
       </c>
       <c r="F88" s="3" t="inlineStr">
         <is>
-          <t>Sør-Trøndelag</t>
+          <t>Troms</t>
         </is>
       </c>
     </row>
@@ -3015,16 +3015,16 @@
       </c>
       <c r="B89" s="3" t="inlineStr">
         <is>
-          <t>Seljord IL</t>
+          <t>Selbu IL</t>
         </is>
       </c>
       <c r="C89" s="3" t="inlineStr">
         <is>
-          <t>(9/3)</t>
+          <t>(17/7)</t>
         </is>
       </c>
       <c r="D89" s="3" t="n">
-        <v>5966</v>
+        <v>5975</v>
       </c>
       <c r="E89" s="4" t="inlineStr">
         <is>
@@ -3033,7 +3033,7 @@
       </c>
       <c r="F89" s="3" t="inlineStr">
         <is>
-          <t>Telemark</t>
+          <t>Sør-Trøndelag</t>
         </is>
       </c>
     </row>
@@ -3043,16 +3043,16 @@
       </c>
       <c r="B90" s="3" t="inlineStr">
         <is>
-          <t>Kristiansands IF Friidrett 3. lag</t>
+          <t>Seljord IL</t>
         </is>
       </c>
       <c r="C90" s="3" t="inlineStr">
         <is>
-          <t>(16/9)</t>
+          <t>(9/3)</t>
         </is>
       </c>
       <c r="D90" s="3" t="n">
-        <v>5930</v>
+        <v>5966</v>
       </c>
       <c r="E90" s="4" t="inlineStr">
         <is>
@@ -3061,7 +3061,7 @@
       </c>
       <c r="F90" s="3" t="inlineStr">
         <is>
-          <t>Agder</t>
+          <t>Telemark</t>
         </is>
       </c>
     </row>
@@ -3071,16 +3071,16 @@
       </c>
       <c r="B91" s="3" t="inlineStr">
         <is>
-          <t>Ask Friidrett 2. lag</t>
+          <t>Kristiansands IF Friidrett 3. lag</t>
         </is>
       </c>
       <c r="C91" s="3" t="inlineStr">
         <is>
-          <t>(15/7)</t>
+          <t>(16/9)</t>
         </is>
       </c>
       <c r="D91" s="3" t="n">
-        <v>5903</v>
+        <v>5930</v>
       </c>
       <c r="E91" s="4" t="inlineStr">
         <is>
@@ -3089,7 +3089,7 @@
       </c>
       <c r="F91" s="3" t="inlineStr">
         <is>
-          <t>Hordaland</t>
+          <t>Agder</t>
         </is>
       </c>
     </row>
@@ -3099,16 +3099,16 @@
       </c>
       <c r="B92" s="3" t="inlineStr">
         <is>
-          <t>Sørild FIK 2. lag</t>
+          <t>Ask Friidrett 2. lag</t>
         </is>
       </c>
       <c r="C92" s="3" t="inlineStr">
         <is>
-          <t>(16/9)</t>
+          <t>(15/7)</t>
         </is>
       </c>
       <c r="D92" s="3" t="n">
-        <v>5895</v>
+        <v>5903</v>
       </c>
       <c r="E92" s="4" t="inlineStr">
         <is>
@@ -3117,7 +3117,7 @@
       </c>
       <c r="F92" s="3" t="inlineStr">
         <is>
-          <t>Agder</t>
+          <t>Hordaland</t>
         </is>
       </c>
     </row>
@@ -3127,16 +3127,16 @@
       </c>
       <c r="B93" s="3" t="inlineStr">
         <is>
-          <t>Gui Sportsklubb</t>
+          <t>Sørild FIK 2. lag</t>
         </is>
       </c>
       <c r="C93" s="3" t="inlineStr">
         <is>
-          <t>(13/6)</t>
+          <t>(16/9)</t>
         </is>
       </c>
       <c r="D93" s="3" t="n">
-        <v>5890</v>
+        <v>5895</v>
       </c>
       <c r="E93" s="4" t="inlineStr">
         <is>
@@ -3145,7 +3145,7 @@
       </c>
       <c r="F93" s="3" t="inlineStr">
         <is>
-          <t>Akershus</t>
+          <t>Agder</t>
         </is>
       </c>
     </row>
@@ -3155,16 +3155,16 @@
       </c>
       <c r="B94" s="3" t="inlineStr">
         <is>
-          <t>IK Grane</t>
+          <t>Gui Sportsklubb</t>
         </is>
       </c>
       <c r="C94" s="3" t="inlineStr">
         <is>
-          <t>(14/9)</t>
+          <t>(13/6)</t>
         </is>
       </c>
       <c r="D94" s="3" t="n">
-        <v>5871</v>
+        <v>5890</v>
       </c>
       <c r="E94" s="4" t="inlineStr">
         <is>
@@ -3173,7 +3173,7 @@
       </c>
       <c r="F94" s="3" t="inlineStr">
         <is>
-          <t>Agder</t>
+          <t>Akershus</t>
         </is>
       </c>
     </row>
@@ -3183,16 +3183,16 @@
       </c>
       <c r="B95" s="3" t="inlineStr">
         <is>
-          <t>Osterøy IL</t>
+          <t>IK Grane</t>
         </is>
       </c>
       <c r="C95" s="3" t="inlineStr">
         <is>
-          <t>(13/8)</t>
+          <t>(14/9)</t>
         </is>
       </c>
       <c r="D95" s="3" t="n">
-        <v>5753</v>
+        <v>5871</v>
       </c>
       <c r="E95" s="4" t="inlineStr">
         <is>
@@ -3201,7 +3201,7 @@
       </c>
       <c r="F95" s="3" t="inlineStr">
         <is>
-          <t>Hordaland</t>
+          <t>Agder</t>
         </is>
       </c>
     </row>
@@ -3323,16 +3323,16 @@
       </c>
       <c r="B100" s="3" t="inlineStr">
         <is>
-          <t>Botne SK</t>
+          <t>IL Fri</t>
         </is>
       </c>
       <c r="C100" s="3" t="inlineStr">
         <is>
-          <t>(14/7)</t>
+          <t>(12/9)</t>
         </is>
       </c>
       <c r="D100" s="3" t="n">
-        <v>5403</v>
+        <v>5618</v>
       </c>
       <c r="E100" s="4" t="inlineStr">
         <is>
@@ -3341,7 +3341,7 @@
       </c>
       <c r="F100" s="3" t="inlineStr">
         <is>
-          <t>Vestfold</t>
+          <t>Hordaland</t>
         </is>
       </c>
     </row>
@@ -3351,16 +3351,16 @@
       </c>
       <c r="B101" s="3" t="inlineStr">
         <is>
-          <t>Tønsberg Friidrettsklubb 2. lag</t>
+          <t>Botne SK</t>
         </is>
       </c>
       <c r="C101" s="3" t="inlineStr">
         <is>
-          <t>(14/10)</t>
+          <t>(14/7)</t>
         </is>
       </c>
       <c r="D101" s="3" t="n">
-        <v>5316</v>
+        <v>5403</v>
       </c>
       <c r="E101" s="4" t="inlineStr">
         <is>
@@ -3379,16 +3379,16 @@
       </c>
       <c r="B102" s="3" t="inlineStr">
         <is>
-          <t>Gjesdal IL</t>
+          <t>Tønsberg Friidrettsklubb 2. lag</t>
         </is>
       </c>
       <c r="C102" s="3" t="inlineStr">
         <is>
-          <t>(10/6)</t>
+          <t>(14/10)</t>
         </is>
       </c>
       <c r="D102" s="3" t="n">
-        <v>5304</v>
+        <v>5316</v>
       </c>
       <c r="E102" s="4" t="inlineStr">
         <is>
@@ -3397,7 +3397,7 @@
       </c>
       <c r="F102" s="3" t="inlineStr">
         <is>
-          <t>Rogaland</t>
+          <t>Vestfold</t>
         </is>
       </c>
     </row>
@@ -3407,16 +3407,16 @@
       </c>
       <c r="B103" s="3" t="inlineStr">
         <is>
-          <t>BUL-Tromsø Friidrett 2. lag</t>
+          <t>Gjesdal IL</t>
         </is>
       </c>
       <c r="C103" s="3" t="inlineStr">
         <is>
-          <t>(16/8)</t>
+          <t>(10/6)</t>
         </is>
       </c>
       <c r="D103" s="3" t="n">
-        <v>5293</v>
+        <v>5304</v>
       </c>
       <c r="E103" s="4" t="inlineStr">
         <is>
@@ -3425,7 +3425,7 @@
       </c>
       <c r="F103" s="3" t="inlineStr">
         <is>
-          <t>Troms</t>
+          <t>Rogaland</t>
         </is>
       </c>
     </row>
@@ -3435,16 +3435,16 @@
       </c>
       <c r="B104" s="3" t="inlineStr">
         <is>
-          <t>Idrettslaget Skjalg 4. lag</t>
+          <t>BUL-Tromsø Friidrett 2. lag</t>
         </is>
       </c>
       <c r="C104" s="3" t="inlineStr">
         <is>
-          <t>(12/8)</t>
+          <t>(16/8)</t>
         </is>
       </c>
       <c r="D104" s="3" t="n">
-        <v>5266</v>
+        <v>5293</v>
       </c>
       <c r="E104" s="4" t="inlineStr">
         <is>
@@ -3453,7 +3453,7 @@
       </c>
       <c r="F104" s="3" t="inlineStr">
         <is>
-          <t>Rogaland</t>
+          <t>Troms</t>
         </is>
       </c>
     </row>
@@ -3463,16 +3463,16 @@
       </c>
       <c r="B105" s="3" t="inlineStr">
         <is>
-          <t>Overhalla IL</t>
+          <t>Idrettslaget Skjalg 4. lag</t>
         </is>
       </c>
       <c r="C105" s="3" t="inlineStr">
         <is>
-          <t>(14/7)</t>
+          <t>(12/8)</t>
         </is>
       </c>
       <c r="D105" s="3" t="n">
-        <v>5239</v>
+        <v>5275</v>
       </c>
       <c r="E105" s="4" t="inlineStr">
         <is>
@@ -3481,7 +3481,7 @@
       </c>
       <c r="F105" s="3" t="inlineStr">
         <is>
-          <t>Nord-Trøndelag</t>
+          <t>Rogaland</t>
         </is>
       </c>
     </row>
@@ -3491,16 +3491,16 @@
       </c>
       <c r="B106" s="3" t="inlineStr">
         <is>
-          <t>Lillehammer IF 3. lag</t>
+          <t>Overhalla IL</t>
         </is>
       </c>
       <c r="C106" s="3" t="inlineStr">
         <is>
-          <t>(10/6)</t>
+          <t>(14/7)</t>
         </is>
       </c>
       <c r="D106" s="3" t="n">
-        <v>5137</v>
+        <v>5239</v>
       </c>
       <c r="E106" s="4" t="inlineStr">
         <is>
@@ -3509,7 +3509,7 @@
       </c>
       <c r="F106" s="3" t="inlineStr">
         <is>
-          <t>Innlandet</t>
+          <t>Nord-Trøndelag</t>
         </is>
       </c>
     </row>
@@ -3519,16 +3519,16 @@
       </c>
       <c r="B107" s="3" t="inlineStr">
         <is>
-          <t>IL Fri</t>
+          <t>Lillehammer IF 3. lag</t>
         </is>
       </c>
       <c r="C107" s="3" t="inlineStr">
         <is>
-          <t>(11/9)</t>
+          <t>(10/6)</t>
         </is>
       </c>
       <c r="D107" s="3" t="n">
-        <v>5136</v>
+        <v>5137</v>
       </c>
       <c r="E107" s="4" t="inlineStr">
         <is>
@@ -3537,7 +3537,7 @@
       </c>
       <c r="F107" s="3" t="inlineStr">
         <is>
-          <t>Hordaland</t>
+          <t>Innlandet</t>
         </is>
       </c>
     </row>
@@ -3761,7 +3761,7 @@
         </is>
       </c>
       <c r="P2" s="8" t="n">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="T2" s="5" t="n"/>
     </row>
@@ -4293,19 +4293,19 @@
       </c>
       <c r="M15" s="7" t="inlineStr">
         <is>
-          <t>Anna Osen Byberg</t>
+          <t>Mari J. Brox</t>
         </is>
       </c>
       <c r="N15" s="7" t="n">
-        <v>1995</v>
+        <v>1986</v>
       </c>
       <c r="O15" s="17" t="inlineStr">
         <is>
-          <t>21,40,02</t>
+          <t>19,55,6</t>
         </is>
       </c>
       <c r="P15" s="7" t="n">
-        <v>418</v>
+        <v>537</v>
       </c>
       <c r="Q15" s="7" t="inlineStr">
         <is>
@@ -4313,7 +4313,7 @@
         </is>
       </c>
       <c r="R15" s="16" t="n">
-        <v>14.07</v>
+        <v>28.07</v>
       </c>
       <c r="T15" s="5" t="n"/>
     </row>
@@ -4617,7 +4617,7 @@
         </is>
       </c>
       <c r="P22" s="21" t="n">
-        <v>6009</v>
+        <v>6128</v>
       </c>
       <c r="T22" s="5" t="n"/>
     </row>
@@ -4783,111 +4783,113 @@
       </c>
       <c r="C28" s="7" t="inlineStr">
         <is>
-          <t>Maja Kristin Sørmo</t>
+          <t>Sigrid Forsmo Kappskarmo</t>
         </is>
       </c>
       <c r="D28" s="7" t="n">
-        <v>2006</v>
+        <v>2004</v>
       </c>
       <c r="E28" s="15" t="n">
-        <v>5.08</v>
+        <v>5.12</v>
       </c>
       <c r="F28" s="7" t="n">
-        <v>636</v>
+        <v>644</v>
       </c>
       <c r="G28" s="7" t="inlineStr">
         <is>
-          <t>Trondheim</t>
+          <t>Vik</t>
         </is>
       </c>
       <c r="H28" s="16" t="n">
-        <v>4.06</v>
+        <v>28.07</v>
       </c>
       <c r="J28" s="5" t="n"/>
       <c r="L28" s="14" t="inlineStr">
         <is>
-          <t>200m</t>
+          <t>5000m</t>
         </is>
       </c>
       <c r="M28" s="7" t="inlineStr">
         <is>
-          <t>Frøya Baustad</t>
+          <t>Anna Osen Byberg</t>
         </is>
       </c>
       <c r="N28" s="7" t="n">
-        <v>2009</v>
-      </c>
-      <c r="O28" s="15" t="n">
-        <v>30.21</v>
+        <v>1995</v>
+      </c>
+      <c r="O28" s="17" t="inlineStr">
+        <is>
+          <t>21,02,4</t>
+        </is>
       </c>
       <c r="P28" s="7" t="n">
-        <v>439</v>
+        <v>459</v>
       </c>
       <c r="Q28" s="7" t="inlineStr">
         <is>
-          <t>Steinkjer</t>
+          <t>Vik</t>
         </is>
       </c>
       <c r="R28" s="16" t="n">
-        <v>22.05</v>
+        <v>28.07</v>
       </c>
       <c r="T28" s="5" t="n"/>
     </row>
     <row r="29" ht="13" customHeight="1">
       <c r="B29" s="14" t="inlineStr">
         <is>
-          <t>Tresteg</t>
+          <t>Lengde</t>
         </is>
       </c>
       <c r="C29" s="7" t="inlineStr">
         <is>
-          <t>Aurora Mjølkarlid</t>
+          <t>Maja Kristin Sørmo</t>
         </is>
       </c>
       <c r="D29" s="7" t="n">
-        <v>2008</v>
+        <v>2006</v>
       </c>
       <c r="E29" s="15" t="n">
-        <v>10.44</v>
+        <v>5.08</v>
       </c>
       <c r="F29" s="7" t="n">
-        <v>604</v>
+        <v>636</v>
       </c>
       <c r="G29" s="7" t="inlineStr">
         <is>
-          <t>Steinkjer</t>
+          <t>Trondheim</t>
         </is>
       </c>
       <c r="H29" s="16" t="n">
-        <v>21.05</v>
+        <v>4.06</v>
       </c>
       <c r="J29" s="5" t="n"/>
       <c r="L29" s="14" t="inlineStr">
         <is>
-          <t>60m</t>
+          <t>200m</t>
         </is>
       </c>
       <c r="M29" s="7" t="inlineStr">
         <is>
-          <t>Kari Baustad</t>
+          <t>Frøya Baustad</t>
         </is>
       </c>
       <c r="N29" s="7" t="n">
         <v>2009</v>
       </c>
       <c r="O29" s="15" t="n">
-        <v>9.18</v>
+        <v>30.21</v>
       </c>
       <c r="P29" s="7" t="n">
-        <v>433</v>
+        <v>439</v>
       </c>
       <c r="Q29" s="7" t="inlineStr">
         <is>
-          <t>Vik</t>
+          <t>Steinkjer</t>
         </is>
       </c>
       <c r="R29" s="16" t="n">
-        <v>30.06</v>
+        <v>22.05</v>
       </c>
       <c r="T29" s="5" t="n"/>
     </row>
@@ -4899,17 +4901,17 @@
       </c>
       <c r="C30" s="7" t="inlineStr">
         <is>
-          <t>Åse Vik Larsen</t>
+          <t>Aurora Mjølkarlid</t>
         </is>
       </c>
       <c r="D30" s="7" t="n">
-        <v>2006</v>
+        <v>2008</v>
       </c>
       <c r="E30" s="15" t="n">
-        <v>10.16</v>
+        <v>10.44</v>
       </c>
       <c r="F30" s="7" t="n">
-        <v>575</v>
+        <v>604</v>
       </c>
       <c r="G30" s="7" t="inlineStr">
         <is>
@@ -4917,12 +4919,12 @@
         </is>
       </c>
       <c r="H30" s="16" t="n">
-        <v>4.03</v>
+        <v>21.05</v>
       </c>
       <c r="J30" s="5" t="n"/>
       <c r="L30" s="14" t="inlineStr">
         <is>
-          <t>100m</t>
+          <t>60m</t>
         </is>
       </c>
       <c r="M30" s="7" t="inlineStr">
@@ -4934,10 +4936,10 @@
         <v>2009</v>
       </c>
       <c r="O30" s="15" t="n">
-        <v>14.72</v>
+        <v>9.18</v>
       </c>
       <c r="P30" s="7" t="n">
-        <v>408</v>
+        <v>433</v>
       </c>
       <c r="Q30" s="7" t="inlineStr">
         <is>
@@ -4957,17 +4959,17 @@
       </c>
       <c r="C31" s="7" t="inlineStr">
         <is>
-          <t>Helene Hanem</t>
+          <t>Åse Vik Larsen</t>
         </is>
       </c>
       <c r="D31" s="7" t="n">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="E31" s="15" t="n">
-        <v>10.04</v>
+        <v>10.16</v>
       </c>
       <c r="F31" s="7" t="n">
-        <v>563</v>
+        <v>575</v>
       </c>
       <c r="G31" s="7" t="inlineStr">
         <is>
@@ -4975,12 +4977,12 @@
         </is>
       </c>
       <c r="H31" s="16" t="n">
-        <v>22.01</v>
+        <v>4.03</v>
       </c>
       <c r="J31" s="5" t="n"/>
       <c r="L31" s="14" t="inlineStr">
         <is>
-          <t>200m</t>
+          <t>100m</t>
         </is>
       </c>
       <c r="M31" s="7" t="inlineStr">
@@ -4992,48 +4994,48 @@
         <v>2009</v>
       </c>
       <c r="O31" s="15" t="n">
-        <v>32.42</v>
+        <v>14.72</v>
       </c>
       <c r="P31" s="7" t="n">
-        <v>320</v>
+        <v>408</v>
       </c>
       <c r="Q31" s="7" t="inlineStr">
         <is>
-          <t>Steinkjer</t>
+          <t>Vik</t>
         </is>
       </c>
       <c r="R31" s="16" t="n">
-        <v>22.05</v>
+        <v>30.06</v>
       </c>
       <c r="T31" s="5" t="n"/>
     </row>
     <row r="32" ht="13" customHeight="1">
       <c r="B32" s="14" t="inlineStr">
         <is>
-          <t>60m</t>
+          <t>Tresteg</t>
         </is>
       </c>
       <c r="C32" s="7" t="inlineStr">
         <is>
-          <t>Aurora Mjølkarlid</t>
+          <t>Helene Hanem</t>
         </is>
       </c>
       <c r="D32" s="7" t="n">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="E32" s="15" t="n">
-        <v>8.619999999999999</v>
+        <v>10.04</v>
       </c>
       <c r="F32" s="7" t="n">
         <v>563</v>
       </c>
       <c r="G32" s="7" t="inlineStr">
         <is>
-          <t>Stjørdal</t>
+          <t>Steinkjer</t>
         </is>
       </c>
       <c r="H32" s="16" t="n">
-        <v>29.05</v>
+        <v>22.01</v>
       </c>
       <c r="J32" s="5" t="n"/>
       <c r="L32" s="14" t="inlineStr">
@@ -5073,25 +5075,25 @@
       </c>
       <c r="C33" s="7" t="inlineStr">
         <is>
-          <t>Sigrid Forsmo Kapskarmo</t>
+          <t>Aurora Mjølkarlid</t>
         </is>
       </c>
       <c r="D33" s="7" t="n">
-        <v>2004</v>
+        <v>2008</v>
       </c>
       <c r="E33" s="15" t="n">
-        <v>8.67</v>
+        <v>8.619999999999999</v>
       </c>
       <c r="F33" s="7" t="n">
-        <v>550</v>
+        <v>563</v>
       </c>
       <c r="G33" s="7" t="inlineStr">
         <is>
-          <t>Steinkjer</t>
+          <t>Stjørdal</t>
         </is>
       </c>
       <c r="H33" s="16" t="n">
-        <v>22.01</v>
+        <v>29.05</v>
       </c>
       <c r="J33" s="5" t="n"/>
       <c r="L33" s="14" t="inlineStr">
@@ -5126,22 +5128,22 @@
     <row r="34" ht="13" customHeight="1">
       <c r="B34" s="14" t="inlineStr">
         <is>
-          <t>Lengde</t>
+          <t>60m</t>
         </is>
       </c>
       <c r="C34" s="7" t="inlineStr">
         <is>
-          <t>Aurora Mjølkarlid</t>
+          <t>Sigrid Forsmo Kapskarmo</t>
         </is>
       </c>
       <c r="D34" s="7" t="n">
-        <v>2008</v>
+        <v>2004</v>
       </c>
       <c r="E34" s="15" t="n">
-        <v>4.68</v>
+        <v>8.67</v>
       </c>
       <c r="F34" s="7" t="n">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="G34" s="7" t="inlineStr">
         <is>
@@ -5149,7 +5151,7 @@
         </is>
       </c>
       <c r="H34" s="16" t="n">
-        <v>22.05</v>
+        <v>22.01</v>
       </c>
       <c r="J34" s="5" t="n"/>
       <c r="L34" s="14" t="inlineStr">
@@ -5214,7 +5216,7 @@
         </is>
       </c>
       <c r="F36" s="21" t="n">
-        <v>4691</v>
+        <v>4786</v>
       </c>
       <c r="J36" s="5" t="n"/>
       <c r="L36" s="20" t="inlineStr">
@@ -5231,7 +5233,7 @@
         </is>
       </c>
       <c r="P36" s="21" t="n">
-        <v>2909</v>
+        <v>3048</v>
       </c>
       <c r="T36" s="5" t="n"/>
     </row>
@@ -5254,7 +5256,7 @@
         </is>
       </c>
       <c r="F38" s="21" t="n">
-        <v>11207</v>
+        <v>11302</v>
       </c>
       <c r="J38" s="5" t="n"/>
       <c r="L38" s="20" t="inlineStr">
@@ -5271,7 +5273,7 @@
         </is>
       </c>
       <c r="P38" s="21" t="n">
-        <v>8918</v>
+        <v>9176</v>
       </c>
       <c r="T38" s="5" t="n"/>
     </row>
@@ -5286,7 +5288,7 @@
         </is>
       </c>
       <c r="C40" s="21" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J40" s="5" t="n"/>
       <c r="L40" s="20" t="inlineStr">
@@ -5295,7 +5297,7 @@
         </is>
       </c>
       <c r="M40" s="21" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="T40" s="5" t="n"/>
     </row>
@@ -5528,7 +5530,7 @@
         <v>9.44</v>
       </c>
       <c r="F54" s="7" t="n">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="G54" s="7" t="inlineStr">
         <is>
@@ -5725,7 +5727,7 @@
         </is>
       </c>
       <c r="F64" s="21" t="n">
-        <v>4677</v>
+        <v>4678</v>
       </c>
       <c r="J64" s="5" t="n"/>
     </row>
@@ -6068,7 +6070,7 @@
         </is>
       </c>
       <c r="F80" s="21" t="n">
-        <v>8177</v>
+        <v>8178</v>
       </c>
       <c r="J80" s="5" t="n"/>
     </row>
@@ -7803,7 +7805,7 @@
         </is>
       </c>
       <c r="P44" s="8" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="T44" s="5" t="n"/>
     </row>
@@ -8159,27 +8161,27 @@
       </c>
       <c r="M54" s="7" t="inlineStr">
         <is>
-          <t>Sienna Fosstenløkken Dankworth</t>
+          <t>Mia Prøsch Johnsen</t>
         </is>
       </c>
       <c r="N54" s="7" t="n">
-        <v>2008</v>
+        <v>2005</v>
       </c>
       <c r="O54" s="17" t="inlineStr">
         <is>
-          <t>1,04,26</t>
+          <t>1,00,21</t>
         </is>
       </c>
       <c r="P54" s="7" t="n">
-        <v>556</v>
+        <v>672</v>
       </c>
       <c r="Q54" s="7" t="inlineStr">
         <is>
-          <t>Bækkelaget</t>
+          <t>Sandnes</t>
         </is>
       </c>
       <c r="R54" s="16" t="n">
-        <v>7.05</v>
+        <v>31.07</v>
       </c>
       <c r="T54" s="5" t="n"/>
     </row>
@@ -8629,7 +8631,7 @@
         </is>
       </c>
       <c r="P64" s="21" t="n">
-        <v>6522</v>
+        <v>6638</v>
       </c>
       <c r="T64" s="5" t="n"/>
     </row>
@@ -9231,7 +9233,7 @@
         </is>
       </c>
       <c r="P80" s="21" t="n">
-        <v>10204</v>
+        <v>10320</v>
       </c>
       <c r="T80" s="5" t="n"/>
     </row>
@@ -9255,7 +9257,7 @@
         </is>
       </c>
       <c r="M82" s="21" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="T82" s="5" t="n"/>
     </row>
@@ -10857,7 +10859,7 @@
         </is>
       </c>
       <c r="P128" s="8" t="n">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="T128" s="5" t="n"/>
     </row>
@@ -10880,7 +10882,7 @@
       </c>
       <c r="M129" s="7" t="inlineStr">
         <is>
-          <t>Bækkelagets SK 2. lag</t>
+          <t>Sportsklubben Vidar 3. lag</t>
         </is>
       </c>
       <c r="T129" s="5" t="n"/>
@@ -11037,25 +11039,25 @@
       </c>
       <c r="M135" s="7" t="inlineStr">
         <is>
-          <t>Linn Rynning Borander</t>
+          <t>Lotte Koubova Tangen</t>
         </is>
       </c>
       <c r="N135" s="7" t="n">
-        <v>2005</v>
+        <v>2009</v>
       </c>
       <c r="O135" s="15" t="n">
-        <v>8.279999999999999</v>
+        <v>8.210000000000001</v>
       </c>
       <c r="P135" s="7" t="n">
-        <v>652</v>
+        <v>672</v>
       </c>
       <c r="Q135" s="7" t="inlineStr">
         <is>
-          <t>Bækkelaget</t>
+          <t>Lillehammer</t>
         </is>
       </c>
       <c r="R135" s="16" t="n">
-        <v>7.05</v>
+        <v>18.06</v>
       </c>
       <c r="T135" s="5" t="n"/>
     </row>
@@ -11095,25 +11097,25 @@
       </c>
       <c r="M136" s="7" t="inlineStr">
         <is>
-          <t>Amalie Lerøen Kallevik</t>
+          <t>Lotte Koubova Tangen</t>
         </is>
       </c>
       <c r="N136" s="7" t="n">
-        <v>2004</v>
+        <v>2009</v>
       </c>
       <c r="O136" s="15" t="n">
-        <v>13.01</v>
+        <v>12.97</v>
       </c>
       <c r="P136" s="7" t="n">
-        <v>669</v>
+        <v>676</v>
       </c>
       <c r="Q136" s="7" t="inlineStr">
         <is>
-          <t>Nadderud</t>
+          <t>Lillehammer</t>
         </is>
       </c>
       <c r="R136" s="16" t="n">
-        <v>12.06</v>
+        <v>19.06</v>
       </c>
       <c r="T136" s="5" t="n"/>
     </row>
@@ -11153,25 +11155,25 @@
       </c>
       <c r="M137" s="7" t="inlineStr">
         <is>
-          <t>Mari Helene Brandstadmoen</t>
+          <t>Lotte Koubova Tangen</t>
         </is>
       </c>
       <c r="N137" s="7" t="n">
         <v>2009</v>
       </c>
       <c r="O137" s="15" t="n">
-        <v>30.27</v>
+        <v>27.34</v>
       </c>
       <c r="P137" s="7" t="n">
-        <v>435</v>
+        <v>625</v>
       </c>
       <c r="Q137" s="7" t="inlineStr">
         <is>
-          <t>Stange</t>
+          <t>Nadderud</t>
         </is>
       </c>
       <c r="R137" s="16" t="n">
-        <v>13.03</v>
+        <v>12.06</v>
       </c>
       <c r="T137" s="5" t="n"/>
     </row>
@@ -11213,7 +11215,7 @@
       </c>
       <c r="M138" s="7" t="inlineStr">
         <is>
-          <t>Eiril Bukkemoen Rødsrud</t>
+          <t>Sienna Fosstenløkken Dankworth</t>
         </is>
       </c>
       <c r="N138" s="7" t="n">
@@ -11221,11 +11223,11 @@
       </c>
       <c r="O138" s="17" t="inlineStr">
         <is>
-          <t>1,09,36</t>
+          <t>1,04,26</t>
         </is>
       </c>
       <c r="P138" s="7" t="n">
-        <v>439</v>
+        <v>556</v>
       </c>
       <c r="Q138" s="7" t="inlineStr">
         <is>
@@ -11270,30 +11272,32 @@
       <c r="J139" s="5" t="n"/>
       <c r="L139" s="14" t="inlineStr">
         <is>
-          <t>Høyde</t>
+          <t>1500m</t>
         </is>
       </c>
       <c r="M139" s="7" t="inlineStr">
         <is>
-          <t>Ane Pauline Gram Amundsen</t>
+          <t>Caroline Marie Wiig</t>
         </is>
       </c>
       <c r="N139" s="7" t="n">
-        <v>2011</v>
-      </c>
-      <c r="O139" s="15" t="n">
-        <v>1.1</v>
+        <v>2008</v>
+      </c>
+      <c r="O139" s="17" t="inlineStr">
+        <is>
+          <t>5,36,52</t>
+        </is>
       </c>
       <c r="P139" s="7" t="n">
-        <v>173</v>
+        <v>441</v>
       </c>
       <c r="Q139" s="7" t="inlineStr">
         <is>
-          <t>Oslo/Bi</t>
+          <t>Nadderud</t>
         </is>
       </c>
       <c r="R139" s="16" t="n">
-        <v>29.05</v>
+        <v>12.06</v>
       </c>
       <c r="T139" s="5" t="n"/>
     </row>
@@ -11328,30 +11332,32 @@
       <c r="J140" s="5" t="n"/>
       <c r="L140" s="14" t="inlineStr">
         <is>
-          <t>Lengde</t>
+          <t>5000m</t>
         </is>
       </c>
       <c r="M140" s="7" t="inlineStr">
         <is>
-          <t>Eiril Bukkemoen Rødsrud</t>
+          <t>Synne Våge Opheim</t>
         </is>
       </c>
       <c r="N140" s="7" t="n">
-        <v>2008</v>
-      </c>
-      <c r="O140" s="15" t="n">
-        <v>3.47</v>
+        <v>1994</v>
+      </c>
+      <c r="O140" s="17" t="inlineStr">
+        <is>
+          <t>18,00,29mx</t>
+        </is>
       </c>
       <c r="P140" s="7" t="n">
-        <v>243</v>
+        <v>689</v>
       </c>
       <c r="Q140" s="7" t="inlineStr">
         <is>
-          <t>Stange</t>
+          <t>Oslo/Bi</t>
         </is>
       </c>
       <c r="R140" s="16" t="n">
-        <v>13.03</v>
+        <v>7.04</v>
       </c>
       <c r="T140" s="5" t="n"/>
     </row>
@@ -11384,33 +11390,13 @@
         <v>12.02</v>
       </c>
       <c r="J141" s="5" t="n"/>
-      <c r="L141" s="14" t="inlineStr">
-        <is>
-          <t>Lengde u.t</t>
-        </is>
-      </c>
-      <c r="M141" s="7" t="inlineStr">
-        <is>
-          <t>Anne Grete Taugbøl</t>
-        </is>
-      </c>
-      <c r="N141" s="7" t="n">
-        <v>1953</v>
-      </c>
-      <c r="O141" s="15" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="P141" s="7" t="n">
-        <v>144</v>
-      </c>
-      <c r="Q141" s="7" t="inlineStr">
-        <is>
-          <t>Oslo/Ek</t>
-        </is>
-      </c>
-      <c r="R141" s="16" t="n">
-        <v>5.04</v>
-      </c>
+      <c r="L141" s="14" t="n"/>
+      <c r="M141" s="7" t="n"/>
+      <c r="N141" s="7" t="n"/>
+      <c r="O141" s="7" t="n"/>
+      <c r="P141" s="7" t="n"/>
+      <c r="Q141" s="7" t="n"/>
+      <c r="R141" s="18" t="n"/>
       <c r="T141" s="5" t="n"/>
     </row>
     <row r="142" ht="13" customHeight="1">
@@ -11565,7 +11551,7 @@
         </is>
       </c>
       <c r="M148" s="21" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="O148" s="20" t="inlineStr">
         <is>
@@ -11573,7 +11559,7 @@
         </is>
       </c>
       <c r="P148" s="21" t="n">
-        <v>2755</v>
+        <v>3659</v>
       </c>
       <c r="T148" s="5" t="n"/>
     </row>
@@ -11704,30 +11690,32 @@
       <c r="J153" s="5" t="n"/>
       <c r="L153" s="14" t="inlineStr">
         <is>
-          <t>60m</t>
+          <t>5000m</t>
         </is>
       </c>
       <c r="M153" s="7" t="inlineStr">
         <is>
-          <t>Amalie Lerøen Kallevik</t>
+          <t>Line Askheim</t>
         </is>
       </c>
       <c r="N153" s="7" t="n">
-        <v>2004</v>
-      </c>
-      <c r="O153" s="15" t="n">
-        <v>8.369999999999999</v>
+        <v>1988</v>
+      </c>
+      <c r="O153" s="17" t="inlineStr">
+        <is>
+          <t>18,11,78</t>
+        </is>
       </c>
       <c r="P153" s="7" t="n">
-        <v>627</v>
+        <v>673</v>
       </c>
       <c r="Q153" s="7" t="inlineStr">
         <is>
-          <t>Stange</t>
+          <t>Oslo/Bi</t>
         </is>
       </c>
       <c r="R153" s="16" t="n">
-        <v>12.03</v>
+        <v>2.06</v>
       </c>
       <c r="T153" s="5" t="n"/>
     </row>
@@ -11762,30 +11750,32 @@
       <c r="J154" s="5" t="n"/>
       <c r="L154" s="14" t="inlineStr">
         <is>
-          <t>100m</t>
+          <t>5000m</t>
         </is>
       </c>
       <c r="M154" s="7" t="inlineStr">
         <is>
-          <t>Linn Rynning Borander</t>
+          <t>Sofie Kjos Bergum</t>
         </is>
       </c>
       <c r="N154" s="7" t="n">
-        <v>2005</v>
-      </c>
-      <c r="O154" s="15" t="n">
-        <v>13.32</v>
+        <v>1990</v>
+      </c>
+      <c r="O154" s="17" t="inlineStr">
+        <is>
+          <t>18,25,10</t>
+        </is>
       </c>
       <c r="P154" s="7" t="n">
-        <v>617</v>
+        <v>654</v>
       </c>
       <c r="Q154" s="7" t="inlineStr">
         <is>
-          <t>Gøteborg/SWE</t>
+          <t>Stjørdal</t>
         </is>
       </c>
       <c r="R154" s="16" t="n">
-        <v>18.06</v>
+        <v>24.06</v>
       </c>
       <c r="T154" s="5" t="n"/>
     </row>
@@ -11820,30 +11810,32 @@
       <c r="J155" s="5" t="n"/>
       <c r="L155" s="14" t="inlineStr">
         <is>
-          <t>60m</t>
+          <t>5000m</t>
         </is>
       </c>
       <c r="M155" s="7" t="inlineStr">
         <is>
-          <t>Vilma Andersen Rooth</t>
+          <t>June Kieu-Van Thi Bui</t>
         </is>
       </c>
       <c r="N155" s="7" t="n">
-        <v>2009</v>
-      </c>
-      <c r="O155" s="15" t="n">
-        <v>8.539999999999999</v>
+        <v>1992</v>
+      </c>
+      <c r="O155" s="17" t="inlineStr">
+        <is>
+          <t>18,37,80</t>
+        </is>
       </c>
       <c r="P155" s="7" t="n">
-        <v>583</v>
+        <v>637</v>
       </c>
       <c r="Q155" s="7" t="inlineStr">
         <is>
-          <t>Stange</t>
+          <t>Oslo/Bi</t>
         </is>
       </c>
       <c r="R155" s="16" t="n">
-        <v>12.03</v>
+        <v>2.06</v>
       </c>
       <c r="T155" s="5" t="n"/>
     </row>
@@ -11878,22 +11870,22 @@
       <c r="J156" s="5" t="n"/>
       <c r="L156" s="14" t="inlineStr">
         <is>
-          <t>100m</t>
+          <t>200m</t>
         </is>
       </c>
       <c r="M156" s="7" t="inlineStr">
         <is>
-          <t>Hanna Holmeide</t>
+          <t>Sienna Fosstenløkken Dankworth</t>
         </is>
       </c>
       <c r="N156" s="7" t="n">
-        <v>2004</v>
+        <v>2008</v>
       </c>
       <c r="O156" s="15" t="n">
-        <v>13.61</v>
+        <v>27.38</v>
       </c>
       <c r="P156" s="7" t="n">
-        <v>570</v>
+        <v>622</v>
       </c>
       <c r="Q156" s="7" t="inlineStr">
         <is>
@@ -11901,7 +11893,7 @@
         </is>
       </c>
       <c r="R156" s="16" t="n">
-        <v>12.06</v>
+        <v>10.06</v>
       </c>
       <c r="T156" s="5" t="n"/>
     </row>
@@ -11941,25 +11933,25 @@
       </c>
       <c r="M157" s="7" t="inlineStr">
         <is>
-          <t>Hanna Holmeide</t>
+          <t>Sienna Fosstenløkken Dankworth</t>
         </is>
       </c>
       <c r="N157" s="7" t="n">
-        <v>2004</v>
+        <v>2008</v>
       </c>
       <c r="O157" s="15" t="n">
-        <v>8.640000000000001</v>
+        <v>8.58</v>
       </c>
       <c r="P157" s="7" t="n">
-        <v>558</v>
+        <v>573</v>
       </c>
       <c r="Q157" s="7" t="inlineStr">
         <is>
-          <t>Stange</t>
+          <t>Asker</t>
         </is>
       </c>
       <c r="R157" s="16" t="n">
-        <v>12.03</v>
+        <v>5.06</v>
       </c>
       <c r="T157" s="5" t="n"/>
     </row>
@@ -11972,33 +11964,13 @@
       <c r="G158" s="7" t="n"/>
       <c r="H158" s="18" t="n"/>
       <c r="J158" s="5" t="n"/>
-      <c r="L158" s="14" t="inlineStr">
-        <is>
-          <t>Lengde</t>
-        </is>
-      </c>
-      <c r="M158" s="7" t="inlineStr">
-        <is>
-          <t>Alana Grace Rognli</t>
-        </is>
-      </c>
-      <c r="N158" s="7" t="n">
-        <v>2007</v>
-      </c>
-      <c r="O158" s="15" t="n">
-        <v>3.32</v>
-      </c>
-      <c r="P158" s="7" t="n">
-        <v>198</v>
-      </c>
-      <c r="Q158" s="7" t="inlineStr">
-        <is>
-          <t>Bærum</t>
-        </is>
-      </c>
-      <c r="R158" s="16" t="n">
-        <v>12.02</v>
-      </c>
+      <c r="L158" s="14" t="n"/>
+      <c r="M158" s="7" t="n"/>
+      <c r="N158" s="7" t="n"/>
+      <c r="O158" s="7" t="n"/>
+      <c r="P158" s="7" t="n"/>
+      <c r="Q158" s="7" t="n"/>
+      <c r="R158" s="18" t="n"/>
       <c r="T158" s="5" t="n"/>
     </row>
     <row r="159" ht="13" customHeight="1">
@@ -12010,33 +11982,13 @@
       <c r="G159" s="7" t="n"/>
       <c r="H159" s="18" t="n"/>
       <c r="J159" s="5" t="n"/>
-      <c r="L159" s="14" t="inlineStr">
-        <is>
-          <t>Lengde</t>
-        </is>
-      </c>
-      <c r="M159" s="7" t="inlineStr">
-        <is>
-          <t>Sonya Amir Abdulla Doski</t>
-        </is>
-      </c>
-      <c r="N159" s="7" t="n">
-        <v>2008</v>
-      </c>
-      <c r="O159" s="15" t="n">
-        <v>3.29</v>
-      </c>
-      <c r="P159" s="7" t="n">
-        <v>188</v>
-      </c>
-      <c r="Q159" s="7" t="inlineStr">
-        <is>
-          <t>Stange</t>
-        </is>
-      </c>
-      <c r="R159" s="16" t="n">
-        <v>13.03</v>
-      </c>
+      <c r="L159" s="14" t="n"/>
+      <c r="M159" s="7" t="n"/>
+      <c r="N159" s="7" t="n"/>
+      <c r="O159" s="7" t="n"/>
+      <c r="P159" s="7" t="n"/>
+      <c r="Q159" s="7" t="n"/>
+      <c r="R159" s="18" t="n"/>
       <c r="T159" s="5" t="n"/>
     </row>
     <row r="160" ht="13" customHeight="1">
@@ -12048,33 +12000,13 @@
       <c r="G160" s="7" t="n"/>
       <c r="H160" s="18" t="n"/>
       <c r="J160" s="5" t="n"/>
-      <c r="L160" s="14" t="inlineStr">
-        <is>
-          <t>Høyde</t>
-        </is>
-      </c>
-      <c r="M160" s="7" t="inlineStr">
-        <is>
-          <t>Olivia Marie Juras Rønning</t>
-        </is>
-      </c>
-      <c r="N160" s="7" t="n">
-        <v>2011</v>
-      </c>
-      <c r="O160" s="15" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="P160" s="7" t="n">
-        <v>101</v>
-      </c>
-      <c r="Q160" s="7" t="inlineStr">
-        <is>
-          <t>Nadderud</t>
-        </is>
-      </c>
-      <c r="R160" s="16" t="n">
-        <v>11.06</v>
-      </c>
+      <c r="L160" s="14" t="n"/>
+      <c r="M160" s="7" t="n"/>
+      <c r="N160" s="7" t="n"/>
+      <c r="O160" s="7" t="n"/>
+      <c r="P160" s="7" t="n"/>
+      <c r="Q160" s="7" t="n"/>
+      <c r="R160" s="18" t="n"/>
       <c r="T160" s="5" t="n"/>
     </row>
     <row r="161" ht="13" customHeight="1">
@@ -12119,7 +12051,7 @@
         </is>
       </c>
       <c r="M162" s="21" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="O162" s="20" t="inlineStr">
         <is>
@@ -12127,7 +12059,7 @@
         </is>
       </c>
       <c r="P162" s="21" t="n">
-        <v>3442</v>
+        <v>3159</v>
       </c>
       <c r="T162" s="5" t="n"/>
     </row>
@@ -12159,7 +12091,7 @@
         </is>
       </c>
       <c r="M164" s="21" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="O164" s="20" t="inlineStr">
         <is>
@@ -12167,7 +12099,7 @@
         </is>
       </c>
       <c r="P164" s="21" t="n">
-        <v>6197</v>
+        <v>6818</v>
       </c>
       <c r="T164" s="5" t="n"/>
     </row>
@@ -12191,7 +12123,7 @@
         </is>
       </c>
       <c r="M166" s="21" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="T166" s="5" t="n"/>
     </row>
@@ -12248,7 +12180,7 @@
       </c>
       <c r="C171" s="7" t="inlineStr">
         <is>
-          <t>Sportsklubben Vidar 3. lag</t>
+          <t>Bækkelagets SK 2. lag</t>
         </is>
       </c>
       <c r="J171" s="5" t="n"/>
@@ -12324,25 +12256,25 @@
       </c>
       <c r="C177" s="7" t="inlineStr">
         <is>
-          <t>Lotte Koubova Tangen</t>
+          <t>Linn Rynning Borander</t>
         </is>
       </c>
       <c r="D177" s="7" t="n">
-        <v>2009</v>
+        <v>2005</v>
       </c>
       <c r="E177" s="15" t="n">
-        <v>8.210000000000001</v>
+        <v>8.279999999999999</v>
       </c>
       <c r="F177" s="7" t="n">
-        <v>672</v>
+        <v>652</v>
       </c>
       <c r="G177" s="7" t="inlineStr">
         <is>
-          <t>Lillehammer</t>
+          <t>Bækkelaget</t>
         </is>
       </c>
       <c r="H177" s="16" t="n">
-        <v>18.06</v>
+        <v>7.05</v>
       </c>
       <c r="J177" s="5" t="n"/>
     </row>
@@ -12354,25 +12286,25 @@
       </c>
       <c r="C178" s="7" t="inlineStr">
         <is>
-          <t>Lotte Koubova Tangen</t>
+          <t>Amalie Lerøen Kallevik</t>
         </is>
       </c>
       <c r="D178" s="7" t="n">
-        <v>2009</v>
+        <v>2004</v>
       </c>
       <c r="E178" s="15" t="n">
-        <v>12.97</v>
+        <v>13.01</v>
       </c>
       <c r="F178" s="7" t="n">
-        <v>676</v>
+        <v>669</v>
       </c>
       <c r="G178" s="7" t="inlineStr">
         <is>
-          <t>Lillehammer</t>
+          <t>Nadderud</t>
         </is>
       </c>
       <c r="H178" s="16" t="n">
-        <v>19.06</v>
+        <v>12.06</v>
       </c>
       <c r="J178" s="5" t="n"/>
     </row>
@@ -12384,37 +12316,37 @@
       </c>
       <c r="C179" s="7" t="inlineStr">
         <is>
-          <t>Lotte Koubova Tangen</t>
+          <t>Mari Helene Brandstadmoen</t>
         </is>
       </c>
       <c r="D179" s="7" t="n">
         <v>2009</v>
       </c>
       <c r="E179" s="15" t="n">
-        <v>27.34</v>
+        <v>30.27</v>
       </c>
       <c r="F179" s="7" t="n">
-        <v>625</v>
+        <v>435</v>
       </c>
       <c r="G179" s="7" t="inlineStr">
         <is>
-          <t>Nadderud</t>
+          <t>Stange</t>
         </is>
       </c>
       <c r="H179" s="16" t="n">
-        <v>12.06</v>
+        <v>13.03</v>
       </c>
       <c r="J179" s="5" t="n"/>
     </row>
     <row r="180" ht="13" customHeight="1">
       <c r="B180" s="14" t="inlineStr">
         <is>
-          <t>1500m</t>
+          <t>400m</t>
         </is>
       </c>
       <c r="C180" s="7" t="inlineStr">
         <is>
-          <t>Caroline Marie Wiig</t>
+          <t>Eiril Bukkemoen Rødsrud</t>
         </is>
       </c>
       <c r="D180" s="7" t="n">
@@ -12422,43 +12354,41 @@
       </c>
       <c r="E180" s="17" t="inlineStr">
         <is>
-          <t>5,36,52</t>
+          <t>1,09,36</t>
         </is>
       </c>
       <c r="F180" s="7" t="n">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="G180" s="7" t="inlineStr">
         <is>
-          <t>Nadderud</t>
+          <t>Bækkelaget</t>
         </is>
       </c>
       <c r="H180" s="16" t="n">
-        <v>12.06</v>
+        <v>7.05</v>
       </c>
       <c r="J180" s="5" t="n"/>
     </row>
     <row r="181" ht="13" customHeight="1">
       <c r="B181" s="14" t="inlineStr">
         <is>
-          <t>5000m</t>
+          <t>Høyde</t>
         </is>
       </c>
       <c r="C181" s="7" t="inlineStr">
         <is>
-          <t>Synne Våge Opheim</t>
+          <t>Ane Pauline Gram Amundsen</t>
         </is>
       </c>
       <c r="D181" s="7" t="n">
-        <v>1994</v>
-      </c>
-      <c r="E181" s="17" t="inlineStr">
-        <is>
-          <t>18,00,29mx</t>
-        </is>
+        <v>2011</v>
+      </c>
+      <c r="E181" s="15" t="n">
+        <v>1.1</v>
       </c>
       <c r="F181" s="7" t="n">
-        <v>689</v>
+        <v>173</v>
       </c>
       <c r="G181" s="7" t="inlineStr">
         <is>
@@ -12466,28 +12396,68 @@
         </is>
       </c>
       <c r="H181" s="16" t="n">
-        <v>7.04</v>
+        <v>29.05</v>
       </c>
       <c r="J181" s="5" t="n"/>
     </row>
     <row r="182" ht="13" customHeight="1">
-      <c r="B182" s="14" t="n"/>
-      <c r="C182" s="7" t="n"/>
-      <c r="D182" s="7" t="n"/>
-      <c r="E182" s="7" t="n"/>
-      <c r="F182" s="7" t="n"/>
-      <c r="G182" s="7" t="n"/>
-      <c r="H182" s="18" t="n"/>
+      <c r="B182" s="14" t="inlineStr">
+        <is>
+          <t>Lengde</t>
+        </is>
+      </c>
+      <c r="C182" s="7" t="inlineStr">
+        <is>
+          <t>Eiril Bukkemoen Rødsrud</t>
+        </is>
+      </c>
+      <c r="D182" s="7" t="n">
+        <v>2008</v>
+      </c>
+      <c r="E182" s="15" t="n">
+        <v>3.47</v>
+      </c>
+      <c r="F182" s="7" t="n">
+        <v>243</v>
+      </c>
+      <c r="G182" s="7" t="inlineStr">
+        <is>
+          <t>Stange</t>
+        </is>
+      </c>
+      <c r="H182" s="16" t="n">
+        <v>13.03</v>
+      </c>
       <c r="J182" s="5" t="n"/>
     </row>
     <row r="183" ht="13" customHeight="1">
-      <c r="B183" s="14" t="n"/>
-      <c r="C183" s="7" t="n"/>
-      <c r="D183" s="7" t="n"/>
-      <c r="E183" s="7" t="n"/>
-      <c r="F183" s="7" t="n"/>
-      <c r="G183" s="7" t="n"/>
-      <c r="H183" s="18" t="n"/>
+      <c r="B183" s="14" t="inlineStr">
+        <is>
+          <t>Lengde u.t</t>
+        </is>
+      </c>
+      <c r="C183" s="7" t="inlineStr">
+        <is>
+          <t>Anne Grete Taugbøl</t>
+        </is>
+      </c>
+      <c r="D183" s="7" t="n">
+        <v>1953</v>
+      </c>
+      <c r="E183" s="15" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="F183" s="7" t="n">
+        <v>144</v>
+      </c>
+      <c r="G183" s="7" t="inlineStr">
+        <is>
+          <t>Oslo/Ek</t>
+        </is>
+      </c>
+      <c r="H183" s="16" t="n">
+        <v>5.04</v>
+      </c>
       <c r="J183" s="5" t="n"/>
     </row>
     <row r="184" ht="13" customHeight="1">
@@ -12557,7 +12527,7 @@
         </is>
       </c>
       <c r="C190" s="21" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E190" s="20" t="inlineStr">
         <is>
@@ -12565,7 +12535,7 @@
         </is>
       </c>
       <c r="F190" s="21" t="n">
-        <v>3103</v>
+        <v>2755</v>
       </c>
       <c r="J190" s="5" t="n"/>
     </row>
@@ -12624,189 +12594,241 @@
     <row r="195" ht="13" customHeight="1">
       <c r="B195" s="14" t="inlineStr">
         <is>
-          <t>5000m</t>
+          <t>60m</t>
         </is>
       </c>
       <c r="C195" s="7" t="inlineStr">
         <is>
-          <t>Line Askheim</t>
+          <t>Amalie Lerøen Kallevik</t>
         </is>
       </c>
       <c r="D195" s="7" t="n">
-        <v>1988</v>
-      </c>
-      <c r="E195" s="17" t="inlineStr">
-        <is>
-          <t>18,11,78</t>
-        </is>
+        <v>2004</v>
+      </c>
+      <c r="E195" s="15" t="n">
+        <v>8.369999999999999</v>
       </c>
       <c r="F195" s="7" t="n">
-        <v>673</v>
+        <v>627</v>
       </c>
       <c r="G195" s="7" t="inlineStr">
         <is>
-          <t>Oslo/Bi</t>
+          <t>Stange</t>
         </is>
       </c>
       <c r="H195" s="16" t="n">
-        <v>2.06</v>
+        <v>12.03</v>
       </c>
       <c r="J195" s="5" t="n"/>
     </row>
     <row r="196" ht="13" customHeight="1">
       <c r="B196" s="14" t="inlineStr">
         <is>
-          <t>5000m</t>
+          <t>100m</t>
         </is>
       </c>
       <c r="C196" s="7" t="inlineStr">
         <is>
-          <t>Sofie Kjos Bergum</t>
+          <t>Linn Rynning Borander</t>
         </is>
       </c>
       <c r="D196" s="7" t="n">
-        <v>1990</v>
-      </c>
-      <c r="E196" s="17" t="inlineStr">
-        <is>
-          <t>18,25,10</t>
-        </is>
+        <v>2005</v>
+      </c>
+      <c r="E196" s="15" t="n">
+        <v>13.32</v>
       </c>
       <c r="F196" s="7" t="n">
-        <v>654</v>
+        <v>617</v>
       </c>
       <c r="G196" s="7" t="inlineStr">
         <is>
-          <t>Stjørdal</t>
+          <t>Gøteborg/SWE</t>
         </is>
       </c>
       <c r="H196" s="16" t="n">
-        <v>24.06</v>
+        <v>18.06</v>
       </c>
       <c r="J196" s="5" t="n"/>
     </row>
     <row r="197" ht="13" customHeight="1">
       <c r="B197" s="14" t="inlineStr">
         <is>
-          <t>5000m</t>
+          <t>60m</t>
         </is>
       </c>
       <c r="C197" s="7" t="inlineStr">
         <is>
-          <t>June Kieu-Van Thi Bui</t>
+          <t>Vilma Andersen Rooth</t>
         </is>
       </c>
       <c r="D197" s="7" t="n">
-        <v>1992</v>
-      </c>
-      <c r="E197" s="17" t="inlineStr">
-        <is>
-          <t>18,37,80</t>
-        </is>
+        <v>2009</v>
+      </c>
+      <c r="E197" s="15" t="n">
+        <v>8.539999999999999</v>
       </c>
       <c r="F197" s="7" t="n">
-        <v>637</v>
+        <v>583</v>
       </c>
       <c r="G197" s="7" t="inlineStr">
         <is>
-          <t>Oslo/Bi</t>
+          <t>Stange</t>
         </is>
       </c>
       <c r="H197" s="16" t="n">
-        <v>2.06</v>
+        <v>12.03</v>
       </c>
       <c r="J197" s="5" t="n"/>
     </row>
     <row r="198" ht="13" customHeight="1">
       <c r="B198" s="14" t="inlineStr">
         <is>
-          <t>5000m</t>
+          <t>100m</t>
         </is>
       </c>
       <c r="C198" s="7" t="inlineStr">
         <is>
-          <t>Marie Haga</t>
+          <t>Hanna Holmeide</t>
         </is>
       </c>
       <c r="D198" s="7" t="n">
-        <v>1998</v>
-      </c>
-      <c r="E198" s="17" t="inlineStr">
-        <is>
-          <t>19,48,84mx</t>
-        </is>
+        <v>2004</v>
+      </c>
+      <c r="E198" s="15" t="n">
+        <v>13.61</v>
       </c>
       <c r="F198" s="7" t="n">
-        <v>545</v>
+        <v>570</v>
       </c>
       <c r="G198" s="7" t="inlineStr">
         <is>
-          <t>Oslo/Bi</t>
+          <t>Nadderud</t>
         </is>
       </c>
       <c r="H198" s="16" t="n">
-        <v>7.04</v>
+        <v>12.06</v>
       </c>
       <c r="J198" s="5" t="n"/>
     </row>
     <row r="199" ht="13" customHeight="1">
       <c r="B199" s="14" t="inlineStr">
         <is>
-          <t>200m</t>
+          <t>60m</t>
         </is>
       </c>
       <c r="C199" s="7" t="inlineStr">
         <is>
-          <t>Anne Leivestad</t>
+          <t>Hanna Holmeide</t>
         </is>
       </c>
       <c r="D199" s="7" t="n">
-        <v>2006</v>
+        <v>2004</v>
       </c>
       <c r="E199" s="15" t="n">
-        <v>28.56</v>
+        <v>8.640000000000001</v>
       </c>
       <c r="F199" s="7" t="n">
-        <v>541</v>
+        <v>558</v>
       </c>
       <c r="G199" s="7" t="inlineStr">
         <is>
+          <t>Stange</t>
+        </is>
+      </c>
+      <c r="H199" s="16" t="n">
+        <v>12.03</v>
+      </c>
+      <c r="J199" s="5" t="n"/>
+    </row>
+    <row r="200" ht="13" customHeight="1">
+      <c r="B200" s="14" t="inlineStr">
+        <is>
+          <t>Lengde</t>
+        </is>
+      </c>
+      <c r="C200" s="7" t="inlineStr">
+        <is>
+          <t>Alana Grace Rognli</t>
+        </is>
+      </c>
+      <c r="D200" s="7" t="n">
+        <v>2007</v>
+      </c>
+      <c r="E200" s="15" t="n">
+        <v>3.32</v>
+      </c>
+      <c r="F200" s="7" t="n">
+        <v>198</v>
+      </c>
+      <c r="G200" s="7" t="inlineStr">
+        <is>
+          <t>Bærum</t>
+        </is>
+      </c>
+      <c r="H200" s="16" t="n">
+        <v>12.02</v>
+      </c>
+      <c r="J200" s="5" t="n"/>
+    </row>
+    <row r="201" ht="13" customHeight="1">
+      <c r="B201" s="14" t="inlineStr">
+        <is>
+          <t>Lengde</t>
+        </is>
+      </c>
+      <c r="C201" s="7" t="inlineStr">
+        <is>
+          <t>Sonya Amir Abdulla Doski</t>
+        </is>
+      </c>
+      <c r="D201" s="7" t="n">
+        <v>2008</v>
+      </c>
+      <c r="E201" s="15" t="n">
+        <v>3.29</v>
+      </c>
+      <c r="F201" s="7" t="n">
+        <v>188</v>
+      </c>
+      <c r="G201" s="7" t="inlineStr">
+        <is>
+          <t>Stange</t>
+        </is>
+      </c>
+      <c r="H201" s="16" t="n">
+        <v>13.03</v>
+      </c>
+      <c r="J201" s="5" t="n"/>
+    </row>
+    <row r="202" ht="13" customHeight="1">
+      <c r="B202" s="14" t="inlineStr">
+        <is>
+          <t>Høyde</t>
+        </is>
+      </c>
+      <c r="C202" s="7" t="inlineStr">
+        <is>
+          <t>Olivia Marie Juras Rønning</t>
+        </is>
+      </c>
+      <c r="D202" s="7" t="n">
+        <v>2011</v>
+      </c>
+      <c r="E202" s="15" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="F202" s="7" t="n">
+        <v>101</v>
+      </c>
+      <c r="G202" s="7" t="inlineStr">
+        <is>
           <t>Nadderud</t>
         </is>
       </c>
-      <c r="H199" s="16" t="n">
+      <c r="H202" s="16" t="n">
         <v>11.06</v>
       </c>
-      <c r="J199" s="5" t="n"/>
-    </row>
-    <row r="200" ht="13" customHeight="1">
-      <c r="B200" s="14" t="n"/>
-      <c r="C200" s="7" t="n"/>
-      <c r="D200" s="7" t="n"/>
-      <c r="E200" s="7" t="n"/>
-      <c r="F200" s="7" t="n"/>
-      <c r="G200" s="7" t="n"/>
-      <c r="H200" s="18" t="n"/>
-      <c r="J200" s="5" t="n"/>
-    </row>
-    <row r="201" ht="13" customHeight="1">
-      <c r="B201" s="14" t="n"/>
-      <c r="C201" s="7" t="n"/>
-      <c r="D201" s="7" t="n"/>
-      <c r="E201" s="7" t="n"/>
-      <c r="F201" s="7" t="n"/>
-      <c r="G201" s="7" t="n"/>
-      <c r="H201" s="18" t="n"/>
-      <c r="J201" s="5" t="n"/>
-    </row>
-    <row r="202" ht="13" customHeight="1">
-      <c r="B202" s="14" t="n"/>
-      <c r="C202" s="7" t="n"/>
-      <c r="D202" s="7" t="n"/>
-      <c r="E202" s="7" t="n"/>
-      <c r="F202" s="7" t="n"/>
-      <c r="G202" s="7" t="n"/>
-      <c r="H202" s="18" t="n"/>
       <c r="J202" s="5" t="n"/>
     </row>
     <row r="203" ht="13" customHeight="1">
@@ -12826,7 +12848,7 @@
         </is>
       </c>
       <c r="C204" s="21" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E204" s="20" t="inlineStr">
         <is>
@@ -12834,7 +12856,7 @@
         </is>
       </c>
       <c r="F204" s="21" t="n">
-        <v>3050</v>
+        <v>3442</v>
       </c>
       <c r="J204" s="5" t="n"/>
     </row>
@@ -12848,7 +12870,7 @@
         </is>
       </c>
       <c r="C206" s="21" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E206" s="20" t="inlineStr">
         <is>
@@ -12856,7 +12878,7 @@
         </is>
       </c>
       <c r="F206" s="21" t="n">
-        <v>6153</v>
+        <v>6197</v>
       </c>
       <c r="J206" s="5" t="n"/>
     </row>
@@ -12870,7 +12892,7 @@
         </is>
       </c>
       <c r="C208" s="21" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="J208" s="5" t="n"/>
     </row>
@@ -13233,7 +13255,7 @@
         </is>
       </c>
       <c r="R10" s="16" t="n">
-        <v>14.05</v>
+        <v>31.07</v>
       </c>
       <c r="T10" s="5" t="n"/>
     </row>
@@ -14981,7 +15003,7 @@
       </c>
       <c r="M55" s="7" t="inlineStr">
         <is>
-          <t>Lillian Hatløy</t>
+          <t>Therese Bjorland</t>
         </is>
       </c>
       <c r="N55" s="7" t="n">
@@ -14989,19 +15011,19 @@
       </c>
       <c r="O55" s="17" t="inlineStr">
         <is>
-          <t>2,32,37</t>
+          <t>2,32,17</t>
         </is>
       </c>
       <c r="P55" s="7" t="n">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="Q55" s="7" t="inlineStr">
         <is>
-          <t>Nadderud</t>
+          <t>Sandnes</t>
         </is>
       </c>
       <c r="R55" s="16" t="n">
-        <v>11.06</v>
+        <v>31.07</v>
       </c>
       <c r="T55" s="5" t="n"/>
     </row>
@@ -15367,7 +15389,7 @@
         </is>
       </c>
       <c r="P64" s="21" t="n">
-        <v>4383</v>
+        <v>4384</v>
       </c>
       <c r="T64" s="5" t="n"/>
     </row>
@@ -15619,7 +15641,7 @@
       </c>
       <c r="M71" s="7" t="inlineStr">
         <is>
-          <t>Therese Bjorland</t>
+          <t>Lillian Hatløy</t>
         </is>
       </c>
       <c r="N71" s="7" t="n">
@@ -15627,11 +15649,11 @@
       </c>
       <c r="O71" s="17" t="inlineStr">
         <is>
-          <t>2,32,99</t>
+          <t>2,32,37</t>
         </is>
       </c>
       <c r="P71" s="7" t="n">
-        <v>529</v>
+        <v>535</v>
       </c>
       <c r="Q71" s="7" t="inlineStr">
         <is>
@@ -15794,30 +15816,30 @@
       <c r="J74" s="5" t="n"/>
       <c r="L74" s="14" t="inlineStr">
         <is>
-          <t>Lengde</t>
+          <t>Høyde</t>
         </is>
       </c>
       <c r="M74" s="7" t="inlineStr">
         <is>
-          <t>Ylva Frøytlog Nordahl</t>
+          <t>Amalia Rueda Svendsen</t>
         </is>
       </c>
       <c r="N74" s="7" t="n">
-        <v>2007</v>
+        <v>2011</v>
       </c>
       <c r="O74" s="15" t="n">
-        <v>3.77</v>
+        <v>1.22</v>
       </c>
       <c r="P74" s="7" t="n">
         <v>327</v>
       </c>
       <c r="Q74" s="7" t="inlineStr">
         <is>
-          <t>Gøteborg/SWE</t>
+          <t>Sandnes</t>
         </is>
       </c>
       <c r="R74" s="16" t="n">
-        <v>17.06</v>
+        <v>15.02</v>
       </c>
       <c r="T74" s="5" t="n"/>
     </row>
@@ -15852,30 +15874,30 @@
       <c r="J75" s="5" t="n"/>
       <c r="L75" s="14" t="inlineStr">
         <is>
-          <t>Høyde</t>
+          <t>Lengde</t>
         </is>
       </c>
       <c r="M75" s="7" t="inlineStr">
         <is>
-          <t>Amalia Rueda Svendsen</t>
+          <t>Ylva Frøytlog Nordahl</t>
         </is>
       </c>
       <c r="N75" s="7" t="n">
-        <v>2011</v>
+        <v>2007</v>
       </c>
       <c r="O75" s="15" t="n">
-        <v>1.22</v>
+        <v>3.77</v>
       </c>
       <c r="P75" s="7" t="n">
         <v>327</v>
       </c>
       <c r="Q75" s="7" t="inlineStr">
         <is>
-          <t>Sandnes</t>
+          <t>Gøteborg/SWE</t>
         </is>
       </c>
       <c r="R75" s="16" t="n">
-        <v>15.02</v>
+        <v>17.06</v>
       </c>
       <c r="T75" s="5" t="n"/>
     </row>
@@ -15987,7 +16009,7 @@
         </is>
       </c>
       <c r="P78" s="21" t="n">
-        <v>3547</v>
+        <v>3553</v>
       </c>
       <c r="T78" s="5" t="n"/>
     </row>
@@ -16027,7 +16049,7 @@
         </is>
       </c>
       <c r="P80" s="21" t="n">
-        <v>7930</v>
+        <v>7937</v>
       </c>
       <c r="T80" s="5" t="n"/>
     </row>
@@ -17463,7 +17485,7 @@
         </is>
       </c>
       <c r="P128" s="8" t="n">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="T128" s="5" t="n"/>
     </row>
@@ -18825,7 +18847,7 @@
         </is>
       </c>
       <c r="F170" s="8" t="n">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="J170" s="5" t="n"/>
       <c r="L170" s="6" t="inlineStr">
@@ -19175,11 +19197,11 @@
       </c>
       <c r="E180" s="17" t="inlineStr">
         <is>
-          <t>2,39,10</t>
+          <t>2,38,14</t>
         </is>
       </c>
       <c r="F180" s="7" t="n">
-        <v>472</v>
+        <v>481</v>
       </c>
       <c r="G180" s="7" t="inlineStr">
         <is>
@@ -19187,7 +19209,7 @@
         </is>
       </c>
       <c r="H180" s="16" t="n">
-        <v>3.05</v>
+        <v>31.07</v>
       </c>
       <c r="J180" s="5" t="n"/>
       <c r="L180" s="14" t="inlineStr">
@@ -19502,7 +19524,7 @@
         </is>
       </c>
       <c r="F190" s="21" t="n">
-        <v>2861</v>
+        <v>2870</v>
       </c>
       <c r="J190" s="5" t="n"/>
       <c r="L190" s="20" t="inlineStr">
@@ -20086,7 +20108,7 @@
         </is>
       </c>
       <c r="F206" s="21" t="n">
-        <v>5266</v>
+        <v>5275</v>
       </c>
       <c r="J206" s="5" t="n"/>
       <c r="L206" s="20" t="inlineStr">
@@ -22501,7 +22523,7 @@
         </is>
       </c>
       <c r="F44" s="8" t="n">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J44" s="5" t="n"/>
       <c r="L44" s="6" t="inlineStr">
@@ -25286,7 +25308,7 @@
         </is>
       </c>
       <c r="P44" s="8" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="T44" s="5" t="n"/>
     </row>
@@ -26868,7 +26890,7 @@
         </is>
       </c>
       <c r="P86" s="8" t="n">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="T86" s="5" t="n"/>
     </row>
@@ -32194,7 +32216,7 @@
         </is>
       </c>
       <c r="F86" s="8" t="n">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J86" s="5" t="n"/>
       <c r="L86" s="6" t="inlineStr">
@@ -32208,7 +32230,7 @@
         </is>
       </c>
       <c r="P86" s="8" t="n">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T86" s="5" t="n"/>
     </row>
@@ -33545,7 +33567,7 @@
         </is>
       </c>
       <c r="F128" s="8" t="n">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="J128" s="5" t="n"/>
     </row>
@@ -37354,7 +37376,7 @@
         </is>
       </c>
       <c r="F86" s="8" t="n">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="J86" s="5" t="n"/>
       <c r="L86" s="6" t="inlineStr">
@@ -37368,7 +37390,7 @@
         </is>
       </c>
       <c r="P86" s="8" t="n">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="T86" s="5" t="n"/>
     </row>
@@ -40267,7 +40289,7 @@
         </is>
       </c>
       <c r="F44" s="8" t="n">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="J44" s="5" t="n"/>
       <c r="L44" s="6" t="inlineStr">
@@ -40281,7 +40303,7 @@
         </is>
       </c>
       <c r="P44" s="8" t="n">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="T44" s="5" t="n"/>
     </row>
@@ -41730,7 +41752,7 @@
         </is>
       </c>
       <c r="P2" s="8" t="n">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="T2" s="5" t="n"/>
     </row>
@@ -46998,7 +47020,7 @@
         </is>
       </c>
       <c r="F86" s="8" t="n">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="J86" s="5" t="n"/>
       <c r="L86" s="6" t="inlineStr">
@@ -47012,7 +47034,7 @@
         </is>
       </c>
       <c r="P86" s="8" t="n">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="T86" s="5" t="n"/>
     </row>
@@ -48469,7 +48491,7 @@
         </is>
       </c>
       <c r="F128" s="8" t="n">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="J128" s="5" t="n"/>
     </row>
@@ -54022,11 +54044,11 @@
       </c>
       <c r="Q135" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Lillestrøm</t>
         </is>
       </c>
       <c r="R135" s="16" t="n">
-        <v>13.02</v>
+        <v>21.05</v>
       </c>
       <c r="T135" s="5" t="n"/>
     </row>
@@ -55292,7 +55314,7 @@
         </is>
       </c>
       <c r="F170" s="8" t="n">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J170" s="5" t="n"/>
       <c r="L170" s="6" t="inlineStr">
@@ -55306,7 +55328,7 @@
         </is>
       </c>
       <c r="P170" s="8" t="n">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="T170" s="5" t="n"/>
     </row>
@@ -57422,7 +57444,7 @@
         </is>
       </c>
       <c r="P2" s="8" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="T2" s="5" t="n"/>
     </row>
@@ -57700,7 +57722,7 @@
         <v>8.9</v>
       </c>
       <c r="F11" s="7" t="n">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="G11" s="7" t="inlineStr">
         <is>
@@ -58239,7 +58261,7 @@
         </is>
       </c>
       <c r="F22" s="21" t="n">
-        <v>7104</v>
+        <v>7103</v>
       </c>
       <c r="J22" s="5" t="n"/>
       <c r="L22" s="20" t="inlineStr">
@@ -58873,7 +58895,7 @@
         </is>
       </c>
       <c r="F38" s="21" t="n">
-        <v>10354</v>
+        <v>10353</v>
       </c>
       <c r="J38" s="5" t="n"/>
       <c r="L38" s="20" t="inlineStr">
@@ -58959,7 +58981,7 @@
         </is>
       </c>
       <c r="F44" s="8" t="n">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="J44" s="5" t="n"/>
     </row>
@@ -59987,18 +60009,18 @@
         <v>2002</v>
       </c>
       <c r="E10" s="15" t="n">
-        <v>12.46</v>
+        <v>12.38</v>
       </c>
       <c r="F10" s="7" t="n">
-        <v>767</v>
+        <v>781</v>
       </c>
       <c r="G10" s="7" t="inlineStr">
         <is>
-          <t>Fana</t>
+          <t>Arna</t>
         </is>
       </c>
       <c r="H10" s="16" t="n">
-        <v>5.05</v>
+        <v>1.08</v>
       </c>
       <c r="J10" s="5" t="n"/>
       <c r="L10" s="14" t="inlineStr">
@@ -60601,7 +60623,7 @@
         </is>
       </c>
       <c r="F22" s="21" t="n">
-        <v>7304</v>
+        <v>7318</v>
       </c>
       <c r="J22" s="5" t="n"/>
       <c r="L22" s="20" t="inlineStr">
@@ -60721,7 +60743,7 @@
     <row r="27" ht="13" customHeight="1">
       <c r="B27" s="14" t="inlineStr">
         <is>
-          <t>100m</t>
+          <t>60m</t>
         </is>
       </c>
       <c r="C27" s="7" t="inlineStr">
@@ -60733,18 +60755,18 @@
         <v>2006</v>
       </c>
       <c r="E27" s="15" t="n">
-        <v>12.64</v>
+        <v>8</v>
       </c>
       <c r="F27" s="7" t="n">
         <v>734</v>
       </c>
       <c r="G27" s="7" t="inlineStr">
         <is>
-          <t>Lillehammer</t>
+          <t>Steinkjer</t>
         </is>
       </c>
       <c r="H27" s="16" t="n">
-        <v>19.06</v>
+        <v>5.03</v>
       </c>
       <c r="J27" s="5" t="n"/>
       <c r="L27" s="14" t="inlineStr">
@@ -60781,7 +60803,7 @@
     <row r="28" ht="13" customHeight="1">
       <c r="B28" s="14" t="inlineStr">
         <is>
-          <t>60m</t>
+          <t>100m</t>
         </is>
       </c>
       <c r="C28" s="7" t="inlineStr">
@@ -60793,18 +60815,18 @@
         <v>2006</v>
       </c>
       <c r="E28" s="15" t="n">
-        <v>8</v>
+        <v>12.64</v>
       </c>
       <c r="F28" s="7" t="n">
         <v>734</v>
       </c>
       <c r="G28" s="7" t="inlineStr">
         <is>
-          <t>Steinkjer</t>
+          <t>Lillehammer</t>
         </is>
       </c>
       <c r="H28" s="16" t="n">
-        <v>5.03</v>
+        <v>19.06</v>
       </c>
       <c r="J28" s="5" t="n"/>
       <c r="L28" s="14" t="inlineStr">
@@ -61225,7 +61247,7 @@
         </is>
       </c>
       <c r="F38" s="21" t="n">
-        <v>12411</v>
+        <v>12425</v>
       </c>
       <c r="J38" s="5" t="n"/>
       <c r="L38" s="20" t="inlineStr">
@@ -61312,7 +61334,7 @@
         </is>
       </c>
       <c r="F44" s="8" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J44" s="5" t="n"/>
       <c r="L44" s="6" t="inlineStr">
@@ -61692,7 +61714,7 @@
         <v>8.93</v>
       </c>
       <c r="P54" s="7" t="n">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="Q54" s="7" t="inlineStr">
         <is>
@@ -62146,7 +62168,7 @@
         </is>
       </c>
       <c r="P64" s="21" t="n">
-        <v>6458</v>
+        <v>6457</v>
       </c>
       <c r="T64" s="5" t="n"/>
     </row>
@@ -62750,7 +62772,7 @@
         </is>
       </c>
       <c r="P80" s="21" t="n">
-        <v>9971</v>
+        <v>9970</v>
       </c>
       <c r="T80" s="5" t="n"/>
     </row>
@@ -62834,7 +62856,7 @@
         </is>
       </c>
       <c r="P86" s="8" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="T86" s="5" t="n"/>
     </row>
@@ -63924,11 +63946,11 @@
       </c>
       <c r="G114" s="7" t="inlineStr">
         <is>
-          <t>Steinkjer</t>
+          <t>Fana</t>
         </is>
       </c>
       <c r="H114" s="16" t="n">
-        <v>6.03</v>
+        <v>29.05</v>
       </c>
       <c r="J114" s="5" t="n"/>
       <c r="L114" s="14" t="inlineStr">
@@ -65758,7 +65780,7 @@
         </is>
       </c>
       <c r="F170" s="8" t="n">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="J170" s="5" t="n"/>
       <c r="L170" s="6" t="inlineStr">
@@ -65795,7 +65817,7 @@
       </c>
       <c r="M171" s="7" t="inlineStr">
         <is>
-          <t>Varegg IL 2. lag</t>
+          <t>Osterøy IL</t>
         </is>
       </c>
       <c r="T171" s="5" t="n"/>
@@ -65947,30 +65969,32 @@
       <c r="J177" s="5" t="n"/>
       <c r="L177" s="14" t="inlineStr">
         <is>
-          <t>60m</t>
+          <t>800m</t>
         </is>
       </c>
       <c r="M177" s="7" t="inlineStr">
         <is>
-          <t>Frida Askildsen Hovdevik</t>
+          <t>Mirjam Mjelde</t>
         </is>
       </c>
       <c r="N177" s="7" t="n">
-        <v>2009</v>
-      </c>
-      <c r="O177" s="15" t="n">
-        <v>9.51</v>
+        <v>1969</v>
+      </c>
+      <c r="O177" s="17" t="inlineStr">
+        <is>
+          <t>2,41,45mx</t>
+        </is>
       </c>
       <c r="P177" s="7" t="n">
-        <v>365</v>
+        <v>451</v>
       </c>
       <c r="Q177" s="7" t="inlineStr">
         <is>
-          <t>Leikvang</t>
+          <t>Osterøy</t>
         </is>
       </c>
       <c r="R177" s="16" t="n">
-        <v>29.01</v>
+        <v>14.07</v>
       </c>
       <c r="T177" s="5" t="n"/>
     </row>
@@ -66005,30 +66029,32 @@
       <c r="J178" s="5" t="n"/>
       <c r="L178" s="14" t="inlineStr">
         <is>
-          <t>100m</t>
+          <t>1500m</t>
         </is>
       </c>
       <c r="M178" s="7" t="inlineStr">
         <is>
-          <t>Alexandra Irgens</t>
+          <t>Mirjam Mjelde</t>
         </is>
       </c>
       <c r="N178" s="7" t="n">
-        <v>2006</v>
-      </c>
-      <c r="O178" s="15" t="n">
-        <v>13.29</v>
+        <v>1969</v>
+      </c>
+      <c r="O178" s="17" t="inlineStr">
+        <is>
+          <t>5,35,19+</t>
+        </is>
       </c>
       <c r="P178" s="7" t="n">
-        <v>622</v>
+        <v>446</v>
       </c>
       <c r="Q178" s="7" t="inlineStr">
         <is>
-          <t>Rosendal</t>
+          <t>Arna</t>
         </is>
       </c>
       <c r="R178" s="16" t="n">
-        <v>4.06</v>
+        <v>1.08</v>
       </c>
       <c r="T178" s="5" t="n"/>
     </row>
@@ -66063,30 +66089,32 @@
       <c r="J179" s="5" t="n"/>
       <c r="L179" s="14" t="inlineStr">
         <is>
-          <t>200m</t>
+          <t>3000m</t>
         </is>
       </c>
       <c r="M179" s="7" t="inlineStr">
         <is>
-          <t>Alexandra Irgens</t>
+          <t>Nora Bergan</t>
         </is>
       </c>
       <c r="N179" s="7" t="n">
-        <v>2006</v>
-      </c>
-      <c r="O179" s="15" t="n">
-        <v>27.28</v>
+        <v>2004</v>
+      </c>
+      <c r="O179" s="17" t="inlineStr">
+        <is>
+          <t>11,26,42mx</t>
+        </is>
       </c>
       <c r="P179" s="7" t="n">
-        <v>629</v>
+        <v>532</v>
       </c>
       <c r="Q179" s="7" t="inlineStr">
         <is>
-          <t>Gøteborg/SWE</t>
+          <t>Osterøy</t>
         </is>
       </c>
       <c r="R179" s="16" t="n">
-        <v>19.06</v>
+        <v>2.06</v>
       </c>
       <c r="T179" s="5" t="n"/>
     </row>
@@ -66121,32 +66149,30 @@
       <c r="J180" s="5" t="n"/>
       <c r="L180" s="14" t="inlineStr">
         <is>
-          <t>400m</t>
+          <t>Lengde u.t</t>
         </is>
       </c>
       <c r="M180" s="7" t="inlineStr">
         <is>
-          <t>Victoria Osen</t>
+          <t>Helga Reigstad</t>
         </is>
       </c>
       <c r="N180" s="7" t="n">
-        <v>2008</v>
-      </c>
-      <c r="O180" s="17" t="inlineStr">
-        <is>
-          <t>1,06,28</t>
-        </is>
+        <v>1972</v>
+      </c>
+      <c r="O180" s="15" t="n">
+        <v>2.01</v>
       </c>
       <c r="P180" s="7" t="n">
-        <v>507</v>
+        <v>255</v>
       </c>
       <c r="Q180" s="7" t="inlineStr">
         <is>
-          <t>Leikvang</t>
+          <t>Osterøy</t>
         </is>
       </c>
       <c r="R180" s="16" t="n">
-        <v>20.02</v>
+        <v>17.01</v>
       </c>
       <c r="T180" s="5" t="n"/>
     </row>
@@ -66181,32 +66207,30 @@
       <c r="J181" s="5" t="n"/>
       <c r="L181" s="14" t="inlineStr">
         <is>
-          <t>800m</t>
+          <t>Kule</t>
         </is>
       </c>
       <c r="M181" s="7" t="inlineStr">
         <is>
-          <t>Berit Vide Lindvall</t>
+          <t>Marianne Feidje Mjelde</t>
         </is>
       </c>
       <c r="N181" s="7" t="n">
-        <v>2007</v>
-      </c>
-      <c r="O181" s="17" t="inlineStr">
-        <is>
-          <t>2,28,47</t>
-        </is>
+        <v>2001</v>
+      </c>
+      <c r="O181" s="15" t="n">
+        <v>9.5</v>
       </c>
       <c r="P181" s="7" t="n">
-        <v>573</v>
+        <v>554</v>
       </c>
       <c r="Q181" s="7" t="inlineStr">
         <is>
-          <t>Gøteborg/SWE</t>
+          <t>Osterøy</t>
         </is>
       </c>
       <c r="R181" s="16" t="n">
-        <v>17.06</v>
+        <v>13.06</v>
       </c>
       <c r="T181" s="5" t="n"/>
     </row>
@@ -66241,32 +66265,30 @@
       <c r="J182" s="5" t="n"/>
       <c r="L182" s="14" t="inlineStr">
         <is>
-          <t>1500m</t>
+          <t>Diskos</t>
         </is>
       </c>
       <c r="M182" s="7" t="inlineStr">
         <is>
-          <t>Frida Askildsen Hovdevik</t>
+          <t>Marianne Feidje Mjelde</t>
         </is>
       </c>
       <c r="N182" s="7" t="n">
-        <v>2009</v>
-      </c>
-      <c r="O182" s="17" t="inlineStr">
-        <is>
-          <t>5,33,97</t>
-        </is>
+        <v>2001</v>
+      </c>
+      <c r="O182" s="15" t="n">
+        <v>31.46</v>
       </c>
       <c r="P182" s="7" t="n">
-        <v>451</v>
+        <v>604</v>
       </c>
       <c r="Q182" s="7" t="inlineStr">
         <is>
-          <t>Fana</t>
+          <t>Osterøy</t>
         </is>
       </c>
       <c r="R182" s="16" t="n">
-        <v>28.05</v>
+        <v>13.06</v>
       </c>
       <c r="T182" s="5" t="n"/>
     </row>
@@ -66279,35 +66301,13 @@
       <c r="G183" s="7" t="n"/>
       <c r="H183" s="18" t="n"/>
       <c r="J183" s="5" t="n"/>
-      <c r="L183" s="14" t="inlineStr">
-        <is>
-          <t>3000m</t>
-        </is>
-      </c>
-      <c r="M183" s="7" t="inlineStr">
-        <is>
-          <t>Julia Helene Rosenberg</t>
-        </is>
-      </c>
-      <c r="N183" s="7" t="n">
-        <v>2006</v>
-      </c>
-      <c r="O183" s="17" t="inlineStr">
-        <is>
-          <t>11,34,10</t>
-        </is>
-      </c>
-      <c r="P183" s="7" t="n">
-        <v>516</v>
-      </c>
-      <c r="Q183" s="7" t="inlineStr">
-        <is>
-          <t>Fana</t>
-        </is>
-      </c>
-      <c r="R183" s="16" t="n">
-        <v>15.05</v>
-      </c>
+      <c r="L183" s="14" t="n"/>
+      <c r="M183" s="7" t="n"/>
+      <c r="N183" s="7" t="n"/>
+      <c r="O183" s="7" t="n"/>
+      <c r="P183" s="7" t="n"/>
+      <c r="Q183" s="7" t="n"/>
+      <c r="R183" s="18" t="n"/>
       <c r="T183" s="5" t="n"/>
     </row>
     <row r="184" ht="13" customHeight="1">
@@ -66319,35 +66319,13 @@
       <c r="G184" s="7" t="n"/>
       <c r="H184" s="18" t="n"/>
       <c r="J184" s="5" t="n"/>
-      <c r="L184" s="14" t="inlineStr">
-        <is>
-          <t>5000m</t>
-        </is>
-      </c>
-      <c r="M184" s="7" t="inlineStr">
-        <is>
-          <t>Hannah Silgjerd</t>
-        </is>
-      </c>
-      <c r="N184" s="7" t="n">
-        <v>1999</v>
-      </c>
-      <c r="O184" s="17" t="inlineStr">
-        <is>
-          <t>18,50,63mx</t>
-        </is>
-      </c>
-      <c r="P184" s="7" t="n">
-        <v>619</v>
-      </c>
-      <c r="Q184" s="7" t="inlineStr">
-        <is>
-          <t>Arna</t>
-        </is>
-      </c>
-      <c r="R184" s="16" t="n">
-        <v>22.06</v>
-      </c>
+      <c r="L184" s="14" t="n"/>
+      <c r="M184" s="7" t="n"/>
+      <c r="N184" s="7" t="n"/>
+      <c r="O184" s="7" t="n"/>
+      <c r="P184" s="7" t="n"/>
+      <c r="Q184" s="7" t="n"/>
+      <c r="R184" s="18" t="n"/>
       <c r="T184" s="5" t="n"/>
     </row>
     <row r="185" ht="13" customHeight="1">
@@ -66464,7 +66442,7 @@
         </is>
       </c>
       <c r="M190" s="21" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="O190" s="20" t="inlineStr">
         <is>
@@ -66472,7 +66450,7 @@
         </is>
       </c>
       <c r="P190" s="21" t="n">
-        <v>4282</v>
+        <v>2842</v>
       </c>
       <c r="T190" s="5" t="n"/>
     </row>
@@ -66603,32 +66581,30 @@
       <c r="J195" s="5" t="n"/>
       <c r="L195" s="14" t="inlineStr">
         <is>
-          <t>400m</t>
+          <t>Diskos</t>
         </is>
       </c>
       <c r="M195" s="7" t="inlineStr">
         <is>
-          <t>Berit Vide Lindvall</t>
+          <t>Helga Reigstad</t>
         </is>
       </c>
       <c r="N195" s="7" t="n">
-        <v>2007</v>
-      </c>
-      <c r="O195" s="17" t="inlineStr">
-        <is>
-          <t>1,08,98</t>
-        </is>
+        <v>1972</v>
+      </c>
+      <c r="O195" s="15" t="n">
+        <v>30.75</v>
       </c>
       <c r="P195" s="7" t="n">
-        <v>447</v>
+        <v>593</v>
       </c>
       <c r="Q195" s="7" t="inlineStr">
         <is>
-          <t>Fana</t>
+          <t>Osterøy</t>
         </is>
       </c>
       <c r="R195" s="16" t="n">
-        <v>29.05</v>
+        <v>13.06</v>
       </c>
       <c r="T195" s="5" t="n"/>
     </row>
@@ -66663,32 +66639,30 @@
       <c r="J196" s="5" t="n"/>
       <c r="L196" s="14" t="inlineStr">
         <is>
-          <t>800m</t>
+          <t>Kule</t>
         </is>
       </c>
       <c r="M196" s="7" t="inlineStr">
         <is>
-          <t>Helene Osen</t>
+          <t>Helga Reigstad</t>
         </is>
       </c>
       <c r="N196" s="7" t="n">
-        <v>2008</v>
-      </c>
-      <c r="O196" s="17" t="inlineStr">
-        <is>
-          <t>2,50,65</t>
-        </is>
+        <v>1972</v>
+      </c>
+      <c r="O196" s="15" t="n">
+        <v>9.02</v>
       </c>
       <c r="P196" s="7" t="n">
-        <v>376</v>
+        <v>515</v>
       </c>
       <c r="Q196" s="7" t="inlineStr">
         <is>
-          <t>Leikvang</t>
+          <t>Osterøy</t>
         </is>
       </c>
       <c r="R196" s="16" t="n">
-        <v>19.02</v>
+        <v>23.05</v>
       </c>
       <c r="T196" s="5" t="n"/>
     </row>
@@ -66723,32 +66697,32 @@
       <c r="J197" s="5" t="n"/>
       <c r="L197" s="14" t="inlineStr">
         <is>
-          <t>400m</t>
+          <t>3000m</t>
         </is>
       </c>
       <c r="M197" s="7" t="inlineStr">
         <is>
-          <t>Helene Osen</t>
+          <t>Mirjam Mjelde</t>
         </is>
       </c>
       <c r="N197" s="7" t="n">
-        <v>2008</v>
+        <v>1969</v>
       </c>
       <c r="O197" s="17" t="inlineStr">
         <is>
-          <t>1,13,73</t>
+          <t>11,51,36mx</t>
         </is>
       </c>
       <c r="P197" s="7" t="n">
-        <v>355</v>
+        <v>481</v>
       </c>
       <c r="Q197" s="7" t="inlineStr">
         <is>
-          <t>Leikvang</t>
+          <t>Osterøy</t>
         </is>
       </c>
       <c r="R197" s="16" t="n">
-        <v>20.02</v>
+        <v>2.06</v>
       </c>
       <c r="T197" s="5" t="n"/>
     </row>
@@ -66783,30 +66757,32 @@
       <c r="J198" s="5" t="n"/>
       <c r="L198" s="14" t="inlineStr">
         <is>
-          <t>100m</t>
+          <t>3000m</t>
         </is>
       </c>
       <c r="M198" s="7" t="inlineStr">
         <is>
-          <t>Frida Askildsen Hovdevik</t>
+          <t>Ingri M Birkeland</t>
         </is>
       </c>
       <c r="N198" s="7" t="n">
-        <v>2009</v>
-      </c>
-      <c r="O198" s="15" t="n">
-        <v>15.16</v>
+        <v>1984</v>
+      </c>
+      <c r="O198" s="17" t="inlineStr">
+        <is>
+          <t>12,07,15mx</t>
+        </is>
       </c>
       <c r="P198" s="7" t="n">
-        <v>350</v>
+        <v>449</v>
       </c>
       <c r="Q198" s="7" t="inlineStr">
         <is>
-          <t>Fana</t>
+          <t>Osterøy</t>
         </is>
       </c>
       <c r="R198" s="16" t="n">
-        <v>14.05</v>
+        <v>2.06</v>
       </c>
       <c r="T198" s="5" t="n"/>
     </row>
@@ -66841,30 +66817,32 @@
       <c r="J199" s="5" t="n"/>
       <c r="L199" s="14" t="inlineStr">
         <is>
-          <t>60m</t>
+          <t>3000m</t>
         </is>
       </c>
       <c r="M199" s="7" t="inlineStr">
         <is>
-          <t>Helene Osen</t>
+          <t>Anne Lise Leiren Mastervik</t>
         </is>
       </c>
       <c r="N199" s="7" t="n">
-        <v>2008</v>
-      </c>
-      <c r="O199" s="15" t="n">
-        <v>9.609999999999999</v>
+        <v>1972</v>
+      </c>
+      <c r="O199" s="17" t="inlineStr">
+        <is>
+          <t>12,38,51mx</t>
+        </is>
       </c>
       <c r="P199" s="7" t="n">
-        <v>344</v>
+        <v>390</v>
       </c>
       <c r="Q199" s="7" t="inlineStr">
         <is>
-          <t>Leikvang</t>
+          <t>Osterøy</t>
         </is>
       </c>
       <c r="R199" s="16" t="n">
-        <v>20.02</v>
+        <v>2.06</v>
       </c>
       <c r="T199" s="5" t="n"/>
     </row>
@@ -66897,13 +66875,35 @@
         <v>10.05</v>
       </c>
       <c r="J200" s="5" t="n"/>
-      <c r="L200" s="14" t="n"/>
-      <c r="M200" s="7" t="n"/>
-      <c r="N200" s="7" t="n"/>
-      <c r="O200" s="7" t="n"/>
-      <c r="P200" s="7" t="n"/>
-      <c r="Q200" s="7" t="n"/>
-      <c r="R200" s="18" t="n"/>
+      <c r="L200" s="14" t="inlineStr">
+        <is>
+          <t>3000m</t>
+        </is>
+      </c>
+      <c r="M200" s="7" t="inlineStr">
+        <is>
+          <t>Margrethe Fjellskålnes</t>
+        </is>
+      </c>
+      <c r="N200" s="7" t="n">
+        <v>2007</v>
+      </c>
+      <c r="O200" s="17" t="inlineStr">
+        <is>
+          <t>12,47,51mx</t>
+        </is>
+      </c>
+      <c r="P200" s="7" t="n">
+        <v>374</v>
+      </c>
+      <c r="Q200" s="7" t="inlineStr">
+        <is>
+          <t>Osterøy</t>
+        </is>
+      </c>
+      <c r="R200" s="16" t="n">
+        <v>2.06</v>
+      </c>
       <c r="T200" s="5" t="n"/>
     </row>
     <row r="201" ht="13" customHeight="1">
@@ -66935,13 +66935,35 @@
         <v>19.02</v>
       </c>
       <c r="J201" s="5" t="n"/>
-      <c r="L201" s="14" t="n"/>
-      <c r="M201" s="7" t="n"/>
-      <c r="N201" s="7" t="n"/>
-      <c r="O201" s="7" t="n"/>
-      <c r="P201" s="7" t="n"/>
-      <c r="Q201" s="7" t="n"/>
-      <c r="R201" s="18" t="n"/>
+      <c r="L201" s="14" t="inlineStr">
+        <is>
+          <t>800m</t>
+        </is>
+      </c>
+      <c r="M201" s="7" t="inlineStr">
+        <is>
+          <t>Anne Lise Leiren Mastervik</t>
+        </is>
+      </c>
+      <c r="N201" s="7" t="n">
+        <v>1972</v>
+      </c>
+      <c r="O201" s="17" t="inlineStr">
+        <is>
+          <t>2,58,16mx</t>
+        </is>
+      </c>
+      <c r="P201" s="7" t="n">
+        <v>319</v>
+      </c>
+      <c r="Q201" s="7" t="inlineStr">
+        <is>
+          <t>Osterøy</t>
+        </is>
+      </c>
+      <c r="R201" s="16" t="n">
+        <v>23.05</v>
+      </c>
       <c r="T201" s="5" t="n"/>
     </row>
     <row r="202" ht="13" customHeight="1">
@@ -66953,13 +66975,33 @@
       <c r="G202" s="7" t="n"/>
       <c r="H202" s="18" t="n"/>
       <c r="J202" s="5" t="n"/>
-      <c r="L202" s="14" t="n"/>
-      <c r="M202" s="7" t="n"/>
-      <c r="N202" s="7" t="n"/>
-      <c r="O202" s="7" t="n"/>
-      <c r="P202" s="7" t="n"/>
-      <c r="Q202" s="7" t="n"/>
-      <c r="R202" s="18" t="n"/>
+      <c r="L202" s="14" t="inlineStr">
+        <is>
+          <t>Lengde u.t</t>
+        </is>
+      </c>
+      <c r="M202" s="7" t="inlineStr">
+        <is>
+          <t>Lena Hopland</t>
+        </is>
+      </c>
+      <c r="N202" s="7" t="n">
+        <v>2006</v>
+      </c>
+      <c r="O202" s="15" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="P202" s="7" t="n">
+        <v>236</v>
+      </c>
+      <c r="Q202" s="7" t="inlineStr">
+        <is>
+          <t>Osterøy</t>
+        </is>
+      </c>
+      <c r="R202" s="16" t="n">
+        <v>17.01</v>
+      </c>
       <c r="T202" s="5" t="n"/>
     </row>
     <row r="203" ht="13" customHeight="1">
@@ -67004,7 +67046,7 @@
         </is>
       </c>
       <c r="M204" s="21" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="O204" s="20" t="inlineStr">
         <is>
@@ -67012,7 +67054,7 @@
         </is>
       </c>
       <c r="P204" s="21" t="n">
-        <v>1872</v>
+        <v>3357</v>
       </c>
       <c r="T204" s="5" t="n"/>
     </row>
@@ -67044,7 +67086,7 @@
         </is>
       </c>
       <c r="M206" s="21" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="O206" s="20" t="inlineStr">
         <is>
@@ -67052,7 +67094,7 @@
         </is>
       </c>
       <c r="P206" s="21" t="n">
-        <v>6154</v>
+        <v>6199</v>
       </c>
       <c r="T206" s="5" t="n"/>
     </row>
@@ -67076,7 +67118,7 @@
         </is>
       </c>
       <c r="M208" s="21" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="T208" s="5" t="n"/>
     </row>
@@ -67122,7 +67164,7 @@
         </is>
       </c>
       <c r="F212" s="8" t="n">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="J212" s="5" t="n"/>
       <c r="L212" s="6" t="inlineStr">
@@ -67136,7 +67178,7 @@
         </is>
       </c>
       <c r="P212" s="8" t="n">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="T212" s="5" t="n"/>
     </row>
@@ -67148,7 +67190,7 @@
       </c>
       <c r="C213" s="7" t="inlineStr">
         <is>
-          <t>Ask Friidrett 2. lag</t>
+          <t>Varegg IL 2. lag</t>
         </is>
       </c>
       <c r="J213" s="5" t="n"/>
@@ -67159,7 +67201,7 @@
       </c>
       <c r="M213" s="7" t="inlineStr">
         <is>
-          <t>Osterøy IL</t>
+          <t>Ask Friidrett 2. lag</t>
         </is>
       </c>
       <c r="T213" s="5" t="n"/>
@@ -67288,55 +67330,53 @@
       </c>
       <c r="C219" s="7" t="inlineStr">
         <is>
-          <t>Ingrid Straume-Sunde</t>
+          <t>Frida Askildsen Hovdevik</t>
         </is>
       </c>
       <c r="D219" s="7" t="n">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="E219" s="15" t="n">
-        <v>8.98</v>
+        <v>9.51</v>
       </c>
       <c r="F219" s="7" t="n">
-        <v>477</v>
+        <v>365</v>
       </c>
       <c r="G219" s="7" t="inlineStr">
         <is>
-          <t>Fana</t>
+          <t>Leikvang</t>
         </is>
       </c>
       <c r="H219" s="16" t="n">
-        <v>28.05</v>
+        <v>29.01</v>
       </c>
       <c r="J219" s="5" t="n"/>
       <c r="L219" s="14" t="inlineStr">
         <is>
-          <t>800m</t>
+          <t>60m</t>
         </is>
       </c>
       <c r="M219" s="7" t="inlineStr">
         <is>
-          <t>Mirjam Mjelde</t>
+          <t>Ingrid Straume-Sunde</t>
         </is>
       </c>
       <c r="N219" s="7" t="n">
-        <v>1969</v>
-      </c>
-      <c r="O219" s="17" t="inlineStr">
-        <is>
-          <t>2,41,45mx</t>
-        </is>
+        <v>2010</v>
+      </c>
+      <c r="O219" s="15" t="n">
+        <v>8.98</v>
       </c>
       <c r="P219" s="7" t="n">
-        <v>451</v>
+        <v>477</v>
       </c>
       <c r="Q219" s="7" t="inlineStr">
         <is>
-          <t>Osterøy</t>
+          <t>Fana</t>
         </is>
       </c>
       <c r="R219" s="16" t="n">
-        <v>14.07</v>
+        <v>28.05</v>
       </c>
       <c r="T219" s="5" t="n"/>
     </row>
@@ -67348,55 +67388,53 @@
       </c>
       <c r="C220" s="7" t="inlineStr">
         <is>
-          <t>Sofie Elise Indrebø</t>
+          <t>Alexandra Irgens</t>
         </is>
       </c>
       <c r="D220" s="7" t="n">
-        <v>2010</v>
+        <v>2006</v>
       </c>
       <c r="E220" s="15" t="n">
-        <v>14.5</v>
+        <v>13.29</v>
       </c>
       <c r="F220" s="7" t="n">
-        <v>438</v>
+        <v>622</v>
       </c>
       <c r="G220" s="7" t="inlineStr">
         <is>
-          <t>Fana</t>
+          <t>Rosendal</t>
         </is>
       </c>
       <c r="H220" s="16" t="n">
-        <v>29.05</v>
+        <v>4.06</v>
       </c>
       <c r="J220" s="5" t="n"/>
       <c r="L220" s="14" t="inlineStr">
         <is>
-          <t>3000m</t>
+          <t>100m</t>
         </is>
       </c>
       <c r="M220" s="7" t="inlineStr">
         <is>
-          <t>Nora Bergan</t>
+          <t>Sofie Elise Indrebø</t>
         </is>
       </c>
       <c r="N220" s="7" t="n">
-        <v>2004</v>
-      </c>
-      <c r="O220" s="17" t="inlineStr">
-        <is>
-          <t>11,26,42mx</t>
-        </is>
+        <v>2010</v>
+      </c>
+      <c r="O220" s="15" t="n">
+        <v>14.5</v>
       </c>
       <c r="P220" s="7" t="n">
-        <v>532</v>
+        <v>438</v>
       </c>
       <c r="Q220" s="7" t="inlineStr">
         <is>
-          <t>Osterøy</t>
+          <t>Fana</t>
         </is>
       </c>
       <c r="R220" s="16" t="n">
-        <v>2.06</v>
+        <v>29.05</v>
       </c>
       <c r="T220" s="5" t="n"/>
     </row>
@@ -67408,77 +67446,77 @@
       </c>
       <c r="C221" s="7" t="inlineStr">
         <is>
-          <t>Sofie Elise Indrebø</t>
+          <t>Alexandra Irgens</t>
         </is>
       </c>
       <c r="D221" s="7" t="n">
-        <v>2010</v>
+        <v>2006</v>
       </c>
       <c r="E221" s="15" t="n">
-        <v>29.94</v>
+        <v>27.28</v>
       </c>
       <c r="F221" s="7" t="n">
-        <v>454</v>
+        <v>629</v>
       </c>
       <c r="G221" s="7" t="inlineStr">
         <is>
-          <t>Fana</t>
+          <t>Gøteborg/SWE</t>
         </is>
       </c>
       <c r="H221" s="16" t="n">
-        <v>27.05</v>
+        <v>19.06</v>
       </c>
       <c r="J221" s="5" t="n"/>
       <c r="L221" s="14" t="inlineStr">
         <is>
-          <t>Lengde u.t</t>
+          <t>200m</t>
         </is>
       </c>
       <c r="M221" s="7" t="inlineStr">
         <is>
-          <t>Helga Reigstad</t>
+          <t>Sofie Elise Indrebø</t>
         </is>
       </c>
       <c r="N221" s="7" t="n">
-        <v>1972</v>
+        <v>2010</v>
       </c>
       <c r="O221" s="15" t="n">
-        <v>2.01</v>
+        <v>29.94</v>
       </c>
       <c r="P221" s="7" t="n">
-        <v>255</v>
+        <v>454</v>
       </c>
       <c r="Q221" s="7" t="inlineStr">
         <is>
-          <t>Osterøy</t>
+          <t>Fana</t>
         </is>
       </c>
       <c r="R221" s="16" t="n">
-        <v>17.01</v>
+        <v>27.05</v>
       </c>
       <c r="T221" s="5" t="n"/>
     </row>
     <row r="222" ht="13" customHeight="1">
       <c r="B222" s="14" t="inlineStr">
         <is>
-          <t>800m</t>
+          <t>400m</t>
         </is>
       </c>
       <c r="C222" s="7" t="inlineStr">
         <is>
-          <t>Pia Norheim</t>
+          <t>Victoria Osen</t>
         </is>
       </c>
       <c r="D222" s="7" t="n">
-        <v>2005</v>
+        <v>2008</v>
       </c>
       <c r="E222" s="17" t="inlineStr">
         <is>
-          <t>2,30,04</t>
+          <t>1,06,28</t>
         </is>
       </c>
       <c r="F222" s="7" t="n">
-        <v>557</v>
+        <v>507</v>
       </c>
       <c r="G222" s="7" t="inlineStr">
         <is>
@@ -67486,182 +67524,252 @@
         </is>
       </c>
       <c r="H222" s="16" t="n">
-        <v>19.02</v>
+        <v>20.02</v>
       </c>
       <c r="J222" s="5" t="n"/>
       <c r="L222" s="14" t="inlineStr">
         <is>
-          <t>Kule</t>
+          <t>800m</t>
         </is>
       </c>
       <c r="M222" s="7" t="inlineStr">
         <is>
-          <t>Marianne Feidje Mjelde</t>
+          <t>Pia Norheim</t>
         </is>
       </c>
       <c r="N222" s="7" t="n">
-        <v>2001</v>
-      </c>
-      <c r="O222" s="15" t="n">
-        <v>9.5</v>
+        <v>2005</v>
+      </c>
+      <c r="O222" s="17" t="inlineStr">
+        <is>
+          <t>2,30,04</t>
+        </is>
       </c>
       <c r="P222" s="7" t="n">
-        <v>554</v>
+        <v>557</v>
       </c>
       <c r="Q222" s="7" t="inlineStr">
         <is>
-          <t>Osterøy</t>
+          <t>Leikvang</t>
         </is>
       </c>
       <c r="R222" s="16" t="n">
-        <v>13.06</v>
+        <v>19.02</v>
       </c>
       <c r="T222" s="5" t="n"/>
     </row>
     <row r="223" ht="13" customHeight="1">
       <c r="B223" s="14" t="inlineStr">
         <is>
-          <t>1500m</t>
+          <t>800m</t>
         </is>
       </c>
       <c r="C223" s="7" t="inlineStr">
         <is>
-          <t>Julia Varsi</t>
+          <t>Berit Vide Lindvall</t>
         </is>
       </c>
       <c r="D223" s="7" t="n">
-        <v>2005</v>
+        <v>2007</v>
       </c>
       <c r="E223" s="17" t="inlineStr">
         <is>
-          <t>5,31,81</t>
+          <t>2,28,47</t>
         </is>
       </c>
       <c r="F223" s="7" t="n">
-        <v>461</v>
+        <v>573</v>
       </c>
       <c r="G223" s="7" t="inlineStr">
         <is>
-          <t>Fana</t>
+          <t>Gøteborg/SWE</t>
         </is>
       </c>
       <c r="H223" s="16" t="n">
-        <v>28.05</v>
+        <v>17.06</v>
       </c>
       <c r="J223" s="5" t="n"/>
       <c r="L223" s="14" t="inlineStr">
         <is>
-          <t>Diskos</t>
+          <t>1500m</t>
         </is>
       </c>
       <c r="M223" s="7" t="inlineStr">
         <is>
-          <t>Marianne Feidje Mjelde</t>
+          <t>Julia Varsi</t>
         </is>
       </c>
       <c r="N223" s="7" t="n">
-        <v>2001</v>
-      </c>
-      <c r="O223" s="15" t="n">
-        <v>31.46</v>
+        <v>2005</v>
+      </c>
+      <c r="O223" s="17" t="inlineStr">
+        <is>
+          <t>5,31,81</t>
+        </is>
       </c>
       <c r="P223" s="7" t="n">
-        <v>604</v>
+        <v>461</v>
       </c>
       <c r="Q223" s="7" t="inlineStr">
         <is>
-          <t>Osterøy</t>
+          <t>Fana</t>
         </is>
       </c>
       <c r="R223" s="16" t="n">
-        <v>13.06</v>
+        <v>28.05</v>
       </c>
       <c r="T223" s="5" t="n"/>
     </row>
     <row r="224" ht="13" customHeight="1">
       <c r="B224" s="14" t="inlineStr">
         <is>
+          <t>1500m</t>
+        </is>
+      </c>
+      <c r="C224" s="7" t="inlineStr">
+        <is>
+          <t>Frida Askildsen Hovdevik</t>
+        </is>
+      </c>
+      <c r="D224" s="7" t="n">
+        <v>2009</v>
+      </c>
+      <c r="E224" s="17" t="inlineStr">
+        <is>
+          <t>5,33,97</t>
+        </is>
+      </c>
+      <c r="F224" s="7" t="n">
+        <v>451</v>
+      </c>
+      <c r="G224" s="7" t="inlineStr">
+        <is>
+          <t>Fana</t>
+        </is>
+      </c>
+      <c r="H224" s="16" t="n">
+        <v>28.05</v>
+      </c>
+      <c r="J224" s="5" t="n"/>
+      <c r="L224" s="14" t="inlineStr">
+        <is>
           <t>Lengde</t>
         </is>
       </c>
-      <c r="C224" s="7" t="inlineStr">
+      <c r="M224" s="7" t="inlineStr">
         <is>
           <t>Sofie Elise Indrebø</t>
         </is>
       </c>
-      <c r="D224" s="7" t="n">
+      <c r="N224" s="7" t="n">
         <v>2010</v>
       </c>
-      <c r="E224" s="15" t="n">
+      <c r="O224" s="15" t="n">
         <v>3.77</v>
       </c>
-      <c r="F224" s="7" t="n">
+      <c r="P224" s="7" t="n">
         <v>327</v>
       </c>
-      <c r="G224" s="7" t="inlineStr">
+      <c r="Q224" s="7" t="inlineStr">
         <is>
           <t>Leikvang</t>
         </is>
       </c>
-      <c r="H224" s="16" t="n">
+      <c r="R224" s="16" t="n">
         <v>29.01</v>
       </c>
-      <c r="J224" s="5" t="n"/>
-      <c r="L224" s="14" t="n"/>
-      <c r="M224" s="7" t="n"/>
-      <c r="N224" s="7" t="n"/>
-      <c r="O224" s="7" t="n"/>
-      <c r="P224" s="7" t="n"/>
-      <c r="Q224" s="7" t="n"/>
-      <c r="R224" s="18" t="n"/>
       <c r="T224" s="5" t="n"/>
     </row>
     <row r="225" ht="13" customHeight="1">
       <c r="B225" s="14" t="inlineStr">
         <is>
+          <t>3000m</t>
+        </is>
+      </c>
+      <c r="C225" s="7" t="inlineStr">
+        <is>
+          <t>Julia Helene Rosenberg</t>
+        </is>
+      </c>
+      <c r="D225" s="7" t="n">
+        <v>2006</v>
+      </c>
+      <c r="E225" s="17" t="inlineStr">
+        <is>
+          <t>11,34,10</t>
+        </is>
+      </c>
+      <c r="F225" s="7" t="n">
+        <v>516</v>
+      </c>
+      <c r="G225" s="7" t="inlineStr">
+        <is>
+          <t>Fana</t>
+        </is>
+      </c>
+      <c r="H225" s="16" t="n">
+        <v>15.05</v>
+      </c>
+      <c r="J225" s="5" t="n"/>
+      <c r="L225" s="14" t="inlineStr">
+        <is>
           <t>Lengde u.t</t>
         </is>
       </c>
-      <c r="C225" s="7" t="inlineStr">
+      <c r="M225" s="7" t="inlineStr">
         <is>
           <t>Elin Hundven Eliassen</t>
         </is>
       </c>
-      <c r="D225" s="7" t="n">
+      <c r="N225" s="7" t="n">
         <v>1973</v>
       </c>
-      <c r="E225" s="15" t="n">
+      <c r="O225" s="15" t="n">
         <v>2.23</v>
       </c>
-      <c r="F225" s="7" t="n">
+      <c r="P225" s="7" t="n">
         <v>443</v>
       </c>
-      <c r="G225" s="7" t="inlineStr">
+      <c r="Q225" s="7" t="inlineStr">
         <is>
           <t>Leikvang</t>
         </is>
       </c>
-      <c r="H225" s="16" t="n">
+      <c r="R225" s="16" t="n">
         <v>19.03</v>
       </c>
-      <c r="J225" s="5" t="n"/>
-      <c r="L225" s="14" t="n"/>
-      <c r="M225" s="7" t="n"/>
-      <c r="N225" s="7" t="n"/>
-      <c r="O225" s="7" t="n"/>
-      <c r="P225" s="7" t="n"/>
-      <c r="Q225" s="7" t="n"/>
-      <c r="R225" s="18" t="n"/>
       <c r="T225" s="5" t="n"/>
     </row>
     <row r="226" ht="13" customHeight="1">
-      <c r="B226" s="14" t="n"/>
-      <c r="C226" s="7" t="n"/>
-      <c r="D226" s="7" t="n"/>
-      <c r="E226" s="7" t="n"/>
-      <c r="F226" s="7" t="n"/>
-      <c r="G226" s="7" t="n"/>
-      <c r="H226" s="18" t="n"/>
+      <c r="B226" s="14" t="inlineStr">
+        <is>
+          <t>5000m</t>
+        </is>
+      </c>
+      <c r="C226" s="7" t="inlineStr">
+        <is>
+          <t>Hannah Silgjerd</t>
+        </is>
+      </c>
+      <c r="D226" s="7" t="n">
+        <v>1999</v>
+      </c>
+      <c r="E226" s="17" t="inlineStr">
+        <is>
+          <t>18,50,63mx</t>
+        </is>
+      </c>
+      <c r="F226" s="7" t="n">
+        <v>619</v>
+      </c>
+      <c r="G226" s="7" t="inlineStr">
+        <is>
+          <t>Arna</t>
+        </is>
+      </c>
+      <c r="H226" s="16" t="n">
+        <v>22.06</v>
+      </c>
       <c r="J226" s="5" t="n"/>
       <c r="L226" s="14" t="n"/>
       <c r="M226" s="7" t="n"/>
@@ -67769,7 +67877,7 @@
         </is>
       </c>
       <c r="C232" s="21" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E232" s="20" t="inlineStr">
         <is>
@@ -67777,7 +67885,7 @@
         </is>
       </c>
       <c r="F232" s="21" t="n">
-        <v>3157</v>
+        <v>4282</v>
       </c>
       <c r="J232" s="5" t="n"/>
       <c r="L232" s="20" t="inlineStr">
@@ -67786,7 +67894,7 @@
         </is>
       </c>
       <c r="M232" s="21" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="O232" s="20" t="inlineStr">
         <is>
@@ -67794,7 +67902,7 @@
         </is>
       </c>
       <c r="P232" s="21" t="n">
-        <v>2396</v>
+        <v>3157</v>
       </c>
       <c r="T232" s="5" t="n"/>
     </row>
@@ -67897,236 +68005,238 @@
     <row r="237" ht="13" customHeight="1">
       <c r="B237" s="14" t="inlineStr">
         <is>
-          <t>60m</t>
+          <t>400m</t>
         </is>
       </c>
       <c r="C237" s="7" t="inlineStr">
         <is>
-          <t>Sofie Elise Indrebø</t>
+          <t>Berit Vide Lindvall</t>
         </is>
       </c>
       <c r="D237" s="7" t="n">
-        <v>2010</v>
-      </c>
-      <c r="E237" s="15" t="n">
-        <v>9.029999999999999</v>
+        <v>2007</v>
+      </c>
+      <c r="E237" s="17" t="inlineStr">
+        <is>
+          <t>1,08,98</t>
+        </is>
       </c>
       <c r="F237" s="7" t="n">
-        <v>466</v>
+        <v>447</v>
       </c>
       <c r="G237" s="7" t="inlineStr">
         <is>
-          <t>Ravnanger</t>
+          <t>Fana</t>
         </is>
       </c>
       <c r="H237" s="16" t="n">
-        <v>20.04</v>
+        <v>29.05</v>
       </c>
       <c r="J237" s="5" t="n"/>
       <c r="L237" s="14" t="inlineStr">
         <is>
-          <t>Diskos</t>
+          <t>60m</t>
         </is>
       </c>
       <c r="M237" s="7" t="inlineStr">
         <is>
-          <t>Helga Reigstad</t>
+          <t>Sofie Elise Indrebø</t>
         </is>
       </c>
       <c r="N237" s="7" t="n">
-        <v>1972</v>
+        <v>2010</v>
       </c>
       <c r="O237" s="15" t="n">
-        <v>30.75</v>
+        <v>9.029999999999999</v>
       </c>
       <c r="P237" s="7" t="n">
-        <v>593</v>
+        <v>466</v>
       </c>
       <c r="Q237" s="7" t="inlineStr">
         <is>
-          <t>Osterøy</t>
+          <t>Ravnanger</t>
         </is>
       </c>
       <c r="R237" s="16" t="n">
-        <v>13.06</v>
+        <v>20.04</v>
       </c>
       <c r="T237" s="5" t="n"/>
     </row>
     <row r="238" ht="13" customHeight="1">
       <c r="B238" s="14" t="inlineStr">
         <is>
-          <t>200m</t>
+          <t>800m</t>
         </is>
       </c>
       <c r="C238" s="7" t="inlineStr">
         <is>
-          <t>Ingrid Straume-Sunde</t>
+          <t>Helene Osen</t>
         </is>
       </c>
       <c r="D238" s="7" t="n">
-        <v>2010</v>
-      </c>
-      <c r="E238" s="15" t="n">
-        <v>30.09</v>
+        <v>2008</v>
+      </c>
+      <c r="E238" s="17" t="inlineStr">
+        <is>
+          <t>2,50,65</t>
+        </is>
       </c>
       <c r="F238" s="7" t="n">
-        <v>445</v>
+        <v>376</v>
       </c>
       <c r="G238" s="7" t="inlineStr">
         <is>
-          <t>Fana</t>
+          <t>Leikvang</t>
         </is>
       </c>
       <c r="H238" s="16" t="n">
-        <v>15.05</v>
+        <v>19.02</v>
       </c>
       <c r="J238" s="5" t="n"/>
       <c r="L238" s="14" t="inlineStr">
         <is>
-          <t>Kule</t>
+          <t>200m</t>
         </is>
       </c>
       <c r="M238" s="7" t="inlineStr">
         <is>
-          <t>Helga Reigstad</t>
+          <t>Ingrid Straume-Sunde</t>
         </is>
       </c>
       <c r="N238" s="7" t="n">
-        <v>1972</v>
+        <v>2010</v>
       </c>
       <c r="O238" s="15" t="n">
-        <v>9.02</v>
+        <v>30.09</v>
       </c>
       <c r="P238" s="7" t="n">
-        <v>515</v>
+        <v>445</v>
       </c>
       <c r="Q238" s="7" t="inlineStr">
         <is>
-          <t>Osterøy</t>
+          <t>Fana</t>
         </is>
       </c>
       <c r="R238" s="16" t="n">
-        <v>23.05</v>
+        <v>15.05</v>
       </c>
       <c r="T238" s="5" t="n"/>
     </row>
     <row r="239" ht="13" customHeight="1">
       <c r="B239" s="14" t="inlineStr">
         <is>
-          <t>100m</t>
+          <t>400m</t>
         </is>
       </c>
       <c r="C239" s="7" t="inlineStr">
         <is>
-          <t>Ingrid Straume-Sunde</t>
+          <t>Helene Osen</t>
         </is>
       </c>
       <c r="D239" s="7" t="n">
-        <v>2010</v>
-      </c>
-      <c r="E239" s="15" t="n">
-        <v>14.52</v>
+        <v>2008</v>
+      </c>
+      <c r="E239" s="17" t="inlineStr">
+        <is>
+          <t>1,13,73</t>
+        </is>
       </c>
       <c r="F239" s="7" t="n">
-        <v>435</v>
+        <v>355</v>
       </c>
       <c r="G239" s="7" t="inlineStr">
         <is>
-          <t>Fana</t>
+          <t>Leikvang</t>
         </is>
       </c>
       <c r="H239" s="16" t="n">
-        <v>29.05</v>
+        <v>20.02</v>
       </c>
       <c r="J239" s="5" t="n"/>
       <c r="L239" s="14" t="inlineStr">
         <is>
-          <t>3000m</t>
+          <t>100m</t>
         </is>
       </c>
       <c r="M239" s="7" t="inlineStr">
         <is>
-          <t>Mirjam Mjelde</t>
+          <t>Ingrid Straume-Sunde</t>
         </is>
       </c>
       <c r="N239" s="7" t="n">
-        <v>1969</v>
-      </c>
-      <c r="O239" s="17" t="inlineStr">
-        <is>
-          <t>11,51,36mx</t>
-        </is>
+        <v>2010</v>
+      </c>
+      <c r="O239" s="15" t="n">
+        <v>14.52</v>
       </c>
       <c r="P239" s="7" t="n">
-        <v>481</v>
+        <v>435</v>
       </c>
       <c r="Q239" s="7" t="inlineStr">
         <is>
-          <t>Osterøy</t>
+          <t>Fana</t>
         </is>
       </c>
       <c r="R239" s="16" t="n">
-        <v>2.06</v>
+        <v>29.05</v>
       </c>
       <c r="T239" s="5" t="n"/>
     </row>
     <row r="240" ht="13" customHeight="1">
       <c r="B240" s="14" t="inlineStr">
         <is>
-          <t>60m</t>
+          <t>100m</t>
         </is>
       </c>
       <c r="C240" s="7" t="inlineStr">
         <is>
-          <t>Ingrid Straume Sunde</t>
+          <t>Frida Askildsen Hovdevik</t>
         </is>
       </c>
       <c r="D240" s="7" t="n">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="E240" s="15" t="n">
-        <v>9.210000000000001</v>
+        <v>15.16</v>
       </c>
       <c r="F240" s="7" t="n">
-        <v>427</v>
+        <v>350</v>
       </c>
       <c r="G240" s="7" t="inlineStr">
         <is>
-          <t>Ravnanger</t>
+          <t>Fana</t>
         </is>
       </c>
       <c r="H240" s="16" t="n">
-        <v>20.04</v>
+        <v>14.05</v>
       </c>
       <c r="J240" s="5" t="n"/>
       <c r="L240" s="14" t="inlineStr">
         <is>
-          <t>3000m</t>
+          <t>60m</t>
         </is>
       </c>
       <c r="M240" s="7" t="inlineStr">
         <is>
-          <t>Ingri M Birkeland</t>
+          <t>Ingrid Straume Sunde</t>
         </is>
       </c>
       <c r="N240" s="7" t="n">
-        <v>1984</v>
-      </c>
-      <c r="O240" s="17" t="inlineStr">
-        <is>
-          <t>12,07,15mx</t>
-        </is>
+        <v>2010</v>
+      </c>
+      <c r="O240" s="15" t="n">
+        <v>9.210000000000001</v>
       </c>
       <c r="P240" s="7" t="n">
-        <v>449</v>
+        <v>427</v>
       </c>
       <c r="Q240" s="7" t="inlineStr">
         <is>
-          <t>Osterøy</t>
+          <t>Ravnanger</t>
         </is>
       </c>
       <c r="R240" s="16" t="n">
-        <v>2.06</v>
+        <v>20.04</v>
       </c>
       <c r="T240" s="5" t="n"/>
     </row>
@@ -68138,206 +68248,140 @@
       </c>
       <c r="C241" s="7" t="inlineStr">
         <is>
-          <t>Venja Lillebø</t>
+          <t>Helene Osen</t>
         </is>
       </c>
       <c r="D241" s="7" t="n">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="E241" s="15" t="n">
-        <v>9.630000000000001</v>
+        <v>9.609999999999999</v>
       </c>
       <c r="F241" s="7" t="n">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="G241" s="7" t="inlineStr">
         <is>
-          <t>Ravnanger</t>
+          <t>Leikvang</t>
         </is>
       </c>
       <c r="H241" s="16" t="n">
-        <v>20.07</v>
+        <v>20.02</v>
       </c>
       <c r="J241" s="5" t="n"/>
       <c r="L241" s="14" t="inlineStr">
         <is>
-          <t>3000m</t>
+          <t>60m</t>
         </is>
       </c>
       <c r="M241" s="7" t="inlineStr">
         <is>
-          <t>Anne Lise Leiren Mastervik</t>
+          <t>Venja Lillebø</t>
         </is>
       </c>
       <c r="N241" s="7" t="n">
-        <v>1972</v>
-      </c>
-      <c r="O241" s="17" t="inlineStr">
-        <is>
-          <t>12,38,51mx</t>
-        </is>
+        <v>2009</v>
+      </c>
+      <c r="O241" s="15" t="n">
+        <v>9.630000000000001</v>
       </c>
       <c r="P241" s="7" t="n">
-        <v>390</v>
+        <v>341</v>
       </c>
       <c r="Q241" s="7" t="inlineStr">
         <is>
-          <t>Osterøy</t>
+          <t>Ravnanger</t>
         </is>
       </c>
       <c r="R241" s="16" t="n">
-        <v>2.06</v>
+        <v>20.07</v>
       </c>
       <c r="T241" s="5" t="n"/>
     </row>
     <row r="242" ht="13" customHeight="1">
-      <c r="B242" s="14" t="inlineStr">
-        <is>
-          <t>Lengde u.t</t>
-        </is>
-      </c>
-      <c r="C242" s="7" t="inlineStr">
-        <is>
-          <t>Ingrid Straume Sunde</t>
-        </is>
-      </c>
-      <c r="D242" s="7" t="n">
-        <v>2010</v>
-      </c>
-      <c r="E242" s="15" t="n">
-        <v>2.09</v>
-      </c>
-      <c r="F242" s="7" t="n">
-        <v>328</v>
-      </c>
-      <c r="G242" s="7" t="inlineStr">
-        <is>
-          <t>Leikvang</t>
-        </is>
-      </c>
-      <c r="H242" s="16" t="n">
-        <v>19.03</v>
-      </c>
+      <c r="B242" s="14" t="n"/>
+      <c r="C242" s="7" t="n"/>
+      <c r="D242" s="7" t="n"/>
+      <c r="E242" s="7" t="n"/>
+      <c r="F242" s="7" t="n"/>
+      <c r="G242" s="7" t="n"/>
+      <c r="H242" s="18" t="n"/>
       <c r="J242" s="5" t="n"/>
       <c r="L242" s="14" t="inlineStr">
         <is>
-          <t>3000m</t>
+          <t>Lengde u.t</t>
         </is>
       </c>
       <c r="M242" s="7" t="inlineStr">
         <is>
-          <t>Margrethe Fjellskålnes</t>
+          <t>Ingrid Straume Sunde</t>
         </is>
       </c>
       <c r="N242" s="7" t="n">
-        <v>2007</v>
-      </c>
-      <c r="O242" s="17" t="inlineStr">
-        <is>
-          <t>12,47,51mx</t>
-        </is>
+        <v>2010</v>
+      </c>
+      <c r="O242" s="15" t="n">
+        <v>2.09</v>
       </c>
       <c r="P242" s="7" t="n">
-        <v>374</v>
+        <v>328</v>
       </c>
       <c r="Q242" s="7" t="inlineStr">
         <is>
-          <t>Osterøy</t>
+          <t>Leikvang</t>
         </is>
       </c>
       <c r="R242" s="16" t="n">
-        <v>2.06</v>
+        <v>19.03</v>
       </c>
       <c r="T242" s="5" t="n"/>
     </row>
     <row r="243" ht="13" customHeight="1">
-      <c r="B243" s="14" t="inlineStr">
-        <is>
-          <t>Lengde u.t</t>
-        </is>
-      </c>
-      <c r="C243" s="7" t="inlineStr">
-        <is>
-          <t>Venja Lillebø</t>
-        </is>
-      </c>
-      <c r="D243" s="7" t="n">
-        <v>2009</v>
-      </c>
-      <c r="E243" s="15" t="n">
-        <v>1.97</v>
-      </c>
-      <c r="F243" s="7" t="n">
-        <v>216</v>
-      </c>
-      <c r="G243" s="7" t="inlineStr">
-        <is>
-          <t>Askøy</t>
-        </is>
-      </c>
-      <c r="H243" s="16" t="n">
-        <v>14.03</v>
-      </c>
+      <c r="B243" s="14" t="n"/>
+      <c r="C243" s="7" t="n"/>
+      <c r="D243" s="7" t="n"/>
+      <c r="E243" s="7" t="n"/>
+      <c r="F243" s="7" t="n"/>
+      <c r="G243" s="7" t="n"/>
+      <c r="H243" s="18" t="n"/>
       <c r="J243" s="5" t="n"/>
       <c r="L243" s="14" t="inlineStr">
         <is>
-          <t>800m</t>
+          <t>Lengde u.t</t>
         </is>
       </c>
       <c r="M243" s="7" t="inlineStr">
         <is>
-          <t>Anne Lise Leiren Mastervik</t>
+          <t>Venja Lillebø</t>
         </is>
       </c>
       <c r="N243" s="7" t="n">
-        <v>1972</v>
-      </c>
-      <c r="O243" s="17" t="inlineStr">
-        <is>
-          <t>2,58,16mx</t>
-        </is>
+        <v>2009</v>
+      </c>
+      <c r="O243" s="15" t="n">
+        <v>1.97</v>
       </c>
       <c r="P243" s="7" t="n">
-        <v>319</v>
+        <v>216</v>
       </c>
       <c r="Q243" s="7" t="inlineStr">
         <is>
-          <t>Osterøy</t>
+          <t>Askøy</t>
         </is>
       </c>
       <c r="R243" s="16" t="n">
-        <v>23.05</v>
+        <v>14.03</v>
       </c>
       <c r="T243" s="5" t="n"/>
     </row>
     <row r="244" ht="13" customHeight="1">
-      <c r="B244" s="14" t="inlineStr">
-        <is>
-          <t>Lengde u.t</t>
-        </is>
-      </c>
-      <c r="C244" s="7" t="inlineStr">
-        <is>
-          <t>Sofie Elise Indrebø</t>
-        </is>
-      </c>
-      <c r="D244" s="7" t="n">
-        <v>2010</v>
-      </c>
-      <c r="E244" s="15" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="F244" s="7" t="n">
-        <v>88</v>
-      </c>
-      <c r="G244" s="7" t="inlineStr">
-        <is>
-          <t>Askøy</t>
-        </is>
-      </c>
-      <c r="H244" s="16" t="n">
-        <v>14.03</v>
-      </c>
+      <c r="B244" s="14" t="n"/>
+      <c r="C244" s="7" t="n"/>
+      <c r="D244" s="7" t="n"/>
+      <c r="E244" s="7" t="n"/>
+      <c r="F244" s="7" t="n"/>
+      <c r="G244" s="7" t="n"/>
+      <c r="H244" s="18" t="n"/>
       <c r="J244" s="5" t="n"/>
       <c r="L244" s="14" t="inlineStr">
         <is>
@@ -68346,25 +68390,25 @@
       </c>
       <c r="M244" s="7" t="inlineStr">
         <is>
-          <t>Lena Hopland</t>
+          <t>Sofie Elise Indrebø</t>
         </is>
       </c>
       <c r="N244" s="7" t="n">
-        <v>2006</v>
+        <v>2010</v>
       </c>
       <c r="O244" s="15" t="n">
-        <v>1.99</v>
+        <v>1.85</v>
       </c>
       <c r="P244" s="7" t="n">
-        <v>236</v>
+        <v>88</v>
       </c>
       <c r="Q244" s="7" t="inlineStr">
         <is>
-          <t>Osterøy</t>
+          <t>Askøy</t>
         </is>
       </c>
       <c r="R244" s="16" t="n">
-        <v>17.01</v>
+        <v>14.03</v>
       </c>
       <c r="T244" s="5" t="n"/>
     </row>
@@ -68393,7 +68437,7 @@
         </is>
       </c>
       <c r="C246" s="21" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E246" s="20" t="inlineStr">
         <is>
@@ -68401,7 +68445,7 @@
         </is>
       </c>
       <c r="F246" s="21" t="n">
-        <v>2746</v>
+        <v>1872</v>
       </c>
       <c r="J246" s="5" t="n"/>
       <c r="L246" s="20" t="inlineStr">
@@ -68418,7 +68462,7 @@
         </is>
       </c>
       <c r="P246" s="21" t="n">
-        <v>3357</v>
+        <v>2746</v>
       </c>
       <c r="T246" s="5" t="n"/>
     </row>
@@ -68433,7 +68477,7 @@
         </is>
       </c>
       <c r="C248" s="21" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E248" s="20" t="inlineStr">
         <is>
@@ -68441,7 +68485,7 @@
         </is>
       </c>
       <c r="F248" s="21" t="n">
-        <v>5903</v>
+        <v>6154</v>
       </c>
       <c r="J248" s="5" t="n"/>
       <c r="L248" s="20" t="inlineStr">
@@ -68450,7 +68494,7 @@
         </is>
       </c>
       <c r="M248" s="21" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="O248" s="20" t="inlineStr">
         <is>
@@ -68458,7 +68502,7 @@
         </is>
       </c>
       <c r="P248" s="21" t="n">
-        <v>5753</v>
+        <v>5903</v>
       </c>
       <c r="T248" s="5" t="n"/>
     </row>
@@ -68482,7 +68526,7 @@
         </is>
       </c>
       <c r="M250" s="21" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="T250" s="5" t="n"/>
     </row>
@@ -68528,7 +68572,7 @@
         </is>
       </c>
       <c r="F254" s="8" t="n">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="J254" s="5" t="n"/>
       <c r="L254" s="6" t="inlineStr">
@@ -68818,7 +68862,7 @@
       </c>
       <c r="E263" s="17" t="inlineStr">
         <is>
-          <t>2,19,34</t>
+          <t>2,19,40</t>
         </is>
       </c>
       <c r="F263" s="7" t="n">
@@ -68826,11 +68870,11 @@
       </c>
       <c r="G263" s="7" t="inlineStr">
         <is>
-          <t>Kristiansand</t>
+          <t>Fana</t>
         </is>
       </c>
       <c r="H263" s="16" t="n">
-        <v>7.05</v>
+        <v>14.05</v>
       </c>
       <c r="J263" s="5" t="n"/>
       <c r="L263" s="14" t="inlineStr">
@@ -68840,7 +68884,7 @@
       </c>
       <c r="M263" s="7" t="inlineStr">
         <is>
-          <t>Vilde Fykse</t>
+          <t>Evy Mala</t>
         </is>
       </c>
       <c r="N263" s="7" t="n">
@@ -69366,19 +69410,19 @@
       </c>
       <c r="C279" s="7" t="inlineStr">
         <is>
-          <t>Synne-Helen Torvund</t>
+          <t>Signe-Marie Torvund</t>
         </is>
       </c>
       <c r="D279" s="7" t="n">
-        <v>2002</v>
+        <v>2004</v>
       </c>
       <c r="E279" s="17" t="inlineStr">
         <is>
-          <t>5,40,76</t>
+          <t>5,26,95+</t>
         </is>
       </c>
       <c r="F279" s="7" t="n">
-        <v>423</v>
+        <v>482</v>
       </c>
       <c r="G279" s="7" t="inlineStr">
         <is>
@@ -69386,7 +69430,7 @@
         </is>
       </c>
       <c r="H279" s="16" t="n">
-        <v>22.06</v>
+        <v>1.08</v>
       </c>
       <c r="J279" s="5" t="n"/>
       <c r="L279" s="14" t="inlineStr">
@@ -69421,30 +69465,32 @@
     <row r="280" ht="13" customHeight="1">
       <c r="B280" s="14" t="inlineStr">
         <is>
-          <t>Diskos</t>
+          <t>1500m</t>
         </is>
       </c>
       <c r="C280" s="7" t="inlineStr">
         <is>
-          <t>Ingunn Gatland Jacobsen</t>
+          <t>Synne-Helen Torvund</t>
         </is>
       </c>
       <c r="D280" s="7" t="n">
-        <v>1967</v>
-      </c>
-      <c r="E280" s="15" t="n">
-        <v>17.19</v>
+        <v>2002</v>
+      </c>
+      <c r="E280" s="17" t="inlineStr">
+        <is>
+          <t>5,40,76</t>
+        </is>
       </c>
       <c r="F280" s="7" t="n">
-        <v>304</v>
+        <v>423</v>
       </c>
       <c r="G280" s="7" t="inlineStr">
         <is>
-          <t>Osterøy</t>
+          <t>Arna</t>
         </is>
       </c>
       <c r="H280" s="16" t="n">
-        <v>20.06</v>
+        <v>22.06</v>
       </c>
       <c r="J280" s="5" t="n"/>
       <c r="L280" s="14" t="inlineStr">
@@ -69479,24 +69525,22 @@
     <row r="281" ht="13" customHeight="1">
       <c r="B281" s="14" t="inlineStr">
         <is>
-          <t>3000m</t>
+          <t>Diskos</t>
         </is>
       </c>
       <c r="C281" s="7" t="inlineStr">
         <is>
-          <t>Kristin Brattabø</t>
+          <t>Ingunn Gatland Jacobsen</t>
         </is>
       </c>
       <c r="D281" s="7" t="n">
-        <v>2011</v>
-      </c>
-      <c r="E281" s="17" t="inlineStr">
-        <is>
-          <t>15,15,94mx</t>
-        </is>
+        <v>1967</v>
+      </c>
+      <c r="E281" s="15" t="n">
+        <v>17.19</v>
       </c>
       <c r="F281" s="7" t="n">
-        <v>134</v>
+        <v>304</v>
       </c>
       <c r="G281" s="7" t="inlineStr">
         <is>
@@ -69504,7 +69548,7 @@
         </is>
       </c>
       <c r="H281" s="16" t="n">
-        <v>2.06</v>
+        <v>20.06</v>
       </c>
       <c r="J281" s="5" t="n"/>
       <c r="L281" s="14" t="inlineStr">
@@ -69539,30 +69583,32 @@
     <row r="282" ht="13" customHeight="1">
       <c r="B282" s="14" t="inlineStr">
         <is>
-          <t>Diskos</t>
+          <t>3000m</t>
         </is>
       </c>
       <c r="C282" s="7" t="inlineStr">
         <is>
-          <t>Eldbjørg Sanden Søvik</t>
+          <t>Kristin Brattabø</t>
         </is>
       </c>
       <c r="D282" s="7" t="n">
-        <v>1956</v>
-      </c>
-      <c r="E282" s="15" t="n">
-        <v>13.34</v>
+        <v>2011</v>
+      </c>
+      <c r="E282" s="17" t="inlineStr">
+        <is>
+          <t>15,15,94mx</t>
+        </is>
       </c>
       <c r="F282" s="7" t="n">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="G282" s="7" t="inlineStr">
         <is>
-          <t>Bergen</t>
+          <t>Osterøy</t>
         </is>
       </c>
       <c r="H282" s="16" t="n">
-        <v>23.04</v>
+        <v>2.06</v>
       </c>
       <c r="J282" s="5" t="n"/>
       <c r="L282" s="14" t="inlineStr">
@@ -69572,7 +69618,7 @@
       </c>
       <c r="M282" s="7" t="inlineStr">
         <is>
-          <t>Evy Mala</t>
+          <t>Vilde Fykse</t>
         </is>
       </c>
       <c r="N282" s="7" t="n">
@@ -69595,13 +69641,33 @@
       <c r="T282" s="5" t="n"/>
     </row>
     <row r="283" ht="13" customHeight="1">
-      <c r="B283" s="14" t="n"/>
-      <c r="C283" s="7" t="n"/>
-      <c r="D283" s="7" t="n"/>
-      <c r="E283" s="7" t="n"/>
-      <c r="F283" s="7" t="n"/>
-      <c r="G283" s="7" t="n"/>
-      <c r="H283" s="18" t="n"/>
+      <c r="B283" s="14" t="inlineStr">
+        <is>
+          <t>Diskos</t>
+        </is>
+      </c>
+      <c r="C283" s="7" t="inlineStr">
+        <is>
+          <t>Eldbjørg Sanden Søvik</t>
+        </is>
+      </c>
+      <c r="D283" s="7" t="n">
+        <v>1956</v>
+      </c>
+      <c r="E283" s="15" t="n">
+        <v>13.34</v>
+      </c>
+      <c r="F283" s="7" t="n">
+        <v>127</v>
+      </c>
+      <c r="G283" s="7" t="inlineStr">
+        <is>
+          <t>Bergen</t>
+        </is>
+      </c>
+      <c r="H283" s="16" t="n">
+        <v>23.04</v>
+      </c>
       <c r="J283" s="5" t="n"/>
       <c r="L283" s="14" t="inlineStr">
         <is>
@@ -69771,7 +69837,7 @@
         </is>
       </c>
       <c r="C288" s="21" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E288" s="20" t="inlineStr">
         <is>
@@ -69779,7 +69845,7 @@
         </is>
       </c>
       <c r="F288" s="21" t="n">
-        <v>988</v>
+        <v>1470</v>
       </c>
       <c r="J288" s="5" t="n"/>
       <c r="L288" s="20" t="inlineStr">
@@ -69811,7 +69877,7 @@
         </is>
       </c>
       <c r="C290" s="21" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E290" s="20" t="inlineStr">
         <is>
@@ -69819,7 +69885,7 @@
         </is>
       </c>
       <c r="F290" s="21" t="n">
-        <v>5136</v>
+        <v>5618</v>
       </c>
       <c r="J290" s="5" t="n"/>
       <c r="L290" s="20" t="inlineStr">
@@ -69983,7 +70049,7 @@
         </is>
       </c>
       <c r="P2" s="8" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="T2" s="5" t="n"/>
     </row>
@@ -74181,7 +74247,7 @@
         </is>
       </c>
       <c r="F128" s="8" t="n">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J128" s="5" t="n"/>
       <c r="L128" s="6" t="inlineStr">
@@ -74195,7 +74261,7 @@
         </is>
       </c>
       <c r="P128" s="8" t="n">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="T128" s="5" t="n"/>
     </row>
@@ -75491,7 +75557,7 @@
         </is>
       </c>
       <c r="P170" s="8" t="n">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="T170" s="5" t="n"/>
     </row>
@@ -75729,7 +75795,7 @@
       </c>
       <c r="M178" s="7" t="inlineStr">
         <is>
-          <t>Linnea Strandheim</t>
+          <t>Linnéa Strandheim</t>
         </is>
       </c>
       <c r="N178" s="7" t="n">
@@ -76331,7 +76397,7 @@
       </c>
       <c r="M195" s="7" t="inlineStr">
         <is>
-          <t>Linnea Strandheim</t>
+          <t>Linnéa Strandheim</t>
         </is>
       </c>
       <c r="N195" s="7" t="n">
@@ -76449,7 +76515,7 @@
       </c>
       <c r="M197" s="7" t="inlineStr">
         <is>
-          <t>Linnea Strandheim</t>
+          <t>Linnéa Strandheim</t>
         </is>
       </c>
       <c r="N197" s="7" t="n">
@@ -81807,27 +81873,27 @@
       </c>
       <c r="C14" s="7" t="inlineStr">
         <is>
-          <t>Grethe Tyldum</t>
+          <t>Live Solheimdal</t>
         </is>
       </c>
       <c r="D14" s="7" t="n">
-        <v>2001</v>
+        <v>1996</v>
       </c>
       <c r="E14" s="17" t="inlineStr">
         <is>
-          <t>9,35,56</t>
+          <t>9,14,97</t>
         </is>
       </c>
       <c r="F14" s="7" t="n">
-        <v>815</v>
+        <v>884</v>
       </c>
       <c r="G14" s="7" t="inlineStr">
         <is>
-          <t>Trondheim</t>
+          <t>Gøteborg/SWE</t>
         </is>
       </c>
       <c r="H14" s="16" t="n">
-        <v>3.05</v>
+        <v>30.07</v>
       </c>
       <c r="J14" s="5" t="n"/>
       <c r="L14" s="14" t="inlineStr">
@@ -82186,7 +82252,7 @@
         </is>
       </c>
       <c r="F22" s="21" t="n">
-        <v>8866</v>
+        <v>8935</v>
       </c>
       <c r="J22" s="5" t="n"/>
       <c r="L22" s="20" t="inlineStr">
@@ -82306,32 +82372,32 @@
     <row r="27" ht="13" customHeight="1">
       <c r="B27" s="14" t="inlineStr">
         <is>
-          <t>1500m</t>
+          <t>3000m</t>
         </is>
       </c>
       <c r="C27" s="7" t="inlineStr">
         <is>
-          <t>Live Solheimdal</t>
+          <t>Grethe Tyldum</t>
         </is>
       </c>
       <c r="D27" s="7" t="n">
-        <v>1996</v>
+        <v>2001</v>
       </c>
       <c r="E27" s="17" t="inlineStr">
         <is>
-          <t>4,27,61</t>
+          <t>9,35,56</t>
         </is>
       </c>
       <c r="F27" s="7" t="n">
-        <v>807</v>
+        <v>815</v>
       </c>
       <c r="G27" s="7" t="inlineStr">
         <is>
-          <t>Oslo/Bi</t>
+          <t>Trondheim</t>
         </is>
       </c>
       <c r="H27" s="16" t="n">
-        <v>13.07</v>
+        <v>3.05</v>
       </c>
       <c r="J27" s="5" t="n"/>
       <c r="L27" s="14" t="inlineStr">
@@ -82366,30 +82432,32 @@
     <row r="28" ht="13" customHeight="1">
       <c r="B28" s="14" t="inlineStr">
         <is>
-          <t>200m</t>
+          <t>1500m</t>
         </is>
       </c>
       <c r="C28" s="7" t="inlineStr">
         <is>
-          <t>Ella Luktvasslimo</t>
+          <t>Live Solheimdal</t>
         </is>
       </c>
       <c r="D28" s="7" t="n">
-        <v>2004</v>
-      </c>
-      <c r="E28" s="15" t="n">
-        <v>25.67</v>
+        <v>1996</v>
+      </c>
+      <c r="E28" s="17" t="inlineStr">
+        <is>
+          <t>4,27,61</t>
+        </is>
       </c>
       <c r="F28" s="7" t="n">
-        <v>752</v>
+        <v>807</v>
       </c>
       <c r="G28" s="7" t="inlineStr">
         <is>
-          <t>Lillehammer</t>
+          <t>Oslo/Bi</t>
         </is>
       </c>
       <c r="H28" s="16" t="n">
-        <v>17.06</v>
+        <v>13.07</v>
       </c>
       <c r="J28" s="5" t="n"/>
       <c r="L28" s="14" t="inlineStr">
@@ -82424,30 +82492,30 @@
     <row r="29" ht="13" customHeight="1">
       <c r="B29" s="14" t="inlineStr">
         <is>
-          <t>100m</t>
+          <t>200m</t>
         </is>
       </c>
       <c r="C29" s="7" t="inlineStr">
         <is>
-          <t>Emily Nyborg</t>
+          <t>Ella Luktvasslimo</t>
         </is>
       </c>
       <c r="D29" s="7" t="n">
-        <v>1998</v>
+        <v>2004</v>
       </c>
       <c r="E29" s="15" t="n">
-        <v>12.58</v>
+        <v>25.67</v>
       </c>
       <c r="F29" s="7" t="n">
-        <v>745</v>
+        <v>752</v>
       </c>
       <c r="G29" s="7" t="inlineStr">
         <is>
-          <t>Trondheim</t>
+          <t>Lillehammer</t>
         </is>
       </c>
       <c r="H29" s="16" t="n">
-        <v>4.06</v>
+        <v>17.06</v>
       </c>
       <c r="J29" s="5" t="n"/>
       <c r="L29" s="14" t="inlineStr">
@@ -82487,25 +82555,25 @@
       </c>
       <c r="C30" s="7" t="inlineStr">
         <is>
-          <t>Amalie Grande Bjørnstad</t>
+          <t>Emily Nyborg</t>
         </is>
       </c>
       <c r="D30" s="7" t="n">
-        <v>2000</v>
+        <v>1998</v>
       </c>
       <c r="E30" s="15" t="n">
-        <v>12.62</v>
+        <v>12.58</v>
       </c>
       <c r="F30" s="7" t="n">
-        <v>737</v>
+        <v>745</v>
       </c>
       <c r="G30" s="7" t="inlineStr">
         <is>
-          <t>Lillehammer</t>
+          <t>Trondheim</t>
         </is>
       </c>
       <c r="H30" s="16" t="n">
-        <v>19.06</v>
+        <v>4.06</v>
       </c>
       <c r="J30" s="5" t="n"/>
       <c r="L30" s="14" t="inlineStr">
@@ -82540,7 +82608,7 @@
     <row r="31" ht="13" customHeight="1">
       <c r="B31" s="14" t="inlineStr">
         <is>
-          <t>60m</t>
+          <t>100m</t>
         </is>
       </c>
       <c r="C31" s="7" t="inlineStr">
@@ -82552,18 +82620,18 @@
         <v>2000</v>
       </c>
       <c r="E31" s="15" t="n">
-        <v>8.15</v>
+        <v>12.62</v>
       </c>
       <c r="F31" s="7" t="n">
-        <v>689</v>
+        <v>737</v>
       </c>
       <c r="G31" s="7" t="inlineStr">
         <is>
-          <t>Steinkjer</t>
+          <t>Lillehammer</t>
         </is>
       </c>
       <c r="H31" s="16" t="n">
-        <v>22.01</v>
+        <v>19.06</v>
       </c>
       <c r="J31" s="5" t="n"/>
       <c r="L31" s="14" t="inlineStr">
@@ -82762,7 +82830,7 @@
         </is>
       </c>
       <c r="F36" s="21" t="n">
-        <v>5072</v>
+        <v>5198</v>
       </c>
       <c r="J36" s="5" t="n"/>
       <c r="L36" s="20" t="inlineStr">
@@ -82802,7 +82870,7 @@
         </is>
       </c>
       <c r="F38" s="21" t="n">
-        <v>13938</v>
+        <v>14133</v>
       </c>
       <c r="J38" s="5" t="n"/>
       <c r="L38" s="20" t="inlineStr">
@@ -82903,7 +82971,7 @@
         </is>
       </c>
       <c r="P44" s="8" t="n">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="T44" s="5" t="n"/>
     </row>
@@ -84314,7 +84382,7 @@
         </is>
       </c>
       <c r="F86" s="8" t="n">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="J86" s="5" t="n"/>
     </row>

--- a/output/Lagserien 2022 kvinner 3. div.xlsx
+++ b/output/Lagserien 2022 kvinner 3. div.xlsx
@@ -1755,16 +1755,16 @@
       </c>
       <c r="B44" s="3" t="inlineStr">
         <is>
-          <t>Bardu IL</t>
+          <t>Otra IL</t>
         </is>
       </c>
       <c r="C44" s="3" t="inlineStr">
         <is>
-          <t>(19/8)</t>
+          <t>(14/6)</t>
         </is>
       </c>
       <c r="D44" s="3" t="n">
-        <v>8432</v>
+        <v>8563</v>
       </c>
       <c r="E44" s="4" t="inlineStr">
         <is>
@@ -1773,7 +1773,7 @@
       </c>
       <c r="F44" s="3" t="inlineStr">
         <is>
-          <t>Troms</t>
+          <t>Agder</t>
         </is>
       </c>
     </row>
@@ -1783,16 +1783,16 @@
       </c>
       <c r="B45" s="3" t="inlineStr">
         <is>
-          <t>Sem IF</t>
+          <t>Bardu IL</t>
         </is>
       </c>
       <c r="C45" s="3" t="inlineStr">
         <is>
-          <t>(14/6)</t>
+          <t>(19/8)</t>
         </is>
       </c>
       <c r="D45" s="3" t="n">
-        <v>8408</v>
+        <v>8432</v>
       </c>
       <c r="E45" s="4" t="inlineStr">
         <is>
@@ -1801,7 +1801,7 @@
       </c>
       <c r="F45" s="3" t="inlineStr">
         <is>
-          <t>Vestfold</t>
+          <t>Troms</t>
         </is>
       </c>
     </row>
@@ -1811,16 +1811,16 @@
       </c>
       <c r="B46" s="3" t="inlineStr">
         <is>
-          <t>Snøgg Friidrett</t>
+          <t>Sem IF</t>
         </is>
       </c>
       <c r="C46" s="3" t="inlineStr">
         <is>
-          <t>(18/8)</t>
+          <t>(14/6)</t>
         </is>
       </c>
       <c r="D46" s="3" t="n">
-        <v>8384</v>
+        <v>8408</v>
       </c>
       <c r="E46" s="4" t="inlineStr">
         <is>
@@ -1829,7 +1829,7 @@
       </c>
       <c r="F46" s="3" t="inlineStr">
         <is>
-          <t>Telemark</t>
+          <t>Vestfold</t>
         </is>
       </c>
     </row>
@@ -1839,16 +1839,16 @@
       </c>
       <c r="B47" s="3" t="inlineStr">
         <is>
-          <t>Sandnes IL 3. lag</t>
+          <t>Snøgg Friidrett</t>
         </is>
       </c>
       <c r="C47" s="3" t="inlineStr">
         <is>
-          <t>(18/10)</t>
+          <t>(18/8)</t>
         </is>
       </c>
       <c r="D47" s="3" t="n">
-        <v>8339</v>
+        <v>8384</v>
       </c>
       <c r="E47" s="4" t="inlineStr">
         <is>
@@ -1857,7 +1857,7 @@
       </c>
       <c r="F47" s="3" t="inlineStr">
         <is>
-          <t>Rogaland</t>
+          <t>Telemark</t>
         </is>
       </c>
     </row>
@@ -1867,16 +1867,16 @@
       </c>
       <c r="B48" s="3" t="inlineStr">
         <is>
-          <t>IL Norodd</t>
+          <t>Sandnes IL 3. lag</t>
         </is>
       </c>
       <c r="C48" s="3" t="inlineStr">
         <is>
-          <t>(17/7)</t>
+          <t>(18/10)</t>
         </is>
       </c>
       <c r="D48" s="3" t="n">
-        <v>8325</v>
+        <v>8339</v>
       </c>
       <c r="E48" s="4" t="inlineStr">
         <is>
@@ -1885,7 +1885,7 @@
       </c>
       <c r="F48" s="3" t="inlineStr">
         <is>
-          <t>Møre og Romsdal</t>
+          <t>Rogaland</t>
         </is>
       </c>
     </row>
@@ -1895,16 +1895,16 @@
       </c>
       <c r="B49" s="3" t="inlineStr">
         <is>
-          <t>FIK Orion</t>
+          <t>IL Norodd</t>
         </is>
       </c>
       <c r="C49" s="3" t="inlineStr">
         <is>
-          <t>(13/7)</t>
+          <t>(17/7)</t>
         </is>
       </c>
       <c r="D49" s="3" t="n">
-        <v>8222</v>
+        <v>8325</v>
       </c>
       <c r="E49" s="4" t="inlineStr">
         <is>
@@ -1913,7 +1913,7 @@
       </c>
       <c r="F49" s="3" t="inlineStr">
         <is>
-          <t>Innlandet</t>
+          <t>Møre og Romsdal</t>
         </is>
       </c>
     </row>
@@ -1923,16 +1923,16 @@
       </c>
       <c r="B50" s="3" t="inlineStr">
         <is>
-          <t>Otra IL</t>
+          <t>FIK Orion</t>
         </is>
       </c>
       <c r="C50" s="3" t="inlineStr">
         <is>
-          <t>(13/6)</t>
+          <t>(13/7)</t>
         </is>
       </c>
       <c r="D50" s="3" t="n">
-        <v>8185</v>
+        <v>8222</v>
       </c>
       <c r="E50" s="4" t="inlineStr">
         <is>
@@ -1941,7 +1941,7 @@
       </c>
       <c r="F50" s="3" t="inlineStr">
         <is>
-          <t>Agder</t>
+          <t>Innlandet</t>
         </is>
       </c>
     </row>
@@ -2203,16 +2203,16 @@
       </c>
       <c r="B60" s="3" t="inlineStr">
         <is>
-          <t>IL Koll</t>
+          <t>Brandbu IF</t>
         </is>
       </c>
       <c r="C60" s="3" t="inlineStr">
         <is>
-          <t>(17/10)</t>
+          <t>(17/8)</t>
         </is>
       </c>
       <c r="D60" s="3" t="n">
-        <v>7424</v>
+        <v>7538</v>
       </c>
       <c r="E60" s="4" t="inlineStr">
         <is>
@@ -2221,7 +2221,7 @@
       </c>
       <c r="F60" s="3" t="inlineStr">
         <is>
-          <t>Oslo</t>
+          <t>Innlandet</t>
         </is>
       </c>
     </row>
@@ -2231,16 +2231,16 @@
       </c>
       <c r="B61" s="3" t="inlineStr">
         <is>
-          <t>Ullensaker/Kisa IL 2. lag</t>
+          <t>IL Koll</t>
         </is>
       </c>
       <c r="C61" s="3" t="inlineStr">
         <is>
-          <t>(17/7)</t>
+          <t>(17/10)</t>
         </is>
       </c>
       <c r="D61" s="3" t="n">
-        <v>7375</v>
+        <v>7424</v>
       </c>
       <c r="E61" s="4" t="inlineStr">
         <is>
@@ -2249,7 +2249,7 @@
       </c>
       <c r="F61" s="3" t="inlineStr">
         <is>
-          <t>Akershus</t>
+          <t>Oslo</t>
         </is>
       </c>
     </row>
@@ -2259,16 +2259,16 @@
       </c>
       <c r="B62" s="3" t="inlineStr">
         <is>
-          <t>Florø Turn og IF</t>
+          <t>Ullensaker/Kisa IL 2. lag</t>
         </is>
       </c>
       <c r="C62" s="3" t="inlineStr">
         <is>
-          <t>(15/6)</t>
+          <t>(17/7)</t>
         </is>
       </c>
       <c r="D62" s="3" t="n">
-        <v>7299</v>
+        <v>7375</v>
       </c>
       <c r="E62" s="4" t="inlineStr">
         <is>
@@ -2277,7 +2277,7 @@
       </c>
       <c r="F62" s="3" t="inlineStr">
         <is>
-          <t>Sogn og Fjordane</t>
+          <t>Akershus</t>
         </is>
       </c>
     </row>
@@ -2287,16 +2287,16 @@
       </c>
       <c r="B63" s="3" t="inlineStr">
         <is>
-          <t>Verdal Friidrettsklubb</t>
+          <t>Florø Turn og IF</t>
         </is>
       </c>
       <c r="C63" s="3" t="inlineStr">
         <is>
-          <t>(14/7)</t>
+          <t>(15/6)</t>
         </is>
       </c>
       <c r="D63" s="3" t="n">
-        <v>7279</v>
+        <v>7299</v>
       </c>
       <c r="E63" s="4" t="inlineStr">
         <is>
@@ -2305,7 +2305,7 @@
       </c>
       <c r="F63" s="3" t="inlineStr">
         <is>
-          <t>Nord-Trøndelag</t>
+          <t>Sogn og Fjordane</t>
         </is>
       </c>
     </row>
@@ -2315,16 +2315,16 @@
       </c>
       <c r="B64" s="3" t="inlineStr">
         <is>
-          <t>Utleira IL Friidrett</t>
+          <t>Verdal Friidrettsklubb</t>
         </is>
       </c>
       <c r="C64" s="3" t="inlineStr">
         <is>
-          <t>(13/6)</t>
+          <t>(14/7)</t>
         </is>
       </c>
       <c r="D64" s="3" t="n">
-        <v>7151</v>
+        <v>7279</v>
       </c>
       <c r="E64" s="4" t="inlineStr">
         <is>
@@ -2333,7 +2333,7 @@
       </c>
       <c r="F64" s="3" t="inlineStr">
         <is>
-          <t>Sør-Trøndelag</t>
+          <t>Nord-Trøndelag</t>
         </is>
       </c>
     </row>
@@ -2343,16 +2343,16 @@
       </c>
       <c r="B65" s="3" t="inlineStr">
         <is>
-          <t>IL i BUL 2. lag</t>
+          <t>Utleira IL Friidrett</t>
         </is>
       </c>
       <c r="C65" s="3" t="inlineStr">
         <is>
-          <t>(13/8)</t>
+          <t>(13/6)</t>
         </is>
       </c>
       <c r="D65" s="3" t="n">
-        <v>7076</v>
+        <v>7151</v>
       </c>
       <c r="E65" s="4" t="inlineStr">
         <is>
@@ -2361,7 +2361,7 @@
       </c>
       <c r="F65" s="3" t="inlineStr">
         <is>
-          <t>Oslo</t>
+          <t>Sør-Trøndelag</t>
         </is>
       </c>
     </row>
@@ -2371,16 +2371,16 @@
       </c>
       <c r="B66" s="3" t="inlineStr">
         <is>
-          <t>Spirit Friidrettsklubb</t>
+          <t>IL i BUL 2. lag</t>
         </is>
       </c>
       <c r="C66" s="3" t="inlineStr">
         <is>
-          <t>(10/3)</t>
+          <t>(13/8)</t>
         </is>
       </c>
       <c r="D66" s="3" t="n">
-        <v>7054</v>
+        <v>7076</v>
       </c>
       <c r="E66" s="4" t="inlineStr">
         <is>
@@ -2389,7 +2389,7 @@
       </c>
       <c r="F66" s="3" t="inlineStr">
         <is>
-          <t>Rogaland</t>
+          <t>Oslo</t>
         </is>
       </c>
     </row>
@@ -2399,16 +2399,16 @@
       </c>
       <c r="B67" s="3" t="inlineStr">
         <is>
-          <t>Haugesund IL 2. lag</t>
+          <t>Spirit Friidrettsklubb</t>
         </is>
       </c>
       <c r="C67" s="3" t="inlineStr">
         <is>
-          <t>(15/10)</t>
+          <t>(10/3)</t>
         </is>
       </c>
       <c r="D67" s="3" t="n">
-        <v>7042</v>
+        <v>7054</v>
       </c>
       <c r="E67" s="4" t="inlineStr">
         <is>
@@ -2427,16 +2427,16 @@
       </c>
       <c r="B68" s="3" t="inlineStr">
         <is>
-          <t>Brandbu IF</t>
+          <t>Haugesund IL 2. lag</t>
         </is>
       </c>
       <c r="C68" s="3" t="inlineStr">
         <is>
-          <t>(16/7)</t>
+          <t>(15/10)</t>
         </is>
       </c>
       <c r="D68" s="3" t="n">
-        <v>6962</v>
+        <v>7042</v>
       </c>
       <c r="E68" s="4" t="inlineStr">
         <is>
@@ -2445,7 +2445,7 @@
       </c>
       <c r="F68" s="3" t="inlineStr">
         <is>
-          <t>Innlandet</t>
+          <t>Rogaland</t>
         </is>
       </c>
     </row>
@@ -2651,16 +2651,16 @@
       </c>
       <c r="B76" s="3" t="inlineStr">
         <is>
-          <t>Ringerike Friidrettsklubb</t>
+          <t>Voss IL</t>
         </is>
       </c>
       <c r="C76" s="3" t="inlineStr">
         <is>
-          <t>(12/5)</t>
+          <t>(18/5)</t>
         </is>
       </c>
       <c r="D76" s="3" t="n">
-        <v>6643</v>
+        <v>6748</v>
       </c>
       <c r="E76" s="4" t="inlineStr">
         <is>
@@ -2669,7 +2669,7 @@
       </c>
       <c r="F76" s="3" t="inlineStr">
         <is>
-          <t>Buskerud</t>
+          <t>Hordaland</t>
         </is>
       </c>
     </row>
@@ -2679,16 +2679,16 @@
       </c>
       <c r="B77" s="3" t="inlineStr">
         <is>
-          <t>Drøbak-Frogn IL Friidrett</t>
+          <t>Ringerike Friidrettsklubb</t>
         </is>
       </c>
       <c r="C77" s="3" t="inlineStr">
         <is>
-          <t>(15/9)</t>
+          <t>(12/5)</t>
         </is>
       </c>
       <c r="D77" s="3" t="n">
-        <v>6448</v>
+        <v>6643</v>
       </c>
       <c r="E77" s="4" t="inlineStr">
         <is>
@@ -2697,7 +2697,7 @@
       </c>
       <c r="F77" s="3" t="inlineStr">
         <is>
-          <t>Akershus</t>
+          <t>Buskerud</t>
         </is>
       </c>
     </row>
@@ -2707,16 +2707,16 @@
       </c>
       <c r="B78" s="3" t="inlineStr">
         <is>
-          <t>T&amp;IF Viking</t>
+          <t>Sørild FIK 2. lag</t>
         </is>
       </c>
       <c r="C78" s="3" t="inlineStr">
         <is>
-          <t>(13/5)</t>
+          <t>(17/10)</t>
         </is>
       </c>
       <c r="D78" s="3" t="n">
-        <v>6434</v>
+        <v>6506</v>
       </c>
       <c r="E78" s="4" t="inlineStr">
         <is>
@@ -2725,7 +2725,7 @@
       </c>
       <c r="F78" s="3" t="inlineStr">
         <is>
-          <t>Hordaland</t>
+          <t>Agder</t>
         </is>
       </c>
     </row>
@@ -2735,16 +2735,16 @@
       </c>
       <c r="B79" s="3" t="inlineStr">
         <is>
-          <t>Førde IL Friidrett</t>
+          <t>Drøbak-Frogn IL Friidrett</t>
         </is>
       </c>
       <c r="C79" s="3" t="inlineStr">
         <is>
-          <t>(12/8)</t>
+          <t>(15/9)</t>
         </is>
       </c>
       <c r="D79" s="3" t="n">
-        <v>6429</v>
+        <v>6448</v>
       </c>
       <c r="E79" s="4" t="inlineStr">
         <is>
@@ -2753,7 +2753,7 @@
       </c>
       <c r="F79" s="3" t="inlineStr">
         <is>
-          <t>Sogn og Fjordane</t>
+          <t>Akershus</t>
         </is>
       </c>
     </row>
@@ -2763,16 +2763,16 @@
       </c>
       <c r="B80" s="3" t="inlineStr">
         <is>
-          <t>Herkules Friidrett 2. lag</t>
+          <t>T&amp;IF Viking</t>
         </is>
       </c>
       <c r="C80" s="3" t="inlineStr">
         <is>
-          <t>(16/7)</t>
+          <t>(13/5)</t>
         </is>
       </c>
       <c r="D80" s="3" t="n">
-        <v>6293</v>
+        <v>6434</v>
       </c>
       <c r="E80" s="4" t="inlineStr">
         <is>
@@ -2781,7 +2781,7 @@
       </c>
       <c r="F80" s="3" t="inlineStr">
         <is>
-          <t>Telemark</t>
+          <t>Hordaland</t>
         </is>
       </c>
     </row>
@@ -2791,16 +2791,16 @@
       </c>
       <c r="B81" s="3" t="inlineStr">
         <is>
-          <t>IL Nybrott</t>
+          <t>Førde IL Friidrett</t>
         </is>
       </c>
       <c r="C81" s="3" t="inlineStr">
         <is>
-          <t>(15/8)</t>
+          <t>(12/8)</t>
         </is>
       </c>
       <c r="D81" s="3" t="n">
-        <v>6243</v>
+        <v>6429</v>
       </c>
       <c r="E81" s="4" t="inlineStr">
         <is>
@@ -2809,7 +2809,7 @@
       </c>
       <c r="F81" s="3" t="inlineStr">
         <is>
-          <t>Nord-Trøndelag</t>
+          <t>Sogn og Fjordane</t>
         </is>
       </c>
     </row>
@@ -2819,16 +2819,16 @@
       </c>
       <c r="B82" s="3" t="inlineStr">
         <is>
-          <t>Lillehammer IF 2. lag</t>
+          <t>Varegg IL 2. lag</t>
         </is>
       </c>
       <c r="C82" s="3" t="inlineStr">
         <is>
-          <t>(10/6)</t>
+          <t>(13/8)</t>
         </is>
       </c>
       <c r="D82" s="3" t="n">
-        <v>6236</v>
+        <v>6352</v>
       </c>
       <c r="E82" s="4" t="inlineStr">
         <is>
@@ -2837,7 +2837,7 @@
       </c>
       <c r="F82" s="3" t="inlineStr">
         <is>
-          <t>Innlandet</t>
+          <t>Hordaland</t>
         </is>
       </c>
     </row>
@@ -2847,16 +2847,16 @@
       </c>
       <c r="B83" s="3" t="inlineStr">
         <is>
-          <t>Raufoss Idrettslag Friidrett</t>
+          <t>Herkules Friidrett 2. lag</t>
         </is>
       </c>
       <c r="C83" s="3" t="inlineStr">
         <is>
-          <t>(13/6)</t>
+          <t>(16/7)</t>
         </is>
       </c>
       <c r="D83" s="3" t="n">
-        <v>6211</v>
+        <v>6293</v>
       </c>
       <c r="E83" s="4" t="inlineStr">
         <is>
@@ -2865,7 +2865,7 @@
       </c>
       <c r="F83" s="3" t="inlineStr">
         <is>
-          <t>Innlandet</t>
+          <t>Telemark</t>
         </is>
       </c>
     </row>
@@ -2875,16 +2875,16 @@
       </c>
       <c r="B84" s="3" t="inlineStr">
         <is>
-          <t>Osterøy IL</t>
+          <t>IL Nybrott</t>
         </is>
       </c>
       <c r="C84" s="3" t="inlineStr">
         <is>
-          <t>(14/8)</t>
+          <t>(15/8)</t>
         </is>
       </c>
       <c r="D84" s="3" t="n">
-        <v>6199</v>
+        <v>6243</v>
       </c>
       <c r="E84" s="4" t="inlineStr">
         <is>
@@ -2893,7 +2893,7 @@
       </c>
       <c r="F84" s="3" t="inlineStr">
         <is>
-          <t>Hordaland</t>
+          <t>Nord-Trøndelag</t>
         </is>
       </c>
     </row>
@@ -2903,16 +2903,16 @@
       </c>
       <c r="B85" s="3" t="inlineStr">
         <is>
-          <t>Bækkelagets SK 2. lag</t>
+          <t>Lillehammer IF 2. lag</t>
         </is>
       </c>
       <c r="C85" s="3" t="inlineStr">
         <is>
-          <t>(15/11)</t>
+          <t>(10/6)</t>
         </is>
       </c>
       <c r="D85" s="3" t="n">
-        <v>6197</v>
+        <v>6236</v>
       </c>
       <c r="E85" s="4" t="inlineStr">
         <is>
@@ -2921,7 +2921,7 @@
       </c>
       <c r="F85" s="3" t="inlineStr">
         <is>
-          <t>Oslo</t>
+          <t>Innlandet</t>
         </is>
       </c>
     </row>
@@ -2931,16 +2931,16 @@
       </c>
       <c r="B86" s="3" t="inlineStr">
         <is>
-          <t>Varegg IL 2. lag</t>
+          <t>Raufoss Idrettslag Friidrett</t>
         </is>
       </c>
       <c r="C86" s="3" t="inlineStr">
         <is>
-          <t>(13/7)</t>
+          <t>(13/6)</t>
         </is>
       </c>
       <c r="D86" s="3" t="n">
-        <v>6154</v>
+        <v>6211</v>
       </c>
       <c r="E86" s="4" t="inlineStr">
         <is>
@@ -2949,7 +2949,7 @@
       </c>
       <c r="F86" s="3" t="inlineStr">
         <is>
-          <t>Hordaland</t>
+          <t>Innlandet</t>
         </is>
       </c>
     </row>
@@ -2959,16 +2959,16 @@
       </c>
       <c r="B87" s="3" t="inlineStr">
         <is>
-          <t>Aremark IF</t>
+          <t>Osterøy IL</t>
         </is>
       </c>
       <c r="C87" s="3" t="inlineStr">
         <is>
-          <t>(11/5)</t>
+          <t>(14/8)</t>
         </is>
       </c>
       <c r="D87" s="3" t="n">
-        <v>6135</v>
+        <v>6199</v>
       </c>
       <c r="E87" s="4" t="inlineStr">
         <is>
@@ -2977,7 +2977,7 @@
       </c>
       <c r="F87" s="3" t="inlineStr">
         <is>
-          <t>Østfold</t>
+          <t>Hordaland</t>
         </is>
       </c>
     </row>
@@ -2987,16 +2987,16 @@
       </c>
       <c r="B88" s="3" t="inlineStr">
         <is>
-          <t>IL Pioner</t>
+          <t>Bækkelagets SK 2. lag</t>
         </is>
       </c>
       <c r="C88" s="3" t="inlineStr">
         <is>
-          <t>(14/7)</t>
+          <t>(15/11)</t>
         </is>
       </c>
       <c r="D88" s="3" t="n">
-        <v>6038</v>
+        <v>6197</v>
       </c>
       <c r="E88" s="4" t="inlineStr">
         <is>
@@ -3005,7 +3005,7 @@
       </c>
       <c r="F88" s="3" t="inlineStr">
         <is>
-          <t>Troms</t>
+          <t>Oslo</t>
         </is>
       </c>
     </row>
@@ -3015,16 +3015,16 @@
       </c>
       <c r="B89" s="3" t="inlineStr">
         <is>
-          <t>Selbu IL</t>
+          <t>Aremark IF</t>
         </is>
       </c>
       <c r="C89" s="3" t="inlineStr">
         <is>
-          <t>(17/7)</t>
+          <t>(11/5)</t>
         </is>
       </c>
       <c r="D89" s="3" t="n">
-        <v>5975</v>
+        <v>6135</v>
       </c>
       <c r="E89" s="4" t="inlineStr">
         <is>
@@ -3033,7 +3033,7 @@
       </c>
       <c r="F89" s="3" t="inlineStr">
         <is>
-          <t>Sør-Trøndelag</t>
+          <t>Østfold</t>
         </is>
       </c>
     </row>
@@ -3043,16 +3043,16 @@
       </c>
       <c r="B90" s="3" t="inlineStr">
         <is>
-          <t>Seljord IL</t>
+          <t>IL Pioner</t>
         </is>
       </c>
       <c r="C90" s="3" t="inlineStr">
         <is>
-          <t>(9/3)</t>
+          <t>(14/7)</t>
         </is>
       </c>
       <c r="D90" s="3" t="n">
-        <v>5966</v>
+        <v>6038</v>
       </c>
       <c r="E90" s="4" t="inlineStr">
         <is>
@@ -3061,7 +3061,7 @@
       </c>
       <c r="F90" s="3" t="inlineStr">
         <is>
-          <t>Telemark</t>
+          <t>Troms</t>
         </is>
       </c>
     </row>
@@ -3071,16 +3071,16 @@
       </c>
       <c r="B91" s="3" t="inlineStr">
         <is>
-          <t>Kristiansands IF Friidrett 3. lag</t>
+          <t>Selbu IL</t>
         </is>
       </c>
       <c r="C91" s="3" t="inlineStr">
         <is>
-          <t>(16/9)</t>
+          <t>(17/7)</t>
         </is>
       </c>
       <c r="D91" s="3" t="n">
-        <v>5930</v>
+        <v>5975</v>
       </c>
       <c r="E91" s="4" t="inlineStr">
         <is>
@@ -3089,7 +3089,7 @@
       </c>
       <c r="F91" s="3" t="inlineStr">
         <is>
-          <t>Agder</t>
+          <t>Sør-Trøndelag</t>
         </is>
       </c>
     </row>
@@ -3099,16 +3099,16 @@
       </c>
       <c r="B92" s="3" t="inlineStr">
         <is>
-          <t>Ask Friidrett 2. lag</t>
+          <t>Seljord IL</t>
         </is>
       </c>
       <c r="C92" s="3" t="inlineStr">
         <is>
-          <t>(15/7)</t>
+          <t>(9/3)</t>
         </is>
       </c>
       <c r="D92" s="3" t="n">
-        <v>5903</v>
+        <v>5966</v>
       </c>
       <c r="E92" s="4" t="inlineStr">
         <is>
@@ -3117,7 +3117,7 @@
       </c>
       <c r="F92" s="3" t="inlineStr">
         <is>
-          <t>Hordaland</t>
+          <t>Telemark</t>
         </is>
       </c>
     </row>
@@ -3127,7 +3127,7 @@
       </c>
       <c r="B93" s="3" t="inlineStr">
         <is>
-          <t>Sørild FIK 2. lag</t>
+          <t>Kristiansands IF Friidrett 3. lag</t>
         </is>
       </c>
       <c r="C93" s="3" t="inlineStr">
@@ -3136,7 +3136,7 @@
         </is>
       </c>
       <c r="D93" s="3" t="n">
-        <v>5895</v>
+        <v>5930</v>
       </c>
       <c r="E93" s="4" t="inlineStr">
         <is>
@@ -3155,16 +3155,16 @@
       </c>
       <c r="B94" s="3" t="inlineStr">
         <is>
-          <t>Gui Sportsklubb</t>
+          <t>Ask Friidrett 2. lag</t>
         </is>
       </c>
       <c r="C94" s="3" t="inlineStr">
         <is>
-          <t>(13/6)</t>
+          <t>(15/7)</t>
         </is>
       </c>
       <c r="D94" s="3" t="n">
-        <v>5890</v>
+        <v>5903</v>
       </c>
       <c r="E94" s="4" t="inlineStr">
         <is>
@@ -3173,7 +3173,7 @@
       </c>
       <c r="F94" s="3" t="inlineStr">
         <is>
-          <t>Akershus</t>
+          <t>Hordaland</t>
         </is>
       </c>
     </row>
@@ -3183,16 +3183,16 @@
       </c>
       <c r="B95" s="3" t="inlineStr">
         <is>
-          <t>IK Grane</t>
+          <t>Gui Sportsklubb</t>
         </is>
       </c>
       <c r="C95" s="3" t="inlineStr">
         <is>
-          <t>(14/9)</t>
+          <t>(13/6)</t>
         </is>
       </c>
       <c r="D95" s="3" t="n">
-        <v>5871</v>
+        <v>5890</v>
       </c>
       <c r="E95" s="4" t="inlineStr">
         <is>
@@ -3201,7 +3201,7 @@
       </c>
       <c r="F95" s="3" t="inlineStr">
         <is>
-          <t>Agder</t>
+          <t>Akershus</t>
         </is>
       </c>
     </row>
@@ -3211,16 +3211,16 @@
       </c>
       <c r="B96" s="3" t="inlineStr">
         <is>
-          <t>Lørenskog Friidrettslag</t>
+          <t>IK Grane</t>
         </is>
       </c>
       <c r="C96" s="3" t="inlineStr">
         <is>
-          <t>(10/5)</t>
+          <t>(14/9)</t>
         </is>
       </c>
       <c r="D96" s="3" t="n">
-        <v>5750</v>
+        <v>5871</v>
       </c>
       <c r="E96" s="4" t="inlineStr">
         <is>
@@ -3229,7 +3229,7 @@
       </c>
       <c r="F96" s="3" t="inlineStr">
         <is>
-          <t>Akershus</t>
+          <t>Agder</t>
         </is>
       </c>
     </row>
@@ -3239,16 +3239,16 @@
       </c>
       <c r="B97" s="3" t="inlineStr">
         <is>
-          <t>Gjøvik FIK</t>
+          <t>Lørenskog Friidrettslag</t>
         </is>
       </c>
       <c r="C97" s="3" t="inlineStr">
         <is>
-          <t>(14/5)</t>
+          <t>(10/5)</t>
         </is>
       </c>
       <c r="D97" s="3" t="n">
-        <v>5692</v>
+        <v>5750</v>
       </c>
       <c r="E97" s="4" t="inlineStr">
         <is>
@@ -3257,7 +3257,7 @@
       </c>
       <c r="F97" s="3" t="inlineStr">
         <is>
-          <t>Innlandet</t>
+          <t>Akershus</t>
         </is>
       </c>
     </row>
@@ -3267,16 +3267,16 @@
       </c>
       <c r="B98" s="3" t="inlineStr">
         <is>
-          <t>Stadsbygd IL</t>
+          <t>Gjøvik FIK</t>
         </is>
       </c>
       <c r="C98" s="3" t="inlineStr">
         <is>
-          <t>(11/5)</t>
+          <t>(14/5)</t>
         </is>
       </c>
       <c r="D98" s="3" t="n">
-        <v>5636</v>
+        <v>5692</v>
       </c>
       <c r="E98" s="4" t="inlineStr">
         <is>
@@ -3285,7 +3285,7 @@
       </c>
       <c r="F98" s="3" t="inlineStr">
         <is>
-          <t>Sør-Trøndelag</t>
+          <t>Innlandet</t>
         </is>
       </c>
     </row>
@@ -3295,7 +3295,7 @@
       </c>
       <c r="B99" s="3" t="inlineStr">
         <is>
-          <t>Sunndal IL Friidrett</t>
+          <t>Stadsbygd IL</t>
         </is>
       </c>
       <c r="C99" s="3" t="inlineStr">
@@ -3313,7 +3313,7 @@
       </c>
       <c r="F99" s="3" t="inlineStr">
         <is>
-          <t>Møre og Romsdal</t>
+          <t>Sør-Trøndelag</t>
         </is>
       </c>
     </row>
@@ -3323,16 +3323,16 @@
       </c>
       <c r="B100" s="3" t="inlineStr">
         <is>
-          <t>IL Fri</t>
+          <t>Sunndal IL Friidrett</t>
         </is>
       </c>
       <c r="C100" s="3" t="inlineStr">
         <is>
-          <t>(12/9)</t>
+          <t>(11/5)</t>
         </is>
       </c>
       <c r="D100" s="3" t="n">
-        <v>5618</v>
+        <v>5636</v>
       </c>
       <c r="E100" s="4" t="inlineStr">
         <is>
@@ -3341,7 +3341,7 @@
       </c>
       <c r="F100" s="3" t="inlineStr">
         <is>
-          <t>Hordaland</t>
+          <t>Møre og Romsdal</t>
         </is>
       </c>
     </row>
@@ -3351,16 +3351,16 @@
       </c>
       <c r="B101" s="3" t="inlineStr">
         <is>
-          <t>Botne SK</t>
+          <t>IL Fri</t>
         </is>
       </c>
       <c r="C101" s="3" t="inlineStr">
         <is>
-          <t>(14/7)</t>
+          <t>(12/9)</t>
         </is>
       </c>
       <c r="D101" s="3" t="n">
-        <v>5403</v>
+        <v>5618</v>
       </c>
       <c r="E101" s="4" t="inlineStr">
         <is>
@@ -3369,7 +3369,7 @@
       </c>
       <c r="F101" s="3" t="inlineStr">
         <is>
-          <t>Vestfold</t>
+          <t>Hordaland</t>
         </is>
       </c>
     </row>
@@ -3379,16 +3379,16 @@
       </c>
       <c r="B102" s="3" t="inlineStr">
         <is>
-          <t>Tønsberg Friidrettsklubb 2. lag</t>
+          <t>Botne SK</t>
         </is>
       </c>
       <c r="C102" s="3" t="inlineStr">
         <is>
-          <t>(14/10)</t>
+          <t>(14/7)</t>
         </is>
       </c>
       <c r="D102" s="3" t="n">
-        <v>5316</v>
+        <v>5403</v>
       </c>
       <c r="E102" s="4" t="inlineStr">
         <is>
@@ -3407,16 +3407,16 @@
       </c>
       <c r="B103" s="3" t="inlineStr">
         <is>
-          <t>Gjesdal IL</t>
+          <t>Tønsberg Friidrettsklubb 2. lag</t>
         </is>
       </c>
       <c r="C103" s="3" t="inlineStr">
         <is>
-          <t>(10/6)</t>
+          <t>(14/10)</t>
         </is>
       </c>
       <c r="D103" s="3" t="n">
-        <v>5304</v>
+        <v>5316</v>
       </c>
       <c r="E103" s="4" t="inlineStr">
         <is>
@@ -3425,7 +3425,7 @@
       </c>
       <c r="F103" s="3" t="inlineStr">
         <is>
-          <t>Rogaland</t>
+          <t>Vestfold</t>
         </is>
       </c>
     </row>
@@ -3435,16 +3435,16 @@
       </c>
       <c r="B104" s="3" t="inlineStr">
         <is>
-          <t>BUL-Tromsø Friidrett 2. lag</t>
+          <t>Gjesdal IL</t>
         </is>
       </c>
       <c r="C104" s="3" t="inlineStr">
         <is>
-          <t>(16/8)</t>
+          <t>(10/6)</t>
         </is>
       </c>
       <c r="D104" s="3" t="n">
-        <v>5293</v>
+        <v>5304</v>
       </c>
       <c r="E104" s="4" t="inlineStr">
         <is>
@@ -3453,7 +3453,7 @@
       </c>
       <c r="F104" s="3" t="inlineStr">
         <is>
-          <t>Troms</t>
+          <t>Rogaland</t>
         </is>
       </c>
     </row>
@@ -3463,16 +3463,16 @@
       </c>
       <c r="B105" s="3" t="inlineStr">
         <is>
-          <t>Idrettslaget Skjalg 4. lag</t>
+          <t>BUL-Tromsø Friidrett 2. lag</t>
         </is>
       </c>
       <c r="C105" s="3" t="inlineStr">
         <is>
-          <t>(12/8)</t>
+          <t>(16/8)</t>
         </is>
       </c>
       <c r="D105" s="3" t="n">
-        <v>5275</v>
+        <v>5293</v>
       </c>
       <c r="E105" s="4" t="inlineStr">
         <is>
@@ -3481,7 +3481,7 @@
       </c>
       <c r="F105" s="3" t="inlineStr">
         <is>
-          <t>Rogaland</t>
+          <t>Troms</t>
         </is>
       </c>
     </row>
@@ -3491,16 +3491,16 @@
       </c>
       <c r="B106" s="3" t="inlineStr">
         <is>
-          <t>Overhalla IL</t>
+          <t>Idrettslaget Skjalg 4. lag</t>
         </is>
       </c>
       <c r="C106" s="3" t="inlineStr">
         <is>
-          <t>(14/7)</t>
+          <t>(12/8)</t>
         </is>
       </c>
       <c r="D106" s="3" t="n">
-        <v>5239</v>
+        <v>5275</v>
       </c>
       <c r="E106" s="4" t="inlineStr">
         <is>
@@ -3509,7 +3509,7 @@
       </c>
       <c r="F106" s="3" t="inlineStr">
         <is>
-          <t>Nord-Trøndelag</t>
+          <t>Rogaland</t>
         </is>
       </c>
     </row>
@@ -3519,16 +3519,16 @@
       </c>
       <c r="B107" s="3" t="inlineStr">
         <is>
-          <t>Lillehammer IF 3. lag</t>
+          <t>Overhalla IL</t>
         </is>
       </c>
       <c r="C107" s="3" t="inlineStr">
         <is>
-          <t>(10/6)</t>
+          <t>(14/7)</t>
         </is>
       </c>
       <c r="D107" s="3" t="n">
-        <v>5137</v>
+        <v>5239</v>
       </c>
       <c r="E107" s="4" t="inlineStr">
         <is>
@@ -3537,7 +3537,7 @@
       </c>
       <c r="F107" s="3" t="inlineStr">
         <is>
-          <t>Innlandet</t>
+          <t>Nord-Trøndelag</t>
         </is>
       </c>
     </row>
@@ -3547,16 +3547,16 @@
       </c>
       <c r="B108" s="3" t="inlineStr">
         <is>
-          <t>Egersunds IK</t>
+          <t>Lillehammer IF 3. lag</t>
         </is>
       </c>
       <c r="C108" s="3" t="inlineStr">
         <is>
-          <t>(13/9)</t>
+          <t>(10/6)</t>
         </is>
       </c>
       <c r="D108" s="3" t="n">
-        <v>5122</v>
+        <v>5137</v>
       </c>
       <c r="E108" s="4" t="inlineStr">
         <is>
@@ -3565,7 +3565,7 @@
       </c>
       <c r="F108" s="3" t="inlineStr">
         <is>
-          <t>Rogaland</t>
+          <t>Innlandet</t>
         </is>
       </c>
     </row>
@@ -3575,16 +3575,16 @@
       </c>
       <c r="B109" s="3" t="inlineStr">
         <is>
-          <t>Fredrikstad IF 2. lag</t>
+          <t>Egersunds IK</t>
         </is>
       </c>
       <c r="C109" s="3" t="inlineStr">
         <is>
-          <t>(14/9)</t>
+          <t>(13/9)</t>
         </is>
       </c>
       <c r="D109" s="3" t="n">
-        <v>5115</v>
+        <v>5122</v>
       </c>
       <c r="E109" s="4" t="inlineStr">
         <is>
@@ -3593,7 +3593,7 @@
       </c>
       <c r="F109" s="3" t="inlineStr">
         <is>
-          <t>Østfold</t>
+          <t>Rogaland</t>
         </is>
       </c>
     </row>
@@ -3603,16 +3603,16 @@
       </c>
       <c r="B110" s="3" t="inlineStr">
         <is>
-          <t>Sandnes IL 4. lag</t>
+          <t>Fredrikstad IF 2. lag</t>
         </is>
       </c>
       <c r="C110" s="3" t="inlineStr">
         <is>
-          <t>(15/10)</t>
+          <t>(14/9)</t>
         </is>
       </c>
       <c r="D110" s="3" t="n">
-        <v>5084</v>
+        <v>5115</v>
       </c>
       <c r="E110" s="4" t="inlineStr">
         <is>
@@ -3621,7 +3621,7 @@
       </c>
       <c r="F110" s="3" t="inlineStr">
         <is>
-          <t>Rogaland</t>
+          <t>Østfold</t>
         </is>
       </c>
     </row>
@@ -3631,16 +3631,16 @@
       </c>
       <c r="B111" s="3" t="inlineStr">
         <is>
-          <t>Voss IL</t>
+          <t>Sandnes IL 4. lag</t>
         </is>
       </c>
       <c r="C111" s="3" t="inlineStr">
         <is>
-          <t>(16/8)</t>
+          <t>(15/10)</t>
         </is>
       </c>
       <c r="D111" s="3" t="n">
-        <v>5082</v>
+        <v>5084</v>
       </c>
       <c r="E111" s="4" t="inlineStr">
         <is>
@@ -3649,7 +3649,7 @@
       </c>
       <c r="F111" s="3" t="inlineStr">
         <is>
-          <t>Hordaland</t>
+          <t>Rogaland</t>
         </is>
       </c>
     </row>
@@ -9317,7 +9317,7 @@
         </is>
       </c>
       <c r="P86" s="8" t="n">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T86" s="5" t="n"/>
     </row>
@@ -10845,7 +10845,7 @@
         </is>
       </c>
       <c r="F128" s="8" t="n">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="J128" s="5" t="n"/>
       <c r="L128" s="6" t="inlineStr">
@@ -12168,7 +12168,7 @@
         </is>
       </c>
       <c r="F170" s="8" t="n">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="J170" s="5" t="n"/>
     </row>
@@ -14571,7 +14571,7 @@
         </is>
       </c>
       <c r="F44" s="8" t="n">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J44" s="5" t="n"/>
       <c r="L44" s="6" t="inlineStr">
@@ -15525,11 +15525,11 @@
       </c>
       <c r="M69" s="7" t="inlineStr">
         <is>
-          <t>Trea Busic</t>
+          <t>Pia Omdahl Tresselt</t>
         </is>
       </c>
       <c r="N69" s="7" t="n">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="O69" s="15" t="n">
         <v>28.56</v>
@@ -15539,11 +15539,11 @@
       </c>
       <c r="Q69" s="7" t="inlineStr">
         <is>
-          <t>Sandnes</t>
+          <t>Stavanger</t>
         </is>
       </c>
       <c r="R69" s="16" t="n">
-        <v>15.05</v>
+        <v>19.05</v>
       </c>
       <c r="T69" s="5" t="n"/>
     </row>
@@ -15583,11 +15583,11 @@
       </c>
       <c r="M70" s="7" t="inlineStr">
         <is>
-          <t>Pia Omdahl Tresselt</t>
+          <t>Trea Busic</t>
         </is>
       </c>
       <c r="N70" s="7" t="n">
-        <v>2005</v>
+        <v>2006</v>
       </c>
       <c r="O70" s="15" t="n">
         <v>28.56</v>
@@ -15597,11 +15597,11 @@
       </c>
       <c r="Q70" s="7" t="inlineStr">
         <is>
-          <t>Stavanger</t>
+          <t>Sandnes</t>
         </is>
       </c>
       <c r="R70" s="16" t="n">
-        <v>19.05</v>
+        <v>15.05</v>
       </c>
       <c r="T70" s="5" t="n"/>
     </row>
@@ -16119,7 +16119,7 @@
         </is>
       </c>
       <c r="F86" s="8" t="n">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="J86" s="5" t="n"/>
       <c r="L86" s="6" t="inlineStr">
@@ -16133,7 +16133,7 @@
         </is>
       </c>
       <c r="P86" s="8" t="n">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="T86" s="5" t="n"/>
     </row>
@@ -17485,7 +17485,7 @@
         </is>
       </c>
       <c r="P128" s="8" t="n">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="T128" s="5" t="n"/>
     </row>
@@ -18847,7 +18847,7 @@
         </is>
       </c>
       <c r="F170" s="8" t="n">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="J170" s="5" t="n"/>
       <c r="L170" s="6" t="inlineStr">
@@ -18861,7 +18861,7 @@
         </is>
       </c>
       <c r="P170" s="8" t="n">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="T170" s="5" t="n"/>
     </row>
@@ -20194,7 +20194,7 @@
         </is>
       </c>
       <c r="F212" s="8" t="n">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="J212" s="5" t="n"/>
     </row>
@@ -21027,7 +21027,7 @@
         </is>
       </c>
       <c r="P2" s="8" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="T2" s="5" t="n"/>
     </row>
@@ -22523,7 +22523,7 @@
         </is>
       </c>
       <c r="F44" s="8" t="n">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="J44" s="5" t="n"/>
       <c r="L44" s="6" t="inlineStr">
@@ -25992,7 +25992,7 @@
       </c>
       <c r="C60" s="7" t="inlineStr">
         <is>
-          <t>Emma Pontén Fredman</t>
+          <t>Emma Matilda Silje Pontén Fredman</t>
         </is>
       </c>
       <c r="D60" s="7" t="n">
@@ -26876,7 +26876,7 @@
         </is>
       </c>
       <c r="F86" s="8" t="n">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="J86" s="5" t="n"/>
       <c r="L86" s="6" t="inlineStr">
@@ -26890,7 +26890,7 @@
         </is>
       </c>
       <c r="P86" s="8" t="n">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="T86" s="5" t="n"/>
     </row>
@@ -28311,7 +28311,7 @@
         </is>
       </c>
       <c r="F128" s="8" t="n">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="J128" s="5" t="n"/>
     </row>
@@ -30654,7 +30654,7 @@
         </is>
       </c>
       <c r="P44" s="8" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="T44" s="5" t="n"/>
     </row>
@@ -30926,7 +30926,7 @@
         </is>
       </c>
       <c r="D53" s="7" t="n">
-        <v>2010</v>
+        <v>2011</v>
       </c>
       <c r="E53" s="17" t="inlineStr">
         <is>
@@ -32230,7 +32230,7 @@
         </is>
       </c>
       <c r="P86" s="8" t="n">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="T86" s="5" t="n"/>
     </row>
@@ -33567,7 +33567,7 @@
         </is>
       </c>
       <c r="F128" s="8" t="n">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="J128" s="5" t="n"/>
     </row>
@@ -35832,7 +35832,7 @@
         </is>
       </c>
       <c r="F44" s="8" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J44" s="5" t="n"/>
       <c r="L44" s="6" t="inlineStr">
@@ -37376,7 +37376,7 @@
         </is>
       </c>
       <c r="F86" s="8" t="n">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="J86" s="5" t="n"/>
       <c r="L86" s="6" t="inlineStr">
@@ -37390,7 +37390,7 @@
         </is>
       </c>
       <c r="P86" s="8" t="n">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="T86" s="5" t="n"/>
     </row>
@@ -38863,7 +38863,7 @@
         </is>
       </c>
       <c r="F2" s="8" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J2" s="5" t="n"/>
       <c r="L2" s="6" t="inlineStr">
@@ -40289,7 +40289,7 @@
         </is>
       </c>
       <c r="F44" s="8" t="n">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="J44" s="5" t="n"/>
       <c r="L44" s="6" t="inlineStr">
@@ -40303,7 +40303,7 @@
         </is>
       </c>
       <c r="P44" s="8" t="n">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="T44" s="5" t="n"/>
     </row>
@@ -41752,7 +41752,7 @@
         </is>
       </c>
       <c r="P2" s="8" t="n">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="T2" s="5" t="n"/>
     </row>
@@ -43203,7 +43203,7 @@
         </is>
       </c>
       <c r="F44" s="8" t="n">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="J44" s="5" t="n"/>
     </row>
@@ -45606,7 +45606,7 @@
         </is>
       </c>
       <c r="F44" s="8" t="n">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="J44" s="5" t="n"/>
       <c r="L44" s="6" t="inlineStr">
@@ -46709,13 +46709,33 @@
       <c r="T72" s="5" t="n"/>
     </row>
     <row r="73" ht="13" customHeight="1">
-      <c r="B73" s="14" t="n"/>
-      <c r="C73" s="7" t="n"/>
-      <c r="D73" s="7" t="n"/>
-      <c r="E73" s="7" t="n"/>
-      <c r="F73" s="7" t="n"/>
-      <c r="G73" s="7" t="n"/>
-      <c r="H73" s="18" t="n"/>
+      <c r="B73" s="14" t="inlineStr">
+        <is>
+          <t>100m</t>
+        </is>
+      </c>
+      <c r="C73" s="7" t="inlineStr">
+        <is>
+          <t>Emelia Tveitå</t>
+        </is>
+      </c>
+      <c r="D73" s="7" t="n">
+        <v>2002</v>
+      </c>
+      <c r="E73" s="15" t="n">
+        <v>14.95</v>
+      </c>
+      <c r="F73" s="7" t="n">
+        <v>378</v>
+      </c>
+      <c r="G73" s="7" t="inlineStr">
+        <is>
+          <t>Strandebarm</t>
+        </is>
+      </c>
+      <c r="H73" s="16" t="n">
+        <v>18.06</v>
+      </c>
       <c r="J73" s="5" t="n"/>
       <c r="L73" s="14" t="inlineStr">
         <is>
@@ -46885,7 +46905,7 @@
         </is>
       </c>
       <c r="C78" s="21" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E78" s="20" t="inlineStr">
         <is>
@@ -46893,7 +46913,7 @@
         </is>
       </c>
       <c r="F78" s="21" t="n">
-        <v>2701</v>
+        <v>3079</v>
       </c>
       <c r="J78" s="5" t="n"/>
       <c r="L78" s="20" t="inlineStr">
@@ -46925,7 +46945,7 @@
         </is>
       </c>
       <c r="C80" s="21" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E80" s="20" t="inlineStr">
         <is>
@@ -46933,7 +46953,7 @@
         </is>
       </c>
       <c r="F80" s="21" t="n">
-        <v>8185</v>
+        <v>8563</v>
       </c>
       <c r="J80" s="5" t="n"/>
       <c r="L80" s="20" t="inlineStr">
@@ -47020,7 +47040,7 @@
         </is>
       </c>
       <c r="F86" s="8" t="n">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="J86" s="5" t="n"/>
       <c r="L86" s="6" t="inlineStr">
@@ -47046,7 +47066,7 @@
       </c>
       <c r="C87" s="7" t="inlineStr">
         <is>
-          <t>Kristiansands IF Friidrett 3. lag</t>
+          <t>Sørild FIK 2. lag</t>
         </is>
       </c>
       <c r="J87" s="5" t="n"/>
@@ -47057,7 +47077,7 @@
       </c>
       <c r="M87" s="7" t="inlineStr">
         <is>
-          <t>Sørild FIK 2. lag</t>
+          <t>Kristiansands IF Friidrett 3. lag</t>
         </is>
       </c>
       <c r="T87" s="5" t="n"/>
@@ -47186,25 +47206,25 @@
       </c>
       <c r="C93" s="7" t="inlineStr">
         <is>
-          <t>Ea Sofie Trollnes Strømsvåg</t>
+          <t>Beate Raknes</t>
         </is>
       </c>
       <c r="D93" s="7" t="n">
         <v>2009</v>
       </c>
       <c r="E93" s="15" t="n">
-        <v>9.18</v>
+        <v>9.06</v>
       </c>
       <c r="F93" s="7" t="n">
-        <v>433</v>
+        <v>459</v>
       </c>
       <c r="G93" s="7" t="inlineStr">
         <is>
-          <t>Søgne</t>
+          <t>Grimstad</t>
         </is>
       </c>
       <c r="H93" s="16" t="n">
-        <v>14.06</v>
+        <v>21.06</v>
       </c>
       <c r="J93" s="5" t="n"/>
       <c r="L93" s="14" t="inlineStr">
@@ -47214,25 +47234,25 @@
       </c>
       <c r="M93" s="7" t="inlineStr">
         <is>
-          <t>Beate Raknes</t>
+          <t>Ea Sofie Trollnes Strømsvåg</t>
         </is>
       </c>
       <c r="N93" s="7" t="n">
         <v>2009</v>
       </c>
       <c r="O93" s="15" t="n">
-        <v>9.06</v>
+        <v>9.18</v>
       </c>
       <c r="P93" s="7" t="n">
-        <v>459</v>
+        <v>433</v>
       </c>
       <c r="Q93" s="7" t="inlineStr">
         <is>
-          <t>Grimstad</t>
+          <t>Søgne</t>
         </is>
       </c>
       <c r="R93" s="16" t="n">
-        <v>21.06</v>
+        <v>14.06</v>
       </c>
       <c r="T93" s="5" t="n"/>
     </row>
@@ -47244,25 +47264,25 @@
       </c>
       <c r="C94" s="7" t="inlineStr">
         <is>
-          <t>Mina Jaktevik</t>
+          <t>Helena Myhren</t>
         </is>
       </c>
       <c r="D94" s="7" t="n">
         <v>2007</v>
       </c>
       <c r="E94" s="15" t="n">
-        <v>14.75</v>
+        <v>14.07</v>
       </c>
       <c r="F94" s="7" t="n">
-        <v>404</v>
+        <v>500</v>
       </c>
       <c r="G94" s="7" t="inlineStr">
         <is>
-          <t>Kristiansand</t>
+          <t>Grimstad</t>
         </is>
       </c>
       <c r="H94" s="16" t="n">
-        <v>2.06</v>
+        <v>31.05</v>
       </c>
       <c r="J94" s="5" t="n"/>
       <c r="L94" s="14" t="inlineStr">
@@ -47272,25 +47292,25 @@
       </c>
       <c r="M94" s="7" t="inlineStr">
         <is>
-          <t>Helena Myhren</t>
+          <t>Mina Jaktevik</t>
         </is>
       </c>
       <c r="N94" s="7" t="n">
         <v>2007</v>
       </c>
       <c r="O94" s="15" t="n">
-        <v>14.07</v>
+        <v>14.75</v>
       </c>
       <c r="P94" s="7" t="n">
-        <v>500</v>
+        <v>404</v>
       </c>
       <c r="Q94" s="7" t="inlineStr">
         <is>
-          <t>Grimstad</t>
+          <t>Kristiansand</t>
         </is>
       </c>
       <c r="R94" s="16" t="n">
-        <v>31.05</v>
+        <v>2.06</v>
       </c>
       <c r="T94" s="5" t="n"/>
     </row>
@@ -47302,17 +47322,17 @@
       </c>
       <c r="C95" s="7" t="inlineStr">
         <is>
-          <t>Sarah Andreassen</t>
+          <t>Helena Myhren</t>
         </is>
       </c>
       <c r="D95" s="7" t="n">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="E95" s="15" t="n">
-        <v>32.58</v>
+        <v>29.82</v>
       </c>
       <c r="F95" s="7" t="n">
-        <v>312</v>
+        <v>462</v>
       </c>
       <c r="G95" s="7" t="inlineStr">
         <is>
@@ -47320,7 +47340,7 @@
         </is>
       </c>
       <c r="H95" s="16" t="n">
-        <v>13.03</v>
+        <v>31.05</v>
       </c>
       <c r="J95" s="5" t="n"/>
       <c r="L95" s="14" t="inlineStr">
@@ -47330,17 +47350,17 @@
       </c>
       <c r="M95" s="7" t="inlineStr">
         <is>
-          <t>Helena Myhren</t>
+          <t>Sarah Andreassen</t>
         </is>
       </c>
       <c r="N95" s="7" t="n">
-        <v>2007</v>
+        <v>2008</v>
       </c>
       <c r="O95" s="15" t="n">
-        <v>29.82</v>
+        <v>32.58</v>
       </c>
       <c r="P95" s="7" t="n">
-        <v>462</v>
+        <v>312</v>
       </c>
       <c r="Q95" s="7" t="inlineStr">
         <is>
@@ -47348,7 +47368,7 @@
         </is>
       </c>
       <c r="R95" s="16" t="n">
-        <v>31.05</v>
+        <v>13.03</v>
       </c>
       <c r="T95" s="5" t="n"/>
     </row>
@@ -47360,7 +47380,7 @@
       </c>
       <c r="C96" s="7" t="inlineStr">
         <is>
-          <t>Ea Sofie Trollnes Strømsvåg</t>
+          <t>Beate Raknes</t>
         </is>
       </c>
       <c r="D96" s="7" t="n">
@@ -47368,11 +47388,11 @@
       </c>
       <c r="E96" s="17" t="inlineStr">
         <is>
-          <t>2,45,10</t>
+          <t>3,00,85</t>
         </is>
       </c>
       <c r="F96" s="7" t="n">
-        <v>421</v>
+        <v>299</v>
       </c>
       <c r="G96" s="7" t="inlineStr">
         <is>
@@ -47380,7 +47400,7 @@
         </is>
       </c>
       <c r="H96" s="16" t="n">
-        <v>19.02</v>
+        <v>28.05</v>
       </c>
       <c r="J96" s="5" t="n"/>
       <c r="L96" s="14" t="inlineStr">
@@ -47390,7 +47410,7 @@
       </c>
       <c r="M96" s="7" t="inlineStr">
         <is>
-          <t>Beate Raknes</t>
+          <t>Ea Sofie Trollnes Strømsvåg</t>
         </is>
       </c>
       <c r="N96" s="7" t="n">
@@ -47398,11 +47418,11 @@
       </c>
       <c r="O96" s="17" t="inlineStr">
         <is>
-          <t>3,00,85</t>
+          <t>2,45,10</t>
         </is>
       </c>
       <c r="P96" s="7" t="n">
-        <v>299</v>
+        <v>421</v>
       </c>
       <c r="Q96" s="7" t="inlineStr">
         <is>
@@ -47410,57 +47430,59 @@
         </is>
       </c>
       <c r="R96" s="16" t="n">
-        <v>28.05</v>
+        <v>19.02</v>
       </c>
       <c r="T96" s="5" t="n"/>
     </row>
     <row r="97" ht="13" customHeight="1">
       <c r="B97" s="14" t="inlineStr">
         <is>
-          <t>Lengde</t>
+          <t>3000m</t>
         </is>
       </c>
       <c r="C97" s="7" t="inlineStr">
         <is>
-          <t>Anna Heggland</t>
+          <t>Tonje Helle Flo</t>
         </is>
       </c>
       <c r="D97" s="7" t="n">
-        <v>2008</v>
-      </c>
-      <c r="E97" s="15" t="n">
-        <v>3.92</v>
+        <v>1987</v>
+      </c>
+      <c r="E97" s="17" t="inlineStr">
+        <is>
+          <t>10,51,3</t>
+        </is>
       </c>
       <c r="F97" s="7" t="n">
-        <v>367</v>
+        <v>611</v>
       </c>
       <c r="G97" s="7" t="inlineStr">
         <is>
-          <t>Kristiansand</t>
+          <t>Grimstad</t>
         </is>
       </c>
       <c r="H97" s="16" t="n">
-        <v>2.06</v>
+        <v>3.08</v>
       </c>
       <c r="J97" s="5" t="n"/>
       <c r="L97" s="14" t="inlineStr">
         <is>
-          <t>Høyde</t>
+          <t>Lengde</t>
         </is>
       </c>
       <c r="M97" s="7" t="inlineStr">
         <is>
-          <t>Beate Raknes</t>
+          <t>Anna Heggland</t>
         </is>
       </c>
       <c r="N97" s="7" t="n">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="O97" s="15" t="n">
-        <v>1.15</v>
+        <v>3.92</v>
       </c>
       <c r="P97" s="7" t="n">
-        <v>240</v>
+        <v>367</v>
       </c>
       <c r="Q97" s="7" t="inlineStr">
         <is>
@@ -47468,29 +47490,29 @@
         </is>
       </c>
       <c r="R97" s="16" t="n">
-        <v>28.05</v>
+        <v>2.06</v>
       </c>
       <c r="T97" s="5" t="n"/>
     </row>
     <row r="98" ht="13" customHeight="1">
       <c r="B98" s="14" t="inlineStr">
         <is>
-          <t>Kule</t>
+          <t>Høyde</t>
         </is>
       </c>
       <c r="C98" s="7" t="inlineStr">
         <is>
-          <t>Susanne Stav Graasvoll</t>
+          <t>Beate Raknes</t>
         </is>
       </c>
       <c r="D98" s="7" t="n">
-        <v>1976</v>
+        <v>2009</v>
       </c>
       <c r="E98" s="15" t="n">
-        <v>7.17</v>
+        <v>1.15</v>
       </c>
       <c r="F98" s="7" t="n">
-        <v>357</v>
+        <v>240</v>
       </c>
       <c r="G98" s="7" t="inlineStr">
         <is>
@@ -47503,157 +47525,177 @@
       <c r="J98" s="5" t="n"/>
       <c r="L98" s="14" t="inlineStr">
         <is>
-          <t>Lengde</t>
+          <t>Kule</t>
         </is>
       </c>
       <c r="M98" s="7" t="inlineStr">
         <is>
-          <t>Helena Myhren</t>
+          <t>Susanne Stav Graasvoll</t>
         </is>
       </c>
       <c r="N98" s="7" t="n">
-        <v>2007</v>
+        <v>1976</v>
       </c>
       <c r="O98" s="15" t="n">
-        <v>4.24</v>
+        <v>7.17</v>
       </c>
       <c r="P98" s="7" t="n">
-        <v>447</v>
+        <v>357</v>
       </c>
       <c r="Q98" s="7" t="inlineStr">
         <is>
-          <t>Grimstad</t>
+          <t>Kristiansand</t>
         </is>
       </c>
       <c r="R98" s="16" t="n">
-        <v>21.06</v>
+        <v>28.05</v>
       </c>
       <c r="T98" s="5" t="n"/>
     </row>
     <row r="99" ht="13" customHeight="1">
       <c r="B99" s="14" t="inlineStr">
         <is>
-          <t>Diskos</t>
+          <t>Lengde</t>
         </is>
       </c>
       <c r="C99" s="7" t="inlineStr">
         <is>
-          <t>Susanne Stav Graasvoll</t>
+          <t>Helena Myhren</t>
         </is>
       </c>
       <c r="D99" s="7" t="n">
-        <v>1976</v>
+        <v>2007</v>
       </c>
       <c r="E99" s="15" t="n">
-        <v>19.29</v>
+        <v>4.24</v>
       </c>
       <c r="F99" s="7" t="n">
-        <v>366</v>
+        <v>447</v>
       </c>
       <c r="G99" s="7" t="inlineStr">
         <is>
-          <t>Kristiansand</t>
+          <t>Grimstad</t>
         </is>
       </c>
       <c r="H99" s="16" t="n">
-        <v>28.05</v>
+        <v>21.06</v>
       </c>
       <c r="J99" s="5" t="n"/>
       <c r="L99" s="14" t="inlineStr">
         <is>
-          <t>Høyde u.t</t>
+          <t>Diskos</t>
         </is>
       </c>
       <c r="M99" s="7" t="inlineStr">
         <is>
-          <t>Tomine Tjomsland Johansson</t>
+          <t>Susanne Stav Graasvoll</t>
         </is>
       </c>
       <c r="N99" s="7" t="n">
-        <v>2011</v>
+        <v>1976</v>
       </c>
       <c r="O99" s="15" t="n">
-        <v>1</v>
+        <v>19.29</v>
       </c>
       <c r="P99" s="7" t="n">
-        <v>280</v>
+        <v>366</v>
       </c>
       <c r="Q99" s="7" t="inlineStr">
         <is>
-          <t>Grimstad</t>
+          <t>Kristiansand</t>
         </is>
       </c>
       <c r="R99" s="16" t="n">
-        <v>30.01</v>
+        <v>28.05</v>
       </c>
       <c r="T99" s="5" t="n"/>
     </row>
     <row r="100" ht="13" customHeight="1">
       <c r="B100" s="14" t="inlineStr">
         <is>
-          <t>Slegge</t>
+          <t>Høyde u.t</t>
         </is>
       </c>
       <c r="C100" s="7" t="inlineStr">
         <is>
-          <t>Hege Hennig Lunde</t>
+          <t>Tomine Tjomsland Johansson</t>
         </is>
       </c>
       <c r="D100" s="7" t="n">
-        <v>1980</v>
+        <v>2011</v>
       </c>
       <c r="E100" s="15" t="n">
-        <v>18.79</v>
+        <v>1</v>
       </c>
       <c r="F100" s="7" t="n">
-        <v>335</v>
+        <v>280</v>
       </c>
       <c r="G100" s="7" t="inlineStr">
         <is>
-          <t>Kristiansand</t>
+          <t>Grimstad</t>
         </is>
       </c>
       <c r="H100" s="16" t="n">
-        <v>25.03</v>
+        <v>30.01</v>
       </c>
       <c r="J100" s="5" t="n"/>
       <c r="L100" s="14" t="inlineStr">
         <is>
+          <t>Slegge</t>
+        </is>
+      </c>
+      <c r="M100" s="7" t="inlineStr">
+        <is>
+          <t>Hege Hennig Lunde</t>
+        </is>
+      </c>
+      <c r="N100" s="7" t="n">
+        <v>1980</v>
+      </c>
+      <c r="O100" s="15" t="n">
+        <v>18.79</v>
+      </c>
+      <c r="P100" s="7" t="n">
+        <v>335</v>
+      </c>
+      <c r="Q100" s="7" t="inlineStr">
+        <is>
+          <t>Kristiansand</t>
+        </is>
+      </c>
+      <c r="R100" s="16" t="n">
+        <v>25.03</v>
+      </c>
+      <c r="T100" s="5" t="n"/>
+    </row>
+    <row r="101" ht="13" customHeight="1">
+      <c r="B101" s="14" t="inlineStr">
+        <is>
           <t>Lengde u.t</t>
         </is>
       </c>
-      <c r="M100" s="7" t="inlineStr">
+      <c r="C101" s="7" t="inlineStr">
         <is>
           <t>Kari-Esther Selvaag Høgevold</t>
         </is>
       </c>
-      <c r="N100" s="7" t="n">
+      <c r="D101" s="7" t="n">
         <v>1964</v>
       </c>
-      <c r="O100" s="15" t="n">
+      <c r="E101" s="15" t="n">
         <v>2.18</v>
       </c>
-      <c r="P100" s="7" t="n">
+      <c r="F101" s="7" t="n">
         <v>403</v>
       </c>
-      <c r="Q100" s="7" t="inlineStr">
+      <c r="G101" s="7" t="inlineStr">
         <is>
           <t>Grimstad</t>
         </is>
       </c>
-      <c r="R100" s="16" t="n">
+      <c r="H101" s="16" t="n">
         <v>26.03</v>
       </c>
-      <c r="T100" s="5" t="n"/>
-    </row>
-    <row r="101" ht="13" customHeight="1">
-      <c r="B101" s="14" t="n"/>
-      <c r="C101" s="7" t="n"/>
-      <c r="D101" s="7" t="n"/>
-      <c r="E101" s="7" t="n"/>
-      <c r="F101" s="7" t="n"/>
-      <c r="G101" s="7" t="n"/>
-      <c r="H101" s="18" t="n"/>
       <c r="J101" s="5" t="n"/>
       <c r="L101" s="14" t="n"/>
       <c r="M101" s="7" t="n"/>
@@ -47743,7 +47785,7 @@
         </is>
       </c>
       <c r="C106" s="21" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E106" s="20" t="inlineStr">
         <is>
@@ -47751,7 +47793,7 @@
         </is>
       </c>
       <c r="F106" s="21" t="n">
-        <v>2995</v>
+        <v>3701</v>
       </c>
       <c r="J106" s="5" t="n"/>
       <c r="L106" s="20" t="inlineStr">
@@ -47768,7 +47810,7 @@
         </is>
       </c>
       <c r="P106" s="21" t="n">
-        <v>3090</v>
+        <v>2995</v>
       </c>
       <c r="T106" s="5" t="n"/>
     </row>
@@ -47871,80 +47913,80 @@
     <row r="111" ht="13" customHeight="1">
       <c r="B111" s="14" t="inlineStr">
         <is>
-          <t>60m</t>
+          <t>200m</t>
         </is>
       </c>
       <c r="C111" s="7" t="inlineStr">
         <is>
-          <t>Maria Aaby Ranneberg</t>
+          <t>Beate Raknes</t>
         </is>
       </c>
       <c r="D111" s="7" t="n">
-        <v>2007</v>
+        <v>2009</v>
       </c>
       <c r="E111" s="15" t="n">
-        <v>9.210000000000001</v>
+        <v>30.29</v>
       </c>
       <c r="F111" s="7" t="n">
-        <v>427</v>
+        <v>434</v>
       </c>
       <c r="G111" s="7" t="inlineStr">
         <is>
-          <t>Grimstad</t>
+          <t>Nadderud</t>
         </is>
       </c>
       <c r="H111" s="16" t="n">
-        <v>13.03</v>
+        <v>12.06</v>
       </c>
       <c r="J111" s="5" t="n"/>
       <c r="L111" s="14" t="inlineStr">
         <is>
-          <t>200m</t>
+          <t>60m</t>
         </is>
       </c>
       <c r="M111" s="7" t="inlineStr">
         <is>
-          <t>Beate Raknes</t>
+          <t>Maria Aaby Ranneberg</t>
         </is>
       </c>
       <c r="N111" s="7" t="n">
-        <v>2009</v>
+        <v>2007</v>
       </c>
       <c r="O111" s="15" t="n">
-        <v>30.29</v>
+        <v>9.210000000000001</v>
       </c>
       <c r="P111" s="7" t="n">
-        <v>434</v>
+        <v>427</v>
       </c>
       <c r="Q111" s="7" t="inlineStr">
         <is>
-          <t>Nadderud</t>
+          <t>Grimstad</t>
         </is>
       </c>
       <c r="R111" s="16" t="n">
-        <v>12.06</v>
+        <v>13.03</v>
       </c>
       <c r="T111" s="5" t="n"/>
     </row>
     <row r="112" ht="13" customHeight="1">
       <c r="B112" s="14" t="inlineStr">
         <is>
-          <t>60m</t>
+          <t>100m</t>
         </is>
       </c>
       <c r="C112" s="7" t="inlineStr">
         <is>
-          <t>Mina Jaktevik</t>
+          <t>Beate Raknes</t>
         </is>
       </c>
       <c r="D112" s="7" t="n">
-        <v>2007</v>
+        <v>2009</v>
       </c>
       <c r="E112" s="15" t="n">
-        <v>9.31</v>
+        <v>14.59</v>
       </c>
       <c r="F112" s="7" t="n">
-        <v>405</v>
+        <v>426</v>
       </c>
       <c r="G112" s="7" t="inlineStr">
         <is>
@@ -47952,27 +47994,27 @@
         </is>
       </c>
       <c r="H112" s="16" t="n">
-        <v>19.02</v>
+        <v>28.05</v>
       </c>
       <c r="J112" s="5" t="n"/>
       <c r="L112" s="14" t="inlineStr">
         <is>
-          <t>100m</t>
+          <t>60m</t>
         </is>
       </c>
       <c r="M112" s="7" t="inlineStr">
         <is>
-          <t>Beate Raknes</t>
+          <t>Mina Jaktevik</t>
         </is>
       </c>
       <c r="N112" s="7" t="n">
-        <v>2009</v>
+        <v>2007</v>
       </c>
       <c r="O112" s="15" t="n">
-        <v>14.59</v>
+        <v>9.31</v>
       </c>
       <c r="P112" s="7" t="n">
-        <v>426</v>
+        <v>405</v>
       </c>
       <c r="Q112" s="7" t="inlineStr">
         <is>
@@ -47980,203 +48022,203 @@
         </is>
       </c>
       <c r="R112" s="16" t="n">
-        <v>28.05</v>
+        <v>19.02</v>
       </c>
       <c r="T112" s="5" t="n"/>
     </row>
     <row r="113" ht="13" customHeight="1">
       <c r="B113" s="14" t="inlineStr">
         <is>
-          <t>100m</t>
+          <t>Lengde u.t</t>
         </is>
       </c>
       <c r="C113" s="7" t="inlineStr">
         <is>
-          <t>Ea Sofie Trollnes Strømsvåg</t>
+          <t>Anne Karine Seland</t>
         </is>
       </c>
       <c r="D113" s="7" t="n">
-        <v>2009</v>
+        <v>1962</v>
       </c>
       <c r="E113" s="15" t="n">
-        <v>14.89</v>
+        <v>2.16</v>
       </c>
       <c r="F113" s="7" t="n">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="G113" s="7" t="inlineStr">
         <is>
-          <t>Kristiansand</t>
+          <t>Grimstad</t>
         </is>
       </c>
       <c r="H113" s="16" t="n">
-        <v>28.05</v>
+        <v>26.03</v>
       </c>
       <c r="J113" s="5" t="n"/>
       <c r="L113" s="14" t="inlineStr">
         <is>
-          <t>Lengde u.t</t>
+          <t>100m</t>
         </is>
       </c>
       <c r="M113" s="7" t="inlineStr">
         <is>
-          <t>Anne Karine Seland</t>
+          <t>Ea Sofie Trollnes Strømsvåg</t>
         </is>
       </c>
       <c r="N113" s="7" t="n">
-        <v>1962</v>
+        <v>2009</v>
       </c>
       <c r="O113" s="15" t="n">
-        <v>2.16</v>
+        <v>14.89</v>
       </c>
       <c r="P113" s="7" t="n">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="Q113" s="7" t="inlineStr">
         <is>
-          <t>Grimstad</t>
+          <t>Kristiansand</t>
         </is>
       </c>
       <c r="R113" s="16" t="n">
-        <v>26.03</v>
+        <v>28.05</v>
       </c>
       <c r="T113" s="5" t="n"/>
     </row>
     <row r="114" ht="13" customHeight="1">
       <c r="B114" s="14" t="inlineStr">
         <is>
-          <t>60m</t>
+          <t>Lengde u.t</t>
         </is>
       </c>
       <c r="C114" s="7" t="inlineStr">
         <is>
-          <t>Mathilde Heisel Westgaard</t>
+          <t>Jorunn Ellefsen</t>
         </is>
       </c>
       <c r="D114" s="7" t="n">
-        <v>2009</v>
+        <v>1963</v>
       </c>
       <c r="E114" s="15" t="n">
-        <v>9.460000000000001</v>
+        <v>2.13</v>
       </c>
       <c r="F114" s="7" t="n">
-        <v>375</v>
+        <v>362</v>
       </c>
       <c r="G114" s="7" t="inlineStr">
         <is>
-          <t>Kristiansand</t>
+          <t>Grimstad</t>
         </is>
       </c>
       <c r="H114" s="16" t="n">
-        <v>19.02</v>
+        <v>26.03</v>
       </c>
       <c r="J114" s="5" t="n"/>
       <c r="L114" s="14" t="inlineStr">
         <is>
-          <t>Lengde u.t</t>
+          <t>60m</t>
         </is>
       </c>
       <c r="M114" s="7" t="inlineStr">
         <is>
-          <t>Jorunn Ellefsen</t>
+          <t>Mathilde Heisel Westgaard</t>
         </is>
       </c>
       <c r="N114" s="7" t="n">
-        <v>1963</v>
+        <v>2009</v>
       </c>
       <c r="O114" s="15" t="n">
-        <v>2.13</v>
+        <v>9.460000000000001</v>
       </c>
       <c r="P114" s="7" t="n">
-        <v>362</v>
+        <v>375</v>
       </c>
       <c r="Q114" s="7" t="inlineStr">
         <is>
-          <t>Grimstad</t>
+          <t>Kristiansand</t>
         </is>
       </c>
       <c r="R114" s="16" t="n">
-        <v>26.03</v>
+        <v>19.02</v>
       </c>
       <c r="T114" s="5" t="n"/>
     </row>
     <row r="115" ht="13" customHeight="1">
       <c r="B115" s="14" t="inlineStr">
         <is>
-          <t>100m</t>
+          <t>200m</t>
         </is>
       </c>
       <c r="C115" s="7" t="inlineStr">
         <is>
-          <t>Mathilde Heisel Westgaard</t>
+          <t>Lotta Ankersen</t>
         </is>
       </c>
       <c r="D115" s="7" t="n">
         <v>2009</v>
       </c>
       <c r="E115" s="15" t="n">
-        <v>15.07</v>
+        <v>32.07</v>
       </c>
       <c r="F115" s="7" t="n">
-        <v>362</v>
+        <v>337</v>
       </c>
       <c r="G115" s="7" t="inlineStr">
         <is>
-          <t>Kristiansand</t>
+          <t>Nadderud</t>
         </is>
       </c>
       <c r="H115" s="16" t="n">
-        <v>28.05</v>
+        <v>12.06</v>
       </c>
       <c r="J115" s="5" t="n"/>
       <c r="L115" s="14" t="inlineStr">
         <is>
-          <t>200m</t>
+          <t>100m</t>
         </is>
       </c>
       <c r="M115" s="7" t="inlineStr">
         <is>
-          <t>Lotta Ankersen</t>
+          <t>Mathilde Heisel Westgaard</t>
         </is>
       </c>
       <c r="N115" s="7" t="n">
         <v>2009</v>
       </c>
       <c r="O115" s="15" t="n">
-        <v>32.07</v>
+        <v>15.07</v>
       </c>
       <c r="P115" s="7" t="n">
-        <v>337</v>
+        <v>362</v>
       </c>
       <c r="Q115" s="7" t="inlineStr">
         <is>
-          <t>Nadderud</t>
+          <t>Kristiansand</t>
         </is>
       </c>
       <c r="R115" s="16" t="n">
-        <v>12.06</v>
+        <v>28.05</v>
       </c>
       <c r="T115" s="5" t="n"/>
     </row>
     <row r="116" ht="13" customHeight="1">
       <c r="B116" s="14" t="inlineStr">
         <is>
-          <t>Diskos</t>
+          <t>100m</t>
         </is>
       </c>
       <c r="C116" s="7" t="inlineStr">
         <is>
-          <t>Hege Hennig Lunde</t>
+          <t>Eline Edland</t>
         </is>
       </c>
       <c r="D116" s="7" t="n">
-        <v>1980</v>
+        <v>2009</v>
       </c>
       <c r="E116" s="15" t="n">
-        <v>18.58</v>
+        <v>15.6</v>
       </c>
       <c r="F116" s="7" t="n">
-        <v>347</v>
+        <v>296</v>
       </c>
       <c r="G116" s="7" t="inlineStr">
         <is>
@@ -48184,27 +48226,27 @@
         </is>
       </c>
       <c r="H116" s="16" t="n">
-        <v>25.03</v>
+        <v>28.05</v>
       </c>
       <c r="J116" s="5" t="n"/>
       <c r="L116" s="14" t="inlineStr">
         <is>
-          <t>100m</t>
+          <t>Diskos</t>
         </is>
       </c>
       <c r="M116" s="7" t="inlineStr">
         <is>
-          <t>Eline Edland</t>
+          <t>Hege Hennig Lunde</t>
         </is>
       </c>
       <c r="N116" s="7" t="n">
-        <v>2009</v>
+        <v>1980</v>
       </c>
       <c r="O116" s="15" t="n">
-        <v>15.6</v>
+        <v>18.58</v>
       </c>
       <c r="P116" s="7" t="n">
-        <v>296</v>
+        <v>347</v>
       </c>
       <c r="Q116" s="7" t="inlineStr">
         <is>
@@ -48212,123 +48254,123 @@
         </is>
       </c>
       <c r="R116" s="16" t="n">
-        <v>28.05</v>
+        <v>25.03</v>
       </c>
       <c r="T116" s="5" t="n"/>
     </row>
     <row r="117" ht="13" customHeight="1">
       <c r="B117" s="14" t="inlineStr">
         <is>
-          <t>Lengde</t>
+          <t>200m</t>
         </is>
       </c>
       <c r="C117" s="7" t="inlineStr">
         <is>
-          <t>Julie Smith</t>
+          <t>Malin Malingam Andersen</t>
         </is>
       </c>
       <c r="D117" s="7" t="n">
-        <v>2004</v>
+        <v>2009</v>
       </c>
       <c r="E117" s="15" t="n">
-        <v>3.75</v>
+        <v>33.05</v>
       </c>
       <c r="F117" s="7" t="n">
-        <v>321</v>
+        <v>289</v>
       </c>
       <c r="G117" s="7" t="inlineStr">
         <is>
-          <t>Kristiansand</t>
+          <t>Grimstad</t>
         </is>
       </c>
       <c r="H117" s="16" t="n">
-        <v>19.02</v>
+        <v>30.01</v>
       </c>
       <c r="J117" s="5" t="n"/>
       <c r="L117" s="14" t="inlineStr">
         <is>
-          <t>200m</t>
+          <t>Lengde</t>
         </is>
       </c>
       <c r="M117" s="7" t="inlineStr">
         <is>
-          <t>Malin Malingam Andersen</t>
+          <t>Julie Smith</t>
         </is>
       </c>
       <c r="N117" s="7" t="n">
-        <v>2009</v>
+        <v>2004</v>
       </c>
       <c r="O117" s="15" t="n">
-        <v>33.05</v>
+        <v>3.75</v>
       </c>
       <c r="P117" s="7" t="n">
-        <v>289</v>
+        <v>321</v>
       </c>
       <c r="Q117" s="7" t="inlineStr">
         <is>
-          <t>Grimstad</t>
+          <t>Kristiansand</t>
         </is>
       </c>
       <c r="R117" s="16" t="n">
-        <v>30.01</v>
+        <v>19.02</v>
       </c>
       <c r="T117" s="5" t="n"/>
     </row>
     <row r="118" ht="13" customHeight="1">
       <c r="B118" s="14" t="inlineStr">
         <is>
-          <t>Lengde</t>
+          <t>Lengde u.t</t>
         </is>
       </c>
       <c r="C118" s="7" t="inlineStr">
         <is>
-          <t>Sarah Andreassen</t>
+          <t>Malin Malingam Andersen</t>
         </is>
       </c>
       <c r="D118" s="7" t="n">
-        <v>2008</v>
+        <v>2009</v>
       </c>
       <c r="E118" s="15" t="n">
-        <v>3.72</v>
+        <v>2.03</v>
       </c>
       <c r="F118" s="7" t="n">
-        <v>313</v>
+        <v>274</v>
       </c>
       <c r="G118" s="7" t="inlineStr">
         <is>
-          <t>Kristiansand</t>
+          <t>Grimstad</t>
         </is>
       </c>
       <c r="H118" s="16" t="n">
-        <v>6.05</v>
+        <v>30.01</v>
       </c>
       <c r="J118" s="5" t="n"/>
       <c r="L118" s="14" t="inlineStr">
         <is>
-          <t>Lengde u.t</t>
+          <t>Lengde</t>
         </is>
       </c>
       <c r="M118" s="7" t="inlineStr">
         <is>
-          <t>Malin Malingam Andersen</t>
+          <t>Sarah Andreassen</t>
         </is>
       </c>
       <c r="N118" s="7" t="n">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="O118" s="15" t="n">
-        <v>2.03</v>
+        <v>3.72</v>
       </c>
       <c r="P118" s="7" t="n">
-        <v>274</v>
+        <v>313</v>
       </c>
       <c r="Q118" s="7" t="inlineStr">
         <is>
-          <t>Grimstad</t>
+          <t>Kristiansand</t>
         </is>
       </c>
       <c r="R118" s="16" t="n">
-        <v>30.01</v>
+        <v>6.05</v>
       </c>
       <c r="T118" s="5" t="n"/>
     </row>
@@ -48365,7 +48407,7 @@
         </is>
       </c>
       <c r="F120" s="21" t="n">
-        <v>2935</v>
+        <v>2805</v>
       </c>
       <c r="J120" s="5" t="n"/>
       <c r="L120" s="20" t="inlineStr">
@@ -48382,7 +48424,7 @@
         </is>
       </c>
       <c r="P120" s="21" t="n">
-        <v>2805</v>
+        <v>2935</v>
       </c>
       <c r="T120" s="5" t="n"/>
     </row>
@@ -48397,7 +48439,7 @@
         </is>
       </c>
       <c r="C122" s="21" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E122" s="20" t="inlineStr">
         <is>
@@ -48405,7 +48447,7 @@
         </is>
       </c>
       <c r="F122" s="21" t="n">
-        <v>5930</v>
+        <v>6506</v>
       </c>
       <c r="J122" s="5" t="n"/>
       <c r="L122" s="20" t="inlineStr">
@@ -48422,7 +48464,7 @@
         </is>
       </c>
       <c r="P122" s="21" t="n">
-        <v>5895</v>
+        <v>5930</v>
       </c>
       <c r="T122" s="5" t="n"/>
     </row>
@@ -48437,7 +48479,7 @@
         </is>
       </c>
       <c r="C124" s="21" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J124" s="5" t="n"/>
       <c r="L124" s="20" t="inlineStr">
@@ -48491,7 +48533,7 @@
         </is>
       </c>
       <c r="F128" s="8" t="n">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="J128" s="5" t="n"/>
     </row>
@@ -53836,7 +53878,7 @@
         </is>
       </c>
       <c r="F128" s="8" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="J128" s="5" t="n"/>
       <c r="L128" s="6" t="inlineStr">
@@ -55314,7 +55356,7 @@
         </is>
       </c>
       <c r="F170" s="8" t="n">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="J170" s="5" t="n"/>
       <c r="L170" s="6" t="inlineStr">
@@ -55328,7 +55370,7 @@
         </is>
       </c>
       <c r="P170" s="8" t="n">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="T170" s="5" t="n"/>
     </row>
@@ -56705,7 +56747,7 @@
         </is>
       </c>
       <c r="F212" s="8" t="n">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="J212" s="5" t="n"/>
     </row>
@@ -58981,7 +59023,7 @@
         </is>
       </c>
       <c r="F44" s="8" t="n">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J44" s="5" t="n"/>
     </row>
@@ -65780,7 +65822,7 @@
         </is>
       </c>
       <c r="F170" s="8" t="n">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="J170" s="5" t="n"/>
       <c r="L170" s="6" t="inlineStr">
@@ -65794,7 +65836,7 @@
         </is>
       </c>
       <c r="P170" s="8" t="n">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="T170" s="5" t="n"/>
     </row>
@@ -65806,7 +65848,7 @@
       </c>
       <c r="C171" s="7" t="inlineStr">
         <is>
-          <t>T&amp;IF Viking</t>
+          <t>Voss IL</t>
         </is>
       </c>
       <c r="J171" s="5" t="n"/>
@@ -65817,7 +65859,7 @@
       </c>
       <c r="M171" s="7" t="inlineStr">
         <is>
-          <t>Osterøy IL</t>
+          <t>T&amp;IF Viking</t>
         </is>
       </c>
       <c r="T171" s="5" t="n"/>
@@ -65946,55 +65988,53 @@
       </c>
       <c r="C177" s="7" t="inlineStr">
         <is>
-          <t>Agnes Lervik-Kristensen</t>
+          <t>Emma Severine Kvåle</t>
         </is>
       </c>
       <c r="D177" s="7" t="n">
         <v>2008</v>
       </c>
       <c r="E177" s="15" t="n">
-        <v>8.81</v>
+        <v>9.619999999999999</v>
       </c>
       <c r="F177" s="7" t="n">
-        <v>517</v>
+        <v>343</v>
       </c>
       <c r="G177" s="7" t="inlineStr">
         <is>
-          <t>Bergen</t>
+          <t>Voss</t>
         </is>
       </c>
       <c r="H177" s="16" t="n">
-        <v>7.06</v>
+        <v>1.06</v>
       </c>
       <c r="J177" s="5" t="n"/>
       <c r="L177" s="14" t="inlineStr">
         <is>
-          <t>800m</t>
+          <t>60m</t>
         </is>
       </c>
       <c r="M177" s="7" t="inlineStr">
         <is>
-          <t>Mirjam Mjelde</t>
+          <t>Agnes Lervik-Kristensen</t>
         </is>
       </c>
       <c r="N177" s="7" t="n">
-        <v>1969</v>
-      </c>
-      <c r="O177" s="17" t="inlineStr">
-        <is>
-          <t>2,41,45mx</t>
-        </is>
+        <v>2008</v>
+      </c>
+      <c r="O177" s="15" t="n">
+        <v>8.81</v>
       </c>
       <c r="P177" s="7" t="n">
-        <v>451</v>
+        <v>517</v>
       </c>
       <c r="Q177" s="7" t="inlineStr">
         <is>
-          <t>Osterøy</t>
+          <t>Bergen</t>
         </is>
       </c>
       <c r="R177" s="16" t="n">
-        <v>14.07</v>
+        <v>7.06</v>
       </c>
       <c r="T177" s="5" t="n"/>
     </row>
@@ -66006,55 +66046,53 @@
       </c>
       <c r="C178" s="7" t="inlineStr">
         <is>
-          <t>Alva Grønnevik</t>
+          <t>Vilde Fykse</t>
         </is>
       </c>
       <c r="D178" s="7" t="n">
-        <v>2007</v>
+        <v>2008</v>
       </c>
       <c r="E178" s="15" t="n">
-        <v>14.54</v>
+        <v>16.12</v>
       </c>
       <c r="F178" s="7" t="n">
-        <v>433</v>
+        <v>237</v>
       </c>
       <c r="G178" s="7" t="inlineStr">
         <is>
-          <t>Bergen</t>
+          <t>Strandebarm</t>
         </is>
       </c>
       <c r="H178" s="16" t="n">
-        <v>10.05</v>
+        <v>18.06</v>
       </c>
       <c r="J178" s="5" t="n"/>
       <c r="L178" s="14" t="inlineStr">
         <is>
-          <t>1500m</t>
+          <t>100m</t>
         </is>
       </c>
       <c r="M178" s="7" t="inlineStr">
         <is>
-          <t>Mirjam Mjelde</t>
+          <t>Alva Grønnevik</t>
         </is>
       </c>
       <c r="N178" s="7" t="n">
-        <v>1969</v>
-      </c>
-      <c r="O178" s="17" t="inlineStr">
-        <is>
-          <t>5,35,19+</t>
-        </is>
+        <v>2007</v>
+      </c>
+      <c r="O178" s="15" t="n">
+        <v>14.54</v>
       </c>
       <c r="P178" s="7" t="n">
-        <v>446</v>
+        <v>433</v>
       </c>
       <c r="Q178" s="7" t="inlineStr">
         <is>
-          <t>Arna</t>
+          <t>Bergen</t>
         </is>
       </c>
       <c r="R178" s="16" t="n">
-        <v>1.08</v>
+        <v>10.05</v>
       </c>
       <c r="T178" s="5" t="n"/>
     </row>
@@ -66066,240 +66104,260 @@
       </c>
       <c r="C179" s="7" t="inlineStr">
         <is>
-          <t>Naomi van den Broeck</t>
+          <t>Emma Severine Kvåle</t>
         </is>
       </c>
       <c r="D179" s="7" t="n">
-        <v>1996</v>
+        <v>2008</v>
       </c>
       <c r="E179" s="15" t="n">
-        <v>24.22</v>
+        <v>31.83</v>
       </c>
       <c r="F179" s="7" t="n">
-        <v>874</v>
+        <v>349</v>
       </c>
       <c r="G179" s="7" t="inlineStr">
         <is>
-          <t>Fana</t>
+          <t>Strandebarm</t>
         </is>
       </c>
       <c r="H179" s="16" t="n">
-        <v>15.05</v>
+        <v>19.06</v>
       </c>
       <c r="J179" s="5" t="n"/>
       <c r="L179" s="14" t="inlineStr">
         <is>
-          <t>3000m</t>
+          <t>200m</t>
         </is>
       </c>
       <c r="M179" s="7" t="inlineStr">
         <is>
-          <t>Nora Bergan</t>
+          <t>Naomi van den Broeck</t>
         </is>
       </c>
       <c r="N179" s="7" t="n">
-        <v>2004</v>
-      </c>
-      <c r="O179" s="17" t="inlineStr">
-        <is>
-          <t>11,26,42mx</t>
-        </is>
+        <v>1996</v>
+      </c>
+      <c r="O179" s="15" t="n">
+        <v>24.22</v>
       </c>
       <c r="P179" s="7" t="n">
-        <v>532</v>
+        <v>874</v>
       </c>
       <c r="Q179" s="7" t="inlineStr">
         <is>
-          <t>Osterøy</t>
+          <t>Fana</t>
         </is>
       </c>
       <c r="R179" s="16" t="n">
-        <v>2.06</v>
+        <v>15.05</v>
       </c>
       <c r="T179" s="5" t="n"/>
     </row>
     <row r="180" ht="13" customHeight="1">
       <c r="B180" s="14" t="inlineStr">
         <is>
-          <t>400m</t>
+          <t>800m</t>
         </is>
       </c>
       <c r="C180" s="7" t="inlineStr">
         <is>
-          <t>Naomi van den Broeck</t>
+          <t>Emma Severine Kvåle</t>
         </is>
       </c>
       <c r="D180" s="7" t="n">
-        <v>1996</v>
-      </c>
-      <c r="E180" s="15" t="n">
-        <v>52.24</v>
+        <v>2008</v>
+      </c>
+      <c r="E180" s="17" t="inlineStr">
+        <is>
+          <t>3,03,94</t>
+        </is>
       </c>
       <c r="F180" s="7" t="n">
-        <v>965</v>
+        <v>278</v>
       </c>
       <c r="G180" s="7" t="inlineStr">
         <is>
-          <t>Genève/SUI</t>
+          <t>Strandebarm</t>
         </is>
       </c>
       <c r="H180" s="16" t="n">
-        <v>11.06</v>
+        <v>18.06</v>
       </c>
       <c r="J180" s="5" t="n"/>
       <c r="L180" s="14" t="inlineStr">
         <is>
-          <t>Lengde u.t</t>
+          <t>400m</t>
         </is>
       </c>
       <c r="M180" s="7" t="inlineStr">
         <is>
-          <t>Helga Reigstad</t>
+          <t>Naomi van den Broeck</t>
         </is>
       </c>
       <c r="N180" s="7" t="n">
-        <v>1972</v>
+        <v>1996</v>
       </c>
       <c r="O180" s="15" t="n">
-        <v>2.01</v>
+        <v>52.24</v>
       </c>
       <c r="P180" s="7" t="n">
-        <v>255</v>
+        <v>965</v>
       </c>
       <c r="Q180" s="7" t="inlineStr">
         <is>
-          <t>Osterøy</t>
+          <t>Genève/SUI</t>
         </is>
       </c>
       <c r="R180" s="16" t="n">
-        <v>17.01</v>
+        <v>11.06</v>
       </c>
       <c r="T180" s="5" t="n"/>
     </row>
     <row r="181" ht="13" customHeight="1">
       <c r="B181" s="14" t="inlineStr">
         <is>
-          <t>Lengde</t>
+          <t>Høyde</t>
         </is>
       </c>
       <c r="C181" s="7" t="inlineStr">
         <is>
-          <t>Agnes Lervik-Kristensen</t>
+          <t>Emma Severine Kvåle</t>
         </is>
       </c>
       <c r="D181" s="7" t="n">
         <v>2008</v>
       </c>
       <c r="E181" s="15" t="n">
-        <v>4.15</v>
+        <v>1.25</v>
       </c>
       <c r="F181" s="7" t="n">
-        <v>425</v>
+        <v>362</v>
       </c>
       <c r="G181" s="7" t="inlineStr">
         <is>
-          <t>Leikvang</t>
+          <t>Strandebarm</t>
         </is>
       </c>
       <c r="H181" s="16" t="n">
-        <v>19.03</v>
+        <v>19.06</v>
       </c>
       <c r="J181" s="5" t="n"/>
       <c r="L181" s="14" t="inlineStr">
         <is>
-          <t>Kule</t>
+          <t>Lengde</t>
         </is>
       </c>
       <c r="M181" s="7" t="inlineStr">
         <is>
-          <t>Marianne Feidje Mjelde</t>
+          <t>Agnes Lervik-Kristensen</t>
         </is>
       </c>
       <c r="N181" s="7" t="n">
-        <v>2001</v>
+        <v>2008</v>
       </c>
       <c r="O181" s="15" t="n">
-        <v>9.5</v>
+        <v>4.15</v>
       </c>
       <c r="P181" s="7" t="n">
-        <v>554</v>
+        <v>425</v>
       </c>
       <c r="Q181" s="7" t="inlineStr">
         <is>
-          <t>Osterøy</t>
+          <t>Leikvang</t>
         </is>
       </c>
       <c r="R181" s="16" t="n">
-        <v>13.06</v>
+        <v>19.03</v>
       </c>
       <c r="T181" s="5" t="n"/>
     </row>
     <row r="182" ht="13" customHeight="1">
       <c r="B182" s="14" t="inlineStr">
         <is>
-          <t>Tresteg</t>
+          <t>Lengde</t>
         </is>
       </c>
       <c r="C182" s="7" t="inlineStr">
         <is>
-          <t>Alva Grønnevik</t>
+          <t>Emma Severine Kvåle</t>
         </is>
       </c>
       <c r="D182" s="7" t="n">
-        <v>2007</v>
+        <v>2008</v>
       </c>
       <c r="E182" s="15" t="n">
-        <v>8.49</v>
+        <v>4.06</v>
       </c>
       <c r="F182" s="7" t="n">
-        <v>390</v>
+        <v>402</v>
       </c>
       <c r="G182" s="7" t="inlineStr">
         <is>
-          <t>Leikvang</t>
+          <t>Strandebarm</t>
         </is>
       </c>
       <c r="H182" s="16" t="n">
-        <v>19.02</v>
+        <v>19.06</v>
       </c>
       <c r="J182" s="5" t="n"/>
       <c r="L182" s="14" t="inlineStr">
         <is>
-          <t>Diskos</t>
+          <t>Tresteg</t>
         </is>
       </c>
       <c r="M182" s="7" t="inlineStr">
         <is>
-          <t>Marianne Feidje Mjelde</t>
+          <t>Alva Grønnevik</t>
         </is>
       </c>
       <c r="N182" s="7" t="n">
-        <v>2001</v>
+        <v>2007</v>
       </c>
       <c r="O182" s="15" t="n">
-        <v>31.46</v>
+        <v>8.49</v>
       </c>
       <c r="P182" s="7" t="n">
-        <v>604</v>
+        <v>390</v>
       </c>
       <c r="Q182" s="7" t="inlineStr">
         <is>
-          <t>Osterøy</t>
+          <t>Leikvang</t>
         </is>
       </c>
       <c r="R182" s="16" t="n">
-        <v>13.06</v>
+        <v>19.02</v>
       </c>
       <c r="T182" s="5" t="n"/>
     </row>
     <row r="183" ht="13" customHeight="1">
-      <c r="B183" s="14" t="n"/>
-      <c r="C183" s="7" t="n"/>
-      <c r="D183" s="7" t="n"/>
-      <c r="E183" s="7" t="n"/>
-      <c r="F183" s="7" t="n"/>
-      <c r="G183" s="7" t="n"/>
-      <c r="H183" s="18" t="n"/>
+      <c r="B183" s="14" t="inlineStr">
+        <is>
+          <t>Kule</t>
+        </is>
+      </c>
+      <c r="C183" s="7" t="inlineStr">
+        <is>
+          <t>Mariell Morken</t>
+        </is>
+      </c>
+      <c r="D183" s="7" t="n">
+        <v>2003</v>
+      </c>
+      <c r="E183" s="15" t="n">
+        <v>13.49</v>
+      </c>
+      <c r="F183" s="7" t="n">
+        <v>786</v>
+      </c>
+      <c r="G183" s="7" t="inlineStr">
+        <is>
+          <t>Voss</t>
+        </is>
+      </c>
+      <c r="H183" s="16" t="n">
+        <v>22.06</v>
+      </c>
       <c r="J183" s="5" t="n"/>
       <c r="L183" s="14" t="n"/>
       <c r="M183" s="7" t="n"/>
@@ -66311,13 +66369,33 @@
       <c r="T183" s="5" t="n"/>
     </row>
     <row r="184" ht="13" customHeight="1">
-      <c r="B184" s="14" t="n"/>
-      <c r="C184" s="7" t="n"/>
-      <c r="D184" s="7" t="n"/>
-      <c r="E184" s="7" t="n"/>
-      <c r="F184" s="7" t="n"/>
-      <c r="G184" s="7" t="n"/>
-      <c r="H184" s="18" t="n"/>
+      <c r="B184" s="14" t="inlineStr">
+        <is>
+          <t>Diskos</t>
+        </is>
+      </c>
+      <c r="C184" s="7" t="inlineStr">
+        <is>
+          <t>Mariell Morken</t>
+        </is>
+      </c>
+      <c r="D184" s="7" t="n">
+        <v>2003</v>
+      </c>
+      <c r="E184" s="15" t="n">
+        <v>36.08</v>
+      </c>
+      <c r="F184" s="7" t="n">
+        <v>671</v>
+      </c>
+      <c r="G184" s="7" t="inlineStr">
+        <is>
+          <t>Voss</t>
+        </is>
+      </c>
+      <c r="H184" s="16" t="n">
+        <v>22.06</v>
+      </c>
       <c r="J184" s="5" t="n"/>
       <c r="L184" s="14" t="n"/>
       <c r="M184" s="7" t="n"/>
@@ -66329,13 +66407,33 @@
       <c r="T184" s="5" t="n"/>
     </row>
     <row r="185" ht="13" customHeight="1">
-      <c r="B185" s="14" t="n"/>
-      <c r="C185" s="7" t="n"/>
-      <c r="D185" s="7" t="n"/>
-      <c r="E185" s="7" t="n"/>
-      <c r="F185" s="7" t="n"/>
-      <c r="G185" s="7" t="n"/>
-      <c r="H185" s="18" t="n"/>
+      <c r="B185" s="14" t="inlineStr">
+        <is>
+          <t>Slegge</t>
+        </is>
+      </c>
+      <c r="C185" s="7" t="inlineStr">
+        <is>
+          <t>Mariell Morken</t>
+        </is>
+      </c>
+      <c r="D185" s="7" t="n">
+        <v>2003</v>
+      </c>
+      <c r="E185" s="15" t="n">
+        <v>42.28</v>
+      </c>
+      <c r="F185" s="7" t="n">
+        <v>714</v>
+      </c>
+      <c r="G185" s="7" t="inlineStr">
+        <is>
+          <t>Voss</t>
+        </is>
+      </c>
+      <c r="H185" s="16" t="n">
+        <v>13.07</v>
+      </c>
       <c r="J185" s="5" t="n"/>
       <c r="L185" s="14" t="n"/>
       <c r="M185" s="7" t="n"/>
@@ -66347,13 +66445,33 @@
       <c r="T185" s="5" t="n"/>
     </row>
     <row r="186" ht="13" customHeight="1">
-      <c r="B186" s="14" t="n"/>
-      <c r="C186" s="7" t="n"/>
-      <c r="D186" s="7" t="n"/>
-      <c r="E186" s="7" t="n"/>
-      <c r="F186" s="7" t="n"/>
-      <c r="G186" s="7" t="n"/>
-      <c r="H186" s="18" t="n"/>
+      <c r="B186" s="14" t="inlineStr">
+        <is>
+          <t>Spyd</t>
+        </is>
+      </c>
+      <c r="C186" s="7" t="inlineStr">
+        <is>
+          <t>Mariell Morken</t>
+        </is>
+      </c>
+      <c r="D186" s="7" t="n">
+        <v>2003</v>
+      </c>
+      <c r="E186" s="15" t="n">
+        <v>27.36</v>
+      </c>
+      <c r="F186" s="7" t="n">
+        <v>505</v>
+      </c>
+      <c r="G186" s="7" t="inlineStr">
+        <is>
+          <t>Voss</t>
+        </is>
+      </c>
+      <c r="H186" s="16" t="n">
+        <v>13.07</v>
+      </c>
       <c r="J186" s="5" t="n"/>
       <c r="L186" s="14" t="n"/>
       <c r="M186" s="7" t="n"/>
@@ -66425,7 +66543,7 @@
         </is>
       </c>
       <c r="C190" s="21" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E190" s="20" t="inlineStr">
         <is>
@@ -66433,7 +66551,7 @@
         </is>
       </c>
       <c r="F190" s="21" t="n">
-        <v>3604</v>
+        <v>4647</v>
       </c>
       <c r="J190" s="5" t="n"/>
       <c r="L190" s="20" t="inlineStr">
@@ -66450,7 +66568,7 @@
         </is>
       </c>
       <c r="P190" s="21" t="n">
-        <v>2842</v>
+        <v>3604</v>
       </c>
       <c r="T190" s="5" t="n"/>
     </row>
@@ -66553,58 +66671,58 @@
     <row r="195" ht="13" customHeight="1">
       <c r="B195" s="14" t="inlineStr">
         <is>
-          <t>200m</t>
+          <t>Lengde</t>
         </is>
       </c>
       <c r="C195" s="7" t="inlineStr">
         <is>
-          <t>Agnes Lervik-Kristensen</t>
+          <t>Vilde Fykse</t>
         </is>
       </c>
       <c r="D195" s="7" t="n">
         <v>2008</v>
       </c>
       <c r="E195" s="15" t="n">
-        <v>29.56</v>
+        <v>3.76</v>
       </c>
       <c r="F195" s="7" t="n">
-        <v>478</v>
+        <v>324</v>
       </c>
       <c r="G195" s="7" t="inlineStr">
         <is>
-          <t>Bergen</t>
+          <t>Strandebarm</t>
         </is>
       </c>
       <c r="H195" s="16" t="n">
-        <v>7.06</v>
+        <v>19.06</v>
       </c>
       <c r="J195" s="5" t="n"/>
       <c r="L195" s="14" t="inlineStr">
         <is>
-          <t>Diskos</t>
+          <t>200m</t>
         </is>
       </c>
       <c r="M195" s="7" t="inlineStr">
         <is>
-          <t>Helga Reigstad</t>
+          <t>Agnes Lervik-Kristensen</t>
         </is>
       </c>
       <c r="N195" s="7" t="n">
-        <v>1972</v>
+        <v>2008</v>
       </c>
       <c r="O195" s="15" t="n">
-        <v>30.75</v>
+        <v>29.56</v>
       </c>
       <c r="P195" s="7" t="n">
-        <v>593</v>
+        <v>478</v>
       </c>
       <c r="Q195" s="7" t="inlineStr">
         <is>
-          <t>Osterøy</t>
+          <t>Bergen</t>
         </is>
       </c>
       <c r="R195" s="16" t="n">
-        <v>13.06</v>
+        <v>7.06</v>
       </c>
       <c r="T195" s="5" t="n"/>
     </row>
@@ -66616,53 +66734,53 @@
       </c>
       <c r="C196" s="7" t="inlineStr">
         <is>
-          <t>Mari Haukeland Aarra</t>
+          <t>Vilde Fykse</t>
         </is>
       </c>
       <c r="D196" s="7" t="n">
-        <v>2007</v>
+        <v>2008</v>
       </c>
       <c r="E196" s="15" t="n">
-        <v>9</v>
+        <v>9.960000000000001</v>
       </c>
       <c r="F196" s="7" t="n">
-        <v>473</v>
+        <v>278</v>
       </c>
       <c r="G196" s="7" t="inlineStr">
         <is>
-          <t>Bergen</t>
+          <t>Voss</t>
         </is>
       </c>
       <c r="H196" s="16" t="n">
-        <v>7.06</v>
+        <v>1.06</v>
       </c>
       <c r="J196" s="5" t="n"/>
       <c r="L196" s="14" t="inlineStr">
         <is>
-          <t>Kule</t>
+          <t>60m</t>
         </is>
       </c>
       <c r="M196" s="7" t="inlineStr">
         <is>
-          <t>Helga Reigstad</t>
+          <t>Mari Haukeland Aarra</t>
         </is>
       </c>
       <c r="N196" s="7" t="n">
-        <v>1972</v>
+        <v>2007</v>
       </c>
       <c r="O196" s="15" t="n">
-        <v>9.02</v>
+        <v>9</v>
       </c>
       <c r="P196" s="7" t="n">
-        <v>515</v>
+        <v>473</v>
       </c>
       <c r="Q196" s="7" t="inlineStr">
         <is>
-          <t>Osterøy</t>
+          <t>Bergen</t>
         </is>
       </c>
       <c r="R196" s="16" t="n">
-        <v>23.05</v>
+        <v>7.06</v>
       </c>
       <c r="T196" s="5" t="n"/>
     </row>
@@ -66674,55 +66792,53 @@
       </c>
       <c r="C197" s="7" t="inlineStr">
         <is>
-          <t>Alva Grønnevik</t>
+          <t>Evy Mala</t>
         </is>
       </c>
       <c r="D197" s="7" t="n">
-        <v>2007</v>
+        <v>2008</v>
       </c>
       <c r="E197" s="15" t="n">
-        <v>9.24</v>
+        <v>10.06</v>
       </c>
       <c r="F197" s="7" t="n">
-        <v>420</v>
+        <v>259</v>
       </c>
       <c r="G197" s="7" t="inlineStr">
         <is>
-          <t>Bergen</t>
+          <t>Voss</t>
         </is>
       </c>
       <c r="H197" s="16" t="n">
-        <v>7.06</v>
+        <v>1.06</v>
       </c>
       <c r="J197" s="5" t="n"/>
       <c r="L197" s="14" t="inlineStr">
         <is>
-          <t>3000m</t>
+          <t>60m</t>
         </is>
       </c>
       <c r="M197" s="7" t="inlineStr">
         <is>
-          <t>Mirjam Mjelde</t>
+          <t>Alva Grønnevik</t>
         </is>
       </c>
       <c r="N197" s="7" t="n">
-        <v>1969</v>
-      </c>
-      <c r="O197" s="17" t="inlineStr">
-        <is>
-          <t>11,51,36mx</t>
-        </is>
+        <v>2007</v>
+      </c>
+      <c r="O197" s="15" t="n">
+        <v>9.24</v>
       </c>
       <c r="P197" s="7" t="n">
-        <v>481</v>
+        <v>420</v>
       </c>
       <c r="Q197" s="7" t="inlineStr">
         <is>
-          <t>Osterøy</t>
+          <t>Bergen</t>
         </is>
       </c>
       <c r="R197" s="16" t="n">
-        <v>2.06</v>
+        <v>7.06</v>
       </c>
       <c r="T197" s="5" t="n"/>
     </row>
@@ -66734,274 +66850,266 @@
       </c>
       <c r="C198" s="7" t="inlineStr">
         <is>
-          <t>Alva Grønnevik</t>
+          <t>Evy Mala</t>
         </is>
       </c>
       <c r="D198" s="7" t="n">
-        <v>2007</v>
+        <v>2008</v>
       </c>
       <c r="E198" s="15" t="n">
-        <v>30.63</v>
+        <v>33.71</v>
       </c>
       <c r="F198" s="7" t="n">
-        <v>414</v>
+        <v>259</v>
       </c>
       <c r="G198" s="7" t="inlineStr">
         <is>
-          <t>Bergen</t>
+          <t>Strandebarm</t>
         </is>
       </c>
       <c r="H198" s="16" t="n">
-        <v>7.06</v>
+        <v>19.06</v>
       </c>
       <c r="J198" s="5" t="n"/>
       <c r="L198" s="14" t="inlineStr">
         <is>
-          <t>3000m</t>
+          <t>200m</t>
         </is>
       </c>
       <c r="M198" s="7" t="inlineStr">
         <is>
-          <t>Ingri M Birkeland</t>
+          <t>Alva Grønnevik</t>
         </is>
       </c>
       <c r="N198" s="7" t="n">
-        <v>1984</v>
-      </c>
-      <c r="O198" s="17" t="inlineStr">
-        <is>
-          <t>12,07,15mx</t>
-        </is>
+        <v>2007</v>
+      </c>
+      <c r="O198" s="15" t="n">
+        <v>30.63</v>
       </c>
       <c r="P198" s="7" t="n">
-        <v>449</v>
+        <v>414</v>
       </c>
       <c r="Q198" s="7" t="inlineStr">
         <is>
-          <t>Osterøy</t>
+          <t>Bergen</t>
         </is>
       </c>
       <c r="R198" s="16" t="n">
-        <v>2.06</v>
+        <v>7.06</v>
       </c>
       <c r="T198" s="5" t="n"/>
     </row>
     <row r="199" ht="13" customHeight="1">
       <c r="B199" s="14" t="inlineStr">
         <is>
-          <t>200m</t>
+          <t>Lengde</t>
         </is>
       </c>
       <c r="C199" s="7" t="inlineStr">
         <is>
-          <t>Mari Haukeland Aarra</t>
+          <t>Evy Mala</t>
         </is>
       </c>
       <c r="D199" s="7" t="n">
-        <v>2007</v>
+        <v>2008</v>
       </c>
       <c r="E199" s="15" t="n">
-        <v>30.9</v>
+        <v>3.5</v>
       </c>
       <c r="F199" s="7" t="n">
-        <v>399</v>
+        <v>251</v>
       </c>
       <c r="G199" s="7" t="inlineStr">
         <is>
-          <t>Bergen</t>
+          <t>Strandebarm</t>
         </is>
       </c>
       <c r="H199" s="16" t="n">
-        <v>7.06</v>
+        <v>19.06</v>
       </c>
       <c r="J199" s="5" t="n"/>
       <c r="L199" s="14" t="inlineStr">
         <is>
-          <t>3000m</t>
+          <t>200m</t>
         </is>
       </c>
       <c r="M199" s="7" t="inlineStr">
         <is>
-          <t>Anne Lise Leiren Mastervik</t>
+          <t>Mari Haukeland Aarra</t>
         </is>
       </c>
       <c r="N199" s="7" t="n">
-        <v>1972</v>
-      </c>
-      <c r="O199" s="17" t="inlineStr">
-        <is>
-          <t>12,38,51mx</t>
-        </is>
+        <v>2007</v>
+      </c>
+      <c r="O199" s="15" t="n">
+        <v>30.9</v>
       </c>
       <c r="P199" s="7" t="n">
-        <v>390</v>
+        <v>399</v>
       </c>
       <c r="Q199" s="7" t="inlineStr">
         <is>
-          <t>Osterøy</t>
+          <t>Bergen</t>
         </is>
       </c>
       <c r="R199" s="16" t="n">
-        <v>2.06</v>
+        <v>7.06</v>
       </c>
       <c r="T199" s="5" t="n"/>
     </row>
     <row r="200" ht="13" customHeight="1">
       <c r="B200" s="14" t="inlineStr">
         <is>
-          <t>Lengde</t>
+          <t>60m</t>
         </is>
       </c>
       <c r="C200" s="7" t="inlineStr">
         <is>
-          <t>Alva Grønnevik</t>
+          <t>Emma Gjerstad</t>
         </is>
       </c>
       <c r="D200" s="7" t="n">
-        <v>2007</v>
+        <v>2008</v>
       </c>
       <c r="E200" s="15" t="n">
-        <v>3.94</v>
+        <v>10.11</v>
       </c>
       <c r="F200" s="7" t="n">
-        <v>372</v>
+        <v>250</v>
       </c>
       <c r="G200" s="7" t="inlineStr">
         <is>
-          <t>Bergen</t>
+          <t>Voss</t>
         </is>
       </c>
       <c r="H200" s="16" t="n">
-        <v>10.05</v>
+        <v>1.06</v>
       </c>
       <c r="J200" s="5" t="n"/>
       <c r="L200" s="14" t="inlineStr">
         <is>
-          <t>3000m</t>
+          <t>Lengde</t>
         </is>
       </c>
       <c r="M200" s="7" t="inlineStr">
         <is>
-          <t>Margrethe Fjellskålnes</t>
+          <t>Alva Grønnevik</t>
         </is>
       </c>
       <c r="N200" s="7" t="n">
         <v>2007</v>
       </c>
-      <c r="O200" s="17" t="inlineStr">
-        <is>
-          <t>12,47,51mx</t>
-        </is>
+      <c r="O200" s="15" t="n">
+        <v>3.94</v>
       </c>
       <c r="P200" s="7" t="n">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="Q200" s="7" t="inlineStr">
         <is>
-          <t>Osterøy</t>
+          <t>Bergen</t>
         </is>
       </c>
       <c r="R200" s="16" t="n">
-        <v>2.06</v>
+        <v>10.05</v>
       </c>
       <c r="T200" s="5" t="n"/>
     </row>
     <row r="201" ht="13" customHeight="1">
       <c r="B201" s="14" t="inlineStr">
         <is>
-          <t>Tresteg</t>
+          <t>Høyde</t>
         </is>
       </c>
       <c r="C201" s="7" t="inlineStr">
         <is>
-          <t>Vera Semen Kjetland</t>
+          <t>Evy Mala</t>
         </is>
       </c>
       <c r="D201" s="7" t="n">
-        <v>2007</v>
+        <v>2008</v>
       </c>
       <c r="E201" s="15" t="n">
-        <v>7.57</v>
+        <v>1.15</v>
       </c>
       <c r="F201" s="7" t="n">
-        <v>274</v>
+        <v>240</v>
       </c>
       <c r="G201" s="7" t="inlineStr">
         <is>
-          <t>Leikvang</t>
+          <t>Voss</t>
         </is>
       </c>
       <c r="H201" s="16" t="n">
-        <v>19.02</v>
+        <v>1.06</v>
       </c>
       <c r="J201" s="5" t="n"/>
       <c r="L201" s="14" t="inlineStr">
         <is>
-          <t>800m</t>
+          <t>Tresteg</t>
         </is>
       </c>
       <c r="M201" s="7" t="inlineStr">
         <is>
-          <t>Anne Lise Leiren Mastervik</t>
+          <t>Vera Semen Kjetland</t>
         </is>
       </c>
       <c r="N201" s="7" t="n">
-        <v>1972</v>
-      </c>
-      <c r="O201" s="17" t="inlineStr">
-        <is>
-          <t>2,58,16mx</t>
-        </is>
+        <v>2007</v>
+      </c>
+      <c r="O201" s="15" t="n">
+        <v>7.57</v>
       </c>
       <c r="P201" s="7" t="n">
-        <v>319</v>
+        <v>274</v>
       </c>
       <c r="Q201" s="7" t="inlineStr">
         <is>
-          <t>Osterøy</t>
+          <t>Leikvang</t>
         </is>
       </c>
       <c r="R201" s="16" t="n">
-        <v>23.05</v>
+        <v>19.02</v>
       </c>
       <c r="T201" s="5" t="n"/>
     </row>
     <row r="202" ht="13" customHeight="1">
-      <c r="B202" s="14" t="n"/>
-      <c r="C202" s="7" t="n"/>
-      <c r="D202" s="7" t="n"/>
-      <c r="E202" s="7" t="n"/>
-      <c r="F202" s="7" t="n"/>
-      <c r="G202" s="7" t="n"/>
-      <c r="H202" s="18" t="n"/>
+      <c r="B202" s="14" t="inlineStr">
+        <is>
+          <t>Høyde</t>
+        </is>
+      </c>
+      <c r="C202" s="7" t="inlineStr">
+        <is>
+          <t>Vilde Fykse</t>
+        </is>
+      </c>
+      <c r="D202" s="7" t="n">
+        <v>2008</v>
+      </c>
+      <c r="E202" s="15" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="F202" s="7" t="n">
+        <v>240</v>
+      </c>
+      <c r="G202" s="7" t="inlineStr">
+        <is>
+          <t>Strandebarm</t>
+        </is>
+      </c>
+      <c r="H202" s="16" t="n">
+        <v>19.06</v>
+      </c>
       <c r="J202" s="5" t="n"/>
-      <c r="L202" s="14" t="inlineStr">
-        <is>
-          <t>Lengde u.t</t>
-        </is>
-      </c>
-      <c r="M202" s="7" t="inlineStr">
-        <is>
-          <t>Lena Hopland</t>
-        </is>
-      </c>
-      <c r="N202" s="7" t="n">
-        <v>2006</v>
-      </c>
-      <c r="O202" s="15" t="n">
-        <v>1.99</v>
-      </c>
-      <c r="P202" s="7" t="n">
-        <v>236</v>
-      </c>
-      <c r="Q202" s="7" t="inlineStr">
-        <is>
-          <t>Osterøy</t>
-        </is>
-      </c>
-      <c r="R202" s="16" t="n">
-        <v>17.01</v>
-      </c>
+      <c r="L202" s="14" t="n"/>
+      <c r="M202" s="7" t="n"/>
+      <c r="N202" s="7" t="n"/>
+      <c r="O202" s="7" t="n"/>
+      <c r="P202" s="7" t="n"/>
+      <c r="Q202" s="7" t="n"/>
+      <c r="R202" s="18" t="n"/>
       <c r="T202" s="5" t="n"/>
     </row>
     <row r="203" ht="13" customHeight="1">
@@ -67029,7 +67137,7 @@
         </is>
       </c>
       <c r="C204" s="21" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E204" s="20" t="inlineStr">
         <is>
@@ -67037,7 +67145,7 @@
         </is>
       </c>
       <c r="F204" s="21" t="n">
-        <v>2830</v>
+        <v>2101</v>
       </c>
       <c r="J204" s="5" t="n"/>
       <c r="L204" s="20" t="inlineStr">
@@ -67046,7 +67154,7 @@
         </is>
       </c>
       <c r="M204" s="21" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="O204" s="20" t="inlineStr">
         <is>
@@ -67054,7 +67162,7 @@
         </is>
       </c>
       <c r="P204" s="21" t="n">
-        <v>3357</v>
+        <v>2830</v>
       </c>
       <c r="T204" s="5" t="n"/>
     </row>
@@ -67069,7 +67177,7 @@
         </is>
       </c>
       <c r="C206" s="21" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E206" s="20" t="inlineStr">
         <is>
@@ -67077,7 +67185,7 @@
         </is>
       </c>
       <c r="F206" s="21" t="n">
-        <v>6434</v>
+        <v>6748</v>
       </c>
       <c r="J206" s="5" t="n"/>
       <c r="L206" s="20" t="inlineStr">
@@ -67086,7 +67194,7 @@
         </is>
       </c>
       <c r="M206" s="21" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="O206" s="20" t="inlineStr">
         <is>
@@ -67094,7 +67202,7 @@
         </is>
       </c>
       <c r="P206" s="21" t="n">
-        <v>6199</v>
+        <v>6434</v>
       </c>
       <c r="T206" s="5" t="n"/>
     </row>
@@ -67118,7 +67226,7 @@
         </is>
       </c>
       <c r="M208" s="21" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="T208" s="5" t="n"/>
     </row>
@@ -67164,7 +67272,7 @@
         </is>
       </c>
       <c r="F212" s="8" t="n">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="J212" s="5" t="n"/>
       <c r="L212" s="6" t="inlineStr">
@@ -67178,7 +67286,7 @@
         </is>
       </c>
       <c r="P212" s="8" t="n">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="T212" s="5" t="n"/>
     </row>
@@ -67201,7 +67309,7 @@
       </c>
       <c r="M213" s="7" t="inlineStr">
         <is>
-          <t>Ask Friidrett 2. lag</t>
+          <t>Osterøy IL</t>
         </is>
       </c>
       <c r="T213" s="5" t="n"/>
@@ -67353,30 +67461,32 @@
       <c r="J219" s="5" t="n"/>
       <c r="L219" s="14" t="inlineStr">
         <is>
-          <t>60m</t>
+          <t>800m</t>
         </is>
       </c>
       <c r="M219" s="7" t="inlineStr">
         <is>
-          <t>Ingrid Straume-Sunde</t>
+          <t>Mirjam Mjelde</t>
         </is>
       </c>
       <c r="N219" s="7" t="n">
-        <v>2010</v>
-      </c>
-      <c r="O219" s="15" t="n">
-        <v>8.98</v>
+        <v>1969</v>
+      </c>
+      <c r="O219" s="17" t="inlineStr">
+        <is>
+          <t>2,41,45mx</t>
+        </is>
       </c>
       <c r="P219" s="7" t="n">
-        <v>477</v>
+        <v>451</v>
       </c>
       <c r="Q219" s="7" t="inlineStr">
         <is>
-          <t>Fana</t>
+          <t>Osterøy</t>
         </is>
       </c>
       <c r="R219" s="16" t="n">
-        <v>28.05</v>
+        <v>14.07</v>
       </c>
       <c r="T219" s="5" t="n"/>
     </row>
@@ -67411,30 +67521,32 @@
       <c r="J220" s="5" t="n"/>
       <c r="L220" s="14" t="inlineStr">
         <is>
-          <t>100m</t>
+          <t>1500m</t>
         </is>
       </c>
       <c r="M220" s="7" t="inlineStr">
         <is>
-          <t>Sofie Elise Indrebø</t>
+          <t>Mirjam Mjelde</t>
         </is>
       </c>
       <c r="N220" s="7" t="n">
-        <v>2010</v>
-      </c>
-      <c r="O220" s="15" t="n">
-        <v>14.5</v>
+        <v>1969</v>
+      </c>
+      <c r="O220" s="17" t="inlineStr">
+        <is>
+          <t>5,35,19+</t>
+        </is>
       </c>
       <c r="P220" s="7" t="n">
-        <v>438</v>
+        <v>446</v>
       </c>
       <c r="Q220" s="7" t="inlineStr">
         <is>
-          <t>Fana</t>
+          <t>Arna</t>
         </is>
       </c>
       <c r="R220" s="16" t="n">
-        <v>29.05</v>
+        <v>1.08</v>
       </c>
       <c r="T220" s="5" t="n"/>
     </row>
@@ -67469,30 +67581,32 @@
       <c r="J221" s="5" t="n"/>
       <c r="L221" s="14" t="inlineStr">
         <is>
-          <t>200m</t>
+          <t>3000m</t>
         </is>
       </c>
       <c r="M221" s="7" t="inlineStr">
         <is>
-          <t>Sofie Elise Indrebø</t>
+          <t>Nora Bergan</t>
         </is>
       </c>
       <c r="N221" s="7" t="n">
-        <v>2010</v>
-      </c>
-      <c r="O221" s="15" t="n">
-        <v>29.94</v>
+        <v>2004</v>
+      </c>
+      <c r="O221" s="17" t="inlineStr">
+        <is>
+          <t>11,26,42mx</t>
+        </is>
       </c>
       <c r="P221" s="7" t="n">
-        <v>454</v>
+        <v>532</v>
       </c>
       <c r="Q221" s="7" t="inlineStr">
         <is>
-          <t>Fana</t>
+          <t>Osterøy</t>
         </is>
       </c>
       <c r="R221" s="16" t="n">
-        <v>27.05</v>
+        <v>2.06</v>
       </c>
       <c r="T221" s="5" t="n"/>
     </row>
@@ -67529,32 +67643,30 @@
       <c r="J222" s="5" t="n"/>
       <c r="L222" s="14" t="inlineStr">
         <is>
-          <t>800m</t>
+          <t>Lengde u.t</t>
         </is>
       </c>
       <c r="M222" s="7" t="inlineStr">
         <is>
-          <t>Pia Norheim</t>
+          <t>Helga Reigstad</t>
         </is>
       </c>
       <c r="N222" s="7" t="n">
-        <v>2005</v>
-      </c>
-      <c r="O222" s="17" t="inlineStr">
-        <is>
-          <t>2,30,04</t>
-        </is>
+        <v>1972</v>
+      </c>
+      <c r="O222" s="15" t="n">
+        <v>2.01</v>
       </c>
       <c r="P222" s="7" t="n">
-        <v>557</v>
+        <v>255</v>
       </c>
       <c r="Q222" s="7" t="inlineStr">
         <is>
-          <t>Leikvang</t>
+          <t>Osterøy</t>
         </is>
       </c>
       <c r="R222" s="16" t="n">
-        <v>19.02</v>
+        <v>17.01</v>
       </c>
       <c r="T222" s="5" t="n"/>
     </row>
@@ -67591,32 +67703,30 @@
       <c r="J223" s="5" t="n"/>
       <c r="L223" s="14" t="inlineStr">
         <is>
-          <t>1500m</t>
+          <t>Kule</t>
         </is>
       </c>
       <c r="M223" s="7" t="inlineStr">
         <is>
-          <t>Julia Varsi</t>
+          <t>Marianne Feidje Mjelde</t>
         </is>
       </c>
       <c r="N223" s="7" t="n">
-        <v>2005</v>
-      </c>
-      <c r="O223" s="17" t="inlineStr">
-        <is>
-          <t>5,31,81</t>
-        </is>
+        <v>2001</v>
+      </c>
+      <c r="O223" s="15" t="n">
+        <v>9.5</v>
       </c>
       <c r="P223" s="7" t="n">
-        <v>461</v>
+        <v>554</v>
       </c>
       <c r="Q223" s="7" t="inlineStr">
         <is>
-          <t>Fana</t>
+          <t>Osterøy</t>
         </is>
       </c>
       <c r="R223" s="16" t="n">
-        <v>28.05</v>
+        <v>13.06</v>
       </c>
       <c r="T223" s="5" t="n"/>
     </row>
@@ -67653,30 +67763,30 @@
       <c r="J224" s="5" t="n"/>
       <c r="L224" s="14" t="inlineStr">
         <is>
-          <t>Lengde</t>
+          <t>Diskos</t>
         </is>
       </c>
       <c r="M224" s="7" t="inlineStr">
         <is>
-          <t>Sofie Elise Indrebø</t>
+          <t>Marianne Feidje Mjelde</t>
         </is>
       </c>
       <c r="N224" s="7" t="n">
-        <v>2010</v>
+        <v>2001</v>
       </c>
       <c r="O224" s="15" t="n">
-        <v>3.77</v>
+        <v>31.46</v>
       </c>
       <c r="P224" s="7" t="n">
-        <v>327</v>
+        <v>604</v>
       </c>
       <c r="Q224" s="7" t="inlineStr">
         <is>
-          <t>Leikvang</t>
+          <t>Osterøy</t>
         </is>
       </c>
       <c r="R224" s="16" t="n">
-        <v>29.01</v>
+        <v>13.06</v>
       </c>
       <c r="T224" s="5" t="n"/>
     </row>
@@ -67711,33 +67821,13 @@
         <v>15.05</v>
       </c>
       <c r="J225" s="5" t="n"/>
-      <c r="L225" s="14" t="inlineStr">
-        <is>
-          <t>Lengde u.t</t>
-        </is>
-      </c>
-      <c r="M225" s="7" t="inlineStr">
-        <is>
-          <t>Elin Hundven Eliassen</t>
-        </is>
-      </c>
-      <c r="N225" s="7" t="n">
-        <v>1973</v>
-      </c>
-      <c r="O225" s="15" t="n">
-        <v>2.23</v>
-      </c>
-      <c r="P225" s="7" t="n">
-        <v>443</v>
-      </c>
-      <c r="Q225" s="7" t="inlineStr">
-        <is>
-          <t>Leikvang</t>
-        </is>
-      </c>
-      <c r="R225" s="16" t="n">
-        <v>19.03</v>
-      </c>
+      <c r="L225" s="14" t="n"/>
+      <c r="M225" s="7" t="n"/>
+      <c r="N225" s="7" t="n"/>
+      <c r="O225" s="7" t="n"/>
+      <c r="P225" s="7" t="n"/>
+      <c r="Q225" s="7" t="n"/>
+      <c r="R225" s="18" t="n"/>
       <c r="T225" s="5" t="n"/>
     </row>
     <row r="226" ht="13" customHeight="1">
@@ -67894,7 +67984,7 @@
         </is>
       </c>
       <c r="M232" s="21" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="O232" s="20" t="inlineStr">
         <is>
@@ -67902,7 +67992,7 @@
         </is>
       </c>
       <c r="P232" s="21" t="n">
-        <v>3157</v>
+        <v>2842</v>
       </c>
       <c r="T232" s="5" t="n"/>
     </row>
@@ -68005,296 +68095,302 @@
     <row r="237" ht="13" customHeight="1">
       <c r="B237" s="14" t="inlineStr">
         <is>
-          <t>400m</t>
+          <t>200m</t>
         </is>
       </c>
       <c r="C237" s="7" t="inlineStr">
         <is>
-          <t>Berit Vide Lindvall</t>
+          <t>Nora Schilbred-Eriksen</t>
         </is>
       </c>
       <c r="D237" s="7" t="n">
-        <v>2007</v>
-      </c>
-      <c r="E237" s="17" t="inlineStr">
-        <is>
-          <t>1,08,98</t>
-        </is>
+        <v>2009</v>
+      </c>
+      <c r="E237" s="15" t="n">
+        <v>29.58</v>
       </c>
       <c r="F237" s="7" t="n">
-        <v>447</v>
+        <v>476</v>
       </c>
       <c r="G237" s="7" t="inlineStr">
         <is>
-          <t>Fana</t>
+          <t>Strandebarm</t>
         </is>
       </c>
       <c r="H237" s="16" t="n">
-        <v>29.05</v>
+        <v>19.06</v>
       </c>
       <c r="J237" s="5" t="n"/>
       <c r="L237" s="14" t="inlineStr">
         <is>
-          <t>60m</t>
+          <t>Diskos</t>
         </is>
       </c>
       <c r="M237" s="7" t="inlineStr">
         <is>
-          <t>Sofie Elise Indrebø</t>
+          <t>Helga Reigstad</t>
         </is>
       </c>
       <c r="N237" s="7" t="n">
-        <v>2010</v>
+        <v>1972</v>
       </c>
       <c r="O237" s="15" t="n">
-        <v>9.029999999999999</v>
+        <v>30.75</v>
       </c>
       <c r="P237" s="7" t="n">
-        <v>466</v>
+        <v>593</v>
       </c>
       <c r="Q237" s="7" t="inlineStr">
         <is>
-          <t>Ravnanger</t>
+          <t>Osterøy</t>
         </is>
       </c>
       <c r="R237" s="16" t="n">
-        <v>20.04</v>
+        <v>13.06</v>
       </c>
       <c r="T237" s="5" t="n"/>
     </row>
     <row r="238" ht="13" customHeight="1">
       <c r="B238" s="14" t="inlineStr">
         <is>
-          <t>800m</t>
+          <t>400m</t>
         </is>
       </c>
       <c r="C238" s="7" t="inlineStr">
         <is>
-          <t>Helene Osen</t>
+          <t>Berit Vide Lindvall</t>
         </is>
       </c>
       <c r="D238" s="7" t="n">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="E238" s="17" t="inlineStr">
         <is>
-          <t>2,50,65</t>
+          <t>1,08,98</t>
         </is>
       </c>
       <c r="F238" s="7" t="n">
-        <v>376</v>
+        <v>447</v>
       </c>
       <c r="G238" s="7" t="inlineStr">
         <is>
-          <t>Leikvang</t>
+          <t>Fana</t>
         </is>
       </c>
       <c r="H238" s="16" t="n">
-        <v>19.02</v>
+        <v>29.05</v>
       </c>
       <c r="J238" s="5" t="n"/>
       <c r="L238" s="14" t="inlineStr">
         <is>
-          <t>200m</t>
+          <t>Kule</t>
         </is>
       </c>
       <c r="M238" s="7" t="inlineStr">
         <is>
-          <t>Ingrid Straume-Sunde</t>
+          <t>Helga Reigstad</t>
         </is>
       </c>
       <c r="N238" s="7" t="n">
-        <v>2010</v>
+        <v>1972</v>
       </c>
       <c r="O238" s="15" t="n">
-        <v>30.09</v>
+        <v>9.02</v>
       </c>
       <c r="P238" s="7" t="n">
-        <v>445</v>
+        <v>515</v>
       </c>
       <c r="Q238" s="7" t="inlineStr">
         <is>
-          <t>Fana</t>
+          <t>Osterøy</t>
         </is>
       </c>
       <c r="R238" s="16" t="n">
-        <v>15.05</v>
+        <v>23.05</v>
       </c>
       <c r="T238" s="5" t="n"/>
     </row>
     <row r="239" ht="13" customHeight="1">
       <c r="B239" s="14" t="inlineStr">
         <is>
-          <t>400m</t>
+          <t>1500m</t>
         </is>
       </c>
       <c r="C239" s="7" t="inlineStr">
         <is>
-          <t>Helene Osen</t>
+          <t>Nora Schilbred-Eriksen</t>
         </is>
       </c>
       <c r="D239" s="7" t="n">
-        <v>2008</v>
+        <v>2009</v>
       </c>
       <c r="E239" s="17" t="inlineStr">
         <is>
-          <t>1,13,73</t>
+          <t>5,42,33</t>
         </is>
       </c>
       <c r="F239" s="7" t="n">
-        <v>355</v>
+        <v>416</v>
       </c>
       <c r="G239" s="7" t="inlineStr">
         <is>
-          <t>Leikvang</t>
+          <t>Strandebarm</t>
         </is>
       </c>
       <c r="H239" s="16" t="n">
-        <v>20.02</v>
+        <v>19.06</v>
       </c>
       <c r="J239" s="5" t="n"/>
       <c r="L239" s="14" t="inlineStr">
         <is>
-          <t>100m</t>
+          <t>3000m</t>
         </is>
       </c>
       <c r="M239" s="7" t="inlineStr">
         <is>
-          <t>Ingrid Straume-Sunde</t>
+          <t>Mirjam Mjelde</t>
         </is>
       </c>
       <c r="N239" s="7" t="n">
-        <v>2010</v>
-      </c>
-      <c r="O239" s="15" t="n">
-        <v>14.52</v>
+        <v>1969</v>
+      </c>
+      <c r="O239" s="17" t="inlineStr">
+        <is>
+          <t>11,51,36mx</t>
+        </is>
       </c>
       <c r="P239" s="7" t="n">
-        <v>435</v>
+        <v>481</v>
       </c>
       <c r="Q239" s="7" t="inlineStr">
         <is>
-          <t>Fana</t>
+          <t>Osterøy</t>
         </is>
       </c>
       <c r="R239" s="16" t="n">
-        <v>29.05</v>
+        <v>2.06</v>
       </c>
       <c r="T239" s="5" t="n"/>
     </row>
     <row r="240" ht="13" customHeight="1">
       <c r="B240" s="14" t="inlineStr">
         <is>
-          <t>100m</t>
+          <t>800m</t>
         </is>
       </c>
       <c r="C240" s="7" t="inlineStr">
         <is>
-          <t>Frida Askildsen Hovdevik</t>
+          <t>Helene Osen</t>
         </is>
       </c>
       <c r="D240" s="7" t="n">
-        <v>2009</v>
-      </c>
-      <c r="E240" s="15" t="n">
-        <v>15.16</v>
+        <v>2008</v>
+      </c>
+      <c r="E240" s="17" t="inlineStr">
+        <is>
+          <t>2,50,65</t>
+        </is>
       </c>
       <c r="F240" s="7" t="n">
-        <v>350</v>
+        <v>376</v>
       </c>
       <c r="G240" s="7" t="inlineStr">
         <is>
-          <t>Fana</t>
+          <t>Leikvang</t>
         </is>
       </c>
       <c r="H240" s="16" t="n">
-        <v>14.05</v>
+        <v>19.02</v>
       </c>
       <c r="J240" s="5" t="n"/>
       <c r="L240" s="14" t="inlineStr">
         <is>
-          <t>60m</t>
+          <t>3000m</t>
         </is>
       </c>
       <c r="M240" s="7" t="inlineStr">
         <is>
-          <t>Ingrid Straume Sunde</t>
+          <t>Ingri M Birkeland</t>
         </is>
       </c>
       <c r="N240" s="7" t="n">
-        <v>2010</v>
-      </c>
-      <c r="O240" s="15" t="n">
-        <v>9.210000000000001</v>
+        <v>1984</v>
+      </c>
+      <c r="O240" s="17" t="inlineStr">
+        <is>
+          <t>12,07,15mx</t>
+        </is>
       </c>
       <c r="P240" s="7" t="n">
-        <v>427</v>
+        <v>449</v>
       </c>
       <c r="Q240" s="7" t="inlineStr">
         <is>
-          <t>Ravnanger</t>
+          <t>Osterøy</t>
         </is>
       </c>
       <c r="R240" s="16" t="n">
-        <v>20.04</v>
+        <v>2.06</v>
       </c>
       <c r="T240" s="5" t="n"/>
     </row>
     <row r="241" ht="13" customHeight="1">
       <c r="B241" s="14" t="inlineStr">
         <is>
-          <t>60m</t>
+          <t>100m</t>
         </is>
       </c>
       <c r="C241" s="7" t="inlineStr">
         <is>
-          <t>Helene Osen</t>
+          <t>Nora Schilbred-Eriksen</t>
         </is>
       </c>
       <c r="D241" s="7" t="n">
-        <v>2008</v>
+        <v>2009</v>
       </c>
       <c r="E241" s="15" t="n">
-        <v>9.609999999999999</v>
+        <v>15.12</v>
       </c>
       <c r="F241" s="7" t="n">
-        <v>344</v>
+        <v>355</v>
       </c>
       <c r="G241" s="7" t="inlineStr">
         <is>
-          <t>Leikvang</t>
+          <t>Strandebarm</t>
         </is>
       </c>
       <c r="H241" s="16" t="n">
-        <v>20.02</v>
+        <v>18.06</v>
       </c>
       <c r="J241" s="5" t="n"/>
       <c r="L241" s="14" t="inlineStr">
         <is>
-          <t>60m</t>
+          <t>3000m</t>
         </is>
       </c>
       <c r="M241" s="7" t="inlineStr">
         <is>
-          <t>Venja Lillebø</t>
+          <t>Anne Lise Leiren Mastervik</t>
         </is>
       </c>
       <c r="N241" s="7" t="n">
-        <v>2009</v>
-      </c>
-      <c r="O241" s="15" t="n">
-        <v>9.630000000000001</v>
+        <v>1972</v>
+      </c>
+      <c r="O241" s="17" t="inlineStr">
+        <is>
+          <t>12,38,51mx</t>
+        </is>
       </c>
       <c r="P241" s="7" t="n">
-        <v>341</v>
+        <v>390</v>
       </c>
       <c r="Q241" s="7" t="inlineStr">
         <is>
-          <t>Ravnanger</t>
+          <t>Osterøy</t>
         </is>
       </c>
       <c r="R241" s="16" t="n">
-        <v>20.07</v>
+        <v>2.06</v>
       </c>
       <c r="T241" s="5" t="n"/>
     </row>
@@ -68309,30 +68405,32 @@
       <c r="J242" s="5" t="n"/>
       <c r="L242" s="14" t="inlineStr">
         <is>
-          <t>Lengde u.t</t>
+          <t>3000m</t>
         </is>
       </c>
       <c r="M242" s="7" t="inlineStr">
         <is>
-          <t>Ingrid Straume Sunde</t>
+          <t>Margrethe Fjellskålnes</t>
         </is>
       </c>
       <c r="N242" s="7" t="n">
-        <v>2010</v>
-      </c>
-      <c r="O242" s="15" t="n">
-        <v>2.09</v>
+        <v>2007</v>
+      </c>
+      <c r="O242" s="17" t="inlineStr">
+        <is>
+          <t>12,47,51mx</t>
+        </is>
       </c>
       <c r="P242" s="7" t="n">
-        <v>328</v>
+        <v>374</v>
       </c>
       <c r="Q242" s="7" t="inlineStr">
         <is>
-          <t>Leikvang</t>
+          <t>Osterøy</t>
         </is>
       </c>
       <c r="R242" s="16" t="n">
-        <v>19.03</v>
+        <v>2.06</v>
       </c>
       <c r="T242" s="5" t="n"/>
     </row>
@@ -68347,30 +68445,32 @@
       <c r="J243" s="5" t="n"/>
       <c r="L243" s="14" t="inlineStr">
         <is>
-          <t>Lengde u.t</t>
+          <t>800m</t>
         </is>
       </c>
       <c r="M243" s="7" t="inlineStr">
         <is>
-          <t>Venja Lillebø</t>
+          <t>Anne Lise Leiren Mastervik</t>
         </is>
       </c>
       <c r="N243" s="7" t="n">
-        <v>2009</v>
-      </c>
-      <c r="O243" s="15" t="n">
-        <v>1.97</v>
+        <v>1972</v>
+      </c>
+      <c r="O243" s="17" t="inlineStr">
+        <is>
+          <t>2,58,16mx</t>
+        </is>
       </c>
       <c r="P243" s="7" t="n">
-        <v>216</v>
+        <v>319</v>
       </c>
       <c r="Q243" s="7" t="inlineStr">
         <is>
-          <t>Askøy</t>
+          <t>Osterøy</t>
         </is>
       </c>
       <c r="R243" s="16" t="n">
-        <v>14.03</v>
+        <v>23.05</v>
       </c>
       <c r="T243" s="5" t="n"/>
     </row>
@@ -68390,25 +68490,25 @@
       </c>
       <c r="M244" s="7" t="inlineStr">
         <is>
-          <t>Sofie Elise Indrebø</t>
+          <t>Lena Hopland</t>
         </is>
       </c>
       <c r="N244" s="7" t="n">
-        <v>2010</v>
+        <v>2006</v>
       </c>
       <c r="O244" s="15" t="n">
-        <v>1.85</v>
+        <v>1.99</v>
       </c>
       <c r="P244" s="7" t="n">
-        <v>88</v>
+        <v>236</v>
       </c>
       <c r="Q244" s="7" t="inlineStr">
         <is>
-          <t>Askøy</t>
+          <t>Osterøy</t>
         </is>
       </c>
       <c r="R244" s="16" t="n">
-        <v>14.03</v>
+        <v>17.01</v>
       </c>
       <c r="T244" s="5" t="n"/>
     </row>
@@ -68445,7 +68545,7 @@
         </is>
       </c>
       <c r="F246" s="21" t="n">
-        <v>1872</v>
+        <v>2070</v>
       </c>
       <c r="J246" s="5" t="n"/>
       <c r="L246" s="20" t="inlineStr">
@@ -68462,7 +68562,7 @@
         </is>
       </c>
       <c r="P246" s="21" t="n">
-        <v>2746</v>
+        <v>3357</v>
       </c>
       <c r="T246" s="5" t="n"/>
     </row>
@@ -68485,7 +68585,7 @@
         </is>
       </c>
       <c r="F248" s="21" t="n">
-        <v>6154</v>
+        <v>6352</v>
       </c>
       <c r="J248" s="5" t="n"/>
       <c r="L248" s="20" t="inlineStr">
@@ -68494,7 +68594,7 @@
         </is>
       </c>
       <c r="M248" s="21" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="O248" s="20" t="inlineStr">
         <is>
@@ -68502,7 +68602,7 @@
         </is>
       </c>
       <c r="P248" s="21" t="n">
-        <v>5903</v>
+        <v>6199</v>
       </c>
       <c r="T248" s="5" t="n"/>
     </row>
@@ -68517,7 +68617,7 @@
         </is>
       </c>
       <c r="C250" s="21" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J250" s="5" t="n"/>
       <c r="L250" s="20" t="inlineStr">
@@ -68526,7 +68626,7 @@
         </is>
       </c>
       <c r="M250" s="21" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="T250" s="5" t="n"/>
     </row>
@@ -68572,7 +68672,7 @@
         </is>
       </c>
       <c r="F254" s="8" t="n">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="J254" s="5" t="n"/>
       <c r="L254" s="6" t="inlineStr">
@@ -68586,7 +68686,7 @@
         </is>
       </c>
       <c r="P254" s="8" t="n">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="T254" s="5" t="n"/>
     </row>
@@ -68598,7 +68698,7 @@
       </c>
       <c r="C255" s="7" t="inlineStr">
         <is>
-          <t>IL Fri</t>
+          <t>Ask Friidrett 2. lag</t>
         </is>
       </c>
       <c r="J255" s="5" t="n"/>
@@ -68609,7 +68709,7 @@
       </c>
       <c r="M255" s="7" t="inlineStr">
         <is>
-          <t>Voss IL</t>
+          <t>IL Fri</t>
         </is>
       </c>
       <c r="T255" s="5" t="n"/>
@@ -68738,25 +68838,25 @@
       </c>
       <c r="C261" s="7" t="inlineStr">
         <is>
-          <t>Maia Loftås</t>
+          <t>Ingrid Straume-Sunde</t>
         </is>
       </c>
       <c r="D261" s="7" t="n">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="E261" s="15" t="n">
-        <v>11.13</v>
+        <v>8.98</v>
       </c>
       <c r="F261" s="7" t="n">
-        <v>83</v>
+        <v>477</v>
       </c>
       <c r="G261" s="7" t="inlineStr">
         <is>
-          <t>Arna</t>
+          <t>Fana</t>
         </is>
       </c>
       <c r="H261" s="16" t="n">
-        <v>22.06</v>
+        <v>28.05</v>
       </c>
       <c r="J261" s="5" t="n"/>
       <c r="L261" s="14" t="inlineStr">
@@ -68766,25 +68866,25 @@
       </c>
       <c r="M261" s="7" t="inlineStr">
         <is>
-          <t>Emma Severine Kvåle</t>
+          <t>Maia Loftås</t>
         </is>
       </c>
       <c r="N261" s="7" t="n">
-        <v>2008</v>
+        <v>2011</v>
       </c>
       <c r="O261" s="15" t="n">
-        <v>9.619999999999999</v>
+        <v>11.13</v>
       </c>
       <c r="P261" s="7" t="n">
-        <v>343</v>
+        <v>83</v>
       </c>
       <c r="Q261" s="7" t="inlineStr">
         <is>
-          <t>Voss</t>
+          <t>Arna</t>
         </is>
       </c>
       <c r="R261" s="16" t="n">
-        <v>1.06</v>
+        <v>22.06</v>
       </c>
       <c r="T261" s="5" t="n"/>
     </row>
@@ -68796,77 +68896,75 @@
       </c>
       <c r="C262" s="7" t="inlineStr">
         <is>
-          <t>Signe-Marie Torvund</t>
+          <t>Sofie Elise Indrebø</t>
         </is>
       </c>
       <c r="D262" s="7" t="n">
-        <v>2004</v>
+        <v>2010</v>
       </c>
       <c r="E262" s="15" t="n">
-        <v>15.14</v>
+        <v>14.5</v>
       </c>
       <c r="F262" s="7" t="n">
-        <v>353</v>
+        <v>438</v>
       </c>
       <c r="G262" s="7" t="inlineStr">
         <is>
-          <t>Arna</t>
+          <t>Fana</t>
         </is>
       </c>
       <c r="H262" s="16" t="n">
-        <v>22.06</v>
+        <v>29.05</v>
       </c>
       <c r="J262" s="5" t="n"/>
       <c r="L262" s="14" t="inlineStr">
         <is>
-          <t>200m</t>
+          <t>100m</t>
         </is>
       </c>
       <c r="M262" s="7" t="inlineStr">
         <is>
-          <t>Caroline Dalland Istad</t>
+          <t>Signe-Marie Torvund</t>
         </is>
       </c>
       <c r="N262" s="7" t="n">
-        <v>2010</v>
+        <v>2004</v>
       </c>
       <c r="O262" s="15" t="n">
-        <v>38.46</v>
+        <v>15.14</v>
       </c>
       <c r="P262" s="7" t="n">
-        <v>74</v>
+        <v>353</v>
       </c>
       <c r="Q262" s="7" t="inlineStr">
         <is>
-          <t>Voss</t>
+          <t>Arna</t>
         </is>
       </c>
       <c r="R262" s="16" t="n">
-        <v>11.05</v>
+        <v>22.06</v>
       </c>
       <c r="T262" s="5" t="n"/>
     </row>
     <row r="263" ht="13" customHeight="1">
       <c r="B263" s="14" t="inlineStr">
         <is>
-          <t>800m</t>
+          <t>200m</t>
         </is>
       </c>
       <c r="C263" s="7" t="inlineStr">
         <is>
-          <t>Vilde-Sofie Torvund</t>
+          <t>Sofie Elise Indrebø</t>
         </is>
       </c>
       <c r="D263" s="7" t="n">
-        <v>2006</v>
-      </c>
-      <c r="E263" s="17" t="inlineStr">
-        <is>
-          <t>2,19,40</t>
-        </is>
+        <v>2010</v>
+      </c>
+      <c r="E263" s="15" t="n">
+        <v>29.94</v>
       </c>
       <c r="F263" s="7" t="n">
-        <v>675</v>
+        <v>454</v>
       </c>
       <c r="G263" s="7" t="inlineStr">
         <is>
@@ -68874,271 +68972,277 @@
         </is>
       </c>
       <c r="H263" s="16" t="n">
-        <v>14.05</v>
+        <v>27.05</v>
       </c>
       <c r="J263" s="5" t="n"/>
       <c r="L263" s="14" t="inlineStr">
         <is>
-          <t>Høyde</t>
+          <t>800m</t>
         </is>
       </c>
       <c r="M263" s="7" t="inlineStr">
         <is>
-          <t>Evy Mala</t>
+          <t>Vilde-Sofie Torvund</t>
         </is>
       </c>
       <c r="N263" s="7" t="n">
-        <v>2008</v>
-      </c>
-      <c r="O263" s="15" t="n">
-        <v>1.15</v>
+        <v>2006</v>
+      </c>
+      <c r="O263" s="17" t="inlineStr">
+        <is>
+          <t>2,19,40</t>
+        </is>
       </c>
       <c r="P263" s="7" t="n">
-        <v>240</v>
+        <v>675</v>
       </c>
       <c r="Q263" s="7" t="inlineStr">
         <is>
-          <t>Voss</t>
+          <t>Fana</t>
         </is>
       </c>
       <c r="R263" s="16" t="n">
-        <v>1.06</v>
+        <v>14.05</v>
       </c>
       <c r="T263" s="5" t="n"/>
     </row>
     <row r="264" ht="13" customHeight="1">
       <c r="B264" s="14" t="inlineStr">
         <is>
-          <t>1500m</t>
+          <t>800m</t>
         </is>
       </c>
       <c r="C264" s="7" t="inlineStr">
         <is>
-          <t>Vilde-Sofie Torvund</t>
+          <t>Pia Norheim</t>
         </is>
       </c>
       <c r="D264" s="7" t="n">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="E264" s="17" t="inlineStr">
         <is>
-          <t>4,44,10</t>
+          <t>2,30,04</t>
         </is>
       </c>
       <c r="F264" s="7" t="n">
-        <v>700</v>
+        <v>557</v>
       </c>
       <c r="G264" s="7" t="inlineStr">
         <is>
-          <t>Fana</t>
+          <t>Leikvang</t>
         </is>
       </c>
       <c r="H264" s="16" t="n">
-        <v>28.05</v>
+        <v>19.02</v>
       </c>
       <c r="J264" s="5" t="n"/>
       <c r="L264" s="14" t="inlineStr">
         <is>
-          <t>Lengde</t>
+          <t>1500m</t>
         </is>
       </c>
       <c r="M264" s="7" t="inlineStr">
         <is>
-          <t>Vilde Fykse</t>
+          <t>Vilde-Sofie Torvund</t>
         </is>
       </c>
       <c r="N264" s="7" t="n">
-        <v>2008</v>
-      </c>
-      <c r="O264" s="15" t="n">
-        <v>3.28</v>
+        <v>2006</v>
+      </c>
+      <c r="O264" s="17" t="inlineStr">
+        <is>
+          <t>4,44,10</t>
+        </is>
       </c>
       <c r="P264" s="7" t="n">
-        <v>185</v>
+        <v>700</v>
       </c>
       <c r="Q264" s="7" t="inlineStr">
         <is>
-          <t>Voss</t>
+          <t>Fana</t>
         </is>
       </c>
       <c r="R264" s="16" t="n">
-        <v>1.06</v>
+        <v>28.05</v>
       </c>
       <c r="T264" s="5" t="n"/>
     </row>
     <row r="265" ht="13" customHeight="1">
       <c r="B265" s="14" t="inlineStr">
         <is>
-          <t>3000m</t>
+          <t>1500m</t>
         </is>
       </c>
       <c r="C265" s="7" t="inlineStr">
         <is>
-          <t>Vigdis Gaupholm Reigstad</t>
+          <t>Julia Varsi</t>
         </is>
       </c>
       <c r="D265" s="7" t="n">
-        <v>1973</v>
+        <v>2005</v>
       </c>
       <c r="E265" s="17" t="inlineStr">
         <is>
-          <t>10,44,31mx</t>
+          <t>5,31,81</t>
         </is>
       </c>
       <c r="F265" s="7" t="n">
-        <v>627</v>
+        <v>461</v>
       </c>
       <c r="G265" s="7" t="inlineStr">
         <is>
-          <t>Arna</t>
+          <t>Fana</t>
         </is>
       </c>
       <c r="H265" s="16" t="n">
-        <v>6.07</v>
+        <v>28.05</v>
       </c>
       <c r="J265" s="5" t="n"/>
       <c r="L265" s="14" t="inlineStr">
         <is>
-          <t>Kule</t>
+          <t>3000m</t>
         </is>
       </c>
       <c r="M265" s="7" t="inlineStr">
         <is>
-          <t>Mariell Morken</t>
+          <t>Vigdis Gaupholm Reigstad</t>
         </is>
       </c>
       <c r="N265" s="7" t="n">
-        <v>2003</v>
-      </c>
-      <c r="O265" s="15" t="n">
-        <v>13.49</v>
+        <v>1973</v>
+      </c>
+      <c r="O265" s="17" t="inlineStr">
+        <is>
+          <t>10,44,31mx</t>
+        </is>
       </c>
       <c r="P265" s="7" t="n">
-        <v>786</v>
+        <v>627</v>
       </c>
       <c r="Q265" s="7" t="inlineStr">
         <is>
-          <t>Voss</t>
+          <t>Arna</t>
         </is>
       </c>
       <c r="R265" s="16" t="n">
-        <v>22.06</v>
+        <v>6.07</v>
       </c>
       <c r="T265" s="5" t="n"/>
     </row>
     <row r="266" ht="13" customHeight="1">
       <c r="B266" s="14" t="inlineStr">
         <is>
-          <t>Kule</t>
+          <t>Lengde</t>
         </is>
       </c>
       <c r="C266" s="7" t="inlineStr">
         <is>
-          <t>Matilde Roe</t>
+          <t>Sofie Elise Indrebø</t>
         </is>
       </c>
       <c r="D266" s="7" t="n">
-        <v>1996</v>
+        <v>2010</v>
       </c>
       <c r="E266" s="15" t="n">
-        <v>14.49</v>
+        <v>3.77</v>
       </c>
       <c r="F266" s="7" t="n">
-        <v>833</v>
+        <v>327</v>
       </c>
       <c r="G266" s="7" t="inlineStr">
         <is>
-          <t>Phoenix/AZ/USA</t>
+          <t>Leikvang</t>
         </is>
       </c>
       <c r="H266" s="16" t="n">
-        <v>3.04</v>
+        <v>29.01</v>
       </c>
       <c r="J266" s="5" t="n"/>
       <c r="L266" s="14" t="inlineStr">
         <is>
-          <t>Diskos</t>
+          <t>Kule</t>
         </is>
       </c>
       <c r="M266" s="7" t="inlineStr">
         <is>
-          <t>Mariell Morken</t>
+          <t>Matilde Roe</t>
         </is>
       </c>
       <c r="N266" s="7" t="n">
-        <v>2003</v>
+        <v>1996</v>
       </c>
       <c r="O266" s="15" t="n">
-        <v>36.08</v>
+        <v>14.49</v>
       </c>
       <c r="P266" s="7" t="n">
-        <v>671</v>
+        <v>833</v>
       </c>
       <c r="Q266" s="7" t="inlineStr">
         <is>
-          <t>Voss</t>
+          <t>Phoenix/AZ/USA</t>
         </is>
       </c>
       <c r="R266" s="16" t="n">
-        <v>22.06</v>
+        <v>3.04</v>
       </c>
       <c r="T266" s="5" t="n"/>
     </row>
     <row r="267" ht="13" customHeight="1">
       <c r="B267" s="14" t="inlineStr">
         <is>
-          <t>Diskos</t>
+          <t>Lengde u.t</t>
         </is>
       </c>
       <c r="C267" s="7" t="inlineStr">
         <is>
-          <t>Matilde Roe</t>
+          <t>Elin Hundven Eliassen</t>
         </is>
       </c>
       <c r="D267" s="7" t="n">
-        <v>1996</v>
+        <v>1973</v>
       </c>
       <c r="E267" s="15" t="n">
-        <v>51.11</v>
+        <v>2.23</v>
       </c>
       <c r="F267" s="7" t="n">
-        <v>877</v>
+        <v>443</v>
       </c>
       <c r="G267" s="7" t="inlineStr">
         <is>
-          <t>Long Beach/CA/USA</t>
+          <t>Leikvang</t>
         </is>
       </c>
       <c r="H267" s="16" t="n">
-        <v>16.04</v>
+        <v>19.03</v>
       </c>
       <c r="J267" s="5" t="n"/>
       <c r="L267" s="14" t="inlineStr">
         <is>
-          <t>Slegge</t>
+          <t>Diskos</t>
         </is>
       </c>
       <c r="M267" s="7" t="inlineStr">
         <is>
-          <t>Mariell Morken</t>
+          <t>Matilde Roe</t>
         </is>
       </c>
       <c r="N267" s="7" t="n">
-        <v>2003</v>
+        <v>1996</v>
       </c>
       <c r="O267" s="15" t="n">
-        <v>42.28</v>
+        <v>51.11</v>
       </c>
       <c r="P267" s="7" t="n">
-        <v>714</v>
+        <v>877</v>
       </c>
       <c r="Q267" s="7" t="inlineStr">
         <is>
-          <t>Voss</t>
+          <t>Long Beach/CA/USA</t>
         </is>
       </c>
       <c r="R267" s="16" t="n">
-        <v>13.07</v>
+        <v>16.04</v>
       </c>
       <c r="T267" s="5" t="n"/>
     </row>
@@ -69151,33 +69255,13 @@
       <c r="G268" s="7" t="n"/>
       <c r="H268" s="18" t="n"/>
       <c r="J268" s="5" t="n"/>
-      <c r="L268" s="14" t="inlineStr">
-        <is>
-          <t>Spyd</t>
-        </is>
-      </c>
-      <c r="M268" s="7" t="inlineStr">
-        <is>
-          <t>Mariell Morken</t>
-        </is>
-      </c>
-      <c r="N268" s="7" t="n">
-        <v>2003</v>
-      </c>
-      <c r="O268" s="15" t="n">
-        <v>27.36</v>
-      </c>
-      <c r="P268" s="7" t="n">
-        <v>505</v>
-      </c>
-      <c r="Q268" s="7" t="inlineStr">
-        <is>
-          <t>Voss</t>
-        </is>
-      </c>
-      <c r="R268" s="16" t="n">
-        <v>13.07</v>
-      </c>
+      <c r="L268" s="14" t="n"/>
+      <c r="M268" s="7" t="n"/>
+      <c r="N268" s="7" t="n"/>
+      <c r="O268" s="7" t="n"/>
+      <c r="P268" s="7" t="n"/>
+      <c r="Q268" s="7" t="n"/>
+      <c r="R268" s="18" t="n"/>
       <c r="T268" s="5" t="n"/>
     </row>
     <row r="269" ht="13" customHeight="1">
@@ -69285,7 +69369,7 @@
         </is>
       </c>
       <c r="F274" s="21" t="n">
-        <v>4148</v>
+        <v>3157</v>
       </c>
       <c r="J274" s="5" t="n"/>
       <c r="L274" s="20" t="inlineStr">
@@ -69294,7 +69378,7 @@
         </is>
       </c>
       <c r="M274" s="21" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="O274" s="20" t="inlineStr">
         <is>
@@ -69302,7 +69386,7 @@
         </is>
       </c>
       <c r="P274" s="21" t="n">
-        <v>3518</v>
+        <v>4148</v>
       </c>
       <c r="T274" s="5" t="n"/>
     </row>
@@ -69405,411 +69489,411 @@
     <row r="279" ht="13" customHeight="1">
       <c r="B279" s="14" t="inlineStr">
         <is>
-          <t>1500m</t>
+          <t>60m</t>
         </is>
       </c>
       <c r="C279" s="7" t="inlineStr">
         <is>
-          <t>Signe-Marie Torvund</t>
+          <t>Sofie Elise Indrebø</t>
         </is>
       </c>
       <c r="D279" s="7" t="n">
-        <v>2004</v>
-      </c>
-      <c r="E279" s="17" t="inlineStr">
-        <is>
-          <t>5,26,95+</t>
-        </is>
+        <v>2010</v>
+      </c>
+      <c r="E279" s="15" t="n">
+        <v>9.029999999999999</v>
       </c>
       <c r="F279" s="7" t="n">
-        <v>482</v>
+        <v>466</v>
       </c>
       <c r="G279" s="7" t="inlineStr">
         <is>
-          <t>Arna</t>
+          <t>Ravnanger</t>
         </is>
       </c>
       <c r="H279" s="16" t="n">
-        <v>1.08</v>
+        <v>20.04</v>
       </c>
       <c r="J279" s="5" t="n"/>
       <c r="L279" s="14" t="inlineStr">
         <is>
-          <t>60m</t>
+          <t>1500m</t>
         </is>
       </c>
       <c r="M279" s="7" t="inlineStr">
         <is>
-          <t>Vilde Fykse</t>
+          <t>Signe-Marie Torvund</t>
         </is>
       </c>
       <c r="N279" s="7" t="n">
-        <v>2008</v>
-      </c>
-      <c r="O279" s="15" t="n">
-        <v>9.960000000000001</v>
+        <v>2004</v>
+      </c>
+      <c r="O279" s="17" t="inlineStr">
+        <is>
+          <t>5,26,95+</t>
+        </is>
       </c>
       <c r="P279" s="7" t="n">
-        <v>278</v>
+        <v>482</v>
       </c>
       <c r="Q279" s="7" t="inlineStr">
         <is>
-          <t>Voss</t>
+          <t>Arna</t>
         </is>
       </c>
       <c r="R279" s="16" t="n">
-        <v>1.06</v>
+        <v>1.08</v>
       </c>
       <c r="T279" s="5" t="n"/>
     </row>
     <row r="280" ht="13" customHeight="1">
       <c r="B280" s="14" t="inlineStr">
         <is>
-          <t>1500m</t>
+          <t>200m</t>
         </is>
       </c>
       <c r="C280" s="7" t="inlineStr">
         <is>
-          <t>Synne-Helen Torvund</t>
+          <t>Ingrid Straume-Sunde</t>
         </is>
       </c>
       <c r="D280" s="7" t="n">
-        <v>2002</v>
-      </c>
-      <c r="E280" s="17" t="inlineStr">
-        <is>
-          <t>5,40,76</t>
-        </is>
+        <v>2010</v>
+      </c>
+      <c r="E280" s="15" t="n">
+        <v>30.09</v>
       </c>
       <c r="F280" s="7" t="n">
-        <v>423</v>
+        <v>445</v>
       </c>
       <c r="G280" s="7" t="inlineStr">
         <is>
-          <t>Arna</t>
+          <t>Fana</t>
         </is>
       </c>
       <c r="H280" s="16" t="n">
-        <v>22.06</v>
+        <v>15.05</v>
       </c>
       <c r="J280" s="5" t="n"/>
       <c r="L280" s="14" t="inlineStr">
         <is>
-          <t>60m</t>
+          <t>1500m</t>
         </is>
       </c>
       <c r="M280" s="7" t="inlineStr">
         <is>
-          <t>Evy Mala</t>
+          <t>Synne-Helen Torvund</t>
         </is>
       </c>
       <c r="N280" s="7" t="n">
-        <v>2008</v>
-      </c>
-      <c r="O280" s="15" t="n">
-        <v>10.06</v>
+        <v>2002</v>
+      </c>
+      <c r="O280" s="17" t="inlineStr">
+        <is>
+          <t>5,40,76</t>
+        </is>
       </c>
       <c r="P280" s="7" t="n">
-        <v>259</v>
+        <v>423</v>
       </c>
       <c r="Q280" s="7" t="inlineStr">
         <is>
-          <t>Voss</t>
+          <t>Arna</t>
         </is>
       </c>
       <c r="R280" s="16" t="n">
-        <v>1.06</v>
+        <v>22.06</v>
       </c>
       <c r="T280" s="5" t="n"/>
     </row>
     <row r="281" ht="13" customHeight="1">
       <c r="B281" s="14" t="inlineStr">
         <is>
-          <t>Diskos</t>
+          <t>100m</t>
         </is>
       </c>
       <c r="C281" s="7" t="inlineStr">
         <is>
-          <t>Ingunn Gatland Jacobsen</t>
+          <t>Ingrid Straume-Sunde</t>
         </is>
       </c>
       <c r="D281" s="7" t="n">
-        <v>1967</v>
+        <v>2010</v>
       </c>
       <c r="E281" s="15" t="n">
-        <v>17.19</v>
+        <v>14.52</v>
       </c>
       <c r="F281" s="7" t="n">
-        <v>304</v>
+        <v>435</v>
       </c>
       <c r="G281" s="7" t="inlineStr">
         <is>
-          <t>Osterøy</t>
+          <t>Fana</t>
         </is>
       </c>
       <c r="H281" s="16" t="n">
-        <v>20.06</v>
+        <v>29.05</v>
       </c>
       <c r="J281" s="5" t="n"/>
       <c r="L281" s="14" t="inlineStr">
         <is>
-          <t>60m</t>
+          <t>Diskos</t>
         </is>
       </c>
       <c r="M281" s="7" t="inlineStr">
         <is>
-          <t>Emma Gjerstad</t>
+          <t>Ingunn Gatland Jacobsen</t>
         </is>
       </c>
       <c r="N281" s="7" t="n">
-        <v>2008</v>
+        <v>1967</v>
       </c>
       <c r="O281" s="15" t="n">
-        <v>10.11</v>
+        <v>17.19</v>
       </c>
       <c r="P281" s="7" t="n">
-        <v>250</v>
+        <v>304</v>
       </c>
       <c r="Q281" s="7" t="inlineStr">
         <is>
-          <t>Voss</t>
+          <t>Osterøy</t>
         </is>
       </c>
       <c r="R281" s="16" t="n">
-        <v>1.06</v>
+        <v>20.06</v>
       </c>
       <c r="T281" s="5" t="n"/>
     </row>
     <row r="282" ht="13" customHeight="1">
       <c r="B282" s="14" t="inlineStr">
         <is>
-          <t>3000m</t>
+          <t>60m</t>
         </is>
       </c>
       <c r="C282" s="7" t="inlineStr">
         <is>
-          <t>Kristin Brattabø</t>
+          <t>Ingrid Straume Sunde</t>
         </is>
       </c>
       <c r="D282" s="7" t="n">
-        <v>2011</v>
-      </c>
-      <c r="E282" s="17" t="inlineStr">
-        <is>
-          <t>15,15,94mx</t>
-        </is>
+        <v>2010</v>
+      </c>
+      <c r="E282" s="15" t="n">
+        <v>9.210000000000001</v>
       </c>
       <c r="F282" s="7" t="n">
-        <v>134</v>
+        <v>427</v>
       </c>
       <c r="G282" s="7" t="inlineStr">
         <is>
-          <t>Osterøy</t>
+          <t>Ravnanger</t>
         </is>
       </c>
       <c r="H282" s="16" t="n">
-        <v>2.06</v>
+        <v>20.04</v>
       </c>
       <c r="J282" s="5" t="n"/>
       <c r="L282" s="14" t="inlineStr">
         <is>
-          <t>Høyde</t>
+          <t>3000m</t>
         </is>
       </c>
       <c r="M282" s="7" t="inlineStr">
         <is>
-          <t>Vilde Fykse</t>
+          <t>Kristin Brattabø</t>
         </is>
       </c>
       <c r="N282" s="7" t="n">
-        <v>2008</v>
-      </c>
-      <c r="O282" s="15" t="n">
-        <v>1.15</v>
+        <v>2011</v>
+      </c>
+      <c r="O282" s="17" t="inlineStr">
+        <is>
+          <t>15,15,94mx</t>
+        </is>
       </c>
       <c r="P282" s="7" t="n">
-        <v>240</v>
+        <v>134</v>
       </c>
       <c r="Q282" s="7" t="inlineStr">
         <is>
-          <t>Voss</t>
+          <t>Osterøy</t>
         </is>
       </c>
       <c r="R282" s="16" t="n">
-        <v>1.06</v>
+        <v>2.06</v>
       </c>
       <c r="T282" s="5" t="n"/>
     </row>
     <row r="283" ht="13" customHeight="1">
       <c r="B283" s="14" t="inlineStr">
         <is>
-          <t>Diskos</t>
+          <t>60m</t>
         </is>
       </c>
       <c r="C283" s="7" t="inlineStr">
         <is>
-          <t>Eldbjørg Sanden Søvik</t>
+          <t>Venja Lillebø</t>
         </is>
       </c>
       <c r="D283" s="7" t="n">
-        <v>1956</v>
+        <v>2009</v>
       </c>
       <c r="E283" s="15" t="n">
-        <v>13.34</v>
+        <v>9.630000000000001</v>
       </c>
       <c r="F283" s="7" t="n">
-        <v>127</v>
+        <v>341</v>
       </c>
       <c r="G283" s="7" t="inlineStr">
         <is>
-          <t>Bergen</t>
+          <t>Ravnanger</t>
         </is>
       </c>
       <c r="H283" s="16" t="n">
-        <v>23.04</v>
+        <v>20.07</v>
       </c>
       <c r="J283" s="5" t="n"/>
       <c r="L283" s="14" t="inlineStr">
         <is>
-          <t>60m</t>
+          <t>Diskos</t>
         </is>
       </c>
       <c r="M283" s="7" t="inlineStr">
         <is>
-          <t>Edel Rognebakke</t>
+          <t>Eldbjørg Sanden Søvik</t>
         </is>
       </c>
       <c r="N283" s="7" t="n">
-        <v>2011</v>
+        <v>1956</v>
       </c>
       <c r="O283" s="15" t="n">
-        <v>10.67</v>
+        <v>13.34</v>
       </c>
       <c r="P283" s="7" t="n">
-        <v>154</v>
+        <v>127</v>
       </c>
       <c r="Q283" s="7" t="inlineStr">
         <is>
-          <t>Voss</t>
+          <t>Bergen</t>
         </is>
       </c>
       <c r="R283" s="16" t="n">
-        <v>1.06</v>
+        <v>23.04</v>
       </c>
       <c r="T283" s="5" t="n"/>
     </row>
     <row r="284" ht="13" customHeight="1">
-      <c r="B284" s="14" t="n"/>
-      <c r="C284" s="7" t="n"/>
-      <c r="D284" s="7" t="n"/>
-      <c r="E284" s="7" t="n"/>
-      <c r="F284" s="7" t="n"/>
-      <c r="G284" s="7" t="n"/>
-      <c r="H284" s="18" t="n"/>
+      <c r="B284" s="14" t="inlineStr">
+        <is>
+          <t>Lengde u.t</t>
+        </is>
+      </c>
+      <c r="C284" s="7" t="inlineStr">
+        <is>
+          <t>Ingrid Straume Sunde</t>
+        </is>
+      </c>
+      <c r="D284" s="7" t="n">
+        <v>2010</v>
+      </c>
+      <c r="E284" s="15" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="F284" s="7" t="n">
+        <v>328</v>
+      </c>
+      <c r="G284" s="7" t="inlineStr">
+        <is>
+          <t>Leikvang</t>
+        </is>
+      </c>
+      <c r="H284" s="16" t="n">
+        <v>19.03</v>
+      </c>
       <c r="J284" s="5" t="n"/>
-      <c r="L284" s="14" t="inlineStr">
-        <is>
-          <t>60m</t>
-        </is>
-      </c>
-      <c r="M284" s="7" t="inlineStr">
-        <is>
-          <t>Maria Istad Kristiansen</t>
-        </is>
-      </c>
-      <c r="N284" s="7" t="n">
-        <v>2011</v>
-      </c>
-      <c r="O284" s="15" t="n">
-        <v>10.76</v>
-      </c>
-      <c r="P284" s="7" t="n">
-        <v>140</v>
-      </c>
-      <c r="Q284" s="7" t="inlineStr">
-        <is>
-          <t>Voss</t>
-        </is>
-      </c>
-      <c r="R284" s="16" t="n">
-        <v>1.06</v>
-      </c>
+      <c r="L284" s="14" t="n"/>
+      <c r="M284" s="7" t="n"/>
+      <c r="N284" s="7" t="n"/>
+      <c r="O284" s="7" t="n"/>
+      <c r="P284" s="7" t="n"/>
+      <c r="Q284" s="7" t="n"/>
+      <c r="R284" s="18" t="n"/>
       <c r="T284" s="5" t="n"/>
     </row>
     <row r="285" ht="13" customHeight="1">
-      <c r="B285" s="14" t="n"/>
-      <c r="C285" s="7" t="n"/>
-      <c r="D285" s="7" t="n"/>
-      <c r="E285" s="7" t="n"/>
-      <c r="F285" s="7" t="n"/>
-      <c r="G285" s="7" t="n"/>
-      <c r="H285" s="18" t="n"/>
+      <c r="B285" s="14" t="inlineStr">
+        <is>
+          <t>Lengde u.t</t>
+        </is>
+      </c>
+      <c r="C285" s="7" t="inlineStr">
+        <is>
+          <t>Venja Lillebø</t>
+        </is>
+      </c>
+      <c r="D285" s="7" t="n">
+        <v>2009</v>
+      </c>
+      <c r="E285" s="15" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="F285" s="7" t="n">
+        <v>216</v>
+      </c>
+      <c r="G285" s="7" t="inlineStr">
+        <is>
+          <t>Askøy</t>
+        </is>
+      </c>
+      <c r="H285" s="16" t="n">
+        <v>14.03</v>
+      </c>
       <c r="J285" s="5" t="n"/>
-      <c r="L285" s="14" t="inlineStr">
-        <is>
-          <t>Høyde</t>
-        </is>
-      </c>
-      <c r="M285" s="7" t="inlineStr">
-        <is>
-          <t>Maria Istad Kristiansen</t>
-        </is>
-      </c>
-      <c r="N285" s="7" t="n">
-        <v>2011</v>
-      </c>
-      <c r="O285" s="15" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="P285" s="7" t="n">
-        <v>130</v>
-      </c>
-      <c r="Q285" s="7" t="inlineStr">
-        <is>
-          <t>Voss</t>
-        </is>
-      </c>
-      <c r="R285" s="16" t="n">
-        <v>22.06</v>
-      </c>
+      <c r="L285" s="14" t="n"/>
+      <c r="M285" s="7" t="n"/>
+      <c r="N285" s="7" t="n"/>
+      <c r="O285" s="7" t="n"/>
+      <c r="P285" s="7" t="n"/>
+      <c r="Q285" s="7" t="n"/>
+      <c r="R285" s="18" t="n"/>
       <c r="T285" s="5" t="n"/>
     </row>
     <row r="286" ht="13" customHeight="1">
-      <c r="B286" s="14" t="n"/>
-      <c r="C286" s="7" t="n"/>
-      <c r="D286" s="7" t="n"/>
-      <c r="E286" s="7" t="n"/>
-      <c r="F286" s="7" t="n"/>
-      <c r="G286" s="7" t="n"/>
-      <c r="H286" s="18" t="n"/>
+      <c r="B286" s="14" t="inlineStr">
+        <is>
+          <t>Lengde u.t</t>
+        </is>
+      </c>
+      <c r="C286" s="7" t="inlineStr">
+        <is>
+          <t>Sofie Elise Indrebø</t>
+        </is>
+      </c>
+      <c r="D286" s="7" t="n">
+        <v>2010</v>
+      </c>
+      <c r="E286" s="15" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="F286" s="7" t="n">
+        <v>88</v>
+      </c>
+      <c r="G286" s="7" t="inlineStr">
+        <is>
+          <t>Askøy</t>
+        </is>
+      </c>
+      <c r="H286" s="16" t="n">
+        <v>14.03</v>
+      </c>
       <c r="J286" s="5" t="n"/>
-      <c r="L286" s="14" t="inlineStr">
-        <is>
-          <t>Lengde</t>
-        </is>
-      </c>
-      <c r="M286" s="7" t="inlineStr">
-        <is>
-          <t>Evy Mala</t>
-        </is>
-      </c>
-      <c r="N286" s="7" t="n">
-        <v>2008</v>
-      </c>
-      <c r="O286" s="15" t="n">
-        <v>3.06</v>
-      </c>
-      <c r="P286" s="7" t="n">
-        <v>113</v>
-      </c>
-      <c r="Q286" s="7" t="inlineStr">
-        <is>
-          <t>Voss</t>
-        </is>
-      </c>
-      <c r="R286" s="16" t="n">
-        <v>1.06</v>
-      </c>
+      <c r="L286" s="14" t="n"/>
+      <c r="M286" s="7" t="n"/>
+      <c r="N286" s="7" t="n"/>
+      <c r="O286" s="7" t="n"/>
+      <c r="P286" s="7" t="n"/>
+      <c r="Q286" s="7" t="n"/>
+      <c r="R286" s="18" t="n"/>
       <c r="T286" s="5" t="n"/>
     </row>
     <row r="287" ht="13" customHeight="1">
@@ -69837,7 +69921,7 @@
         </is>
       </c>
       <c r="C288" s="21" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E288" s="20" t="inlineStr">
         <is>
@@ -69845,7 +69929,7 @@
         </is>
       </c>
       <c r="F288" s="21" t="n">
-        <v>1470</v>
+        <v>2746</v>
       </c>
       <c r="J288" s="5" t="n"/>
       <c r="L288" s="20" t="inlineStr">
@@ -69854,7 +69938,7 @@
         </is>
       </c>
       <c r="M288" s="21" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="O288" s="20" t="inlineStr">
         <is>
@@ -69862,7 +69946,7 @@
         </is>
       </c>
       <c r="P288" s="21" t="n">
-        <v>1564</v>
+        <v>1470</v>
       </c>
       <c r="T288" s="5" t="n"/>
     </row>
@@ -69877,7 +69961,7 @@
         </is>
       </c>
       <c r="C290" s="21" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E290" s="20" t="inlineStr">
         <is>
@@ -69885,7 +69969,7 @@
         </is>
       </c>
       <c r="F290" s="21" t="n">
-        <v>5618</v>
+        <v>5903</v>
       </c>
       <c r="J290" s="5" t="n"/>
       <c r="L290" s="20" t="inlineStr">
@@ -69894,7 +69978,7 @@
         </is>
       </c>
       <c r="M290" s="21" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="O290" s="20" t="inlineStr">
         <is>
@@ -69902,7 +69986,7 @@
         </is>
       </c>
       <c r="P290" s="21" t="n">
-        <v>5082</v>
+        <v>5618</v>
       </c>
       <c r="T290" s="5" t="n"/>
     </row>
@@ -69917,7 +70001,7 @@
         </is>
       </c>
       <c r="C292" s="21" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="J292" s="5" t="n"/>
       <c r="L292" s="20" t="inlineStr">
@@ -69926,7 +70010,7 @@
         </is>
       </c>
       <c r="M292" s="21" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="T292" s="5" t="n"/>
     </row>
@@ -71451,7 +71535,7 @@
         </is>
       </c>
       <c r="P44" s="8" t="n">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="T44" s="5" t="n"/>
     </row>
@@ -72893,7 +72977,7 @@
         </is>
       </c>
       <c r="F86" s="8" t="n">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="J86" s="5" t="n"/>
       <c r="L86" s="6" t="inlineStr">
@@ -73230,30 +73314,32 @@
     <row r="96" ht="13" customHeight="1">
       <c r="B96" s="14" t="inlineStr">
         <is>
-          <t>Høyde</t>
+          <t>1500m</t>
         </is>
       </c>
       <c r="C96" s="7" t="inlineStr">
         <is>
-          <t>Maria Elvestuen</t>
+          <t>Mali Jåvoll Hagen</t>
         </is>
       </c>
       <c r="D96" s="7" t="n">
         <v>2007</v>
       </c>
-      <c r="E96" s="15" t="n">
-        <v>1.45</v>
+      <c r="E96" s="17" t="inlineStr">
+        <is>
+          <t>5,06,91</t>
+        </is>
       </c>
       <c r="F96" s="7" t="n">
-        <v>565</v>
+        <v>576</v>
       </c>
       <c r="G96" s="7" t="inlineStr">
         <is>
-          <t>Ulsteinvik</t>
+          <t>Oslo/Bi</t>
         </is>
       </c>
       <c r="H96" s="16" t="n">
-        <v>20.03</v>
+        <v>23.07</v>
       </c>
       <c r="J96" s="5" t="n"/>
       <c r="L96" s="14" t="inlineStr">
@@ -73288,7 +73374,7 @@
     <row r="97" ht="13" customHeight="1">
       <c r="B97" s="14" t="inlineStr">
         <is>
-          <t>Lengde</t>
+          <t>Høyde</t>
         </is>
       </c>
       <c r="C97" s="7" t="inlineStr">
@@ -73300,18 +73386,18 @@
         <v>2007</v>
       </c>
       <c r="E97" s="15" t="n">
-        <v>4.7</v>
+        <v>1.45</v>
       </c>
       <c r="F97" s="7" t="n">
-        <v>553</v>
+        <v>565</v>
       </c>
       <c r="G97" s="7" t="inlineStr">
         <is>
-          <t>Ulsteinvik</t>
+          <t>Hamar</t>
         </is>
       </c>
       <c r="H97" s="16" t="n">
-        <v>19.03</v>
+        <v>21.05</v>
       </c>
       <c r="J97" s="5" t="n"/>
       <c r="L97" s="14" t="inlineStr">
@@ -73348,7 +73434,7 @@
     <row r="98" ht="13" customHeight="1">
       <c r="B98" s="14" t="inlineStr">
         <is>
-          <t>Tresteg</t>
+          <t>Lengde</t>
         </is>
       </c>
       <c r="C98" s="7" t="inlineStr">
@@ -73360,18 +73446,18 @@
         <v>2007</v>
       </c>
       <c r="E98" s="15" t="n">
-        <v>10.15</v>
+        <v>4.7</v>
       </c>
       <c r="F98" s="7" t="n">
-        <v>574</v>
+        <v>553</v>
       </c>
       <c r="G98" s="7" t="inlineStr">
         <is>
-          <t>Nadderud</t>
+          <t>Ulsteinvik</t>
         </is>
       </c>
       <c r="H98" s="16" t="n">
-        <v>11.06</v>
+        <v>19.03</v>
       </c>
       <c r="J98" s="5" t="n"/>
       <c r="L98" s="14" t="n"/>
@@ -73386,30 +73472,30 @@
     <row r="99" ht="13" customHeight="1">
       <c r="B99" s="14" t="inlineStr">
         <is>
-          <t>Lengde u.t</t>
+          <t>Tresteg</t>
         </is>
       </c>
       <c r="C99" s="7" t="inlineStr">
         <is>
-          <t>Lotta Flatum</t>
+          <t>Maria Elvestuen</t>
         </is>
       </c>
       <c r="D99" s="7" t="n">
-        <v>2002</v>
+        <v>2007</v>
       </c>
       <c r="E99" s="15" t="n">
-        <v>2.62</v>
+        <v>10.15</v>
       </c>
       <c r="F99" s="7" t="n">
-        <v>700</v>
+        <v>574</v>
       </c>
       <c r="G99" s="7" t="inlineStr">
         <is>
-          <t>Ulsteinvik</t>
+          <t>Nadderud</t>
         </is>
       </c>
       <c r="H99" s="16" t="n">
-        <v>6.02</v>
+        <v>11.06</v>
       </c>
       <c r="J99" s="5" t="n"/>
       <c r="L99" s="14" t="n"/>
@@ -73424,7 +73510,7 @@
     <row r="100" ht="13" customHeight="1">
       <c r="B100" s="14" t="inlineStr">
         <is>
-          <t>Kule</t>
+          <t>Lengde u.t</t>
         </is>
       </c>
       <c r="C100" s="7" t="inlineStr">
@@ -73436,18 +73522,18 @@
         <v>2002</v>
       </c>
       <c r="E100" s="15" t="n">
-        <v>14.88</v>
+        <v>2.62</v>
       </c>
       <c r="F100" s="7" t="n">
-        <v>851</v>
+        <v>700</v>
       </c>
       <c r="G100" s="7" t="inlineStr">
         <is>
-          <t>Stjørdal</t>
+          <t>Ulsteinvik</t>
         </is>
       </c>
       <c r="H100" s="16" t="n">
-        <v>24.06</v>
+        <v>6.02</v>
       </c>
       <c r="J100" s="5" t="n"/>
       <c r="L100" s="14" t="n"/>
@@ -73462,7 +73548,7 @@
     <row r="101" ht="13" customHeight="1">
       <c r="B101" s="14" t="inlineStr">
         <is>
-          <t>Diskos</t>
+          <t>Kule</t>
         </is>
       </c>
       <c r="C101" s="7" t="inlineStr">
@@ -73474,18 +73560,18 @@
         <v>2002</v>
       </c>
       <c r="E101" s="15" t="n">
-        <v>59.11</v>
+        <v>14.88</v>
       </c>
       <c r="F101" s="7" t="n">
-        <v>987</v>
+        <v>851</v>
       </c>
       <c r="G101" s="7" t="inlineStr">
         <is>
-          <t>Malmø/SWE</t>
+          <t>Stjørdal</t>
         </is>
       </c>
       <c r="H101" s="16" t="n">
-        <v>17.07</v>
+        <v>24.06</v>
       </c>
       <c r="J101" s="5" t="n"/>
       <c r="L101" s="14" t="n"/>
@@ -73498,13 +73584,33 @@
       <c r="T101" s="5" t="n"/>
     </row>
     <row r="102" ht="13" customHeight="1">
-      <c r="B102" s="14" t="n"/>
-      <c r="C102" s="7" t="n"/>
-      <c r="D102" s="7" t="n"/>
-      <c r="E102" s="7" t="n"/>
-      <c r="F102" s="7" t="n"/>
-      <c r="G102" s="7" t="n"/>
-      <c r="H102" s="18" t="n"/>
+      <c r="B102" s="14" t="inlineStr">
+        <is>
+          <t>Diskos</t>
+        </is>
+      </c>
+      <c r="C102" s="7" t="inlineStr">
+        <is>
+          <t>Lotta Flatum</t>
+        </is>
+      </c>
+      <c r="D102" s="7" t="n">
+        <v>2002</v>
+      </c>
+      <c r="E102" s="15" t="n">
+        <v>59.11</v>
+      </c>
+      <c r="F102" s="7" t="n">
+        <v>987</v>
+      </c>
+      <c r="G102" s="7" t="inlineStr">
+        <is>
+          <t>Malmø/SWE</t>
+        </is>
+      </c>
+      <c r="H102" s="16" t="n">
+        <v>17.07</v>
+      </c>
       <c r="J102" s="5" t="n"/>
       <c r="L102" s="14" t="n"/>
       <c r="M102" s="7" t="n"/>
@@ -73576,7 +73682,7 @@
         </is>
       </c>
       <c r="C106" s="21" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E106" s="20" t="inlineStr">
         <is>
@@ -73584,7 +73690,7 @@
         </is>
       </c>
       <c r="F106" s="21" t="n">
-        <v>5649</v>
+        <v>6225</v>
       </c>
       <c r="J106" s="5" t="n"/>
       <c r="L106" s="20" t="inlineStr">
@@ -74152,7 +74258,7 @@
         </is>
       </c>
       <c r="C122" s="21" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E122" s="20" t="inlineStr">
         <is>
@@ -74160,7 +74266,7 @@
         </is>
       </c>
       <c r="F122" s="21" t="n">
-        <v>6962</v>
+        <v>7538</v>
       </c>
       <c r="J122" s="5" t="n"/>
       <c r="L122" s="20" t="inlineStr">
@@ -74192,7 +74298,7 @@
         </is>
       </c>
       <c r="C124" s="21" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J124" s="5" t="n"/>
       <c r="L124" s="20" t="inlineStr">
@@ -74247,7 +74353,7 @@
         </is>
       </c>
       <c r="F128" s="8" t="n">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="J128" s="5" t="n"/>
       <c r="L128" s="6" t="inlineStr">
@@ -74261,7 +74367,7 @@
         </is>
       </c>
       <c r="P128" s="8" t="n">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="T128" s="5" t="n"/>
     </row>
@@ -75543,7 +75649,7 @@
         </is>
       </c>
       <c r="F170" s="8" t="n">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="J170" s="5" t="n"/>
       <c r="L170" s="6" t="inlineStr">
@@ -75557,7 +75663,7 @@
         </is>
       </c>
       <c r="P170" s="8" t="n">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="T170" s="5" t="n"/>
     </row>
@@ -78496,7 +78602,7 @@
         </is>
       </c>
       <c r="P44" s="8" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="T44" s="5" t="n"/>
     </row>
@@ -80032,7 +80138,7 @@
         </is>
       </c>
       <c r="P86" s="8" t="n">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="T86" s="5" t="n"/>
     </row>
@@ -82957,7 +83063,7 @@
         </is>
       </c>
       <c r="F44" s="8" t="n">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="J44" s="5" t="n"/>
       <c r="L44" s="6" t="inlineStr">
@@ -82971,7 +83077,7 @@
         </is>
       </c>
       <c r="P44" s="8" t="n">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="T44" s="5" t="n"/>
     </row>
@@ -84382,7 +84488,7 @@
         </is>
       </c>
       <c r="F86" s="8" t="n">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="J86" s="5" t="n"/>
     </row>

--- a/output/Lagserien 2022 kvinner 3. div.xlsx
+++ b/output/Lagserien 2022 kvinner 3. div.xlsx
@@ -1475,16 +1475,16 @@
       </c>
       <c r="B34" s="3" t="inlineStr">
         <is>
-          <t>Sømna IL</t>
+          <t>Rjukan Idrettslag</t>
         </is>
       </c>
       <c r="C34" s="3" t="inlineStr">
         <is>
-          <t>(20/9)</t>
+          <t>(20/7)</t>
         </is>
       </c>
       <c r="D34" s="3" t="n">
-        <v>9176</v>
+        <v>9242</v>
       </c>
       <c r="E34" s="4" t="inlineStr">
         <is>
@@ -1493,7 +1493,7 @@
       </c>
       <c r="F34" s="3" t="inlineStr">
         <is>
-          <t>Nordland</t>
+          <t>Telemark</t>
         </is>
       </c>
     </row>
@@ -1503,16 +1503,16 @@
       </c>
       <c r="B35" s="3" t="inlineStr">
         <is>
-          <t>Lillehammer IF</t>
+          <t>Sømna IL</t>
         </is>
       </c>
       <c r="C35" s="3" t="inlineStr">
         <is>
-          <t>(13/6)</t>
+          <t>(20/9)</t>
         </is>
       </c>
       <c r="D35" s="3" t="n">
-        <v>9113</v>
+        <v>9176</v>
       </c>
       <c r="E35" s="4" t="inlineStr">
         <is>
@@ -1521,7 +1521,7 @@
       </c>
       <c r="F35" s="3" t="inlineStr">
         <is>
-          <t>Innlandet</t>
+          <t>Nordland</t>
         </is>
       </c>
     </row>
@@ -1531,16 +1531,16 @@
       </c>
       <c r="B36" s="3" t="inlineStr">
         <is>
-          <t>Norna-Salhus IL 2. lag</t>
+          <t>Lillehammer IF</t>
         </is>
       </c>
       <c r="C36" s="3" t="inlineStr">
         <is>
-          <t>(19/9)</t>
+          <t>(13/6)</t>
         </is>
       </c>
       <c r="D36" s="3" t="n">
-        <v>9069</v>
+        <v>9113</v>
       </c>
       <c r="E36" s="4" t="inlineStr">
         <is>
@@ -1549,7 +1549,7 @@
       </c>
       <c r="F36" s="3" t="inlineStr">
         <is>
-          <t>Hordaland</t>
+          <t>Innlandet</t>
         </is>
       </c>
     </row>
@@ -1559,16 +1559,16 @@
       </c>
       <c r="B37" s="3" t="inlineStr">
         <is>
-          <t>Modum FIK</t>
+          <t>Norna-Salhus IL 2. lag</t>
         </is>
       </c>
       <c r="C37" s="3" t="inlineStr">
         <is>
-          <t>(19/8)</t>
+          <t>(19/9)</t>
         </is>
       </c>
       <c r="D37" s="3" t="n">
-        <v>9041</v>
+        <v>9069</v>
       </c>
       <c r="E37" s="4" t="inlineStr">
         <is>
@@ -1577,7 +1577,7 @@
       </c>
       <c r="F37" s="3" t="inlineStr">
         <is>
-          <t>Buskerud</t>
+          <t>Hordaland</t>
         </is>
       </c>
     </row>
@@ -1587,7 +1587,7 @@
       </c>
       <c r="B38" s="3" t="inlineStr">
         <is>
-          <t>Byåsen IL</t>
+          <t>Modum FIK</t>
         </is>
       </c>
       <c r="C38" s="3" t="inlineStr">
@@ -1596,7 +1596,7 @@
         </is>
       </c>
       <c r="D38" s="3" t="n">
-        <v>8984</v>
+        <v>9041</v>
       </c>
       <c r="E38" s="4" t="inlineStr">
         <is>
@@ -1605,7 +1605,7 @@
       </c>
       <c r="F38" s="3" t="inlineStr">
         <is>
-          <t>Sør-Trøndelag</t>
+          <t>Buskerud</t>
         </is>
       </c>
     </row>
@@ -1615,16 +1615,16 @@
       </c>
       <c r="B39" s="3" t="inlineStr">
         <is>
-          <t>Os Turnforening</t>
+          <t>Byåsen IL</t>
         </is>
       </c>
       <c r="C39" s="3" t="inlineStr">
         <is>
-          <t>(17/5)</t>
+          <t>(19/8)</t>
         </is>
       </c>
       <c r="D39" s="3" t="n">
-        <v>8861</v>
+        <v>8984</v>
       </c>
       <c r="E39" s="4" t="inlineStr">
         <is>
@@ -1633,7 +1633,7 @@
       </c>
       <c r="F39" s="3" t="inlineStr">
         <is>
-          <t>Hordaland</t>
+          <t>Sør-Trøndelag</t>
         </is>
       </c>
     </row>
@@ -1643,16 +1643,16 @@
       </c>
       <c r="B40" s="3" t="inlineStr">
         <is>
-          <t>Rjukan Idrettslag</t>
+          <t>Os Turnforening</t>
         </is>
       </c>
       <c r="C40" s="3" t="inlineStr">
         <is>
-          <t>(19/7)</t>
+          <t>(17/5)</t>
         </is>
       </c>
       <c r="D40" s="3" t="n">
-        <v>8836</v>
+        <v>8861</v>
       </c>
       <c r="E40" s="4" t="inlineStr">
         <is>
@@ -1661,7 +1661,7 @@
       </c>
       <c r="F40" s="3" t="inlineStr">
         <is>
-          <t>Telemark</t>
+          <t>Hordaland</t>
         </is>
       </c>
     </row>
@@ -1951,16 +1951,16 @@
       </c>
       <c r="B51" s="3" t="inlineStr">
         <is>
-          <t>Sandnessjøen IL</t>
+          <t>Verdal Friidrettsklubb</t>
         </is>
       </c>
       <c r="C51" s="3" t="inlineStr">
         <is>
-          <t>(16/5)</t>
+          <t>(16/8)</t>
         </is>
       </c>
       <c r="D51" s="3" t="n">
-        <v>8178</v>
+        <v>8213</v>
       </c>
       <c r="E51" s="4" t="inlineStr">
         <is>
@@ -1969,7 +1969,7 @@
       </c>
       <c r="F51" s="3" t="inlineStr">
         <is>
-          <t>Nordland</t>
+          <t>Nord-Trøndelag</t>
         </is>
       </c>
     </row>
@@ -1979,16 +1979,16 @@
       </c>
       <c r="B52" s="3" t="inlineStr">
         <is>
-          <t>Namsen Friidrettsforening</t>
+          <t>Sandnessjøen IL</t>
         </is>
       </c>
       <c r="C52" s="3" t="inlineStr">
         <is>
-          <t>(15/5)</t>
+          <t>(16/5)</t>
         </is>
       </c>
       <c r="D52" s="3" t="n">
-        <v>8125</v>
+        <v>8178</v>
       </c>
       <c r="E52" s="4" t="inlineStr">
         <is>
@@ -1997,7 +1997,7 @@
       </c>
       <c r="F52" s="3" t="inlineStr">
         <is>
-          <t>Nord-Trøndelag</t>
+          <t>Nordland</t>
         </is>
       </c>
     </row>
@@ -2007,16 +2007,16 @@
       </c>
       <c r="B53" s="3" t="inlineStr">
         <is>
-          <t>Tingvoll FIK</t>
+          <t>Namsen Friidrettsforening</t>
         </is>
       </c>
       <c r="C53" s="3" t="inlineStr">
         <is>
-          <t>(14/4)</t>
+          <t>(15/5)</t>
         </is>
       </c>
       <c r="D53" s="3" t="n">
-        <v>7977</v>
+        <v>8125</v>
       </c>
       <c r="E53" s="4" t="inlineStr">
         <is>
@@ -2025,7 +2025,7 @@
       </c>
       <c r="F53" s="3" t="inlineStr">
         <is>
-          <t>Møre og Romsdal</t>
+          <t>Nord-Trøndelag</t>
         </is>
       </c>
     </row>
@@ -2035,16 +2035,16 @@
       </c>
       <c r="B54" s="3" t="inlineStr">
         <is>
-          <t>Idrettslaget Skjalg 3. lag</t>
+          <t>Tingvoll FIK</t>
         </is>
       </c>
       <c r="C54" s="3" t="inlineStr">
         <is>
-          <t>(17/13)</t>
+          <t>(14/4)</t>
         </is>
       </c>
       <c r="D54" s="3" t="n">
-        <v>7937</v>
+        <v>7977</v>
       </c>
       <c r="E54" s="4" t="inlineStr">
         <is>
@@ -2053,7 +2053,7 @@
       </c>
       <c r="F54" s="3" t="inlineStr">
         <is>
-          <t>Rogaland</t>
+          <t>Møre og Romsdal</t>
         </is>
       </c>
     </row>
@@ -2063,16 +2063,16 @@
       </c>
       <c r="B55" s="3" t="inlineStr">
         <is>
-          <t>Jardar IL</t>
+          <t>Idrettslaget Skjalg 3. lag</t>
         </is>
       </c>
       <c r="C55" s="3" t="inlineStr">
         <is>
-          <t>(15/6)</t>
+          <t>(17/13)</t>
         </is>
       </c>
       <c r="D55" s="3" t="n">
-        <v>7910</v>
+        <v>7937</v>
       </c>
       <c r="E55" s="4" t="inlineStr">
         <is>
@@ -2081,7 +2081,7 @@
       </c>
       <c r="F55" s="3" t="inlineStr">
         <is>
-          <t>Akershus</t>
+          <t>Rogaland</t>
         </is>
       </c>
     </row>
@@ -2091,16 +2091,16 @@
       </c>
       <c r="B56" s="3" t="inlineStr">
         <is>
-          <t>Målselv IL</t>
+          <t>Jardar IL</t>
         </is>
       </c>
       <c r="C56" s="3" t="inlineStr">
         <is>
-          <t>(16/6)</t>
+          <t>(15/6)</t>
         </is>
       </c>
       <c r="D56" s="3" t="n">
-        <v>7813</v>
+        <v>7910</v>
       </c>
       <c r="E56" s="4" t="inlineStr">
         <is>
@@ -2109,7 +2109,7 @@
       </c>
       <c r="F56" s="3" t="inlineStr">
         <is>
-          <t>Troms</t>
+          <t>Akershus</t>
         </is>
       </c>
     </row>
@@ -2119,16 +2119,16 @@
       </c>
       <c r="B57" s="3" t="inlineStr">
         <is>
-          <t>Søgne IL</t>
+          <t>Målselv IL</t>
         </is>
       </c>
       <c r="C57" s="3" t="inlineStr">
         <is>
-          <t>(16/9)</t>
+          <t>(16/6)</t>
         </is>
       </c>
       <c r="D57" s="3" t="n">
-        <v>7779</v>
+        <v>7813</v>
       </c>
       <c r="E57" s="4" t="inlineStr">
         <is>
@@ -2137,7 +2137,7 @@
       </c>
       <c r="F57" s="3" t="inlineStr">
         <is>
-          <t>Agder</t>
+          <t>Troms</t>
         </is>
       </c>
     </row>
@@ -2147,16 +2147,16 @@
       </c>
       <c r="B58" s="3" t="inlineStr">
         <is>
-          <t>Oppegård IL</t>
+          <t>Søgne IL</t>
         </is>
       </c>
       <c r="C58" s="3" t="inlineStr">
         <is>
-          <t>(13/7)</t>
+          <t>(16/9)</t>
         </is>
       </c>
       <c r="D58" s="3" t="n">
-        <v>7652</v>
+        <v>7779</v>
       </c>
       <c r="E58" s="4" t="inlineStr">
         <is>
@@ -2165,7 +2165,7 @@
       </c>
       <c r="F58" s="3" t="inlineStr">
         <is>
-          <t>Akershus</t>
+          <t>Agder</t>
         </is>
       </c>
     </row>
@@ -2175,16 +2175,16 @@
       </c>
       <c r="B59" s="3" t="inlineStr">
         <is>
-          <t>IL Tyrving 4. lag</t>
+          <t>Oppegård IL</t>
         </is>
       </c>
       <c r="C59" s="3" t="inlineStr">
         <is>
-          <t>(17/13)</t>
+          <t>(13/7)</t>
         </is>
       </c>
       <c r="D59" s="3" t="n">
-        <v>7567</v>
+        <v>7652</v>
       </c>
       <c r="E59" s="4" t="inlineStr">
         <is>
@@ -2203,16 +2203,16 @@
       </c>
       <c r="B60" s="3" t="inlineStr">
         <is>
-          <t>Brandbu IF</t>
+          <t>IL Tyrving 4. lag</t>
         </is>
       </c>
       <c r="C60" s="3" t="inlineStr">
         <is>
-          <t>(17/8)</t>
+          <t>(17/13)</t>
         </is>
       </c>
       <c r="D60" s="3" t="n">
-        <v>7538</v>
+        <v>7567</v>
       </c>
       <c r="E60" s="4" t="inlineStr">
         <is>
@@ -2221,7 +2221,7 @@
       </c>
       <c r="F60" s="3" t="inlineStr">
         <is>
-          <t>Innlandet</t>
+          <t>Akershus</t>
         </is>
       </c>
     </row>
@@ -2231,16 +2231,16 @@
       </c>
       <c r="B61" s="3" t="inlineStr">
         <is>
-          <t>IL Koll</t>
+          <t>Brandbu IF</t>
         </is>
       </c>
       <c r="C61" s="3" t="inlineStr">
         <is>
-          <t>(17/10)</t>
+          <t>(17/8)</t>
         </is>
       </c>
       <c r="D61" s="3" t="n">
-        <v>7424</v>
+        <v>7538</v>
       </c>
       <c r="E61" s="4" t="inlineStr">
         <is>
@@ -2249,7 +2249,7 @@
       </c>
       <c r="F61" s="3" t="inlineStr">
         <is>
-          <t>Oslo</t>
+          <t>Innlandet</t>
         </is>
       </c>
     </row>
@@ -2259,16 +2259,16 @@
       </c>
       <c r="B62" s="3" t="inlineStr">
         <is>
-          <t>Ullensaker/Kisa IL 2. lag</t>
+          <t>IL Koll</t>
         </is>
       </c>
       <c r="C62" s="3" t="inlineStr">
         <is>
-          <t>(17/7)</t>
+          <t>(17/10)</t>
         </is>
       </c>
       <c r="D62" s="3" t="n">
-        <v>7375</v>
+        <v>7424</v>
       </c>
       <c r="E62" s="4" t="inlineStr">
         <is>
@@ -2277,7 +2277,7 @@
       </c>
       <c r="F62" s="3" t="inlineStr">
         <is>
-          <t>Akershus</t>
+          <t>Oslo</t>
         </is>
       </c>
     </row>
@@ -2287,16 +2287,16 @@
       </c>
       <c r="B63" s="3" t="inlineStr">
         <is>
-          <t>Florø Turn og IF</t>
+          <t>Ullensaker/Kisa IL 2. lag</t>
         </is>
       </c>
       <c r="C63" s="3" t="inlineStr">
         <is>
-          <t>(15/6)</t>
+          <t>(17/7)</t>
         </is>
       </c>
       <c r="D63" s="3" t="n">
-        <v>7299</v>
+        <v>7375</v>
       </c>
       <c r="E63" s="4" t="inlineStr">
         <is>
@@ -2305,7 +2305,7 @@
       </c>
       <c r="F63" s="3" t="inlineStr">
         <is>
-          <t>Sogn og Fjordane</t>
+          <t>Akershus</t>
         </is>
       </c>
     </row>
@@ -2315,16 +2315,16 @@
       </c>
       <c r="B64" s="3" t="inlineStr">
         <is>
-          <t>Verdal Friidrettsklubb</t>
+          <t>Florø Turn og IF</t>
         </is>
       </c>
       <c r="C64" s="3" t="inlineStr">
         <is>
-          <t>(14/7)</t>
+          <t>(15/6)</t>
         </is>
       </c>
       <c r="D64" s="3" t="n">
-        <v>7279</v>
+        <v>7299</v>
       </c>
       <c r="E64" s="4" t="inlineStr">
         <is>
@@ -2333,7 +2333,7 @@
       </c>
       <c r="F64" s="3" t="inlineStr">
         <is>
-          <t>Nord-Trøndelag</t>
+          <t>Sogn og Fjordane</t>
         </is>
       </c>
     </row>
@@ -2352,7 +2352,7 @@
         </is>
       </c>
       <c r="D65" s="3" t="n">
-        <v>7151</v>
+        <v>7195</v>
       </c>
       <c r="E65" s="4" t="inlineStr">
         <is>
@@ -2483,12 +2483,12 @@
       </c>
       <c r="B70" s="3" t="inlineStr">
         <is>
-          <t>Sandefjord Turn &amp; IF</t>
+          <t>Moelven IL</t>
         </is>
       </c>
       <c r="C70" s="3" t="inlineStr">
         <is>
-          <t>(15/6)</t>
+          <t>(10/4)</t>
         </is>
       </c>
       <c r="D70" s="3" t="n">
@@ -2501,7 +2501,7 @@
       </c>
       <c r="F70" s="3" t="inlineStr">
         <is>
-          <t>Vestfold</t>
+          <t>Innlandet</t>
         </is>
       </c>
     </row>
@@ -2511,16 +2511,16 @@
       </c>
       <c r="B71" s="3" t="inlineStr">
         <is>
-          <t>Moelven IL</t>
+          <t>Sandefjord Turn &amp; IF</t>
         </is>
       </c>
       <c r="C71" s="3" t="inlineStr">
         <is>
-          <t>(10/4)</t>
+          <t>(15/6)</t>
         </is>
       </c>
       <c r="D71" s="3" t="n">
-        <v>6920</v>
+        <v>6946</v>
       </c>
       <c r="E71" s="4" t="inlineStr">
         <is>
@@ -2529,7 +2529,7 @@
       </c>
       <c r="F71" s="3" t="inlineStr">
         <is>
-          <t>Innlandet</t>
+          <t>Vestfold</t>
         </is>
       </c>
     </row>
@@ -3024,7 +3024,7 @@
         </is>
       </c>
       <c r="D89" s="3" t="n">
-        <v>6135</v>
+        <v>6184</v>
       </c>
       <c r="E89" s="4" t="inlineStr">
         <is>
@@ -3043,16 +3043,16 @@
       </c>
       <c r="B90" s="3" t="inlineStr">
         <is>
-          <t>IL Pioner</t>
+          <t>Tønsberg Friidrettsklubb 2. lag</t>
         </is>
       </c>
       <c r="C90" s="3" t="inlineStr">
         <is>
-          <t>(14/7)</t>
+          <t>(15/10)</t>
         </is>
       </c>
       <c r="D90" s="3" t="n">
-        <v>6038</v>
+        <v>6046</v>
       </c>
       <c r="E90" s="4" t="inlineStr">
         <is>
@@ -3061,7 +3061,7 @@
       </c>
       <c r="F90" s="3" t="inlineStr">
         <is>
-          <t>Troms</t>
+          <t>Vestfold</t>
         </is>
       </c>
     </row>
@@ -3071,16 +3071,16 @@
       </c>
       <c r="B91" s="3" t="inlineStr">
         <is>
-          <t>Selbu IL</t>
+          <t>IL Pioner</t>
         </is>
       </c>
       <c r="C91" s="3" t="inlineStr">
         <is>
-          <t>(17/7)</t>
+          <t>(14/7)</t>
         </is>
       </c>
       <c r="D91" s="3" t="n">
-        <v>5975</v>
+        <v>6038</v>
       </c>
       <c r="E91" s="4" t="inlineStr">
         <is>
@@ -3089,7 +3089,7 @@
       </c>
       <c r="F91" s="3" t="inlineStr">
         <is>
-          <t>Sør-Trøndelag</t>
+          <t>Troms</t>
         </is>
       </c>
     </row>
@@ -3099,16 +3099,16 @@
       </c>
       <c r="B92" s="3" t="inlineStr">
         <is>
-          <t>Seljord IL</t>
+          <t>Selbu IL</t>
         </is>
       </c>
       <c r="C92" s="3" t="inlineStr">
         <is>
-          <t>(9/3)</t>
+          <t>(17/7)</t>
         </is>
       </c>
       <c r="D92" s="3" t="n">
-        <v>5966</v>
+        <v>5975</v>
       </c>
       <c r="E92" s="4" t="inlineStr">
         <is>
@@ -3117,7 +3117,7 @@
       </c>
       <c r="F92" s="3" t="inlineStr">
         <is>
-          <t>Telemark</t>
+          <t>Sør-Trøndelag</t>
         </is>
       </c>
     </row>
@@ -3127,16 +3127,16 @@
       </c>
       <c r="B93" s="3" t="inlineStr">
         <is>
-          <t>Kristiansands IF Friidrett 3. lag</t>
+          <t>Seljord IL</t>
         </is>
       </c>
       <c r="C93" s="3" t="inlineStr">
         <is>
-          <t>(16/9)</t>
+          <t>(9/3)</t>
         </is>
       </c>
       <c r="D93" s="3" t="n">
-        <v>5930</v>
+        <v>5966</v>
       </c>
       <c r="E93" s="4" t="inlineStr">
         <is>
@@ -3145,7 +3145,7 @@
       </c>
       <c r="F93" s="3" t="inlineStr">
         <is>
-          <t>Agder</t>
+          <t>Telemark</t>
         </is>
       </c>
     </row>
@@ -3155,16 +3155,16 @@
       </c>
       <c r="B94" s="3" t="inlineStr">
         <is>
-          <t>Ask Friidrett 2. lag</t>
+          <t>Kristiansands IF Friidrett 3. lag</t>
         </is>
       </c>
       <c r="C94" s="3" t="inlineStr">
         <is>
-          <t>(15/7)</t>
+          <t>(16/9)</t>
         </is>
       </c>
       <c r="D94" s="3" t="n">
-        <v>5903</v>
+        <v>5930</v>
       </c>
       <c r="E94" s="4" t="inlineStr">
         <is>
@@ -3173,7 +3173,7 @@
       </c>
       <c r="F94" s="3" t="inlineStr">
         <is>
-          <t>Hordaland</t>
+          <t>Agder</t>
         </is>
       </c>
     </row>
@@ -3183,16 +3183,16 @@
       </c>
       <c r="B95" s="3" t="inlineStr">
         <is>
-          <t>Gui Sportsklubb</t>
+          <t>Ask Friidrett 2. lag</t>
         </is>
       </c>
       <c r="C95" s="3" t="inlineStr">
         <is>
-          <t>(13/6)</t>
+          <t>(15/7)</t>
         </is>
       </c>
       <c r="D95" s="3" t="n">
-        <v>5890</v>
+        <v>5903</v>
       </c>
       <c r="E95" s="4" t="inlineStr">
         <is>
@@ -3201,7 +3201,7 @@
       </c>
       <c r="F95" s="3" t="inlineStr">
         <is>
-          <t>Akershus</t>
+          <t>Hordaland</t>
         </is>
       </c>
     </row>
@@ -3211,16 +3211,16 @@
       </c>
       <c r="B96" s="3" t="inlineStr">
         <is>
-          <t>IK Grane</t>
+          <t>Gui Sportsklubb</t>
         </is>
       </c>
       <c r="C96" s="3" t="inlineStr">
         <is>
-          <t>(14/9)</t>
+          <t>(13/6)</t>
         </is>
       </c>
       <c r="D96" s="3" t="n">
-        <v>5871</v>
+        <v>5890</v>
       </c>
       <c r="E96" s="4" t="inlineStr">
         <is>
@@ -3229,7 +3229,7 @@
       </c>
       <c r="F96" s="3" t="inlineStr">
         <is>
-          <t>Agder</t>
+          <t>Akershus</t>
         </is>
       </c>
     </row>
@@ -3239,16 +3239,16 @@
       </c>
       <c r="B97" s="3" t="inlineStr">
         <is>
-          <t>Lørenskog Friidrettslag</t>
+          <t>IK Grane</t>
         </is>
       </c>
       <c r="C97" s="3" t="inlineStr">
         <is>
-          <t>(10/5)</t>
+          <t>(14/9)</t>
         </is>
       </c>
       <c r="D97" s="3" t="n">
-        <v>5750</v>
+        <v>5871</v>
       </c>
       <c r="E97" s="4" t="inlineStr">
         <is>
@@ -3257,7 +3257,7 @@
       </c>
       <c r="F97" s="3" t="inlineStr">
         <is>
-          <t>Akershus</t>
+          <t>Agder</t>
         </is>
       </c>
     </row>
@@ -3267,16 +3267,16 @@
       </c>
       <c r="B98" s="3" t="inlineStr">
         <is>
-          <t>Gjøvik FIK</t>
+          <t>Lørenskog Friidrettslag</t>
         </is>
       </c>
       <c r="C98" s="3" t="inlineStr">
         <is>
-          <t>(14/5)</t>
+          <t>(10/5)</t>
         </is>
       </c>
       <c r="D98" s="3" t="n">
-        <v>5692</v>
+        <v>5750</v>
       </c>
       <c r="E98" s="4" t="inlineStr">
         <is>
@@ -3285,7 +3285,7 @@
       </c>
       <c r="F98" s="3" t="inlineStr">
         <is>
-          <t>Innlandet</t>
+          <t>Akershus</t>
         </is>
       </c>
     </row>
@@ -3295,16 +3295,16 @@
       </c>
       <c r="B99" s="3" t="inlineStr">
         <is>
-          <t>Stadsbygd IL</t>
+          <t>Gjøvik FIK</t>
         </is>
       </c>
       <c r="C99" s="3" t="inlineStr">
         <is>
-          <t>(11/5)</t>
+          <t>(14/5)</t>
         </is>
       </c>
       <c r="D99" s="3" t="n">
-        <v>5636</v>
+        <v>5692</v>
       </c>
       <c r="E99" s="4" t="inlineStr">
         <is>
@@ -3313,7 +3313,7 @@
       </c>
       <c r="F99" s="3" t="inlineStr">
         <is>
-          <t>Sør-Trøndelag</t>
+          <t>Innlandet</t>
         </is>
       </c>
     </row>
@@ -3323,7 +3323,7 @@
       </c>
       <c r="B100" s="3" t="inlineStr">
         <is>
-          <t>Sunndal IL Friidrett</t>
+          <t>Stadsbygd IL</t>
         </is>
       </c>
       <c r="C100" s="3" t="inlineStr">
@@ -3341,7 +3341,7 @@
       </c>
       <c r="F100" s="3" t="inlineStr">
         <is>
-          <t>Møre og Romsdal</t>
+          <t>Sør-Trøndelag</t>
         </is>
       </c>
     </row>
@@ -3351,16 +3351,16 @@
       </c>
       <c r="B101" s="3" t="inlineStr">
         <is>
-          <t>IL Fri</t>
+          <t>Sunndal IL Friidrett</t>
         </is>
       </c>
       <c r="C101" s="3" t="inlineStr">
         <is>
-          <t>(12/9)</t>
+          <t>(11/5)</t>
         </is>
       </c>
       <c r="D101" s="3" t="n">
-        <v>5618</v>
+        <v>5636</v>
       </c>
       <c r="E101" s="4" t="inlineStr">
         <is>
@@ -3369,7 +3369,7 @@
       </c>
       <c r="F101" s="3" t="inlineStr">
         <is>
-          <t>Hordaland</t>
+          <t>Møre og Romsdal</t>
         </is>
       </c>
     </row>
@@ -3379,16 +3379,16 @@
       </c>
       <c r="B102" s="3" t="inlineStr">
         <is>
-          <t>Botne SK</t>
+          <t>IL Fri</t>
         </is>
       </c>
       <c r="C102" s="3" t="inlineStr">
         <is>
-          <t>(14/7)</t>
+          <t>(12/9)</t>
         </is>
       </c>
       <c r="D102" s="3" t="n">
-        <v>5403</v>
+        <v>5618</v>
       </c>
       <c r="E102" s="4" t="inlineStr">
         <is>
@@ -3397,7 +3397,7 @@
       </c>
       <c r="F102" s="3" t="inlineStr">
         <is>
-          <t>Vestfold</t>
+          <t>Hordaland</t>
         </is>
       </c>
     </row>
@@ -3407,16 +3407,16 @@
       </c>
       <c r="B103" s="3" t="inlineStr">
         <is>
-          <t>Tønsberg Friidrettsklubb 2. lag</t>
+          <t>Botne SK</t>
         </is>
       </c>
       <c r="C103" s="3" t="inlineStr">
         <is>
-          <t>(14/10)</t>
+          <t>(14/7)</t>
         </is>
       </c>
       <c r="D103" s="3" t="n">
-        <v>5316</v>
+        <v>5403</v>
       </c>
       <c r="E103" s="4" t="inlineStr">
         <is>
@@ -3761,7 +3761,7 @@
         </is>
       </c>
       <c r="P2" s="8" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="T2" s="5" t="n"/>
     </row>
@@ -5342,7 +5342,7 @@
         </is>
       </c>
       <c r="F44" s="8" t="n">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J44" s="5" t="n"/>
     </row>
@@ -9317,7 +9317,7 @@
         </is>
       </c>
       <c r="P86" s="8" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="T86" s="5" t="n"/>
     </row>
@@ -11069,11 +11069,11 @@
       </c>
       <c r="C136" s="7" t="inlineStr">
         <is>
-          <t>Tida Katrine Köller Sanyang</t>
+          <t>Udoka Chile Madu</t>
         </is>
       </c>
       <c r="D136" s="7" t="n">
-        <v>2006</v>
+        <v>1998</v>
       </c>
       <c r="E136" s="15" t="n">
         <v>13.32</v>
@@ -11083,11 +11083,11 @@
       </c>
       <c r="G136" s="7" t="inlineStr">
         <is>
-          <t>Nadderud</t>
+          <t>Lillehammer</t>
         </is>
       </c>
       <c r="H136" s="16" t="n">
-        <v>12.06</v>
+        <v>19.06</v>
       </c>
       <c r="J136" s="5" t="n"/>
       <c r="L136" s="14" t="inlineStr">
@@ -11667,11 +11667,11 @@
       </c>
       <c r="C153" s="7" t="inlineStr">
         <is>
-          <t>Udoka Chile Madu</t>
+          <t>Tida Katrine Köller Sanyang</t>
         </is>
       </c>
       <c r="D153" s="7" t="n">
-        <v>1998</v>
+        <v>2006</v>
       </c>
       <c r="E153" s="15" t="n">
         <v>13.32</v>
@@ -11681,11 +11681,11 @@
       </c>
       <c r="G153" s="7" t="inlineStr">
         <is>
-          <t>Lillehammer</t>
+          <t>Nadderud</t>
         </is>
       </c>
       <c r="H153" s="16" t="n">
-        <v>19.06</v>
+        <v>12.06</v>
       </c>
       <c r="J153" s="5" t="n"/>
       <c r="L153" s="14" t="inlineStr">
@@ -13255,7 +13255,7 @@
         </is>
       </c>
       <c r="R10" s="16" t="n">
-        <v>31.07</v>
+        <v>14.05</v>
       </c>
       <c r="T10" s="5" t="n"/>
     </row>
@@ -14585,7 +14585,7 @@
         </is>
       </c>
       <c r="P44" s="8" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="T44" s="5" t="n"/>
     </row>
@@ -15525,11 +15525,11 @@
       </c>
       <c r="M69" s="7" t="inlineStr">
         <is>
-          <t>Pia Omdahl Tresselt</t>
+          <t>Trea Busic</t>
         </is>
       </c>
       <c r="N69" s="7" t="n">
-        <v>2005</v>
+        <v>2006</v>
       </c>
       <c r="O69" s="15" t="n">
         <v>28.56</v>
@@ -15539,11 +15539,11 @@
       </c>
       <c r="Q69" s="7" t="inlineStr">
         <is>
-          <t>Stavanger</t>
+          <t>Sandnes</t>
         </is>
       </c>
       <c r="R69" s="16" t="n">
-        <v>19.05</v>
+        <v>15.05</v>
       </c>
       <c r="T69" s="5" t="n"/>
     </row>
@@ -15583,11 +15583,11 @@
       </c>
       <c r="M70" s="7" t="inlineStr">
         <is>
-          <t>Trea Busic</t>
+          <t>Pia Omdahl Tresselt</t>
         </is>
       </c>
       <c r="N70" s="7" t="n">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="O70" s="15" t="n">
         <v>28.56</v>
@@ -15597,11 +15597,11 @@
       </c>
       <c r="Q70" s="7" t="inlineStr">
         <is>
-          <t>Sandnes</t>
+          <t>Stavanger</t>
         </is>
       </c>
       <c r="R70" s="16" t="n">
-        <v>15.05</v>
+        <v>19.05</v>
       </c>
       <c r="T70" s="5" t="n"/>
     </row>
@@ -15816,30 +15816,30 @@
       <c r="J74" s="5" t="n"/>
       <c r="L74" s="14" t="inlineStr">
         <is>
-          <t>Høyde</t>
+          <t>Lengde</t>
         </is>
       </c>
       <c r="M74" s="7" t="inlineStr">
         <is>
-          <t>Amalia Rueda Svendsen</t>
+          <t>Ylva Frøytlog Nordahl</t>
         </is>
       </c>
       <c r="N74" s="7" t="n">
-        <v>2011</v>
+        <v>2007</v>
       </c>
       <c r="O74" s="15" t="n">
-        <v>1.22</v>
+        <v>3.77</v>
       </c>
       <c r="P74" s="7" t="n">
         <v>327</v>
       </c>
       <c r="Q74" s="7" t="inlineStr">
         <is>
-          <t>Sandnes</t>
+          <t>Gøteborg/SWE</t>
         </is>
       </c>
       <c r="R74" s="16" t="n">
-        <v>15.02</v>
+        <v>17.06</v>
       </c>
       <c r="T74" s="5" t="n"/>
     </row>
@@ -15874,30 +15874,30 @@
       <c r="J75" s="5" t="n"/>
       <c r="L75" s="14" t="inlineStr">
         <is>
-          <t>Lengde</t>
+          <t>Høyde</t>
         </is>
       </c>
       <c r="M75" s="7" t="inlineStr">
         <is>
-          <t>Ylva Frøytlog Nordahl</t>
+          <t>Amalia Rueda Svendsen</t>
         </is>
       </c>
       <c r="N75" s="7" t="n">
-        <v>2007</v>
+        <v>2011</v>
       </c>
       <c r="O75" s="15" t="n">
-        <v>3.77</v>
+        <v>1.22</v>
       </c>
       <c r="P75" s="7" t="n">
         <v>327</v>
       </c>
       <c r="Q75" s="7" t="inlineStr">
         <is>
-          <t>Gøteborg/SWE</t>
+          <t>Sandnes</t>
         </is>
       </c>
       <c r="R75" s="16" t="n">
-        <v>17.06</v>
+        <v>15.02</v>
       </c>
       <c r="T75" s="5" t="n"/>
     </row>
@@ -21027,7 +21027,7 @@
         </is>
       </c>
       <c r="P2" s="8" t="n">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="T2" s="5" t="n"/>
     </row>
@@ -25308,7 +25308,7 @@
         </is>
       </c>
       <c r="P44" s="8" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="T44" s="5" t="n"/>
     </row>
@@ -26890,7 +26890,7 @@
         </is>
       </c>
       <c r="P86" s="8" t="n">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="T86" s="5" t="n"/>
     </row>
@@ -27910,17 +27910,17 @@
       </c>
       <c r="C114" s="7" t="inlineStr">
         <is>
-          <t>Aurora Aune Wold</t>
+          <t>Malin Brokhaug Moe</t>
         </is>
       </c>
       <c r="D114" s="7" t="n">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="E114" s="15" t="n">
-        <v>9.1</v>
+        <v>8.94</v>
       </c>
       <c r="F114" s="7" t="n">
-        <v>450</v>
+        <v>486</v>
       </c>
       <c r="G114" s="7" t="inlineStr">
         <is>
@@ -27928,7 +27928,7 @@
         </is>
       </c>
       <c r="H114" s="16" t="n">
-        <v>4.06</v>
+        <v>29.08</v>
       </c>
       <c r="J114" s="5" t="n"/>
       <c r="L114" s="14" t="inlineStr">
@@ -27963,7 +27963,7 @@
     <row r="115" ht="13" customHeight="1">
       <c r="B115" s="14" t="inlineStr">
         <is>
-          <t>200m</t>
+          <t>60m</t>
         </is>
       </c>
       <c r="C115" s="7" t="inlineStr">
@@ -27975,10 +27975,10 @@
         <v>2009</v>
       </c>
       <c r="E115" s="15" t="n">
-        <v>30.15</v>
+        <v>9.1</v>
       </c>
       <c r="F115" s="7" t="n">
-        <v>442</v>
+        <v>450</v>
       </c>
       <c r="G115" s="7" t="inlineStr">
         <is>
@@ -28185,7 +28185,7 @@
         </is>
       </c>
       <c r="F120" s="21" t="n">
-        <v>2888</v>
+        <v>2932</v>
       </c>
       <c r="J120" s="5" t="n"/>
       <c r="L120" s="20" t="inlineStr">
@@ -28225,7 +28225,7 @@
         </is>
       </c>
       <c r="F122" s="21" t="n">
-        <v>7151</v>
+        <v>7195</v>
       </c>
       <c r="J122" s="5" t="n"/>
       <c r="L122" s="20" t="inlineStr">
@@ -28311,7 +28311,7 @@
         </is>
       </c>
       <c r="F128" s="8" t="n">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="J128" s="5" t="n"/>
     </row>
@@ -30640,7 +30640,7 @@
         </is>
       </c>
       <c r="F44" s="8" t="n">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="J44" s="5" t="n"/>
       <c r="L44" s="6" t="inlineStr">
@@ -30917,24 +30917,22 @@
     <row r="53" ht="13" customHeight="1">
       <c r="B53" s="14" t="inlineStr">
         <is>
-          <t>400m</t>
+          <t>200m</t>
         </is>
       </c>
       <c r="C53" s="7" t="inlineStr">
         <is>
-          <t>Maja Macek</t>
+          <t>Teodora Niksic</t>
         </is>
       </c>
       <c r="D53" s="7" t="n">
-        <v>2011</v>
-      </c>
-      <c r="E53" s="17" t="inlineStr">
-        <is>
-          <t>1,26,4</t>
-        </is>
+        <v>2008</v>
+      </c>
+      <c r="E53" s="15" t="n">
+        <v>31.25</v>
       </c>
       <c r="F53" s="7" t="n">
-        <v>152</v>
+        <v>380</v>
       </c>
       <c r="G53" s="7" t="inlineStr">
         <is>
@@ -30942,7 +30940,7 @@
         </is>
       </c>
       <c r="H53" s="16" t="n">
-        <v>27.05</v>
+        <v>4.08</v>
       </c>
       <c r="J53" s="5" t="n"/>
       <c r="L53" s="14" t="inlineStr">
@@ -30977,22 +30975,24 @@
     <row r="54" ht="13" customHeight="1">
       <c r="B54" s="14" t="inlineStr">
         <is>
-          <t>Høyde</t>
+          <t>400m</t>
         </is>
       </c>
       <c r="C54" s="7" t="inlineStr">
         <is>
-          <t>Teodora Niksic</t>
+          <t>Maja Macek</t>
         </is>
       </c>
       <c r="D54" s="7" t="n">
-        <v>2008</v>
-      </c>
-      <c r="E54" s="15" t="n">
-        <v>1.35</v>
+        <v>2011</v>
+      </c>
+      <c r="E54" s="17" t="inlineStr">
+        <is>
+          <t>1,26,4</t>
+        </is>
       </c>
       <c r="F54" s="7" t="n">
-        <v>470</v>
+        <v>152</v>
       </c>
       <c r="G54" s="7" t="inlineStr">
         <is>
@@ -31000,7 +31000,7 @@
         </is>
       </c>
       <c r="H54" s="16" t="n">
-        <v>8.02</v>
+        <v>27.05</v>
       </c>
       <c r="J54" s="5" t="n"/>
       <c r="L54" s="14" t="inlineStr">
@@ -31037,30 +31037,30 @@
     <row r="55" ht="13" customHeight="1">
       <c r="B55" s="14" t="inlineStr">
         <is>
-          <t>Lengde</t>
+          <t>Høyde</t>
         </is>
       </c>
       <c r="C55" s="7" t="inlineStr">
         <is>
-          <t>Alvilde Kvaran</t>
+          <t>Teodora Niksic</t>
         </is>
       </c>
       <c r="D55" s="7" t="n">
-        <v>2006</v>
+        <v>2008</v>
       </c>
       <c r="E55" s="15" t="n">
-        <v>4.66</v>
+        <v>1.35</v>
       </c>
       <c r="F55" s="7" t="n">
-        <v>544</v>
+        <v>470</v>
       </c>
       <c r="G55" s="7" t="inlineStr">
         <is>
-          <t>Grimstad</t>
+          <t>Rjukan</t>
         </is>
       </c>
       <c r="H55" s="16" t="n">
-        <v>13.03</v>
+        <v>8.02</v>
       </c>
       <c r="J55" s="5" t="n"/>
       <c r="L55" s="14" t="inlineStr">
@@ -31097,30 +31097,30 @@
     <row r="56" ht="13" customHeight="1">
       <c r="B56" s="14" t="inlineStr">
         <is>
-          <t>Tresteg</t>
+          <t>Lengde</t>
         </is>
       </c>
       <c r="C56" s="7" t="inlineStr">
         <is>
-          <t>Matilde Flor Størvold</t>
+          <t>Alvilde Kvaran</t>
         </is>
       </c>
       <c r="D56" s="7" t="n">
-        <v>2004</v>
+        <v>2006</v>
       </c>
       <c r="E56" s="15" t="n">
-        <v>10.55</v>
+        <v>4.66</v>
       </c>
       <c r="F56" s="7" t="n">
-        <v>615</v>
+        <v>544</v>
       </c>
       <c r="G56" s="7" t="inlineStr">
         <is>
-          <t>Rjukan</t>
+          <t>Grimstad</t>
         </is>
       </c>
       <c r="H56" s="16" t="n">
-        <v>17.07</v>
+        <v>13.03</v>
       </c>
       <c r="J56" s="5" t="n"/>
       <c r="L56" s="14" t="inlineStr">
@@ -31155,7 +31155,7 @@
     <row r="57" ht="13" customHeight="1">
       <c r="B57" s="14" t="inlineStr">
         <is>
-          <t>Høyde u.t</t>
+          <t>Tresteg</t>
         </is>
       </c>
       <c r="C57" s="7" t="inlineStr">
@@ -31167,10 +31167,10 @@
         <v>2004</v>
       </c>
       <c r="E57" s="15" t="n">
-        <v>1.15</v>
+        <v>10.55</v>
       </c>
       <c r="F57" s="7" t="n">
-        <v>492</v>
+        <v>615</v>
       </c>
       <c r="G57" s="7" t="inlineStr">
         <is>
@@ -31178,7 +31178,7 @@
         </is>
       </c>
       <c r="H57" s="16" t="n">
-        <v>9.02</v>
+        <v>17.07</v>
       </c>
       <c r="J57" s="5" t="n"/>
       <c r="L57" s="14" t="inlineStr">
@@ -31213,7 +31213,7 @@
     <row r="58" ht="13" customHeight="1">
       <c r="B58" s="14" t="inlineStr">
         <is>
-          <t>Lengde u.t</t>
+          <t>Høyde u.t</t>
         </is>
       </c>
       <c r="C58" s="7" t="inlineStr">
@@ -31225,10 +31225,10 @@
         <v>2004</v>
       </c>
       <c r="E58" s="15" t="n">
-        <v>2.33</v>
+        <v>1.15</v>
       </c>
       <c r="F58" s="7" t="n">
-        <v>518</v>
+        <v>492</v>
       </c>
       <c r="G58" s="7" t="inlineStr">
         <is>
@@ -31236,7 +31236,7 @@
         </is>
       </c>
       <c r="H58" s="16" t="n">
-        <v>8.02</v>
+        <v>9.02</v>
       </c>
       <c r="J58" s="5" t="n"/>
       <c r="L58" s="14" t="inlineStr">
@@ -31271,22 +31271,22 @@
     <row r="59" ht="13" customHeight="1">
       <c r="B59" s="14" t="inlineStr">
         <is>
-          <t>Kule</t>
+          <t>Lengde u.t</t>
         </is>
       </c>
       <c r="C59" s="7" t="inlineStr">
         <is>
-          <t>Malene Storøygard</t>
+          <t>Matilde Flor Størvold</t>
         </is>
       </c>
       <c r="D59" s="7" t="n">
         <v>2004</v>
       </c>
       <c r="E59" s="15" t="n">
-        <v>7.56</v>
+        <v>2.33</v>
       </c>
       <c r="F59" s="7" t="n">
-        <v>392</v>
+        <v>518</v>
       </c>
       <c r="G59" s="7" t="inlineStr">
         <is>
@@ -31329,7 +31329,7 @@
     <row r="60" ht="13" customHeight="1">
       <c r="B60" s="14" t="inlineStr">
         <is>
-          <t>Diskos</t>
+          <t>Kule</t>
         </is>
       </c>
       <c r="C60" s="7" t="inlineStr">
@@ -31341,10 +31341,10 @@
         <v>2004</v>
       </c>
       <c r="E60" s="15" t="n">
-        <v>23.55</v>
+        <v>7.56</v>
       </c>
       <c r="F60" s="7" t="n">
-        <v>466</v>
+        <v>392</v>
       </c>
       <c r="G60" s="7" t="inlineStr">
         <is>
@@ -31352,7 +31352,7 @@
         </is>
       </c>
       <c r="H60" s="16" t="n">
-        <v>11.02</v>
+        <v>8.02</v>
       </c>
       <c r="J60" s="5" t="n"/>
       <c r="L60" s="14" t="inlineStr">
@@ -31387,7 +31387,7 @@
     <row r="61" ht="13" customHeight="1">
       <c r="B61" s="14" t="inlineStr">
         <is>
-          <t>Spyd</t>
+          <t>Diskos</t>
         </is>
       </c>
       <c r="C61" s="7" t="inlineStr">
@@ -31399,18 +31399,18 @@
         <v>2004</v>
       </c>
       <c r="E61" s="15" t="n">
-        <v>36.86</v>
+        <v>23.55</v>
       </c>
       <c r="F61" s="7" t="n">
-        <v>653</v>
+        <v>466</v>
       </c>
       <c r="G61" s="7" t="inlineStr">
         <is>
-          <t>Nittedal</t>
+          <t>Rjukan</t>
         </is>
       </c>
       <c r="H61" s="16" t="n">
-        <v>21.05</v>
+        <v>11.02</v>
       </c>
       <c r="J61" s="5" t="n"/>
       <c r="L61" s="14" t="n"/>
@@ -31423,13 +31423,33 @@
       <c r="T61" s="5" t="n"/>
     </row>
     <row r="62" ht="13" customHeight="1">
-      <c r="B62" s="14" t="n"/>
-      <c r="C62" s="7" t="n"/>
-      <c r="D62" s="7" t="n"/>
-      <c r="E62" s="7" t="n"/>
-      <c r="F62" s="7" t="n"/>
-      <c r="G62" s="7" t="n"/>
-      <c r="H62" s="18" t="n"/>
+      <c r="B62" s="14" t="inlineStr">
+        <is>
+          <t>Spyd</t>
+        </is>
+      </c>
+      <c r="C62" s="7" t="inlineStr">
+        <is>
+          <t>Malene Storøygard</t>
+        </is>
+      </c>
+      <c r="D62" s="7" t="n">
+        <v>2004</v>
+      </c>
+      <c r="E62" s="15" t="n">
+        <v>36.86</v>
+      </c>
+      <c r="F62" s="7" t="n">
+        <v>653</v>
+      </c>
+      <c r="G62" s="7" t="inlineStr">
+        <is>
+          <t>Nittedal</t>
+        </is>
+      </c>
+      <c r="H62" s="16" t="n">
+        <v>21.05</v>
+      </c>
       <c r="J62" s="5" t="n"/>
       <c r="L62" s="14" t="n"/>
       <c r="M62" s="7" t="n"/>
@@ -31465,7 +31485,7 @@
         </is>
       </c>
       <c r="C64" s="21" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E64" s="20" t="inlineStr">
         <is>
@@ -31473,7 +31493,7 @@
         </is>
       </c>
       <c r="F64" s="21" t="n">
-        <v>5297</v>
+        <v>5677</v>
       </c>
       <c r="J64" s="5" t="n"/>
       <c r="L64" s="20" t="inlineStr">
@@ -31825,30 +31845,30 @@
     <row r="73" ht="13" customHeight="1">
       <c r="B73" s="14" t="inlineStr">
         <is>
-          <t>Tresteg</t>
+          <t>60m</t>
         </is>
       </c>
       <c r="C73" s="7" t="inlineStr">
         <is>
-          <t>Kaja Storøygard</t>
+          <t>Teodora Niksic</t>
         </is>
       </c>
       <c r="D73" s="7" t="n">
         <v>2008</v>
       </c>
       <c r="E73" s="15" t="n">
-        <v>8.869999999999999</v>
+        <v>9.15</v>
       </c>
       <c r="F73" s="7" t="n">
-        <v>435</v>
+        <v>440</v>
       </c>
       <c r="G73" s="7" t="inlineStr">
         <is>
-          <t>Notodden</t>
+          <t>Rjukan</t>
         </is>
       </c>
       <c r="H73" s="16" t="n">
-        <v>11.05</v>
+        <v>4.08</v>
       </c>
       <c r="J73" s="5" t="n"/>
       <c r="L73" s="14" t="inlineStr">
@@ -31883,30 +31903,30 @@
     <row r="74" ht="13" customHeight="1">
       <c r="B74" s="14" t="inlineStr">
         <is>
-          <t>60m</t>
+          <t>Tresteg</t>
         </is>
       </c>
       <c r="C74" s="7" t="inlineStr">
         <is>
-          <t>Iril Lenasdatter Sætre</t>
+          <t>Kaja Storøygard</t>
         </is>
       </c>
       <c r="D74" s="7" t="n">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="E74" s="15" t="n">
-        <v>9.210000000000001</v>
+        <v>8.869999999999999</v>
       </c>
       <c r="F74" s="7" t="n">
-        <v>427</v>
+        <v>435</v>
       </c>
       <c r="G74" s="7" t="inlineStr">
         <is>
-          <t>Rjukan</t>
+          <t>Notodden</t>
         </is>
       </c>
       <c r="H74" s="16" t="n">
-        <v>8.06</v>
+        <v>11.05</v>
       </c>
       <c r="J74" s="5" t="n"/>
       <c r="L74" s="14" t="inlineStr">
@@ -31946,17 +31966,17 @@
       </c>
       <c r="C75" s="7" t="inlineStr">
         <is>
-          <t>Teodora Niksic</t>
+          <t>Iril Lenasdatter Sætre</t>
         </is>
       </c>
       <c r="D75" s="7" t="n">
-        <v>2008</v>
+        <v>2009</v>
       </c>
       <c r="E75" s="15" t="n">
-        <v>9.27</v>
+        <v>9.210000000000001</v>
       </c>
       <c r="F75" s="7" t="n">
-        <v>414</v>
+        <v>427</v>
       </c>
       <c r="G75" s="7" t="inlineStr">
         <is>
@@ -32089,7 +32109,7 @@
         </is>
       </c>
       <c r="F78" s="21" t="n">
-        <v>3539</v>
+        <v>3565</v>
       </c>
       <c r="J78" s="5" t="n"/>
       <c r="L78" s="20" t="inlineStr">
@@ -32121,7 +32141,7 @@
         </is>
       </c>
       <c r="C80" s="21" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E80" s="20" t="inlineStr">
         <is>
@@ -32129,7 +32149,7 @@
         </is>
       </c>
       <c r="F80" s="21" t="n">
-        <v>8836</v>
+        <v>9242</v>
       </c>
       <c r="J80" s="5" t="n"/>
       <c r="L80" s="20" t="inlineStr">
@@ -33567,7 +33587,7 @@
         </is>
       </c>
       <c r="F128" s="8" t="n">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="J128" s="5" t="n"/>
     </row>
@@ -35846,7 +35866,7 @@
         </is>
       </c>
       <c r="P44" s="8" t="n">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="T44" s="5" t="n"/>
     </row>
@@ -37376,7 +37396,7 @@
         </is>
       </c>
       <c r="F86" s="8" t="n">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="J86" s="5" t="n"/>
       <c r="L86" s="6" t="inlineStr">
@@ -38877,7 +38897,7 @@
         </is>
       </c>
       <c r="P2" s="8" t="n">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="T2" s="5" t="n"/>
     </row>
@@ -40289,7 +40309,7 @@
         </is>
       </c>
       <c r="F44" s="8" t="n">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="J44" s="5" t="n"/>
       <c r="L44" s="6" t="inlineStr">
@@ -40315,7 +40335,7 @@
       </c>
       <c r="C45" s="7" t="inlineStr">
         <is>
-          <t>Botne SK</t>
+          <t>Tønsberg Friidrettsklubb 2. lag</t>
         </is>
       </c>
       <c r="J45" s="5" t="n"/>
@@ -40326,7 +40346,7 @@
       </c>
       <c r="M45" s="7" t="inlineStr">
         <is>
-          <t>Tønsberg Friidrettsklubb 2. lag</t>
+          <t>Botne SK</t>
         </is>
       </c>
       <c r="T45" s="5" t="n"/>
@@ -40455,25 +40475,25 @@
       </c>
       <c r="C51" s="7" t="inlineStr">
         <is>
-          <t>Ingeborg Marta Sølverud</t>
+          <t>Tuva Sofie Sollid</t>
         </is>
       </c>
       <c r="D51" s="7" t="n">
-        <v>2010</v>
+        <v>2007</v>
       </c>
       <c r="E51" s="15" t="n">
-        <v>9.02</v>
+        <v>8.81</v>
       </c>
       <c r="F51" s="7" t="n">
-        <v>468</v>
+        <v>517</v>
       </c>
       <c r="G51" s="7" t="inlineStr">
         <is>
-          <t>Nadderud</t>
+          <t>Grimstad</t>
         </is>
       </c>
       <c r="H51" s="16" t="n">
-        <v>11.06</v>
+        <v>13.03</v>
       </c>
       <c r="J51" s="5" t="n"/>
       <c r="L51" s="14" t="inlineStr">
@@ -40483,25 +40503,25 @@
       </c>
       <c r="M51" s="7" t="inlineStr">
         <is>
-          <t>Tuva Sofie Sollid</t>
+          <t>Ingeborg Marta Sølverud</t>
         </is>
       </c>
       <c r="N51" s="7" t="n">
-        <v>2007</v>
+        <v>2010</v>
       </c>
       <c r="O51" s="15" t="n">
-        <v>8.81</v>
+        <v>9.02</v>
       </c>
       <c r="P51" s="7" t="n">
-        <v>517</v>
+        <v>468</v>
       </c>
       <c r="Q51" s="7" t="inlineStr">
         <is>
-          <t>Grimstad</t>
+          <t>Nadderud</t>
         </is>
       </c>
       <c r="R51" s="16" t="n">
-        <v>13.03</v>
+        <v>11.06</v>
       </c>
       <c r="T51" s="5" t="n"/>
     </row>
@@ -40513,25 +40533,25 @@
       </c>
       <c r="C52" s="7" t="inlineStr">
         <is>
-          <t>Ida-Marie Weum Elnan</t>
+          <t>Nora Westeng Jeppsson</t>
         </is>
       </c>
       <c r="D52" s="7" t="n">
         <v>2007</v>
       </c>
       <c r="E52" s="15" t="n">
-        <v>31.16</v>
+        <v>31.67</v>
       </c>
       <c r="F52" s="7" t="n">
-        <v>385</v>
+        <v>358</v>
       </c>
       <c r="G52" s="7" t="inlineStr">
         <is>
-          <t>Larvik</t>
+          <t>Sem</t>
         </is>
       </c>
       <c r="H52" s="16" t="n">
-        <v>11.05</v>
+        <v>14.06</v>
       </c>
       <c r="J52" s="5" t="n"/>
       <c r="L52" s="14" t="inlineStr">
@@ -40541,25 +40561,25 @@
       </c>
       <c r="M52" s="7" t="inlineStr">
         <is>
-          <t>Nora Westeng Jeppsson</t>
+          <t>Ida-Marie Weum Elnan</t>
         </is>
       </c>
       <c r="N52" s="7" t="n">
         <v>2007</v>
       </c>
       <c r="O52" s="15" t="n">
-        <v>31.67</v>
+        <v>31.16</v>
       </c>
       <c r="P52" s="7" t="n">
-        <v>358</v>
+        <v>385</v>
       </c>
       <c r="Q52" s="7" t="inlineStr">
         <is>
-          <t>Sem</t>
+          <t>Larvik</t>
         </is>
       </c>
       <c r="R52" s="16" t="n">
-        <v>14.06</v>
+        <v>11.05</v>
       </c>
       <c r="T52" s="5" t="n"/>
     </row>
@@ -40571,7 +40591,7 @@
       </c>
       <c r="C53" s="7" t="inlineStr">
         <is>
-          <t>Ida-Marie Weum Elnan</t>
+          <t>Malin Gallis</t>
         </is>
       </c>
       <c r="D53" s="7" t="n">
@@ -40579,19 +40599,19 @@
       </c>
       <c r="E53" s="17" t="inlineStr">
         <is>
-          <t>3,03,42</t>
+          <t>2,37,31mx</t>
         </is>
       </c>
       <c r="F53" s="7" t="n">
-        <v>281</v>
+        <v>488</v>
       </c>
       <c r="G53" s="7" t="inlineStr">
         <is>
-          <t>Larvik</t>
+          <t>Tumba/SWE</t>
         </is>
       </c>
       <c r="H53" s="16" t="n">
-        <v>15.06</v>
+        <v>16.07</v>
       </c>
       <c r="J53" s="5" t="n"/>
       <c r="L53" s="14" t="inlineStr">
@@ -40601,7 +40621,7 @@
       </c>
       <c r="M53" s="7" t="inlineStr">
         <is>
-          <t>Malin Gallis</t>
+          <t>Ida-Marie Weum Elnan</t>
         </is>
       </c>
       <c r="N53" s="7" t="n">
@@ -40609,206 +40629,226 @@
       </c>
       <c r="O53" s="17" t="inlineStr">
         <is>
-          <t>2,37,31mx</t>
+          <t>3,03,42</t>
         </is>
       </c>
       <c r="P53" s="7" t="n">
-        <v>488</v>
+        <v>281</v>
       </c>
       <c r="Q53" s="7" t="inlineStr">
         <is>
-          <t>Tumba/SWE</t>
+          <t>Larvik</t>
         </is>
       </c>
       <c r="R53" s="16" t="n">
-        <v>16.07</v>
+        <v>15.06</v>
       </c>
       <c r="T53" s="5" t="n"/>
     </row>
     <row r="54" ht="13" customHeight="1">
       <c r="B54" s="14" t="inlineStr">
         <is>
-          <t>Høyde</t>
+          <t>1500m</t>
         </is>
       </c>
       <c r="C54" s="7" t="inlineStr">
         <is>
-          <t>Isabella Neves Strand</t>
+          <t>Maria Fet Støtvig</t>
         </is>
       </c>
       <c r="D54" s="7" t="n">
-        <v>2009</v>
-      </c>
-      <c r="E54" s="15" t="n">
-        <v>1.35</v>
+        <v>2010</v>
+      </c>
+      <c r="E54" s="17" t="inlineStr">
+        <is>
+          <t>5,28,76</t>
+        </is>
       </c>
       <c r="F54" s="7" t="n">
-        <v>470</v>
+        <v>474</v>
       </c>
       <c r="G54" s="7" t="inlineStr">
         <is>
-          <t>Greveskogen</t>
+          <t>Nadderud</t>
         </is>
       </c>
       <c r="H54" s="16" t="n">
-        <v>2.06</v>
+        <v>10.06</v>
       </c>
       <c r="J54" s="5" t="n"/>
       <c r="L54" s="14" t="inlineStr">
         <is>
-          <t>1500m</t>
+          <t>Høyde</t>
         </is>
       </c>
       <c r="M54" s="7" t="inlineStr">
         <is>
-          <t>Maria Fet Støtvig</t>
+          <t>Isabella Neves Strand</t>
         </is>
       </c>
       <c r="N54" s="7" t="n">
-        <v>2010</v>
-      </c>
-      <c r="O54" s="17" t="inlineStr">
-        <is>
-          <t>5,28,76</t>
-        </is>
+        <v>2009</v>
+      </c>
+      <c r="O54" s="15" t="n">
+        <v>1.35</v>
       </c>
       <c r="P54" s="7" t="n">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="Q54" s="7" t="inlineStr">
         <is>
-          <t>Nadderud</t>
+          <t>Greveskogen</t>
         </is>
       </c>
       <c r="R54" s="16" t="n">
-        <v>10.06</v>
+        <v>2.06</v>
       </c>
       <c r="T54" s="5" t="n"/>
     </row>
     <row r="55" ht="13" customHeight="1">
       <c r="B55" s="14" t="inlineStr">
         <is>
-          <t>Lengde</t>
+          <t>Høyde</t>
         </is>
       </c>
       <c r="C55" s="7" t="inlineStr">
         <is>
-          <t>Ella Maute Torjesen</t>
+          <t>Siri Torgersen Bigseth</t>
         </is>
       </c>
       <c r="D55" s="7" t="n">
-        <v>2008</v>
+        <v>2009</v>
       </c>
       <c r="E55" s="15" t="n">
-        <v>4.26</v>
+        <v>1.25</v>
       </c>
       <c r="F55" s="7" t="n">
-        <v>452</v>
+        <v>362</v>
       </c>
       <c r="G55" s="7" t="inlineStr">
         <is>
-          <t>Larvik</t>
+          <t>Greveskogen</t>
         </is>
       </c>
       <c r="H55" s="16" t="n">
-        <v>11.05</v>
+        <v>2.06</v>
       </c>
       <c r="J55" s="5" t="n"/>
       <c r="L55" s="14" t="inlineStr">
         <is>
-          <t>Høyde</t>
+          <t>Lengde</t>
         </is>
       </c>
       <c r="M55" s="7" t="inlineStr">
         <is>
-          <t>Siri Torgersen Bigseth</t>
+          <t>Ella Maute Torjesen</t>
         </is>
       </c>
       <c r="N55" s="7" t="n">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="O55" s="15" t="n">
-        <v>1.25</v>
+        <v>4.26</v>
       </c>
       <c r="P55" s="7" t="n">
-        <v>362</v>
+        <v>452</v>
       </c>
       <c r="Q55" s="7" t="inlineStr">
         <is>
-          <t>Greveskogen</t>
+          <t>Larvik</t>
         </is>
       </c>
       <c r="R55" s="16" t="n">
-        <v>2.06</v>
+        <v>11.05</v>
       </c>
       <c r="T55" s="5" t="n"/>
     </row>
     <row r="56" ht="13" customHeight="1">
       <c r="B56" s="14" t="inlineStr">
         <is>
-          <t>Slegge</t>
+          <t>Lengde</t>
         </is>
       </c>
       <c r="C56" s="7" t="inlineStr">
         <is>
-          <t>Eiril Hermansen Fagerli</t>
+          <t>Nora Bækkevold Kloster</t>
         </is>
       </c>
       <c r="D56" s="7" t="n">
-        <v>2006</v>
+        <v>2009</v>
       </c>
       <c r="E56" s="15" t="n">
-        <v>37.86</v>
+        <v>4.02</v>
       </c>
       <c r="F56" s="7" t="n">
-        <v>655</v>
+        <v>392</v>
       </c>
       <c r="G56" s="7" t="inlineStr">
         <is>
-          <t>Rjukan</t>
+          <t>Grimstad</t>
         </is>
       </c>
       <c r="H56" s="16" t="n">
-        <v>29.07</v>
+        <v>13.03</v>
       </c>
       <c r="J56" s="5" t="n"/>
       <c r="L56" s="14" t="inlineStr">
         <is>
-          <t>Lengde</t>
+          <t>Slegge</t>
         </is>
       </c>
       <c r="M56" s="7" t="inlineStr">
         <is>
-          <t>Andrea Indseth Pettersen</t>
+          <t>Eiril Hermansen Fagerli</t>
         </is>
       </c>
       <c r="N56" s="7" t="n">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="O56" s="15" t="n">
-        <v>3.88</v>
+        <v>37.86</v>
       </c>
       <c r="P56" s="7" t="n">
-        <v>356</v>
+        <v>655</v>
       </c>
       <c r="Q56" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Rjukan</t>
         </is>
       </c>
       <c r="R56" s="16" t="n">
-        <v>12.02</v>
+        <v>29.07</v>
       </c>
       <c r="T56" s="5" t="n"/>
     </row>
     <row r="57" ht="13" customHeight="1">
-      <c r="B57" s="14" t="n"/>
-      <c r="C57" s="7" t="n"/>
-      <c r="D57" s="7" t="n"/>
-      <c r="E57" s="7" t="n"/>
-      <c r="F57" s="7" t="n"/>
-      <c r="G57" s="7" t="n"/>
-      <c r="H57" s="18" t="n"/>
+      <c r="B57" s="14" t="inlineStr">
+        <is>
+          <t>Diskos</t>
+        </is>
+      </c>
+      <c r="C57" s="7" t="inlineStr">
+        <is>
+          <t>Grete Sjong Rivenes</t>
+        </is>
+      </c>
+      <c r="D57" s="7" t="n">
+        <v>1948</v>
+      </c>
+      <c r="E57" s="15" t="n">
+        <v>20.14</v>
+      </c>
+      <c r="F57" s="7" t="n">
+        <v>389</v>
+      </c>
+      <c r="G57" s="7" t="inlineStr">
+        <is>
+          <t>Greveskogen</t>
+        </is>
+      </c>
+      <c r="H57" s="16" t="n">
+        <v>14.06</v>
+      </c>
       <c r="J57" s="5" t="n"/>
       <c r="L57" s="14" t="n"/>
       <c r="M57" s="7" t="n"/>
@@ -40934,7 +40974,7 @@
         </is>
       </c>
       <c r="C64" s="21" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E64" s="20" t="inlineStr">
         <is>
@@ -40942,7 +40982,7 @@
         </is>
       </c>
       <c r="F64" s="21" t="n">
-        <v>2711</v>
+        <v>2980</v>
       </c>
       <c r="J64" s="5" t="n"/>
       <c r="L64" s="20" t="inlineStr">
@@ -40959,7 +40999,7 @@
         </is>
       </c>
       <c r="P64" s="21" t="n">
-        <v>2555</v>
+        <v>2711</v>
       </c>
       <c r="T64" s="5" t="n"/>
     </row>
@@ -41062,60 +41102,60 @@
     <row r="69" ht="13" customHeight="1">
       <c r="B69" s="14" t="inlineStr">
         <is>
-          <t>Høyde</t>
+          <t>1500m</t>
         </is>
       </c>
       <c r="C69" s="7" t="inlineStr">
         <is>
-          <t>Ella Maute Torjesen</t>
+          <t>Anna Aukland</t>
         </is>
       </c>
       <c r="D69" s="7" t="n">
         <v>2008</v>
       </c>
-      <c r="E69" s="15" t="n">
-        <v>1.3</v>
+      <c r="E69" s="17" t="inlineStr">
+        <is>
+          <t>5,31,20</t>
+        </is>
       </c>
       <c r="F69" s="7" t="n">
-        <v>418</v>
+        <v>463</v>
       </c>
       <c r="G69" s="7" t="inlineStr">
         <is>
-          <t>Greveskogen</t>
+          <t>Nadderud</t>
         </is>
       </c>
       <c r="H69" s="16" t="n">
-        <v>2.06</v>
+        <v>12.06</v>
       </c>
       <c r="J69" s="5" t="n"/>
       <c r="L69" s="14" t="inlineStr">
         <is>
-          <t>1500m</t>
+          <t>Høyde</t>
         </is>
       </c>
       <c r="M69" s="7" t="inlineStr">
         <is>
-          <t>Anna Aukland</t>
+          <t>Ella Maute Torjesen</t>
         </is>
       </c>
       <c r="N69" s="7" t="n">
         <v>2008</v>
       </c>
-      <c r="O69" s="17" t="inlineStr">
-        <is>
-          <t>5,31,20</t>
-        </is>
+      <c r="O69" s="15" t="n">
+        <v>1.3</v>
       </c>
       <c r="P69" s="7" t="n">
-        <v>463</v>
+        <v>418</v>
       </c>
       <c r="Q69" s="7" t="inlineStr">
         <is>
-          <t>Nadderud</t>
+          <t>Greveskogen</t>
         </is>
       </c>
       <c r="R69" s="16" t="n">
-        <v>12.06</v>
+        <v>2.06</v>
       </c>
       <c r="T69" s="5" t="n"/>
     </row>
@@ -41127,25 +41167,25 @@
       </c>
       <c r="C70" s="7" t="inlineStr">
         <is>
-          <t>Isabella Neves Strand</t>
+          <t>Tiril Wellum Skaar</t>
         </is>
       </c>
       <c r="D70" s="7" t="n">
         <v>2009</v>
       </c>
       <c r="E70" s="15" t="n">
-        <v>9.35</v>
+        <v>9.130000000000001</v>
       </c>
       <c r="F70" s="7" t="n">
-        <v>397</v>
+        <v>444</v>
       </c>
       <c r="G70" s="7" t="inlineStr">
         <is>
-          <t>Larvik</t>
+          <t>Sem</t>
         </is>
       </c>
       <c r="H70" s="16" t="n">
-        <v>11.05</v>
+        <v>14.06</v>
       </c>
       <c r="J70" s="5" t="n"/>
       <c r="L70" s="14" t="inlineStr">
@@ -41155,25 +41195,25 @@
       </c>
       <c r="M70" s="7" t="inlineStr">
         <is>
-          <t>Tiril Wellum Skaar</t>
+          <t>Isabella Neves Strand</t>
         </is>
       </c>
       <c r="N70" s="7" t="n">
         <v>2009</v>
       </c>
       <c r="O70" s="15" t="n">
-        <v>9.130000000000001</v>
+        <v>9.35</v>
       </c>
       <c r="P70" s="7" t="n">
-        <v>444</v>
+        <v>397</v>
       </c>
       <c r="Q70" s="7" t="inlineStr">
         <is>
-          <t>Sem</t>
+          <t>Larvik</t>
         </is>
       </c>
       <c r="R70" s="16" t="n">
-        <v>14.06</v>
+        <v>11.05</v>
       </c>
       <c r="T70" s="5" t="n"/>
     </row>
@@ -41185,25 +41225,25 @@
       </c>
       <c r="C71" s="7" t="inlineStr">
         <is>
-          <t>Eiril Hermansen Fagerli</t>
+          <t>Andrea Indseth Pettersen</t>
         </is>
       </c>
       <c r="D71" s="7" t="n">
-        <v>2006</v>
+        <v>2007</v>
       </c>
       <c r="E71" s="15" t="n">
-        <v>9.390000000000001</v>
+        <v>9.130000000000001</v>
       </c>
       <c r="F71" s="7" t="n">
-        <v>389</v>
+        <v>444</v>
       </c>
       <c r="G71" s="7" t="inlineStr">
         <is>
-          <t>Rjukan</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="H71" s="16" t="n">
-        <v>29.07</v>
+        <v>12.02</v>
       </c>
       <c r="J71" s="5" t="n"/>
       <c r="L71" s="14" t="inlineStr">
@@ -41213,113 +41253,113 @@
       </c>
       <c r="M71" s="7" t="inlineStr">
         <is>
-          <t>Andrea Indseth Pettersen</t>
+          <t>Eiril Hermansen Fagerli</t>
         </is>
       </c>
       <c r="N71" s="7" t="n">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="O71" s="15" t="n">
-        <v>9.130000000000001</v>
+        <v>9.390000000000001</v>
       </c>
       <c r="P71" s="7" t="n">
-        <v>444</v>
+        <v>389</v>
       </c>
       <c r="Q71" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Rjukan</t>
         </is>
       </c>
       <c r="R71" s="16" t="n">
-        <v>12.02</v>
+        <v>29.07</v>
       </c>
       <c r="T71" s="5" t="n"/>
     </row>
     <row r="72" ht="13" customHeight="1">
       <c r="B72" s="14" t="inlineStr">
         <is>
-          <t>200m</t>
+          <t>60m</t>
         </is>
       </c>
       <c r="C72" s="7" t="inlineStr">
         <is>
-          <t>Ella Maute Torjesen</t>
+          <t>Nora Westeng Jeppsson</t>
         </is>
       </c>
       <c r="D72" s="7" t="n">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="E72" s="15" t="n">
-        <v>32.15</v>
+        <v>9.26</v>
       </c>
       <c r="F72" s="7" t="n">
-        <v>333</v>
+        <v>416</v>
       </c>
       <c r="G72" s="7" t="inlineStr">
         <is>
-          <t>Oslo/St</t>
+          <t>Asker</t>
         </is>
       </c>
       <c r="H72" s="16" t="n">
-        <v>14.05</v>
+        <v>5.06</v>
       </c>
       <c r="J72" s="5" t="n"/>
       <c r="L72" s="14" t="inlineStr">
         <is>
-          <t>60m</t>
+          <t>200m</t>
         </is>
       </c>
       <c r="M72" s="7" t="inlineStr">
         <is>
-          <t>Nora Westeng Jeppsson</t>
+          <t>Ella Maute Torjesen</t>
         </is>
       </c>
       <c r="N72" s="7" t="n">
-        <v>2007</v>
+        <v>2008</v>
       </c>
       <c r="O72" s="15" t="n">
-        <v>9.26</v>
+        <v>32.15</v>
       </c>
       <c r="P72" s="7" t="n">
-        <v>416</v>
+        <v>333</v>
       </c>
       <c r="Q72" s="7" t="inlineStr">
         <is>
-          <t>Asker</t>
+          <t>Oslo/St</t>
         </is>
       </c>
       <c r="R72" s="16" t="n">
-        <v>5.06</v>
+        <v>14.05</v>
       </c>
       <c r="T72" s="5" t="n"/>
     </row>
     <row r="73" ht="13" customHeight="1">
       <c r="B73" s="14" t="inlineStr">
         <is>
-          <t>60m</t>
+          <t>Høyde</t>
         </is>
       </c>
       <c r="C73" s="7" t="inlineStr">
         <is>
-          <t>Henrikke Nyheim</t>
+          <t>Nora Bækkevold Kloster</t>
         </is>
       </c>
       <c r="D73" s="7" t="n">
-        <v>2008</v>
+        <v>2009</v>
       </c>
       <c r="E73" s="15" t="n">
-        <v>9.789999999999999</v>
+        <v>1.25</v>
       </c>
       <c r="F73" s="7" t="n">
-        <v>310</v>
+        <v>362</v>
       </c>
       <c r="G73" s="7" t="inlineStr">
         <is>
-          <t>Larvik</t>
+          <t>Greveskogen</t>
         </is>
       </c>
       <c r="H73" s="16" t="n">
-        <v>11.05</v>
+        <v>2.06</v>
       </c>
       <c r="J73" s="5" t="n"/>
       <c r="L73" s="14" t="inlineStr">
@@ -41329,55 +41369,55 @@
       </c>
       <c r="M73" s="7" t="inlineStr">
         <is>
-          <t>Maria Fet Støtvig</t>
+          <t>Henrikke Nyheim</t>
         </is>
       </c>
       <c r="N73" s="7" t="n">
-        <v>2010</v>
+        <v>2008</v>
       </c>
       <c r="O73" s="15" t="n">
-        <v>9.630000000000001</v>
+        <v>9.789999999999999</v>
       </c>
       <c r="P73" s="7" t="n">
-        <v>341</v>
+        <v>310</v>
       </c>
       <c r="Q73" s="7" t="inlineStr">
         <is>
-          <t>Nadderud</t>
+          <t>Larvik</t>
         </is>
       </c>
       <c r="R73" s="16" t="n">
-        <v>11.06</v>
+        <v>11.05</v>
       </c>
       <c r="T73" s="5" t="n"/>
     </row>
     <row r="74" ht="13" customHeight="1">
       <c r="B74" s="14" t="inlineStr">
         <is>
-          <t>Høyde</t>
+          <t>Lengde</t>
         </is>
       </c>
       <c r="C74" s="7" t="inlineStr">
         <is>
-          <t>Henrikke Nyheim</t>
+          <t>Andrea Indseth Pettersen</t>
         </is>
       </c>
       <c r="D74" s="7" t="n">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="E74" s="15" t="n">
-        <v>1.2</v>
+        <v>3.88</v>
       </c>
       <c r="F74" s="7" t="n">
-        <v>303</v>
+        <v>356</v>
       </c>
       <c r="G74" s="7" t="inlineStr">
         <is>
-          <t>Stange</t>
+          <t>Bærum</t>
         </is>
       </c>
       <c r="H74" s="16" t="n">
-        <v>12.03</v>
+        <v>12.02</v>
       </c>
       <c r="J74" s="5" t="n"/>
       <c r="L74" s="14" t="inlineStr">
@@ -41387,141 +41427,141 @@
       </c>
       <c r="M74" s="7" t="inlineStr">
         <is>
-          <t>Jenny Horsdal</t>
+          <t>Henrikke Nyheim</t>
         </is>
       </c>
       <c r="N74" s="7" t="n">
-        <v>2010</v>
+        <v>2008</v>
       </c>
       <c r="O74" s="15" t="n">
-        <v>1.15</v>
+        <v>1.2</v>
       </c>
       <c r="P74" s="7" t="n">
-        <v>240</v>
+        <v>303</v>
       </c>
       <c r="Q74" s="7" t="inlineStr">
         <is>
-          <t>Greveskogen</t>
+          <t>Stange</t>
         </is>
       </c>
       <c r="R74" s="16" t="n">
-        <v>2.06</v>
+        <v>12.03</v>
       </c>
       <c r="T74" s="5" t="n"/>
     </row>
     <row r="75" ht="13" customHeight="1">
       <c r="B75" s="14" t="inlineStr">
         <is>
-          <t>Lengde</t>
+          <t>60m</t>
         </is>
       </c>
       <c r="C75" s="7" t="inlineStr">
         <is>
-          <t>Henrikke Nyheim</t>
+          <t>Maria Fet Støtvig</t>
         </is>
       </c>
       <c r="D75" s="7" t="n">
-        <v>2008</v>
+        <v>2010</v>
       </c>
       <c r="E75" s="15" t="n">
-        <v>3.63</v>
+        <v>9.630000000000001</v>
       </c>
       <c r="F75" s="7" t="n">
-        <v>288</v>
+        <v>341</v>
       </c>
       <c r="G75" s="7" t="inlineStr">
         <is>
-          <t>Larvik</t>
+          <t>Nadderud</t>
         </is>
       </c>
       <c r="H75" s="16" t="n">
-        <v>11.05</v>
+        <v>11.06</v>
       </c>
       <c r="J75" s="5" t="n"/>
       <c r="L75" s="14" t="inlineStr">
         <is>
-          <t>Høyde</t>
+          <t>Lengde</t>
         </is>
       </c>
       <c r="M75" s="7" t="inlineStr">
         <is>
-          <t>Andrea Indseth Pettersen</t>
+          <t>Henrikke Nyheim</t>
         </is>
       </c>
       <c r="N75" s="7" t="n">
-        <v>2007</v>
+        <v>2008</v>
       </c>
       <c r="O75" s="15" t="n">
-        <v>1.15</v>
+        <v>3.63</v>
       </c>
       <c r="P75" s="7" t="n">
-        <v>240</v>
+        <v>288</v>
       </c>
       <c r="Q75" s="7" t="inlineStr">
         <is>
-          <t>Grimstad</t>
+          <t>Larvik</t>
         </is>
       </c>
       <c r="R75" s="16" t="n">
-        <v>13.03</v>
+        <v>11.05</v>
       </c>
       <c r="T75" s="5" t="n"/>
     </row>
     <row r="76" ht="13" customHeight="1">
       <c r="B76" s="14" t="inlineStr">
         <is>
-          <t>200m</t>
+          <t>Høyde</t>
         </is>
       </c>
       <c r="C76" s="7" t="inlineStr">
         <is>
-          <t>Frida Skudem Hertel</t>
+          <t>Andrea Indseth Pettersen</t>
         </is>
       </c>
       <c r="D76" s="7" t="n">
         <v>2007</v>
       </c>
       <c r="E76" s="15" t="n">
-        <v>33.82</v>
+        <v>1.15</v>
       </c>
       <c r="F76" s="7" t="n">
-        <v>254</v>
+        <v>240</v>
       </c>
       <c r="G76" s="7" t="inlineStr">
         <is>
-          <t>Larvik</t>
+          <t>Grimstad</t>
         </is>
       </c>
       <c r="H76" s="16" t="n">
-        <v>15.06</v>
+        <v>13.03</v>
       </c>
       <c r="J76" s="5" t="n"/>
       <c r="L76" s="14" t="inlineStr">
         <is>
-          <t>Høyde</t>
+          <t>200m</t>
         </is>
       </c>
       <c r="M76" s="7" t="inlineStr">
         <is>
-          <t>Anna Bettum</t>
+          <t>Frida Skudem Hertel</t>
         </is>
       </c>
       <c r="N76" s="7" t="n">
-        <v>2009</v>
+        <v>2007</v>
       </c>
       <c r="O76" s="15" t="n">
-        <v>1.1</v>
+        <v>33.82</v>
       </c>
       <c r="P76" s="7" t="n">
-        <v>173</v>
+        <v>254</v>
       </c>
       <c r="Q76" s="7" t="inlineStr">
         <is>
-          <t>Bærum</t>
+          <t>Larvik</t>
         </is>
       </c>
       <c r="R76" s="16" t="n">
-        <v>13.02</v>
+        <v>15.06</v>
       </c>
       <c r="T76" s="5" t="n"/>
     </row>
@@ -41558,7 +41598,7 @@
         </is>
       </c>
       <c r="F78" s="21" t="n">
-        <v>2692</v>
+        <v>3066</v>
       </c>
       <c r="J78" s="5" t="n"/>
       <c r="L78" s="20" t="inlineStr">
@@ -41575,7 +41615,7 @@
         </is>
       </c>
       <c r="P78" s="21" t="n">
-        <v>2761</v>
+        <v>2692</v>
       </c>
       <c r="T78" s="5" t="n"/>
     </row>
@@ -41590,7 +41630,7 @@
         </is>
       </c>
       <c r="C80" s="21" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E80" s="20" t="inlineStr">
         <is>
@@ -41598,7 +41638,7 @@
         </is>
       </c>
       <c r="F80" s="21" t="n">
-        <v>5403</v>
+        <v>6046</v>
       </c>
       <c r="J80" s="5" t="n"/>
       <c r="L80" s="20" t="inlineStr">
@@ -41615,7 +41655,7 @@
         </is>
       </c>
       <c r="P80" s="21" t="n">
-        <v>5316</v>
+        <v>5403</v>
       </c>
       <c r="T80" s="5" t="n"/>
     </row>
@@ -41630,7 +41670,7 @@
         </is>
       </c>
       <c r="C82" s="21" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="J82" s="5" t="n"/>
       <c r="L82" s="20" t="inlineStr">
@@ -41639,7 +41679,7 @@
         </is>
       </c>
       <c r="M82" s="21" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="T82" s="5" t="n"/>
     </row>
@@ -42055,18 +42095,18 @@
         <v>2003</v>
       </c>
       <c r="O11" s="15" t="n">
-        <v>53.45</v>
+        <v>52.23</v>
       </c>
       <c r="P11" s="7" t="n">
-        <v>916</v>
+        <v>965</v>
       </c>
       <c r="Q11" s="7" t="inlineStr">
         <is>
-          <t>Malmø/SWE</t>
+          <t>Cali/COL</t>
         </is>
       </c>
       <c r="R11" s="16" t="n">
-        <v>16.07</v>
+        <v>4.08</v>
       </c>
       <c r="T11" s="5" t="n"/>
     </row>
@@ -42550,7 +42590,7 @@
         </is>
       </c>
       <c r="P22" s="21" t="n">
-        <v>4832</v>
+        <v>4881</v>
       </c>
       <c r="T22" s="5" t="n"/>
     </row>
@@ -43134,7 +43174,7 @@
         </is>
       </c>
       <c r="P38" s="21" t="n">
-        <v>6135</v>
+        <v>6184</v>
       </c>
       <c r="T38" s="5" t="n"/>
     </row>
@@ -45620,7 +45660,7 @@
         </is>
       </c>
       <c r="P44" s="8" t="n">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T44" s="5" t="n"/>
     </row>
@@ -47054,7 +47094,7 @@
         </is>
       </c>
       <c r="P86" s="8" t="n">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="T86" s="5" t="n"/>
     </row>
@@ -48533,7 +48573,7 @@
         </is>
       </c>
       <c r="F128" s="8" t="n">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="J128" s="5" t="n"/>
     </row>
@@ -50920,7 +50960,7 @@
         </is>
       </c>
       <c r="P44" s="8" t="n">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="T44" s="5" t="n"/>
     </row>
@@ -52422,7 +52462,7 @@
         </is>
       </c>
       <c r="F86" s="8" t="n">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J86" s="5" t="n"/>
       <c r="L86" s="6" t="inlineStr">
@@ -52436,7 +52476,7 @@
         </is>
       </c>
       <c r="P86" s="8" t="n">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T86" s="5" t="n"/>
     </row>
@@ -53878,7 +53918,7 @@
         </is>
       </c>
       <c r="F128" s="8" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="J128" s="5" t="n"/>
       <c r="L128" s="6" t="inlineStr">
@@ -55370,7 +55410,7 @@
         </is>
       </c>
       <c r="P170" s="8" t="n">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="T170" s="5" t="n"/>
     </row>
@@ -56747,7 +56787,7 @@
         </is>
       </c>
       <c r="F212" s="8" t="n">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="J212" s="5" t="n"/>
     </row>
@@ -57486,7 +57526,7 @@
         </is>
       </c>
       <c r="P2" s="8" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="T2" s="5" t="n"/>
     </row>
@@ -57974,11 +58014,11 @@
       </c>
       <c r="Q14" s="7" t="inlineStr">
         <is>
-          <t>Grimstad</t>
+          <t>Oslo/Bi</t>
         </is>
       </c>
       <c r="R14" s="16" t="n">
-        <v>13.03</v>
+        <v>29.05</v>
       </c>
       <c r="T14" s="5" t="n"/>
     </row>
@@ -58094,7 +58134,7 @@
         </is>
       </c>
       <c r="R16" s="16" t="n">
-        <v>25.05</v>
+        <v>27.04</v>
       </c>
       <c r="T16" s="5" t="n"/>
     </row>
@@ -62898,7 +62938,7 @@
         </is>
       </c>
       <c r="P86" s="8" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="T86" s="5" t="n"/>
     </row>
@@ -64416,7 +64456,7 @@
         </is>
       </c>
       <c r="F128" s="8" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="J128" s="5" t="n"/>
       <c r="L128" s="6" t="inlineStr">
@@ -68672,7 +68712,7 @@
         </is>
       </c>
       <c r="F254" s="8" t="n">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="J254" s="5" t="n"/>
       <c r="L254" s="6" t="inlineStr">
@@ -68686,7 +68726,7 @@
         </is>
       </c>
       <c r="P254" s="8" t="n">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="T254" s="5" t="n"/>
     </row>
@@ -70133,7 +70173,7 @@
         </is>
       </c>
       <c r="P2" s="8" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="T2" s="5" t="n"/>
     </row>
@@ -72977,7 +73017,7 @@
         </is>
       </c>
       <c r="F86" s="8" t="n">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="J86" s="5" t="n"/>
       <c r="L86" s="6" t="inlineStr">
@@ -72991,7 +73031,7 @@
         </is>
       </c>
       <c r="P86" s="8" t="n">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="T86" s="5" t="n"/>
     </row>
@@ -73296,18 +73336,18 @@
         <v>2003</v>
       </c>
       <c r="O95" s="15" t="n">
-        <v>23.75</v>
+        <v>23.47</v>
       </c>
       <c r="P95" s="7" t="n">
-        <v>917</v>
+        <v>943</v>
       </c>
       <c r="Q95" s="7" t="inlineStr">
         <is>
-          <t>Mannheim/GER</t>
+          <t>Cali/COL</t>
         </is>
       </c>
       <c r="R95" s="16" t="n">
-        <v>3.07</v>
+        <v>4.08</v>
       </c>
       <c r="T95" s="5" t="n"/>
     </row>
@@ -73707,7 +73747,7 @@
         </is>
       </c>
       <c r="P106" s="21" t="n">
-        <v>3949</v>
+        <v>3975</v>
       </c>
       <c r="T106" s="5" t="n"/>
     </row>
@@ -74283,7 +74323,7 @@
         </is>
       </c>
       <c r="P122" s="21" t="n">
-        <v>6920</v>
+        <v>6946</v>
       </c>
       <c r="T122" s="5" t="n"/>
     </row>
@@ -75649,7 +75689,7 @@
         </is>
       </c>
       <c r="F170" s="8" t="n">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="J170" s="5" t="n"/>
       <c r="L170" s="6" t="inlineStr">
@@ -80124,7 +80164,7 @@
         </is>
       </c>
       <c r="F86" s="8" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J86" s="5" t="n"/>
       <c r="L86" s="6" t="inlineStr">
@@ -80138,7 +80178,7 @@
         </is>
       </c>
       <c r="P86" s="8" t="n">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="T86" s="5" t="n"/>
     </row>
@@ -81531,7 +81571,7 @@
         </is>
       </c>
       <c r="P2" s="8" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="T2" s="5" t="n"/>
     </row>
@@ -81554,7 +81594,7 @@
       </c>
       <c r="M3" s="7" t="inlineStr">
         <is>
-          <t>Namsen Friidrettsforening</t>
+          <t>Verdal Friidrettsklubb</t>
         </is>
       </c>
       <c r="T3" s="5" t="n"/>
@@ -81711,25 +81751,25 @@
       </c>
       <c r="M9" s="7" t="inlineStr">
         <is>
-          <t>Sofia Aude Johansen</t>
+          <t>Andrea Betten Lade</t>
         </is>
       </c>
       <c r="N9" s="7" t="n">
-        <v>2008</v>
+        <v>2009</v>
       </c>
       <c r="O9" s="15" t="n">
-        <v>8.43</v>
+        <v>9.119999999999999</v>
       </c>
       <c r="P9" s="7" t="n">
-        <v>611</v>
+        <v>446</v>
       </c>
       <c r="Q9" s="7" t="inlineStr">
         <is>
-          <t>Lillehammer</t>
+          <t>Steinkjer</t>
         </is>
       </c>
       <c r="R9" s="16" t="n">
-        <v>18.06</v>
+        <v>22.01</v>
       </c>
       <c r="T9" s="5" t="n"/>
     </row>
@@ -81764,30 +81804,30 @@
       <c r="J10" s="5" t="n"/>
       <c r="L10" s="14" t="inlineStr">
         <is>
-          <t>100m</t>
+          <t>200m</t>
         </is>
       </c>
       <c r="M10" s="7" t="inlineStr">
         <is>
-          <t>Sofia Aude Johansen</t>
+          <t>Andrea Betten Lade</t>
         </is>
       </c>
       <c r="N10" s="7" t="n">
-        <v>2008</v>
+        <v>2009</v>
       </c>
       <c r="O10" s="15" t="n">
-        <v>13.25</v>
+        <v>30.98</v>
       </c>
       <c r="P10" s="7" t="n">
-        <v>629</v>
+        <v>395</v>
       </c>
       <c r="Q10" s="7" t="inlineStr">
         <is>
-          <t>Lillehammer</t>
+          <t>Steinkjer</t>
         </is>
       </c>
       <c r="R10" s="16" t="n">
-        <v>19.06</v>
+        <v>23.01</v>
       </c>
       <c r="T10" s="5" t="n"/>
     </row>
@@ -81822,30 +81862,30 @@
       <c r="J11" s="5" t="n"/>
       <c r="L11" s="14" t="inlineStr">
         <is>
-          <t>200m</t>
+          <t>400m</t>
         </is>
       </c>
       <c r="M11" s="7" t="inlineStr">
         <is>
-          <t>Sofia Aude Johansen</t>
+          <t>Erle Musum Lyng</t>
         </is>
       </c>
       <c r="N11" s="7" t="n">
-        <v>2008</v>
+        <v>2002</v>
       </c>
       <c r="O11" s="15" t="n">
-        <v>27.68</v>
+        <v>59.79</v>
       </c>
       <c r="P11" s="7" t="n">
-        <v>601</v>
+        <v>686</v>
       </c>
       <c r="Q11" s="7" t="inlineStr">
         <is>
-          <t>Lillehammer</t>
+          <t>Steinkjer</t>
         </is>
       </c>
       <c r="R11" s="16" t="n">
-        <v>16.06</v>
+        <v>19.02</v>
       </c>
       <c r="T11" s="5" t="n"/>
     </row>
@@ -81887,19 +81927,19 @@
       </c>
       <c r="M12" s="7" t="inlineStr">
         <is>
-          <t>Inger Bergslid</t>
+          <t>Erle Musum Lyng</t>
         </is>
       </c>
       <c r="N12" s="7" t="n">
-        <v>2004</v>
+        <v>2002</v>
       </c>
       <c r="O12" s="17" t="inlineStr">
         <is>
-          <t>2,27,66</t>
+          <t>2,14,76</t>
         </is>
       </c>
       <c r="P12" s="7" t="n">
-        <v>582</v>
+        <v>734</v>
       </c>
       <c r="Q12" s="7" t="inlineStr">
         <is>
@@ -81907,7 +81947,7 @@
         </is>
       </c>
       <c r="R12" s="16" t="n">
-        <v>23.01</v>
+        <v>5.03</v>
       </c>
       <c r="T12" s="5" t="n"/>
     </row>
@@ -81944,30 +81984,32 @@
       <c r="J13" s="5" t="n"/>
       <c r="L13" s="14" t="inlineStr">
         <is>
-          <t>100m hekk</t>
+          <t>1500m</t>
         </is>
       </c>
       <c r="M13" s="7" t="inlineStr">
         <is>
-          <t>Inger Bergslid</t>
+          <t>Alma Kolberg Hakonardottir</t>
         </is>
       </c>
       <c r="N13" s="7" t="n">
-        <v>2004</v>
-      </c>
-      <c r="O13" s="15" t="n">
-        <v>18.1</v>
+        <v>2006</v>
+      </c>
+      <c r="O13" s="17" t="inlineStr">
+        <is>
+          <t>4,43,08</t>
+        </is>
       </c>
       <c r="P13" s="7" t="n">
-        <v>517</v>
+        <v>706</v>
       </c>
       <c r="Q13" s="7" t="inlineStr">
         <is>
-          <t>Lillehammer</t>
+          <t>Steinkjer</t>
         </is>
       </c>
       <c r="R13" s="16" t="n">
-        <v>18.06</v>
+        <v>4.03</v>
       </c>
       <c r="T13" s="5" t="n"/>
     </row>
@@ -82004,30 +82046,32 @@
       <c r="J14" s="5" t="n"/>
       <c r="L14" s="14" t="inlineStr">
         <is>
-          <t>Høyde</t>
+          <t>3000m</t>
         </is>
       </c>
       <c r="M14" s="7" t="inlineStr">
         <is>
-          <t>Thea Marielle Eidshaug Dahl</t>
+          <t>Alma Kolberg Hakonardottir</t>
         </is>
       </c>
       <c r="N14" s="7" t="n">
-        <v>2009</v>
-      </c>
-      <c r="O14" s="15" t="n">
-        <v>1.46</v>
+        <v>2006</v>
+      </c>
+      <c r="O14" s="17" t="inlineStr">
+        <is>
+          <t>10,04,41</t>
+        </is>
       </c>
       <c r="P14" s="7" t="n">
-        <v>574</v>
+        <v>730</v>
       </c>
       <c r="Q14" s="7" t="inlineStr">
         <is>
-          <t>Overhalla</t>
+          <t>Steinkjer</t>
         </is>
       </c>
       <c r="R14" s="16" t="n">
-        <v>5.07</v>
+        <v>22.01</v>
       </c>
       <c r="T14" s="5" t="n"/>
     </row>
@@ -82064,30 +82108,30 @@
       <c r="J15" s="5" t="n"/>
       <c r="L15" s="14" t="inlineStr">
         <is>
-          <t>Lengde</t>
+          <t>Høyde</t>
         </is>
       </c>
       <c r="M15" s="7" t="inlineStr">
         <is>
-          <t>Sofia Aude Johansen</t>
+          <t>Andrea Betten Lade</t>
         </is>
       </c>
       <c r="N15" s="7" t="n">
-        <v>2008</v>
+        <v>2009</v>
       </c>
       <c r="O15" s="15" t="n">
-        <v>4.67</v>
+        <v>1.48</v>
       </c>
       <c r="P15" s="7" t="n">
-        <v>546</v>
+        <v>591</v>
       </c>
       <c r="Q15" s="7" t="inlineStr">
         <is>
-          <t>Overhalla</t>
+          <t>Steinkjer</t>
         </is>
       </c>
       <c r="R15" s="16" t="n">
-        <v>5.07</v>
+        <v>22.05</v>
       </c>
       <c r="T15" s="5" t="n"/>
     </row>
@@ -82124,30 +82168,30 @@
       <c r="J16" s="5" t="n"/>
       <c r="L16" s="14" t="inlineStr">
         <is>
-          <t>Tresteg</t>
+          <t>Kule</t>
         </is>
       </c>
       <c r="M16" s="7" t="inlineStr">
         <is>
-          <t>Inger Bergslid</t>
+          <t>Kari Rakstang Betten</t>
         </is>
       </c>
       <c r="N16" s="7" t="n">
-        <v>2004</v>
+        <v>1984</v>
       </c>
       <c r="O16" s="15" t="n">
-        <v>10.12</v>
+        <v>9.44</v>
       </c>
       <c r="P16" s="7" t="n">
-        <v>571</v>
+        <v>549</v>
       </c>
       <c r="Q16" s="7" t="inlineStr">
         <is>
-          <t>Namsos</t>
+          <t>Steinkjer</t>
         </is>
       </c>
       <c r="R16" s="16" t="n">
-        <v>1.06</v>
+        <v>3.08</v>
       </c>
       <c r="T16" s="5" t="n"/>
     </row>
@@ -82184,30 +82228,30 @@
       <c r="J17" s="5" t="n"/>
       <c r="L17" s="14" t="inlineStr">
         <is>
-          <t>Kule</t>
+          <t>Slegge</t>
         </is>
       </c>
       <c r="M17" s="7" t="inlineStr">
         <is>
-          <t>Frida Elise Havik</t>
+          <t>Eliska Horvathova</t>
         </is>
       </c>
       <c r="N17" s="7" t="n">
-        <v>2003</v>
+        <v>2004</v>
       </c>
       <c r="O17" s="15" t="n">
-        <v>10.33</v>
+        <v>34.03</v>
       </c>
       <c r="P17" s="7" t="n">
-        <v>615</v>
+        <v>600</v>
       </c>
       <c r="Q17" s="7" t="inlineStr">
         <is>
-          <t>Steinkjer</t>
+          <t>Stjørdal</t>
         </is>
       </c>
       <c r="R17" s="16" t="n">
-        <v>5.03</v>
+        <v>29.05</v>
       </c>
       <c r="T17" s="5" t="n"/>
     </row>
@@ -82375,7 +82419,7 @@
         </is>
       </c>
       <c r="P22" s="21" t="n">
-        <v>5246</v>
+        <v>5437</v>
       </c>
       <c r="T22" s="5" t="n"/>
     </row>
@@ -82508,30 +82552,32 @@
       <c r="J27" s="5" t="n"/>
       <c r="L27" s="14" t="inlineStr">
         <is>
-          <t>100m</t>
+          <t>800m</t>
         </is>
       </c>
       <c r="M27" s="7" t="inlineStr">
         <is>
-          <t>Thea Marielle Eidshaug Dahl</t>
+          <t>Alma Kolberg Hakonardottir</t>
         </is>
       </c>
       <c r="N27" s="7" t="n">
-        <v>2009</v>
-      </c>
-      <c r="O27" s="15" t="n">
-        <v>14</v>
+        <v>2006</v>
+      </c>
+      <c r="O27" s="17" t="inlineStr">
+        <is>
+          <t>2,21,28</t>
+        </is>
       </c>
       <c r="P27" s="7" t="n">
-        <v>510</v>
+        <v>652</v>
       </c>
       <c r="Q27" s="7" t="inlineStr">
         <is>
-          <t>Lillehammer</t>
+          <t>Steinkjer</t>
         </is>
       </c>
       <c r="R27" s="16" t="n">
-        <v>19.06</v>
+        <v>5.03</v>
       </c>
       <c r="T27" s="5" t="n"/>
     </row>
@@ -82568,30 +82614,30 @@
       <c r="J28" s="5" t="n"/>
       <c r="L28" s="14" t="inlineStr">
         <is>
-          <t>60m</t>
+          <t>Kule</t>
         </is>
       </c>
       <c r="M28" s="7" t="inlineStr">
         <is>
-          <t>Charlotte Nilsen Tangen</t>
+          <t>Eliska Horvathova</t>
         </is>
       </c>
       <c r="N28" s="7" t="n">
-        <v>2008</v>
+        <v>2004</v>
       </c>
       <c r="O28" s="15" t="n">
-        <v>8.859999999999999</v>
+        <v>7.77</v>
       </c>
       <c r="P28" s="7" t="n">
-        <v>505</v>
+        <v>410</v>
       </c>
       <c r="Q28" s="7" t="inlineStr">
         <is>
-          <t>Lillehammer</t>
+          <t>Steinkjer</t>
         </is>
       </c>
       <c r="R28" s="16" t="n">
-        <v>18.06</v>
+        <v>22.01</v>
       </c>
       <c r="T28" s="5" t="n"/>
     </row>
@@ -82626,30 +82672,30 @@
       <c r="J29" s="5" t="n"/>
       <c r="L29" s="14" t="inlineStr">
         <is>
-          <t>60m</t>
+          <t>Høyde</t>
         </is>
       </c>
       <c r="M29" s="7" t="inlineStr">
         <is>
-          <t>Thea Marielle Eidshaug Dahl</t>
+          <t>Maria Betten Lade</t>
         </is>
       </c>
       <c r="N29" s="7" t="n">
         <v>2009</v>
       </c>
       <c r="O29" s="15" t="n">
-        <v>8.91</v>
+        <v>1.27</v>
       </c>
       <c r="P29" s="7" t="n">
-        <v>493</v>
+        <v>385</v>
       </c>
       <c r="Q29" s="7" t="inlineStr">
         <is>
-          <t>Lillehammer</t>
+          <t>Steinkjer</t>
         </is>
       </c>
       <c r="R29" s="16" t="n">
-        <v>18.06</v>
+        <v>3.08</v>
       </c>
       <c r="T29" s="5" t="n"/>
     </row>
@@ -82684,30 +82730,30 @@
       <c r="J30" s="5" t="n"/>
       <c r="L30" s="14" t="inlineStr">
         <is>
-          <t>100m</t>
+          <t>60m</t>
         </is>
       </c>
       <c r="M30" s="7" t="inlineStr">
         <is>
-          <t>Charlotte Nilsen Tangen</t>
+          <t>Maria Betten Lade</t>
         </is>
       </c>
       <c r="N30" s="7" t="n">
-        <v>2008</v>
+        <v>2009</v>
       </c>
       <c r="O30" s="15" t="n">
-        <v>14.14</v>
+        <v>9.57</v>
       </c>
       <c r="P30" s="7" t="n">
-        <v>490</v>
+        <v>352</v>
       </c>
       <c r="Q30" s="7" t="inlineStr">
         <is>
-          <t>Lillehammer</t>
+          <t>Steinkjer</t>
         </is>
       </c>
       <c r="R30" s="16" t="n">
-        <v>19.06</v>
+        <v>22.01</v>
       </c>
       <c r="T30" s="5" t="n"/>
     </row>
@@ -82742,30 +82788,32 @@
       <c r="J31" s="5" t="n"/>
       <c r="L31" s="14" t="inlineStr">
         <is>
-          <t>Lengde</t>
+          <t>800m</t>
         </is>
       </c>
       <c r="M31" s="7" t="inlineStr">
         <is>
-          <t>Charlotte Nilsen Tangen</t>
+          <t>Anne Eline Vehus Skjerve</t>
         </is>
       </c>
       <c r="N31" s="7" t="n">
-        <v>2008</v>
-      </c>
-      <c r="O31" s="15" t="n">
-        <v>4.22</v>
+        <v>2006</v>
+      </c>
+      <c r="O31" s="17" t="inlineStr">
+        <is>
+          <t>2,54,81</t>
+        </is>
       </c>
       <c r="P31" s="7" t="n">
-        <v>442</v>
+        <v>344</v>
       </c>
       <c r="Q31" s="7" t="inlineStr">
         <is>
-          <t>Namsos</t>
+          <t>Steinkjer</t>
         </is>
       </c>
       <c r="R31" s="16" t="n">
-        <v>1.06</v>
+        <v>23.01</v>
       </c>
       <c r="T31" s="5" t="n"/>
     </row>
@@ -82805,17 +82853,17 @@
       </c>
       <c r="M32" s="7" t="inlineStr">
         <is>
-          <t>Charlotte Nilsen Tangen</t>
+          <t>Maria Betten Lade</t>
         </is>
       </c>
       <c r="N32" s="7" t="n">
-        <v>2008</v>
+        <v>2009</v>
       </c>
       <c r="O32" s="15" t="n">
-        <v>30.21</v>
+        <v>32.16</v>
       </c>
       <c r="P32" s="7" t="n">
-        <v>439</v>
+        <v>333</v>
       </c>
       <c r="Q32" s="7" t="inlineStr">
         <is>
@@ -82823,7 +82871,7 @@
         </is>
       </c>
       <c r="R32" s="16" t="n">
-        <v>22.05</v>
+        <v>23.01</v>
       </c>
       <c r="T32" s="5" t="n"/>
     </row>
@@ -82856,13 +82904,33 @@
         <v>21.05</v>
       </c>
       <c r="J33" s="5" t="n"/>
-      <c r="L33" s="14" t="n"/>
-      <c r="M33" s="7" t="n"/>
-      <c r="N33" s="7" t="n"/>
-      <c r="O33" s="7" t="n"/>
-      <c r="P33" s="7" t="n"/>
-      <c r="Q33" s="7" t="n"/>
-      <c r="R33" s="18" t="n"/>
+      <c r="L33" s="14" t="inlineStr">
+        <is>
+          <t>60m</t>
+        </is>
+      </c>
+      <c r="M33" s="7" t="inlineStr">
+        <is>
+          <t>Bara Horvathova</t>
+        </is>
+      </c>
+      <c r="N33" s="7" t="n">
+        <v>2010</v>
+      </c>
+      <c r="O33" s="15" t="n">
+        <v>9.84</v>
+      </c>
+      <c r="P33" s="7" t="n">
+        <v>300</v>
+      </c>
+      <c r="Q33" s="7" t="inlineStr">
+        <is>
+          <t>Steinkjer</t>
+        </is>
+      </c>
+      <c r="R33" s="16" t="n">
+        <v>21.05</v>
+      </c>
       <c r="T33" s="5" t="n"/>
     </row>
     <row r="34" ht="13" customHeight="1">
@@ -82945,7 +83013,7 @@
         </is>
       </c>
       <c r="M36" s="21" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="O36" s="20" t="inlineStr">
         <is>
@@ -82953,7 +83021,7 @@
         </is>
       </c>
       <c r="P36" s="21" t="n">
-        <v>2879</v>
+        <v>2776</v>
       </c>
       <c r="T36" s="5" t="n"/>
     </row>
@@ -82985,7 +83053,7 @@
         </is>
       </c>
       <c r="M38" s="21" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="O38" s="20" t="inlineStr">
         <is>
@@ -82993,7 +83061,7 @@
         </is>
       </c>
       <c r="P38" s="21" t="n">
-        <v>8125</v>
+        <v>8213</v>
       </c>
       <c r="T38" s="5" t="n"/>
     </row>
@@ -83017,7 +83085,7 @@
         </is>
       </c>
       <c r="M40" s="21" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="T40" s="5" t="n"/>
     </row>
@@ -83063,7 +83131,7 @@
         </is>
       </c>
       <c r="F44" s="8" t="n">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="J44" s="5" t="n"/>
       <c r="L44" s="6" t="inlineStr">
@@ -83089,7 +83157,7 @@
       </c>
       <c r="C45" s="7" t="inlineStr">
         <is>
-          <t>Verdal Friidrettsklubb</t>
+          <t>Namsen Friidrettsforening</t>
         </is>
       </c>
       <c r="J45" s="5" t="n"/>
@@ -83229,25 +83297,25 @@
       </c>
       <c r="C51" s="7" t="inlineStr">
         <is>
-          <t>Andrea Betten Lade</t>
+          <t>Sofia Aude Johansen</t>
         </is>
       </c>
       <c r="D51" s="7" t="n">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="E51" s="15" t="n">
-        <v>9.119999999999999</v>
+        <v>8.43</v>
       </c>
       <c r="F51" s="7" t="n">
-        <v>446</v>
+        <v>611</v>
       </c>
       <c r="G51" s="7" t="inlineStr">
         <is>
-          <t>Steinkjer</t>
+          <t>Lillehammer</t>
         </is>
       </c>
       <c r="H51" s="16" t="n">
-        <v>22.01</v>
+        <v>18.06</v>
       </c>
       <c r="J51" s="5" t="n"/>
       <c r="L51" s="14" t="inlineStr">
@@ -83282,30 +83350,30 @@
     <row r="52" ht="13" customHeight="1">
       <c r="B52" s="14" t="inlineStr">
         <is>
-          <t>200m</t>
+          <t>100m</t>
         </is>
       </c>
       <c r="C52" s="7" t="inlineStr">
         <is>
-          <t>Andrea Betten Lade</t>
+          <t>Sofia Aude Johansen</t>
         </is>
       </c>
       <c r="D52" s="7" t="n">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="E52" s="15" t="n">
-        <v>30.98</v>
+        <v>13.25</v>
       </c>
       <c r="F52" s="7" t="n">
-        <v>395</v>
+        <v>629</v>
       </c>
       <c r="G52" s="7" t="inlineStr">
         <is>
-          <t>Steinkjer</t>
+          <t>Lillehammer</t>
         </is>
       </c>
       <c r="H52" s="16" t="n">
-        <v>23.01</v>
+        <v>19.06</v>
       </c>
       <c r="J52" s="5" t="n"/>
       <c r="L52" s="14" t="inlineStr">
@@ -83340,30 +83408,30 @@
     <row r="53" ht="13" customHeight="1">
       <c r="B53" s="14" t="inlineStr">
         <is>
-          <t>400m</t>
+          <t>200m</t>
         </is>
       </c>
       <c r="C53" s="7" t="inlineStr">
         <is>
-          <t>Erle Musum Lyng</t>
+          <t>Sofia Aude Johansen</t>
         </is>
       </c>
       <c r="D53" s="7" t="n">
-        <v>2002</v>
+        <v>2008</v>
       </c>
       <c r="E53" s="15" t="n">
-        <v>59.79</v>
+        <v>27.68</v>
       </c>
       <c r="F53" s="7" t="n">
-        <v>686</v>
+        <v>601</v>
       </c>
       <c r="G53" s="7" t="inlineStr">
         <is>
-          <t>Steinkjer</t>
+          <t>Lillehammer</t>
         </is>
       </c>
       <c r="H53" s="16" t="n">
-        <v>19.02</v>
+        <v>16.06</v>
       </c>
       <c r="J53" s="5" t="n"/>
       <c r="L53" s="14" t="inlineStr">
@@ -83403,19 +83471,19 @@
       </c>
       <c r="C54" s="7" t="inlineStr">
         <is>
-          <t>Erle Musum Lyng</t>
+          <t>Inger Bergslid</t>
         </is>
       </c>
       <c r="D54" s="7" t="n">
-        <v>2002</v>
+        <v>2004</v>
       </c>
       <c r="E54" s="17" t="inlineStr">
         <is>
-          <t>2,14,76</t>
+          <t>2,27,66</t>
         </is>
       </c>
       <c r="F54" s="7" t="n">
-        <v>734</v>
+        <v>582</v>
       </c>
       <c r="G54" s="7" t="inlineStr">
         <is>
@@ -83423,7 +83491,7 @@
         </is>
       </c>
       <c r="H54" s="16" t="n">
-        <v>5.03</v>
+        <v>23.01</v>
       </c>
       <c r="J54" s="5" t="n"/>
       <c r="L54" s="14" t="inlineStr">
@@ -83460,32 +83528,30 @@
     <row r="55" ht="13" customHeight="1">
       <c r="B55" s="14" t="inlineStr">
         <is>
-          <t>1500m</t>
+          <t>100m hekk</t>
         </is>
       </c>
       <c r="C55" s="7" t="inlineStr">
         <is>
-          <t>Alma Kolberg Hakonardottir</t>
+          <t>Inger Bergslid</t>
         </is>
       </c>
       <c r="D55" s="7" t="n">
-        <v>2006</v>
-      </c>
-      <c r="E55" s="17" t="inlineStr">
-        <is>
-          <t>4,43,08</t>
-        </is>
+        <v>2004</v>
+      </c>
+      <c r="E55" s="15" t="n">
+        <v>18.1</v>
       </c>
       <c r="F55" s="7" t="n">
-        <v>706</v>
+        <v>517</v>
       </c>
       <c r="G55" s="7" t="inlineStr">
         <is>
-          <t>Steinkjer</t>
+          <t>Lillehammer</t>
         </is>
       </c>
       <c r="H55" s="16" t="n">
-        <v>4.03</v>
+        <v>18.06</v>
       </c>
       <c r="J55" s="5" t="n"/>
       <c r="L55" s="14" t="inlineStr">
@@ -83522,32 +83588,30 @@
     <row r="56" ht="13" customHeight="1">
       <c r="B56" s="14" t="inlineStr">
         <is>
-          <t>3000m</t>
+          <t>Høyde</t>
         </is>
       </c>
       <c r="C56" s="7" t="inlineStr">
         <is>
-          <t>Alma Kolberg Hakonardottir</t>
+          <t>Thea Marielle Eidshaug Dahl</t>
         </is>
       </c>
       <c r="D56" s="7" t="n">
-        <v>2006</v>
-      </c>
-      <c r="E56" s="17" t="inlineStr">
-        <is>
-          <t>10,04,41</t>
-        </is>
+        <v>2009</v>
+      </c>
+      <c r="E56" s="15" t="n">
+        <v>1.46</v>
       </c>
       <c r="F56" s="7" t="n">
-        <v>730</v>
+        <v>574</v>
       </c>
       <c r="G56" s="7" t="inlineStr">
         <is>
-          <t>Steinkjer</t>
+          <t>Overhalla</t>
         </is>
       </c>
       <c r="H56" s="16" t="n">
-        <v>22.01</v>
+        <v>5.07</v>
       </c>
       <c r="J56" s="5" t="n"/>
       <c r="L56" s="14" t="inlineStr">
@@ -83582,30 +83646,30 @@
     <row r="57" ht="13" customHeight="1">
       <c r="B57" s="14" t="inlineStr">
         <is>
-          <t>Høyde</t>
+          <t>Lengde</t>
         </is>
       </c>
       <c r="C57" s="7" t="inlineStr">
         <is>
-          <t>Andrea Betten Lade</t>
+          <t>Sofia Aude Johansen</t>
         </is>
       </c>
       <c r="D57" s="7" t="n">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="E57" s="15" t="n">
-        <v>1.48</v>
+        <v>4.67</v>
       </c>
       <c r="F57" s="7" t="n">
-        <v>591</v>
+        <v>546</v>
       </c>
       <c r="G57" s="7" t="inlineStr">
         <is>
-          <t>Steinkjer</t>
+          <t>Overhalla</t>
         </is>
       </c>
       <c r="H57" s="16" t="n">
-        <v>22.05</v>
+        <v>5.07</v>
       </c>
       <c r="J57" s="5" t="n"/>
       <c r="L57" s="14" t="inlineStr">
@@ -83640,30 +83704,30 @@
     <row r="58" ht="13" customHeight="1">
       <c r="B58" s="14" t="inlineStr">
         <is>
-          <t>Kule</t>
+          <t>Tresteg</t>
         </is>
       </c>
       <c r="C58" s="7" t="inlineStr">
         <is>
-          <t>Eliska Horvathova</t>
+          <t>Inger Bergslid</t>
         </is>
       </c>
       <c r="D58" s="7" t="n">
         <v>2004</v>
       </c>
       <c r="E58" s="15" t="n">
-        <v>7.77</v>
+        <v>10.12</v>
       </c>
       <c r="F58" s="7" t="n">
-        <v>410</v>
+        <v>571</v>
       </c>
       <c r="G58" s="7" t="inlineStr">
         <is>
-          <t>Steinkjer</t>
+          <t>Namsos</t>
         </is>
       </c>
       <c r="H58" s="16" t="n">
-        <v>22.01</v>
+        <v>1.06</v>
       </c>
       <c r="J58" s="5" t="n"/>
       <c r="L58" s="14" t="inlineStr">
@@ -83698,30 +83762,30 @@
     <row r="59" ht="13" customHeight="1">
       <c r="B59" s="14" t="inlineStr">
         <is>
-          <t>Slegge</t>
+          <t>Kule</t>
         </is>
       </c>
       <c r="C59" s="7" t="inlineStr">
         <is>
-          <t>Eliska Horvathova</t>
+          <t>Frida Elise Havik</t>
         </is>
       </c>
       <c r="D59" s="7" t="n">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="E59" s="15" t="n">
-        <v>34.03</v>
+        <v>10.33</v>
       </c>
       <c r="F59" s="7" t="n">
-        <v>600</v>
+        <v>615</v>
       </c>
       <c r="G59" s="7" t="inlineStr">
         <is>
-          <t>Stjørdal</t>
+          <t>Steinkjer</t>
         </is>
       </c>
       <c r="H59" s="16" t="n">
-        <v>29.05</v>
+        <v>5.03</v>
       </c>
       <c r="J59" s="5" t="n"/>
       <c r="L59" s="14" t="n"/>
@@ -83820,7 +83884,7 @@
         </is>
       </c>
       <c r="F64" s="21" t="n">
-        <v>5298</v>
+        <v>5246</v>
       </c>
       <c r="J64" s="5" t="n"/>
       <c r="L64" s="20" t="inlineStr">
@@ -83940,32 +84004,30 @@
     <row r="69" ht="13" customHeight="1">
       <c r="B69" s="14" t="inlineStr">
         <is>
-          <t>800m</t>
+          <t>100m</t>
         </is>
       </c>
       <c r="C69" s="7" t="inlineStr">
         <is>
-          <t>Alma Kolberg Hakonardottir</t>
+          <t>Thea Marielle Eidshaug Dahl</t>
         </is>
       </c>
       <c r="D69" s="7" t="n">
-        <v>2006</v>
-      </c>
-      <c r="E69" s="17" t="inlineStr">
-        <is>
-          <t>2,21,28</t>
-        </is>
+        <v>2009</v>
+      </c>
+      <c r="E69" s="15" t="n">
+        <v>14</v>
       </c>
       <c r="F69" s="7" t="n">
-        <v>652</v>
+        <v>510</v>
       </c>
       <c r="G69" s="7" t="inlineStr">
         <is>
-          <t>Steinkjer</t>
+          <t>Lillehammer</t>
         </is>
       </c>
       <c r="H69" s="16" t="n">
-        <v>5.03</v>
+        <v>19.06</v>
       </c>
       <c r="J69" s="5" t="n"/>
       <c r="L69" s="14" t="inlineStr">
@@ -84007,25 +84069,25 @@
       </c>
       <c r="C70" s="7" t="inlineStr">
         <is>
-          <t>Maria Betten Lade</t>
+          <t>Charlotte Nilsen Tangen</t>
         </is>
       </c>
       <c r="D70" s="7" t="n">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="E70" s="15" t="n">
-        <v>9.57</v>
+        <v>8.859999999999999</v>
       </c>
       <c r="F70" s="7" t="n">
-        <v>352</v>
+        <v>505</v>
       </c>
       <c r="G70" s="7" t="inlineStr">
         <is>
-          <t>Steinkjer</t>
+          <t>Lillehammer</t>
         </is>
       </c>
       <c r="H70" s="16" t="n">
-        <v>22.01</v>
+        <v>18.06</v>
       </c>
       <c r="J70" s="5" t="n"/>
       <c r="L70" s="14" t="inlineStr">
@@ -84062,32 +84124,30 @@
     <row r="71" ht="13" customHeight="1">
       <c r="B71" s="14" t="inlineStr">
         <is>
-          <t>800m</t>
+          <t>60m</t>
         </is>
       </c>
       <c r="C71" s="7" t="inlineStr">
         <is>
-          <t>Anne Eline Vehus Skjerve</t>
+          <t>Thea Marielle Eidshaug Dahl</t>
         </is>
       </c>
       <c r="D71" s="7" t="n">
-        <v>2006</v>
-      </c>
-      <c r="E71" s="17" t="inlineStr">
-        <is>
-          <t>2,54,81</t>
-        </is>
+        <v>2009</v>
+      </c>
+      <c r="E71" s="15" t="n">
+        <v>8.91</v>
       </c>
       <c r="F71" s="7" t="n">
-        <v>344</v>
+        <v>493</v>
       </c>
       <c r="G71" s="7" t="inlineStr">
         <is>
-          <t>Steinkjer</t>
+          <t>Lillehammer</t>
         </is>
       </c>
       <c r="H71" s="16" t="n">
-        <v>23.01</v>
+        <v>18.06</v>
       </c>
       <c r="J71" s="5" t="n"/>
       <c r="L71" s="14" t="inlineStr">
@@ -84122,30 +84182,30 @@
     <row r="72" ht="13" customHeight="1">
       <c r="B72" s="14" t="inlineStr">
         <is>
-          <t>200m</t>
+          <t>100m</t>
         </is>
       </c>
       <c r="C72" s="7" t="inlineStr">
         <is>
-          <t>Maria Betten Lade</t>
+          <t>Charlotte Nilsen Tangen</t>
         </is>
       </c>
       <c r="D72" s="7" t="n">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="E72" s="15" t="n">
-        <v>32.16</v>
+        <v>14.14</v>
       </c>
       <c r="F72" s="7" t="n">
-        <v>333</v>
+        <v>490</v>
       </c>
       <c r="G72" s="7" t="inlineStr">
         <is>
-          <t>Steinkjer</t>
+          <t>Lillehammer</t>
         </is>
       </c>
       <c r="H72" s="16" t="n">
-        <v>23.01</v>
+        <v>19.06</v>
       </c>
       <c r="J72" s="5" t="n"/>
       <c r="L72" s="14" t="inlineStr">
@@ -84180,30 +84240,30 @@
     <row r="73" ht="13" customHeight="1">
       <c r="B73" s="14" t="inlineStr">
         <is>
-          <t>60m</t>
+          <t>Lengde</t>
         </is>
       </c>
       <c r="C73" s="7" t="inlineStr">
         <is>
-          <t>Bara Horvathova</t>
+          <t>Charlotte Nilsen Tangen</t>
         </is>
       </c>
       <c r="D73" s="7" t="n">
-        <v>2010</v>
+        <v>2008</v>
       </c>
       <c r="E73" s="15" t="n">
-        <v>9.84</v>
+        <v>4.22</v>
       </c>
       <c r="F73" s="7" t="n">
-        <v>300</v>
+        <v>442</v>
       </c>
       <c r="G73" s="7" t="inlineStr">
         <is>
-          <t>Steinkjer</t>
+          <t>Namsos</t>
         </is>
       </c>
       <c r="H73" s="16" t="n">
-        <v>21.05</v>
+        <v>1.06</v>
       </c>
       <c r="J73" s="5" t="n"/>
       <c r="L73" s="14" t="inlineStr">
@@ -84236,13 +84296,33 @@
       <c r="T73" s="5" t="n"/>
     </row>
     <row r="74" ht="13" customHeight="1">
-      <c r="B74" s="14" t="n"/>
-      <c r="C74" s="7" t="n"/>
-      <c r="D74" s="7" t="n"/>
-      <c r="E74" s="7" t="n"/>
-      <c r="F74" s="7" t="n"/>
-      <c r="G74" s="7" t="n"/>
-      <c r="H74" s="18" t="n"/>
+      <c r="B74" s="14" t="inlineStr">
+        <is>
+          <t>200m</t>
+        </is>
+      </c>
+      <c r="C74" s="7" t="inlineStr">
+        <is>
+          <t>Charlotte Nilsen Tangen</t>
+        </is>
+      </c>
+      <c r="D74" s="7" t="n">
+        <v>2008</v>
+      </c>
+      <c r="E74" s="15" t="n">
+        <v>30.21</v>
+      </c>
+      <c r="F74" s="7" t="n">
+        <v>439</v>
+      </c>
+      <c r="G74" s="7" t="inlineStr">
+        <is>
+          <t>Steinkjer</t>
+        </is>
+      </c>
+      <c r="H74" s="16" t="n">
+        <v>22.05</v>
+      </c>
       <c r="J74" s="5" t="n"/>
       <c r="L74" s="14" t="inlineStr">
         <is>
@@ -84354,7 +84434,7 @@
         </is>
       </c>
       <c r="C78" s="21" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E78" s="20" t="inlineStr">
         <is>
@@ -84362,7 +84442,7 @@
         </is>
       </c>
       <c r="F78" s="21" t="n">
-        <v>1981</v>
+        <v>2879</v>
       </c>
       <c r="J78" s="5" t="n"/>
       <c r="L78" s="20" t="inlineStr">
@@ -84394,7 +84474,7 @@
         </is>
       </c>
       <c r="C80" s="21" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E80" s="20" t="inlineStr">
         <is>
@@ -84402,7 +84482,7 @@
         </is>
       </c>
       <c r="F80" s="21" t="n">
-        <v>7279</v>
+        <v>8125</v>
       </c>
       <c r="J80" s="5" t="n"/>
       <c r="L80" s="20" t="inlineStr">
@@ -84434,7 +84514,7 @@
         </is>
       </c>
       <c r="C82" s="21" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J82" s="5" t="n"/>
       <c r="L82" s="20" t="inlineStr">

--- a/output/Lagserien 2022 kvinner 3. div.xlsx
+++ b/output/Lagserien 2022 kvinner 3. div.xlsx
@@ -971,16 +971,16 @@
       </c>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>Varegg IL</t>
+          <t>IK Hind</t>
         </is>
       </c>
       <c r="C16" s="3" t="inlineStr">
         <is>
-          <t>(16/9)</t>
+          <t>(19/9)</t>
         </is>
       </c>
       <c r="D16" s="3" t="n">
-        <v>10334</v>
+        <v>10341</v>
       </c>
       <c r="E16" s="4" t="inlineStr">
         <is>
@@ -989,7 +989,7 @@
       </c>
       <c r="F16" s="3" t="inlineStr">
         <is>
-          <t>Hordaland</t>
+          <t>Troms</t>
         </is>
       </c>
     </row>
@@ -999,16 +999,16 @@
       </c>
       <c r="B17" s="3" t="inlineStr">
         <is>
-          <t>Fagernes IL</t>
+          <t>Varegg IL</t>
         </is>
       </c>
       <c r="C17" s="3" t="inlineStr">
         <is>
-          <t>(16/5)</t>
+          <t>(16/9)</t>
         </is>
       </c>
       <c r="D17" s="3" t="n">
-        <v>10292</v>
+        <v>10334</v>
       </c>
       <c r="E17" s="4" t="inlineStr">
         <is>
@@ -1017,7 +1017,7 @@
       </c>
       <c r="F17" s="3" t="inlineStr">
         <is>
-          <t>Innlandet</t>
+          <t>Hordaland</t>
         </is>
       </c>
     </row>
@@ -1027,16 +1027,16 @@
       </c>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>IL Gular</t>
+          <t>Fagernes IL</t>
         </is>
       </c>
       <c r="C18" s="3" t="inlineStr">
         <is>
-          <t>(13/6)</t>
+          <t>(16/5)</t>
         </is>
       </c>
       <c r="D18" s="3" t="n">
-        <v>10257</v>
+        <v>10292</v>
       </c>
       <c r="E18" s="4" t="inlineStr">
         <is>
@@ -1045,7 +1045,7 @@
       </c>
       <c r="F18" s="3" t="inlineStr">
         <is>
-          <t>Hordaland</t>
+          <t>Innlandet</t>
         </is>
       </c>
     </row>
@@ -1055,16 +1055,16 @@
       </c>
       <c r="B19" s="3" t="inlineStr">
         <is>
-          <t>IK Hind</t>
+          <t>IL Gular</t>
         </is>
       </c>
       <c r="C19" s="3" t="inlineStr">
         <is>
-          <t>(19/9)</t>
+          <t>(13/6)</t>
         </is>
       </c>
       <c r="D19" s="3" t="n">
-        <v>10254</v>
+        <v>10257</v>
       </c>
       <c r="E19" s="4" t="inlineStr">
         <is>
@@ -1073,7 +1073,7 @@
       </c>
       <c r="F19" s="3" t="inlineStr">
         <is>
-          <t>Troms</t>
+          <t>Hordaland</t>
         </is>
       </c>
     </row>
@@ -1531,16 +1531,16 @@
       </c>
       <c r="B36" s="3" t="inlineStr">
         <is>
-          <t>Sortland Friidrettsklubb</t>
+          <t>Namsen Friidrettsforening</t>
         </is>
       </c>
       <c r="C36" s="3" t="inlineStr">
         <is>
-          <t>(18/6)</t>
+          <t>(16/5)</t>
         </is>
       </c>
       <c r="D36" s="3" t="n">
-        <v>8578</v>
+        <v>8643</v>
       </c>
       <c r="E36" s="4" t="inlineStr">
         <is>
@@ -1549,7 +1549,7 @@
       </c>
       <c r="F36" s="3" t="inlineStr">
         <is>
-          <t>Troms</t>
+          <t>Nord-Trøndelag</t>
         </is>
       </c>
     </row>
@@ -1559,16 +1559,16 @@
       </c>
       <c r="B37" s="3" t="inlineStr">
         <is>
-          <t>Otra IL</t>
+          <t>Sortland Friidrettsklubb</t>
         </is>
       </c>
       <c r="C37" s="3" t="inlineStr">
         <is>
-          <t>(14/6)</t>
+          <t>(18/6)</t>
         </is>
       </c>
       <c r="D37" s="3" t="n">
-        <v>8567</v>
+        <v>8578</v>
       </c>
       <c r="E37" s="4" t="inlineStr">
         <is>
@@ -1577,7 +1577,7 @@
       </c>
       <c r="F37" s="3" t="inlineStr">
         <is>
-          <t>Agder</t>
+          <t>Troms</t>
         </is>
       </c>
     </row>
@@ -1587,16 +1587,16 @@
       </c>
       <c r="B38" s="3" t="inlineStr">
         <is>
-          <t>FIK Orion</t>
+          <t>Otra IL</t>
         </is>
       </c>
       <c r="C38" s="3" t="inlineStr">
         <is>
-          <t>(13/6)</t>
+          <t>(14/6)</t>
         </is>
       </c>
       <c r="D38" s="3" t="n">
-        <v>8540</v>
+        <v>8567</v>
       </c>
       <c r="E38" s="4" t="inlineStr">
         <is>
@@ -1605,7 +1605,7 @@
       </c>
       <c r="F38" s="3" t="inlineStr">
         <is>
-          <t>Innlandet</t>
+          <t>Agder</t>
         </is>
       </c>
     </row>
@@ -1615,16 +1615,16 @@
       </c>
       <c r="B39" s="3" t="inlineStr">
         <is>
-          <t>Bardu IL</t>
+          <t>FIK Orion</t>
         </is>
       </c>
       <c r="C39" s="3" t="inlineStr">
         <is>
-          <t>(19/8)</t>
+          <t>(13/6)</t>
         </is>
       </c>
       <c r="D39" s="3" t="n">
-        <v>8432</v>
+        <v>8540</v>
       </c>
       <c r="E39" s="4" t="inlineStr">
         <is>
@@ -1633,7 +1633,7 @@
       </c>
       <c r="F39" s="3" t="inlineStr">
         <is>
-          <t>Troms</t>
+          <t>Innlandet</t>
         </is>
       </c>
     </row>
@@ -1643,16 +1643,16 @@
       </c>
       <c r="B40" s="3" t="inlineStr">
         <is>
-          <t>Sem IF</t>
+          <t>Bardu IL</t>
         </is>
       </c>
       <c r="C40" s="3" t="inlineStr">
         <is>
-          <t>(14/6)</t>
+          <t>(19/8)</t>
         </is>
       </c>
       <c r="D40" s="3" t="n">
-        <v>8408</v>
+        <v>8432</v>
       </c>
       <c r="E40" s="4" t="inlineStr">
         <is>
@@ -1661,7 +1661,7 @@
       </c>
       <c r="F40" s="3" t="inlineStr">
         <is>
-          <t>Vestfold</t>
+          <t>Troms</t>
         </is>
       </c>
     </row>
@@ -1671,16 +1671,16 @@
       </c>
       <c r="B41" s="3" t="inlineStr">
         <is>
-          <t>Snøgg Friidrett</t>
+          <t>Sem IF</t>
         </is>
       </c>
       <c r="C41" s="3" t="inlineStr">
         <is>
-          <t>(18/8)</t>
+          <t>(14/6)</t>
         </is>
       </c>
       <c r="D41" s="3" t="n">
-        <v>8384</v>
+        <v>8408</v>
       </c>
       <c r="E41" s="4" t="inlineStr">
         <is>
@@ -1689,7 +1689,7 @@
       </c>
       <c r="F41" s="3" t="inlineStr">
         <is>
-          <t>Telemark</t>
+          <t>Vestfold</t>
         </is>
       </c>
     </row>
@@ -1699,16 +1699,16 @@
       </c>
       <c r="B42" s="3" t="inlineStr">
         <is>
-          <t>IL Norodd</t>
+          <t>Snøgg Friidrett</t>
         </is>
       </c>
       <c r="C42" s="3" t="inlineStr">
         <is>
-          <t>(17/7)</t>
+          <t>(18/8)</t>
         </is>
       </c>
       <c r="D42" s="3" t="n">
-        <v>8358</v>
+        <v>8384</v>
       </c>
       <c r="E42" s="4" t="inlineStr">
         <is>
@@ -1717,7 +1717,7 @@
       </c>
       <c r="F42" s="3" t="inlineStr">
         <is>
-          <t>Møre og Romsdal</t>
+          <t>Telemark</t>
         </is>
       </c>
     </row>
@@ -1727,16 +1727,16 @@
       </c>
       <c r="B43" s="3" t="inlineStr">
         <is>
-          <t>Sandnessjøen IL</t>
+          <t>IL Norodd</t>
         </is>
       </c>
       <c r="C43" s="3" t="inlineStr">
         <is>
-          <t>(16/5)</t>
+          <t>(17/7)</t>
         </is>
       </c>
       <c r="D43" s="3" t="n">
-        <v>8252</v>
+        <v>8358</v>
       </c>
       <c r="E43" s="4" t="inlineStr">
         <is>
@@ -1745,7 +1745,7 @@
       </c>
       <c r="F43" s="3" t="inlineStr">
         <is>
-          <t>Nordland</t>
+          <t>Møre og Romsdal</t>
         </is>
       </c>
     </row>
@@ -1755,16 +1755,16 @@
       </c>
       <c r="B44" s="3" t="inlineStr">
         <is>
-          <t>Namsen Friidrettsforening</t>
+          <t>Målselv IL</t>
         </is>
       </c>
       <c r="C44" s="3" t="inlineStr">
         <is>
-          <t>(15/5)</t>
+          <t>(18/6)</t>
         </is>
       </c>
       <c r="D44" s="3" t="n">
-        <v>8125</v>
+        <v>8280</v>
       </c>
       <c r="E44" s="4" t="inlineStr">
         <is>
@@ -1773,7 +1773,7 @@
       </c>
       <c r="F44" s="3" t="inlineStr">
         <is>
-          <t>Nord-Trøndelag</t>
+          <t>Troms</t>
         </is>
       </c>
     </row>
@@ -1783,16 +1783,16 @@
       </c>
       <c r="B45" s="3" t="inlineStr">
         <is>
-          <t>Brandbu IF</t>
+          <t>Sandnessjøen IL</t>
         </is>
       </c>
       <c r="C45" s="3" t="inlineStr">
         <is>
-          <t>(18/8)</t>
+          <t>(16/5)</t>
         </is>
       </c>
       <c r="D45" s="3" t="n">
-        <v>8104</v>
+        <v>8252</v>
       </c>
       <c r="E45" s="4" t="inlineStr">
         <is>
@@ -1801,7 +1801,7 @@
       </c>
       <c r="F45" s="3" t="inlineStr">
         <is>
-          <t>Innlandet</t>
+          <t>Nordland</t>
         </is>
       </c>
     </row>
@@ -1811,16 +1811,16 @@
       </c>
       <c r="B46" s="3" t="inlineStr">
         <is>
-          <t>Oppegård IL</t>
+          <t>Brandbu IF</t>
         </is>
       </c>
       <c r="C46" s="3" t="inlineStr">
         <is>
-          <t>(13/6)</t>
+          <t>(18/8)</t>
         </is>
       </c>
       <c r="D46" s="3" t="n">
-        <v>8011</v>
+        <v>8105</v>
       </c>
       <c r="E46" s="4" t="inlineStr">
         <is>
@@ -1829,7 +1829,7 @@
       </c>
       <c r="F46" s="3" t="inlineStr">
         <is>
-          <t>Akershus</t>
+          <t>Innlandet</t>
         </is>
       </c>
     </row>
@@ -1839,16 +1839,16 @@
       </c>
       <c r="B47" s="3" t="inlineStr">
         <is>
-          <t>Tingvoll FIK</t>
+          <t>Oppegård IL</t>
         </is>
       </c>
       <c r="C47" s="3" t="inlineStr">
         <is>
-          <t>(14/4)</t>
+          <t>(13/6)</t>
         </is>
       </c>
       <c r="D47" s="3" t="n">
-        <v>7977</v>
+        <v>8011</v>
       </c>
       <c r="E47" s="4" t="inlineStr">
         <is>
@@ -1857,7 +1857,7 @@
       </c>
       <c r="F47" s="3" t="inlineStr">
         <is>
-          <t>Møre og Romsdal</t>
+          <t>Akershus</t>
         </is>
       </c>
     </row>
@@ -1867,16 +1867,16 @@
       </c>
       <c r="B48" s="3" t="inlineStr">
         <is>
-          <t>Jardar IL</t>
+          <t>Tingvoll FIK</t>
         </is>
       </c>
       <c r="C48" s="3" t="inlineStr">
         <is>
-          <t>(15/6)</t>
+          <t>(14/4)</t>
         </is>
       </c>
       <c r="D48" s="3" t="n">
-        <v>7910</v>
+        <v>7977</v>
       </c>
       <c r="E48" s="4" t="inlineStr">
         <is>
@@ -1885,7 +1885,7 @@
       </c>
       <c r="F48" s="3" t="inlineStr">
         <is>
-          <t>Akershus</t>
+          <t>Møre og Romsdal</t>
         </is>
       </c>
     </row>
@@ -1895,16 +1895,16 @@
       </c>
       <c r="B49" s="3" t="inlineStr">
         <is>
-          <t>Florø Turn og IF</t>
+          <t>Jardar IL</t>
         </is>
       </c>
       <c r="C49" s="3" t="inlineStr">
         <is>
-          <t>(15/7)</t>
+          <t>(15/6)</t>
         </is>
       </c>
       <c r="D49" s="3" t="n">
-        <v>7821</v>
+        <v>7910</v>
       </c>
       <c r="E49" s="4" t="inlineStr">
         <is>
@@ -1913,7 +1913,7 @@
       </c>
       <c r="F49" s="3" t="inlineStr">
         <is>
-          <t>Sogn og Fjordane</t>
+          <t>Akershus</t>
         </is>
       </c>
     </row>
@@ -1923,16 +1923,16 @@
       </c>
       <c r="B50" s="3" t="inlineStr">
         <is>
-          <t>Målselv IL</t>
+          <t>Florø Turn og IF</t>
         </is>
       </c>
       <c r="C50" s="3" t="inlineStr">
         <is>
-          <t>(16/6)</t>
+          <t>(15/6)</t>
         </is>
       </c>
       <c r="D50" s="3" t="n">
-        <v>7813</v>
+        <v>7872</v>
       </c>
       <c r="E50" s="4" t="inlineStr">
         <is>
@@ -1941,7 +1941,7 @@
       </c>
       <c r="F50" s="3" t="inlineStr">
         <is>
-          <t>Troms</t>
+          <t>Sogn og Fjordane</t>
         </is>
       </c>
     </row>
@@ -2147,16 +2147,16 @@
       </c>
       <c r="B58" s="3" t="inlineStr">
         <is>
-          <t>Ski IL Friidrett</t>
+          <t>Førde IL Friidrett</t>
         </is>
       </c>
       <c r="C58" s="3" t="inlineStr">
         <is>
-          <t>(15/5)</t>
+          <t>(13/9)</t>
         </is>
       </c>
       <c r="D58" s="3" t="n">
-        <v>6955</v>
+        <v>7010</v>
       </c>
       <c r="E58" s="4" t="inlineStr">
         <is>
@@ -2165,7 +2165,7 @@
       </c>
       <c r="F58" s="3" t="inlineStr">
         <is>
-          <t>Akershus</t>
+          <t>Sogn og Fjordane</t>
         </is>
       </c>
     </row>
@@ -2175,16 +2175,16 @@
       </c>
       <c r="B59" s="3" t="inlineStr">
         <is>
-          <t>Moelven IL</t>
+          <t>Ski IL Friidrett</t>
         </is>
       </c>
       <c r="C59" s="3" t="inlineStr">
         <is>
-          <t>(10/4)</t>
+          <t>(15/5)</t>
         </is>
       </c>
       <c r="D59" s="3" t="n">
-        <v>6946</v>
+        <v>6955</v>
       </c>
       <c r="E59" s="4" t="inlineStr">
         <is>
@@ -2193,7 +2193,7 @@
       </c>
       <c r="F59" s="3" t="inlineStr">
         <is>
-          <t>Innlandet</t>
+          <t>Akershus</t>
         </is>
       </c>
     </row>
@@ -2203,12 +2203,12 @@
       </c>
       <c r="B60" s="3" t="inlineStr">
         <is>
-          <t>Sandefjord Turn &amp; IF</t>
+          <t>Moelven IL</t>
         </is>
       </c>
       <c r="C60" s="3" t="inlineStr">
         <is>
-          <t>(15/6)</t>
+          <t>(10/4)</t>
         </is>
       </c>
       <c r="D60" s="3" t="n">
@@ -2221,7 +2221,7 @@
       </c>
       <c r="F60" s="3" t="inlineStr">
         <is>
-          <t>Vestfold</t>
+          <t>Innlandet</t>
         </is>
       </c>
     </row>
@@ -2231,16 +2231,16 @@
       </c>
       <c r="B61" s="3" t="inlineStr">
         <is>
-          <t>IL Gular 2. lag</t>
+          <t>Sandefjord Turn &amp; IF</t>
         </is>
       </c>
       <c r="C61" s="3" t="inlineStr">
         <is>
-          <t>(11/6)</t>
+          <t>(15/6)</t>
         </is>
       </c>
       <c r="D61" s="3" t="n">
-        <v>6858</v>
+        <v>6946</v>
       </c>
       <c r="E61" s="4" t="inlineStr">
         <is>
@@ -2249,7 +2249,7 @@
       </c>
       <c r="F61" s="3" t="inlineStr">
         <is>
-          <t>Hordaland</t>
+          <t>Vestfold</t>
         </is>
       </c>
     </row>
@@ -2259,16 +2259,16 @@
       </c>
       <c r="B62" s="3" t="inlineStr">
         <is>
-          <t>Hinna IL</t>
+          <t>IL Gular 2. lag</t>
         </is>
       </c>
       <c r="C62" s="3" t="inlineStr">
         <is>
-          <t>(17/7)</t>
+          <t>(11/6)</t>
         </is>
       </c>
       <c r="D62" s="3" t="n">
-        <v>6848</v>
+        <v>6858</v>
       </c>
       <c r="E62" s="4" t="inlineStr">
         <is>
@@ -2277,7 +2277,7 @@
       </c>
       <c r="F62" s="3" t="inlineStr">
         <is>
-          <t>Rogaland</t>
+          <t>Hordaland</t>
         </is>
       </c>
     </row>
@@ -2287,16 +2287,16 @@
       </c>
       <c r="B63" s="3" t="inlineStr">
         <is>
-          <t>Eidanger Idrettslag</t>
+          <t>Stadsbygd IL</t>
         </is>
       </c>
       <c r="C63" s="3" t="inlineStr">
         <is>
-          <t>(10/4)</t>
+          <t>(13/6)</t>
         </is>
       </c>
       <c r="D63" s="3" t="n">
-        <v>6773</v>
+        <v>6856</v>
       </c>
       <c r="E63" s="4" t="inlineStr">
         <is>
@@ -2305,7 +2305,7 @@
       </c>
       <c r="F63" s="3" t="inlineStr">
         <is>
-          <t>Telemark</t>
+          <t>Sør-Trøndelag</t>
         </is>
       </c>
     </row>
@@ -2315,16 +2315,16 @@
       </c>
       <c r="B64" s="3" t="inlineStr">
         <is>
-          <t>Voss IL</t>
+          <t>Hinna IL</t>
         </is>
       </c>
       <c r="C64" s="3" t="inlineStr">
         <is>
-          <t>(18/5)</t>
+          <t>(17/7)</t>
         </is>
       </c>
       <c r="D64" s="3" t="n">
-        <v>6759</v>
+        <v>6848</v>
       </c>
       <c r="E64" s="4" t="inlineStr">
         <is>
@@ -2333,7 +2333,7 @@
       </c>
       <c r="F64" s="3" t="inlineStr">
         <is>
-          <t>Hordaland</t>
+          <t>Rogaland</t>
         </is>
       </c>
     </row>
@@ -2343,16 +2343,16 @@
       </c>
       <c r="B65" s="3" t="inlineStr">
         <is>
-          <t>Ringerike Friidrettsklubb</t>
+          <t>Eidanger Idrettslag</t>
         </is>
       </c>
       <c r="C65" s="3" t="inlineStr">
         <is>
-          <t>(12/5)</t>
+          <t>(10/4)</t>
         </is>
       </c>
       <c r="D65" s="3" t="n">
-        <v>6759</v>
+        <v>6773</v>
       </c>
       <c r="E65" s="4" t="inlineStr">
         <is>
@@ -2361,7 +2361,7 @@
       </c>
       <c r="F65" s="3" t="inlineStr">
         <is>
-          <t>Buskerud</t>
+          <t>Telemark</t>
         </is>
       </c>
     </row>
@@ -2371,16 +2371,16 @@
       </c>
       <c r="B66" s="3" t="inlineStr">
         <is>
-          <t>Herkules Friidrett 2. lag</t>
+          <t>Voss IL</t>
         </is>
       </c>
       <c r="C66" s="3" t="inlineStr">
         <is>
-          <t>(16/8)</t>
+          <t>(18/5)</t>
         </is>
       </c>
       <c r="D66" s="3" t="n">
-        <v>6666</v>
+        <v>6759</v>
       </c>
       <c r="E66" s="4" t="inlineStr">
         <is>
@@ -2389,7 +2389,7 @@
       </c>
       <c r="F66" s="3" t="inlineStr">
         <is>
-          <t>Telemark</t>
+          <t>Hordaland</t>
         </is>
       </c>
     </row>
@@ -2399,16 +2399,16 @@
       </c>
       <c r="B67" s="3" t="inlineStr">
         <is>
-          <t>Varegg IL 2. lag</t>
+          <t>Ringerike Friidrettsklubb</t>
         </is>
       </c>
       <c r="C67" s="3" t="inlineStr">
         <is>
-          <t>(13/9)</t>
+          <t>(12/5)</t>
         </is>
       </c>
       <c r="D67" s="3" t="n">
-        <v>6611</v>
+        <v>6759</v>
       </c>
       <c r="E67" s="4" t="inlineStr">
         <is>
@@ -2417,7 +2417,7 @@
       </c>
       <c r="F67" s="3" t="inlineStr">
         <is>
-          <t>Hordaland</t>
+          <t>Buskerud</t>
         </is>
       </c>
     </row>
@@ -2427,16 +2427,16 @@
       </c>
       <c r="B68" s="3" t="inlineStr">
         <is>
-          <t>Egersunds IK</t>
+          <t>IL Fri</t>
         </is>
       </c>
       <c r="C68" s="3" t="inlineStr">
         <is>
-          <t>(16/10)</t>
+          <t>(14/10)</t>
         </is>
       </c>
       <c r="D68" s="3" t="n">
-        <v>6575</v>
+        <v>6683</v>
       </c>
       <c r="E68" s="4" t="inlineStr">
         <is>
@@ -2445,7 +2445,7 @@
       </c>
       <c r="F68" s="3" t="inlineStr">
         <is>
-          <t>Rogaland</t>
+          <t>Hordaland</t>
         </is>
       </c>
     </row>
@@ -2455,16 +2455,16 @@
       </c>
       <c r="B69" s="3" t="inlineStr">
         <is>
-          <t>Drøbak-Frogn IL Friidrett</t>
+          <t>Herkules Friidrett 2. lag</t>
         </is>
       </c>
       <c r="C69" s="3" t="inlineStr">
         <is>
-          <t>(15/9)</t>
+          <t>(16/8)</t>
         </is>
       </c>
       <c r="D69" s="3" t="n">
-        <v>6448</v>
+        <v>6666</v>
       </c>
       <c r="E69" s="4" t="inlineStr">
         <is>
@@ -2473,7 +2473,7 @@
       </c>
       <c r="F69" s="3" t="inlineStr">
         <is>
-          <t>Akershus</t>
+          <t>Telemark</t>
         </is>
       </c>
     </row>
@@ -2483,16 +2483,16 @@
       </c>
       <c r="B70" s="3" t="inlineStr">
         <is>
-          <t>T&amp;IF Viking</t>
+          <t>Varegg IL 2. lag</t>
         </is>
       </c>
       <c r="C70" s="3" t="inlineStr">
         <is>
-          <t>(13/5)</t>
+          <t>(13/9)</t>
         </is>
       </c>
       <c r="D70" s="3" t="n">
-        <v>6434</v>
+        <v>6611</v>
       </c>
       <c r="E70" s="4" t="inlineStr">
         <is>
@@ -2511,16 +2511,16 @@
       </c>
       <c r="B71" s="3" t="inlineStr">
         <is>
-          <t>Førde IL Friidrett</t>
+          <t>Egersunds IK</t>
         </is>
       </c>
       <c r="C71" s="3" t="inlineStr">
         <is>
-          <t>(12/8)</t>
+          <t>(16/10)</t>
         </is>
       </c>
       <c r="D71" s="3" t="n">
-        <v>6429</v>
+        <v>6575</v>
       </c>
       <c r="E71" s="4" t="inlineStr">
         <is>
@@ -2529,7 +2529,7 @@
       </c>
       <c r="F71" s="3" t="inlineStr">
         <is>
-          <t>Sogn og Fjordane</t>
+          <t>Rogaland</t>
         </is>
       </c>
     </row>
@@ -2539,16 +2539,16 @@
       </c>
       <c r="B72" s="3" t="inlineStr">
         <is>
-          <t>Bækkelagets SK 2. lag</t>
+          <t>Drøbak-Frogn IL Friidrett</t>
         </is>
       </c>
       <c r="C72" s="3" t="inlineStr">
         <is>
-          <t>(15/10)</t>
+          <t>(15/9)</t>
         </is>
       </c>
       <c r="D72" s="3" t="n">
-        <v>6361</v>
+        <v>6448</v>
       </c>
       <c r="E72" s="4" t="inlineStr">
         <is>
@@ -2557,7 +2557,7 @@
       </c>
       <c r="F72" s="3" t="inlineStr">
         <is>
-          <t>Oslo</t>
+          <t>Akershus</t>
         </is>
       </c>
     </row>
@@ -2567,16 +2567,16 @@
       </c>
       <c r="B73" s="3" t="inlineStr">
         <is>
-          <t>Sportsklubben Vidar 3. lag</t>
+          <t>T&amp;IF Viking</t>
         </is>
       </c>
       <c r="C73" s="3" t="inlineStr">
         <is>
-          <t>(11/7)</t>
+          <t>(13/5)</t>
         </is>
       </c>
       <c r="D73" s="3" t="n">
-        <v>6311</v>
+        <v>6434</v>
       </c>
       <c r="E73" s="4" t="inlineStr">
         <is>
@@ -2585,7 +2585,7 @@
       </c>
       <c r="F73" s="3" t="inlineStr">
         <is>
-          <t>Oslo</t>
+          <t>Hordaland</t>
         </is>
       </c>
     </row>
@@ -2595,16 +2595,16 @@
       </c>
       <c r="B74" s="3" t="inlineStr">
         <is>
-          <t>Stadsbygd IL</t>
+          <t>Bækkelagets SK 2. lag</t>
         </is>
       </c>
       <c r="C74" s="3" t="inlineStr">
         <is>
-          <t>(12/6)</t>
+          <t>(15/10)</t>
         </is>
       </c>
       <c r="D74" s="3" t="n">
-        <v>6291</v>
+        <v>6361</v>
       </c>
       <c r="E74" s="4" t="inlineStr">
         <is>
@@ -2613,7 +2613,7 @@
       </c>
       <c r="F74" s="3" t="inlineStr">
         <is>
-          <t>Sør-Trøndelag</t>
+          <t>Oslo</t>
         </is>
       </c>
     </row>
@@ -2623,16 +2623,16 @@
       </c>
       <c r="B75" s="3" t="inlineStr">
         <is>
-          <t>IL Nybrott</t>
+          <t>Sportsklubben Vidar 3. lag</t>
         </is>
       </c>
       <c r="C75" s="3" t="inlineStr">
         <is>
-          <t>(15/8)</t>
+          <t>(11/7)</t>
         </is>
       </c>
       <c r="D75" s="3" t="n">
-        <v>6243</v>
+        <v>6311</v>
       </c>
       <c r="E75" s="4" t="inlineStr">
         <is>
@@ -2641,7 +2641,7 @@
       </c>
       <c r="F75" s="3" t="inlineStr">
         <is>
-          <t>Nord-Trøndelag</t>
+          <t>Oslo</t>
         </is>
       </c>
     </row>
@@ -2651,16 +2651,16 @@
       </c>
       <c r="B76" s="3" t="inlineStr">
         <is>
-          <t>Lillehammer IF 2. lag</t>
+          <t>Overhalla IL</t>
         </is>
       </c>
       <c r="C76" s="3" t="inlineStr">
         <is>
-          <t>(10/6)</t>
+          <t>(15/6)</t>
         </is>
       </c>
       <c r="D76" s="3" t="n">
-        <v>6236</v>
+        <v>6285</v>
       </c>
       <c r="E76" s="4" t="inlineStr">
         <is>
@@ -2669,7 +2669,7 @@
       </c>
       <c r="F76" s="3" t="inlineStr">
         <is>
-          <t>Innlandet</t>
+          <t>Nord-Trøndelag</t>
         </is>
       </c>
     </row>
@@ -2679,16 +2679,16 @@
       </c>
       <c r="B77" s="3" t="inlineStr">
         <is>
-          <t>Osterøy IL</t>
+          <t>IL Nybrott</t>
         </is>
       </c>
       <c r="C77" s="3" t="inlineStr">
         <is>
-          <t>(14/8)</t>
+          <t>(15/8)</t>
         </is>
       </c>
       <c r="D77" s="3" t="n">
-        <v>6199</v>
+        <v>6243</v>
       </c>
       <c r="E77" s="4" t="inlineStr">
         <is>
@@ -2697,7 +2697,7 @@
       </c>
       <c r="F77" s="3" t="inlineStr">
         <is>
-          <t>Hordaland</t>
+          <t>Nord-Trøndelag</t>
         </is>
       </c>
     </row>
@@ -2707,16 +2707,16 @@
       </c>
       <c r="B78" s="3" t="inlineStr">
         <is>
-          <t>Aremark IF</t>
+          <t>Lillehammer IF 2. lag</t>
         </is>
       </c>
       <c r="C78" s="3" t="inlineStr">
         <is>
-          <t>(11/5)</t>
+          <t>(10/6)</t>
         </is>
       </c>
       <c r="D78" s="3" t="n">
-        <v>6184</v>
+        <v>6236</v>
       </c>
       <c r="E78" s="4" t="inlineStr">
         <is>
@@ -2725,7 +2725,7 @@
       </c>
       <c r="F78" s="3" t="inlineStr">
         <is>
-          <t>Østfold</t>
+          <t>Innlandet</t>
         </is>
       </c>
     </row>
@@ -2735,16 +2735,16 @@
       </c>
       <c r="B79" s="3" t="inlineStr">
         <is>
-          <t>IL Pioner</t>
+          <t>Osterøy IL</t>
         </is>
       </c>
       <c r="C79" s="3" t="inlineStr">
         <is>
-          <t>(14/7)</t>
+          <t>(14/8)</t>
         </is>
       </c>
       <c r="D79" s="3" t="n">
-        <v>6038</v>
+        <v>6199</v>
       </c>
       <c r="E79" s="4" t="inlineStr">
         <is>
@@ -2753,7 +2753,7 @@
       </c>
       <c r="F79" s="3" t="inlineStr">
         <is>
-          <t>Troms</t>
+          <t>Hordaland</t>
         </is>
       </c>
     </row>
@@ -2763,16 +2763,16 @@
       </c>
       <c r="B80" s="3" t="inlineStr">
         <is>
-          <t>Selbu IL</t>
+          <t>Aremark IF</t>
         </is>
       </c>
       <c r="C80" s="3" t="inlineStr">
         <is>
-          <t>(17/7)</t>
+          <t>(11/5)</t>
         </is>
       </c>
       <c r="D80" s="3" t="n">
-        <v>5982</v>
+        <v>6184</v>
       </c>
       <c r="E80" s="4" t="inlineStr">
         <is>
@@ -2781,7 +2781,7 @@
       </c>
       <c r="F80" s="3" t="inlineStr">
         <is>
-          <t>Sør-Trøndelag</t>
+          <t>Østfold</t>
         </is>
       </c>
     </row>
@@ -2791,16 +2791,16 @@
       </c>
       <c r="B81" s="3" t="inlineStr">
         <is>
-          <t>Seljord IL</t>
+          <t>IL Pioner</t>
         </is>
       </c>
       <c r="C81" s="3" t="inlineStr">
         <is>
-          <t>(9/3)</t>
+          <t>(14/7)</t>
         </is>
       </c>
       <c r="D81" s="3" t="n">
-        <v>5966</v>
+        <v>6038</v>
       </c>
       <c r="E81" s="4" t="inlineStr">
         <is>
@@ -2809,7 +2809,7 @@
       </c>
       <c r="F81" s="3" t="inlineStr">
         <is>
-          <t>Telemark</t>
+          <t>Troms</t>
         </is>
       </c>
     </row>
@@ -2819,16 +2819,16 @@
       </c>
       <c r="B82" s="3" t="inlineStr">
         <is>
-          <t>IK Grane</t>
+          <t>Selbu IL</t>
         </is>
       </c>
       <c r="C82" s="3" t="inlineStr">
         <is>
-          <t>(14/9)</t>
+          <t>(17/7)</t>
         </is>
       </c>
       <c r="D82" s="3" t="n">
-        <v>5907</v>
+        <v>5982</v>
       </c>
       <c r="E82" s="4" t="inlineStr">
         <is>
@@ -2837,7 +2837,7 @@
       </c>
       <c r="F82" s="3" t="inlineStr">
         <is>
-          <t>Agder</t>
+          <t>Sør-Trøndelag</t>
         </is>
       </c>
     </row>
@@ -2847,16 +2847,16 @@
       </c>
       <c r="B83" s="3" t="inlineStr">
         <is>
-          <t>Ask Friidrett 2. lag</t>
+          <t>Seljord IL</t>
         </is>
       </c>
       <c r="C83" s="3" t="inlineStr">
         <is>
-          <t>(15/7)</t>
+          <t>(9/3)</t>
         </is>
       </c>
       <c r="D83" s="3" t="n">
-        <v>5903</v>
+        <v>5966</v>
       </c>
       <c r="E83" s="4" t="inlineStr">
         <is>
@@ -2865,7 +2865,7 @@
       </c>
       <c r="F83" s="3" t="inlineStr">
         <is>
-          <t>Hordaland</t>
+          <t>Telemark</t>
         </is>
       </c>
     </row>
@@ -2875,16 +2875,16 @@
       </c>
       <c r="B84" s="3" t="inlineStr">
         <is>
-          <t>Gui Sportsklubb</t>
+          <t>IK Grane</t>
         </is>
       </c>
       <c r="C84" s="3" t="inlineStr">
         <is>
-          <t>(13/6)</t>
+          <t>(14/9)</t>
         </is>
       </c>
       <c r="D84" s="3" t="n">
-        <v>5890</v>
+        <v>5907</v>
       </c>
       <c r="E84" s="4" t="inlineStr">
         <is>
@@ -2893,7 +2893,7 @@
       </c>
       <c r="F84" s="3" t="inlineStr">
         <is>
-          <t>Akershus</t>
+          <t>Agder</t>
         </is>
       </c>
     </row>
@@ -2903,16 +2903,16 @@
       </c>
       <c r="B85" s="3" t="inlineStr">
         <is>
-          <t>Lørenskog Friidrettslag</t>
+          <t>Ask Friidrett 2. lag</t>
         </is>
       </c>
       <c r="C85" s="3" t="inlineStr">
         <is>
-          <t>(10/5)</t>
+          <t>(15/7)</t>
         </is>
       </c>
       <c r="D85" s="3" t="n">
-        <v>5750</v>
+        <v>5903</v>
       </c>
       <c r="E85" s="4" t="inlineStr">
         <is>
@@ -2921,7 +2921,7 @@
       </c>
       <c r="F85" s="3" t="inlineStr">
         <is>
-          <t>Akershus</t>
+          <t>Hordaland</t>
         </is>
       </c>
     </row>
@@ -2931,16 +2931,16 @@
       </c>
       <c r="B86" s="3" t="inlineStr">
         <is>
-          <t>Gjøvik FIK</t>
+          <t>Gui Sportsklubb</t>
         </is>
       </c>
       <c r="C86" s="3" t="inlineStr">
         <is>
-          <t>(14/5)</t>
+          <t>(13/6)</t>
         </is>
       </c>
       <c r="D86" s="3" t="n">
-        <v>5692</v>
+        <v>5890</v>
       </c>
       <c r="E86" s="4" t="inlineStr">
         <is>
@@ -2949,7 +2949,7 @@
       </c>
       <c r="F86" s="3" t="inlineStr">
         <is>
-          <t>Innlandet</t>
+          <t>Akershus</t>
         </is>
       </c>
     </row>
@@ -2959,16 +2959,16 @@
       </c>
       <c r="B87" s="3" t="inlineStr">
         <is>
-          <t>Sunndal IL Friidrett</t>
+          <t>Lørenskog Friidrettslag</t>
         </is>
       </c>
       <c r="C87" s="3" t="inlineStr">
         <is>
-          <t>(11/5)</t>
+          <t>(10/5)</t>
         </is>
       </c>
       <c r="D87" s="3" t="n">
-        <v>5636</v>
+        <v>5750</v>
       </c>
       <c r="E87" s="4" t="inlineStr">
         <is>
@@ -2977,7 +2977,7 @@
       </c>
       <c r="F87" s="3" t="inlineStr">
         <is>
-          <t>Møre og Romsdal</t>
+          <t>Akershus</t>
         </is>
       </c>
     </row>
@@ -2987,16 +2987,16 @@
       </c>
       <c r="B88" s="3" t="inlineStr">
         <is>
-          <t>IL Fri</t>
+          <t>Gjøvik FIK</t>
         </is>
       </c>
       <c r="C88" s="3" t="inlineStr">
         <is>
-          <t>(12/9)</t>
+          <t>(14/5)</t>
         </is>
       </c>
       <c r="D88" s="3" t="n">
-        <v>5618</v>
+        <v>5692</v>
       </c>
       <c r="E88" s="4" t="inlineStr">
         <is>
@@ -3005,7 +3005,7 @@
       </c>
       <c r="F88" s="3" t="inlineStr">
         <is>
-          <t>Hordaland</t>
+          <t>Innlandet</t>
         </is>
       </c>
     </row>
@@ -3015,16 +3015,16 @@
       </c>
       <c r="B89" s="3" t="inlineStr">
         <is>
-          <t>Kristiansands IF Friidrett 3. lag</t>
+          <t>Sunndal IL Friidrett</t>
         </is>
       </c>
       <c r="C89" s="3" t="inlineStr">
         <is>
-          <t>(16/9)</t>
+          <t>(11/5)</t>
         </is>
       </c>
       <c r="D89" s="3" t="n">
-        <v>5606</v>
+        <v>5636</v>
       </c>
       <c r="E89" s="4" t="inlineStr">
         <is>
@@ -3033,7 +3033,7 @@
       </c>
       <c r="F89" s="3" t="inlineStr">
         <is>
-          <t>Agder</t>
+          <t>Møre og Romsdal</t>
         </is>
       </c>
     </row>
@@ -3043,16 +3043,16 @@
       </c>
       <c r="B90" s="3" t="inlineStr">
         <is>
-          <t>Overhalla IL</t>
+          <t>Kristiansands IF Friidrett 3. lag</t>
         </is>
       </c>
       <c r="C90" s="3" t="inlineStr">
         <is>
-          <t>(14/6)</t>
+          <t>(16/9)</t>
         </is>
       </c>
       <c r="D90" s="3" t="n">
-        <v>5452</v>
+        <v>5606</v>
       </c>
       <c r="E90" s="4" t="inlineStr">
         <is>
@@ -3061,7 +3061,7 @@
       </c>
       <c r="F90" s="3" t="inlineStr">
         <is>
-          <t>Nord-Trøndelag</t>
+          <t>Agder</t>
         </is>
       </c>
     </row>
@@ -4838,7 +4838,7 @@
         </is>
       </c>
       <c r="F44" s="8" t="n">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="J44" s="5" t="n"/>
     </row>
@@ -8827,7 +8827,7 @@
         </is>
       </c>
       <c r="F86" s="8" t="n">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="J86" s="5" t="n"/>
       <c r="L86" s="6" t="inlineStr">
@@ -8841,7 +8841,7 @@
         </is>
       </c>
       <c r="P86" s="8" t="n">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="T86" s="5" t="n"/>
     </row>
@@ -11766,7 +11766,7 @@
         </is>
       </c>
       <c r="P44" s="8" t="n">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="T44" s="5" t="n"/>
     </row>
@@ -13144,7 +13144,7 @@
         </is>
       </c>
       <c r="F86" s="8" t="n">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="J86" s="5" t="n"/>
       <c r="L86" s="6" t="inlineStr">
@@ -14569,7 +14569,7 @@
         </is>
       </c>
       <c r="P2" s="8" t="n">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="T2" s="5" t="n"/>
     </row>
@@ -15820,30 +15820,30 @@
       <c r="J33" s="5" t="n"/>
       <c r="L33" s="14" t="inlineStr">
         <is>
-          <t>Lengde</t>
+          <t>200m</t>
         </is>
       </c>
       <c r="M33" s="7" t="inlineStr">
         <is>
-          <t>Patma Helene Kathiresu Willis</t>
+          <t>Frida Husefest Nygård</t>
         </is>
       </c>
       <c r="N33" s="7" t="n">
-        <v>2006</v>
+        <v>2008</v>
       </c>
       <c r="O33" s="15" t="n">
-        <v>4.1</v>
+        <v>30.07</v>
       </c>
       <c r="P33" s="7" t="n">
-        <v>412</v>
+        <v>447</v>
       </c>
       <c r="Q33" s="7" t="inlineStr">
         <is>
-          <t>Florø</t>
+          <t>Førde</t>
         </is>
       </c>
       <c r="R33" s="16" t="n">
-        <v>12.03</v>
+        <v>20.08</v>
       </c>
       <c r="T33" s="5" t="n"/>
     </row>
@@ -15878,32 +15878,30 @@
       <c r="J34" s="5" t="n"/>
       <c r="L34" s="14" t="inlineStr">
         <is>
-          <t>400m</t>
+          <t>Lengde</t>
         </is>
       </c>
       <c r="M34" s="7" t="inlineStr">
         <is>
-          <t>Lovise Bloch Helmers</t>
+          <t>Patma Helene Kathiresu Willis</t>
         </is>
       </c>
       <c r="N34" s="7" t="n">
-        <v>2004</v>
-      </c>
-      <c r="O34" s="17" t="inlineStr">
-        <is>
-          <t>1,11,53</t>
-        </is>
+        <v>2006</v>
+      </c>
+      <c r="O34" s="15" t="n">
+        <v>4.1</v>
       </c>
       <c r="P34" s="7" t="n">
-        <v>396</v>
+        <v>412</v>
       </c>
       <c r="Q34" s="7" t="inlineStr">
         <is>
-          <t>Førde</t>
+          <t>Florø</t>
         </is>
       </c>
       <c r="R34" s="16" t="n">
-        <v>11.06</v>
+        <v>12.03</v>
       </c>
       <c r="T34" s="5" t="n"/>
     </row>
@@ -15957,7 +15955,7 @@
         </is>
       </c>
       <c r="P36" s="21" t="n">
-        <v>3838</v>
+        <v>3889</v>
       </c>
       <c r="T36" s="5" t="n"/>
     </row>
@@ -15997,7 +15995,7 @@
         </is>
       </c>
       <c r="P38" s="21" t="n">
-        <v>7821</v>
+        <v>7872</v>
       </c>
       <c r="T38" s="5" t="n"/>
     </row>
@@ -16021,7 +16019,7 @@
         </is>
       </c>
       <c r="M40" s="21" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="T40" s="5" t="n"/>
     </row>
@@ -16067,7 +16065,7 @@
         </is>
       </c>
       <c r="F44" s="8" t="n">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="J44" s="5" t="n"/>
       <c r="L44" s="6" t="inlineStr">
@@ -16502,24 +16500,24 @@
     <row r="56" ht="13" customHeight="1">
       <c r="B56" s="14" t="inlineStr">
         <is>
-          <t>3000m</t>
+          <t>1500m</t>
         </is>
       </c>
       <c r="C56" s="7" t="inlineStr">
         <is>
-          <t>Jenny Bjørkhaug</t>
+          <t>Ida Frøysland</t>
         </is>
       </c>
       <c r="D56" s="7" t="n">
-        <v>2007</v>
+        <v>2009</v>
       </c>
       <c r="E56" s="17" t="inlineStr">
         <is>
-          <t>11,51,94mx</t>
+          <t>5,26,18</t>
         </is>
       </c>
       <c r="F56" s="7" t="n">
-        <v>480</v>
+        <v>486</v>
       </c>
       <c r="G56" s="7" t="inlineStr">
         <is>
@@ -16527,7 +16525,7 @@
         </is>
       </c>
       <c r="H56" s="16" t="n">
-        <v>29.06</v>
+        <v>20.08</v>
       </c>
       <c r="J56" s="5" t="n"/>
       <c r="L56" s="14" t="n"/>
@@ -16542,30 +16540,32 @@
     <row r="57" ht="13" customHeight="1">
       <c r="B57" s="14" t="inlineStr">
         <is>
-          <t>Høyde</t>
+          <t>3000m</t>
         </is>
       </c>
       <c r="C57" s="7" t="inlineStr">
         <is>
-          <t>Kristina Jonstad Jakobsen</t>
+          <t>Jenny Bjørkhaug</t>
         </is>
       </c>
       <c r="D57" s="7" t="n">
-        <v>2009</v>
-      </c>
-      <c r="E57" s="15" t="n">
-        <v>1.3</v>
+        <v>2007</v>
+      </c>
+      <c r="E57" s="17" t="inlineStr">
+        <is>
+          <t>11,51,94mx</t>
+        </is>
       </c>
       <c r="F57" s="7" t="n">
-        <v>418</v>
+        <v>480</v>
       </c>
       <c r="G57" s="7" t="inlineStr">
         <is>
-          <t>Jølster</t>
+          <t>Førde</t>
         </is>
       </c>
       <c r="H57" s="16" t="n">
-        <v>6.06</v>
+        <v>29.06</v>
       </c>
       <c r="J57" s="5" t="n"/>
       <c r="L57" s="14" t="n"/>
@@ -16578,13 +16578,33 @@
       <c r="T57" s="5" t="n"/>
     </row>
     <row r="58" ht="13" customHeight="1">
-      <c r="B58" s="14" t="n"/>
-      <c r="C58" s="7" t="n"/>
-      <c r="D58" s="7" t="n"/>
-      <c r="E58" s="7" t="n"/>
-      <c r="F58" s="7" t="n"/>
-      <c r="G58" s="7" t="n"/>
-      <c r="H58" s="18" t="n"/>
+      <c r="B58" s="14" t="inlineStr">
+        <is>
+          <t>Høyde</t>
+        </is>
+      </c>
+      <c r="C58" s="7" t="inlineStr">
+        <is>
+          <t>Kristina Jonstad Jakobsen</t>
+        </is>
+      </c>
+      <c r="D58" s="7" t="n">
+        <v>2009</v>
+      </c>
+      <c r="E58" s="15" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="F58" s="7" t="n">
+        <v>470</v>
+      </c>
+      <c r="G58" s="7" t="inlineStr">
+        <is>
+          <t>Florø</t>
+        </is>
+      </c>
+      <c r="H58" s="16" t="n">
+        <v>17.08</v>
+      </c>
       <c r="J58" s="5" t="n"/>
       <c r="L58" s="14" t="n"/>
       <c r="M58" s="7" t="n"/>
@@ -16692,7 +16712,7 @@
         </is>
       </c>
       <c r="C64" s="21" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E64" s="20" t="inlineStr">
         <is>
@@ -16700,7 +16720,7 @@
         </is>
       </c>
       <c r="F64" s="21" t="n">
-        <v>3727</v>
+        <v>4265</v>
       </c>
       <c r="J64" s="5" t="n"/>
       <c r="L64" s="20" t="inlineStr">
@@ -16938,22 +16958,22 @@
     <row r="71" ht="13" customHeight="1">
       <c r="B71" s="14" t="inlineStr">
         <is>
-          <t>200m</t>
+          <t>60m</t>
         </is>
       </c>
       <c r="C71" s="7" t="inlineStr">
         <is>
-          <t>Bertine Hauge Angedal</t>
+          <t>Othilie Bosdal Thorsen</t>
         </is>
       </c>
       <c r="D71" s="7" t="n">
         <v>2008</v>
       </c>
       <c r="E71" s="15" t="n">
-        <v>28.77</v>
+        <v>8.66</v>
       </c>
       <c r="F71" s="7" t="n">
-        <v>527</v>
+        <v>553</v>
       </c>
       <c r="G71" s="7" t="inlineStr">
         <is>
@@ -16961,7 +16981,7 @@
         </is>
       </c>
       <c r="H71" s="16" t="n">
-        <v>11.06</v>
+        <v>20.08</v>
       </c>
       <c r="J71" s="5" t="n"/>
       <c r="L71" s="14" t="inlineStr">
@@ -17001,17 +17021,17 @@
       </c>
       <c r="C72" s="7" t="inlineStr">
         <is>
-          <t>Inga Hjelmeland Berqvam</t>
+          <t>Bertine Hauge Angedal</t>
         </is>
       </c>
       <c r="D72" s="7" t="n">
         <v>2008</v>
       </c>
       <c r="E72" s="15" t="n">
-        <v>29</v>
+        <v>28.77</v>
       </c>
       <c r="F72" s="7" t="n">
-        <v>513</v>
+        <v>527</v>
       </c>
       <c r="G72" s="7" t="inlineStr">
         <is>
@@ -17019,7 +17039,7 @@
         </is>
       </c>
       <c r="H72" s="16" t="n">
-        <v>29.06</v>
+        <v>11.06</v>
       </c>
       <c r="J72" s="5" t="n"/>
       <c r="L72" s="14" t="inlineStr">
@@ -17054,30 +17074,30 @@
     <row r="73" ht="13" customHeight="1">
       <c r="B73" s="14" t="inlineStr">
         <is>
-          <t>60m</t>
+          <t>200m</t>
         </is>
       </c>
       <c r="C73" s="7" t="inlineStr">
         <is>
-          <t>Kristina Hjelmeland Berqvam</t>
+          <t>Inga Hjelmeland Berqvam</t>
         </is>
       </c>
       <c r="D73" s="7" t="n">
         <v>2008</v>
       </c>
       <c r="E73" s="15" t="n">
-        <v>8.84</v>
+        <v>29</v>
       </c>
       <c r="F73" s="7" t="n">
-        <v>510</v>
+        <v>513</v>
       </c>
       <c r="G73" s="7" t="inlineStr">
         <is>
-          <t>Stryn</t>
+          <t>Førde</t>
         </is>
       </c>
       <c r="H73" s="16" t="n">
-        <v>10.08</v>
+        <v>29.06</v>
       </c>
       <c r="J73" s="5" t="n"/>
       <c r="L73" s="14" t="inlineStr">
@@ -17196,7 +17216,7 @@
         </is>
       </c>
       <c r="F78" s="21" t="n">
-        <v>2702</v>
+        <v>2745</v>
       </c>
       <c r="J78" s="5" t="n"/>
       <c r="L78" s="20" t="inlineStr">
@@ -17228,7 +17248,7 @@
         </is>
       </c>
       <c r="C80" s="21" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E80" s="20" t="inlineStr">
         <is>
@@ -17236,7 +17256,7 @@
         </is>
       </c>
       <c r="F80" s="21" t="n">
-        <v>6429</v>
+        <v>7010</v>
       </c>
       <c r="J80" s="5" t="n"/>
       <c r="L80" s="20" t="inlineStr">
@@ -17268,7 +17288,7 @@
         </is>
       </c>
       <c r="C82" s="21" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J82" s="5" t="n"/>
       <c r="L82" s="20" t="inlineStr">
@@ -20342,7 +20362,7 @@
         </is>
       </c>
       <c r="F86" s="8" t="n">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="J86" s="5" t="n"/>
       <c r="L86" s="6" t="inlineStr">
@@ -20356,7 +20376,7 @@
         </is>
       </c>
       <c r="P86" s="8" t="n">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="T86" s="5" t="n"/>
     </row>
@@ -20913,13 +20933,33 @@
       <c r="T99" s="5" t="n"/>
     </row>
     <row r="100" ht="13" customHeight="1">
-      <c r="B100" s="14" t="n"/>
-      <c r="C100" s="7" t="n"/>
-      <c r="D100" s="7" t="n"/>
-      <c r="E100" s="7" t="n"/>
-      <c r="F100" s="7" t="n"/>
-      <c r="G100" s="7" t="n"/>
-      <c r="H100" s="18" t="n"/>
+      <c r="B100" s="14" t="inlineStr">
+        <is>
+          <t>Slegge</t>
+        </is>
+      </c>
+      <c r="C100" s="7" t="inlineStr">
+        <is>
+          <t>Inger Elise Grønning</t>
+        </is>
+      </c>
+      <c r="D100" s="7" t="n">
+        <v>2005</v>
+      </c>
+      <c r="E100" s="15" t="n">
+        <v>31.71</v>
+      </c>
+      <c r="F100" s="7" t="n">
+        <v>565</v>
+      </c>
+      <c r="G100" s="7" t="inlineStr">
+        <is>
+          <t>Trondheim</t>
+        </is>
+      </c>
+      <c r="H100" s="16" t="n">
+        <v>16.08</v>
+      </c>
       <c r="J100" s="5" t="n"/>
       <c r="L100" s="14" t="inlineStr">
         <is>
@@ -21067,7 +21107,7 @@
         </is>
       </c>
       <c r="C106" s="21" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E106" s="20" t="inlineStr">
         <is>
@@ -21075,7 +21115,7 @@
         </is>
       </c>
       <c r="F106" s="21" t="n">
-        <v>4063</v>
+        <v>4628</v>
       </c>
       <c r="J106" s="5" t="n"/>
       <c r="L106" s="20" t="inlineStr">
@@ -21665,7 +21705,7 @@
         </is>
       </c>
       <c r="C122" s="21" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E122" s="20" t="inlineStr">
         <is>
@@ -21673,7 +21713,7 @@
         </is>
       </c>
       <c r="F122" s="21" t="n">
-        <v>6291</v>
+        <v>6856</v>
       </c>
       <c r="J122" s="5" t="n"/>
       <c r="L122" s="20" t="inlineStr">
@@ -23423,7 +23463,7 @@
         </is>
       </c>
       <c r="P44" s="8" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="T44" s="5" t="n"/>
     </row>
@@ -25005,7 +25045,7 @@
         </is>
       </c>
       <c r="F86" s="8" t="n">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="J86" s="5" t="n"/>
       <c r="L86" s="6" t="inlineStr">
@@ -25019,7 +25059,7 @@
         </is>
       </c>
       <c r="P86" s="8" t="n">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="T86" s="5" t="n"/>
     </row>
@@ -26356,7 +26396,7 @@
         </is>
       </c>
       <c r="F128" s="8" t="n">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="J128" s="5" t="n"/>
     </row>
@@ -27049,7 +27089,7 @@
         </is>
       </c>
       <c r="F2" s="8" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="J2" s="5" t="n"/>
       <c r="L2" s="6" t="inlineStr">
@@ -27063,7 +27103,7 @@
         </is>
       </c>
       <c r="P2" s="8" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="T2" s="5" t="n"/>
     </row>
@@ -27574,10 +27614,10 @@
         <v>2009</v>
       </c>
       <c r="E15" s="15" t="n">
-        <v>1.4</v>
+        <v>1.6</v>
       </c>
       <c r="F15" s="7" t="n">
-        <v>211</v>
+        <v>296</v>
       </c>
       <c r="G15" s="7" t="inlineStr">
         <is>
@@ -27585,7 +27625,7 @@
         </is>
       </c>
       <c r="H15" s="16" t="n">
-        <v>18.06</v>
+        <v>9.08</v>
       </c>
       <c r="J15" s="5" t="n"/>
       <c r="L15" s="14" t="inlineStr">
@@ -27690,18 +27730,18 @@
         <v>2005</v>
       </c>
       <c r="E17" s="15" t="n">
-        <v>10.37</v>
+        <v>10.39</v>
       </c>
       <c r="F17" s="7" t="n">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="G17" s="7" t="inlineStr">
         <is>
-          <t>Trondheim</t>
+          <t>Harstad</t>
         </is>
       </c>
       <c r="H17" s="16" t="n">
-        <v>12.08</v>
+        <v>9.08</v>
       </c>
       <c r="J17" s="5" t="n"/>
       <c r="L17" s="14" t="inlineStr">
@@ -27880,7 +27920,7 @@
         </is>
       </c>
       <c r="F22" s="21" t="n">
-        <v>5759</v>
+        <v>5846</v>
       </c>
       <c r="J22" s="5" t="n"/>
       <c r="L22" s="20" t="inlineStr">
@@ -28534,7 +28574,7 @@
         </is>
       </c>
       <c r="F38" s="21" t="n">
-        <v>10254</v>
+        <v>10341</v>
       </c>
       <c r="J38" s="5" t="n"/>
       <c r="L38" s="20" t="inlineStr">
@@ -28621,7 +28661,7 @@
         </is>
       </c>
       <c r="F44" s="8" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="J44" s="5" t="n"/>
       <c r="L44" s="6" t="inlineStr">
@@ -28635,7 +28675,7 @@
         </is>
       </c>
       <c r="P44" s="8" t="n">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="T44" s="5" t="n"/>
     </row>
@@ -29046,30 +29086,32 @@
       <c r="J55" s="5" t="n"/>
       <c r="L55" s="14" t="inlineStr">
         <is>
-          <t>Høyde</t>
+          <t>1500m</t>
         </is>
       </c>
       <c r="M55" s="7" t="inlineStr">
         <is>
-          <t>Marie Brekke</t>
+          <t>Mari Nordmo Lundamo</t>
         </is>
       </c>
       <c r="N55" s="7" t="n">
-        <v>2000</v>
-      </c>
-      <c r="O55" s="15" t="n">
-        <v>1.69</v>
+        <v>2008</v>
+      </c>
+      <c r="O55" s="17" t="inlineStr">
+        <is>
+          <t>5,57,89</t>
+        </is>
       </c>
       <c r="P55" s="7" t="n">
-        <v>765</v>
+        <v>354</v>
       </c>
       <c r="Q55" s="7" t="inlineStr">
         <is>
-          <t>Stjørdal</t>
+          <t>Harstad</t>
         </is>
       </c>
       <c r="R55" s="16" t="n">
-        <v>24.06</v>
+        <v>9.08</v>
       </c>
       <c r="T55" s="5" t="n"/>
     </row>
@@ -29106,30 +29148,30 @@
       <c r="J56" s="5" t="n"/>
       <c r="L56" s="14" t="inlineStr">
         <is>
-          <t>Lengde</t>
+          <t>Høyde</t>
         </is>
       </c>
       <c r="M56" s="7" t="inlineStr">
         <is>
-          <t>Mari Nordmo Lundamo</t>
+          <t>Marie Brekke</t>
         </is>
       </c>
       <c r="N56" s="7" t="n">
-        <v>2008</v>
+        <v>2000</v>
       </c>
       <c r="O56" s="15" t="n">
-        <v>4.08</v>
+        <v>1.69</v>
       </c>
       <c r="P56" s="7" t="n">
-        <v>407</v>
+        <v>765</v>
       </c>
       <c r="Q56" s="7" t="inlineStr">
         <is>
-          <t>Narvik</t>
+          <t>Stjørdal</t>
         </is>
       </c>
       <c r="R56" s="16" t="n">
-        <v>12.06</v>
+        <v>24.06</v>
       </c>
       <c r="T56" s="5" t="n"/>
     </row>
@@ -29166,30 +29208,30 @@
       <c r="J57" s="5" t="n"/>
       <c r="L57" s="14" t="inlineStr">
         <is>
-          <t>Tresteg</t>
+          <t>Stav</t>
         </is>
       </c>
       <c r="M57" s="7" t="inlineStr">
         <is>
-          <t>Stine Storaa</t>
+          <t>Mari Nordmo Lundamo</t>
         </is>
       </c>
       <c r="N57" s="7" t="n">
-        <v>2005</v>
+        <v>2008</v>
       </c>
       <c r="O57" s="15" t="n">
-        <v>10.17</v>
+        <v>1.3</v>
       </c>
       <c r="P57" s="7" t="n">
-        <v>576</v>
+        <v>160</v>
       </c>
       <c r="Q57" s="7" t="inlineStr">
         <is>
-          <t>Finnsnes</t>
+          <t>Harstad</t>
         </is>
       </c>
       <c r="R57" s="16" t="n">
-        <v>4.06</v>
+        <v>9.08</v>
       </c>
       <c r="T57" s="5" t="n"/>
     </row>
@@ -29224,30 +29266,30 @@
       <c r="J58" s="5" t="n"/>
       <c r="L58" s="14" t="inlineStr">
         <is>
-          <t>Lengde u.t</t>
+          <t>Lengde</t>
         </is>
       </c>
       <c r="M58" s="7" t="inlineStr">
         <is>
-          <t>Celine Isabell Hansen-Andersen</t>
+          <t>Stine Storaa</t>
         </is>
       </c>
       <c r="N58" s="7" t="n">
-        <v>2008</v>
+        <v>2005</v>
       </c>
       <c r="O58" s="15" t="n">
-        <v>2.02</v>
+        <v>5.11</v>
       </c>
       <c r="P58" s="7" t="n">
-        <v>264</v>
+        <v>642</v>
       </c>
       <c r="Q58" s="7" t="inlineStr">
         <is>
-          <t>Sortland</t>
+          <t>Steinkjer</t>
         </is>
       </c>
       <c r="R58" s="16" t="n">
-        <v>19.02</v>
+        <v>5.03</v>
       </c>
       <c r="T58" s="5" t="n"/>
     </row>
@@ -29280,13 +29322,33 @@
         <v>18.06</v>
       </c>
       <c r="J59" s="5" t="n"/>
-      <c r="L59" s="14" t="n"/>
-      <c r="M59" s="7" t="n"/>
-      <c r="N59" s="7" t="n"/>
-      <c r="O59" s="7" t="n"/>
-      <c r="P59" s="7" t="n"/>
-      <c r="Q59" s="7" t="n"/>
-      <c r="R59" s="18" t="n"/>
+      <c r="L59" s="14" t="inlineStr">
+        <is>
+          <t>Tresteg</t>
+        </is>
+      </c>
+      <c r="M59" s="7" t="inlineStr">
+        <is>
+          <t>Saskia Wild</t>
+        </is>
+      </c>
+      <c r="N59" s="7" t="n">
+        <v>2008</v>
+      </c>
+      <c r="O59" s="15" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="P59" s="7" t="n">
+        <v>251</v>
+      </c>
+      <c r="Q59" s="7" t="inlineStr">
+        <is>
+          <t>Harstad</t>
+        </is>
+      </c>
+      <c r="R59" s="16" t="n">
+        <v>9.08</v>
+      </c>
       <c r="T59" s="5" t="n"/>
     </row>
     <row r="60" ht="13" customHeight="1">
@@ -29318,13 +29380,33 @@
         <v>19.06</v>
       </c>
       <c r="J60" s="5" t="n"/>
-      <c r="L60" s="14" t="n"/>
-      <c r="M60" s="7" t="n"/>
-      <c r="N60" s="7" t="n"/>
-      <c r="O60" s="7" t="n"/>
-      <c r="P60" s="7" t="n"/>
-      <c r="Q60" s="7" t="n"/>
-      <c r="R60" s="18" t="n"/>
+      <c r="L60" s="14" t="inlineStr">
+        <is>
+          <t>Lengde u.t</t>
+        </is>
+      </c>
+      <c r="M60" s="7" t="inlineStr">
+        <is>
+          <t>Celine Isabell Hansen-Andersen</t>
+        </is>
+      </c>
+      <c r="N60" s="7" t="n">
+        <v>2008</v>
+      </c>
+      <c r="O60" s="15" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="P60" s="7" t="n">
+        <v>264</v>
+      </c>
+      <c r="Q60" s="7" t="inlineStr">
+        <is>
+          <t>Sortland</t>
+        </is>
+      </c>
+      <c r="R60" s="16" t="n">
+        <v>19.02</v>
+      </c>
       <c r="T60" s="5" t="n"/>
     </row>
     <row r="61" ht="13" customHeight="1">
@@ -29425,7 +29507,7 @@
         </is>
       </c>
       <c r="M64" s="21" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="O64" s="20" t="inlineStr">
         <is>
@@ -29433,7 +29515,7 @@
         </is>
       </c>
       <c r="P64" s="21" t="n">
-        <v>4790</v>
+        <v>5214</v>
       </c>
       <c r="T64" s="5" t="n"/>
     </row>
@@ -29684,7 +29766,7 @@
       <c r="J71" s="5" t="n"/>
       <c r="L71" s="14" t="inlineStr">
         <is>
-          <t>60m</t>
+          <t>Lengde</t>
         </is>
       </c>
       <c r="M71" s="7" t="inlineStr">
@@ -29696,10 +29778,10 @@
         <v>2008</v>
       </c>
       <c r="O71" s="15" t="n">
-        <v>9.31</v>
+        <v>4.08</v>
       </c>
       <c r="P71" s="7" t="n">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="Q71" s="7" t="inlineStr">
         <is>
@@ -29707,7 +29789,7 @@
         </is>
       </c>
       <c r="R71" s="16" t="n">
-        <v>11.06</v>
+        <v>12.06</v>
       </c>
       <c r="T71" s="5" t="n"/>
     </row>
@@ -29978,30 +30060,30 @@
       <c r="J76" s="5" t="n"/>
       <c r="L76" s="14" t="inlineStr">
         <is>
-          <t>Lengde</t>
+          <t>200m</t>
         </is>
       </c>
       <c r="M76" s="7" t="inlineStr">
         <is>
-          <t>Saskia Wild</t>
+          <t>Ella Nordmo Lundamo</t>
         </is>
       </c>
       <c r="N76" s="7" t="n">
-        <v>2008</v>
+        <v>2010</v>
       </c>
       <c r="O76" s="15" t="n">
-        <v>3.58</v>
+        <v>32.51</v>
       </c>
       <c r="P76" s="7" t="n">
-        <v>274</v>
+        <v>315</v>
       </c>
       <c r="Q76" s="7" t="inlineStr">
         <is>
-          <t>Tromsø</t>
+          <t>Finnsnes</t>
         </is>
       </c>
       <c r="R76" s="16" t="n">
-        <v>29.05</v>
+        <v>4.06</v>
       </c>
       <c r="T76" s="5" t="n"/>
     </row>
@@ -30055,7 +30137,7 @@
         </is>
       </c>
       <c r="P78" s="21" t="n">
-        <v>3023</v>
+        <v>3066</v>
       </c>
       <c r="T78" s="5" t="n"/>
     </row>
@@ -30087,7 +30169,7 @@
         </is>
       </c>
       <c r="M80" s="21" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="O80" s="20" t="inlineStr">
         <is>
@@ -30095,7 +30177,7 @@
         </is>
       </c>
       <c r="P80" s="21" t="n">
-        <v>7813</v>
+        <v>8280</v>
       </c>
       <c r="T80" s="5" t="n"/>
     </row>
@@ -30164,7 +30246,7 @@
         </is>
       </c>
       <c r="F86" s="8" t="n">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="J86" s="5" t="n"/>
     </row>
@@ -30955,7 +31037,7 @@
         </is>
       </c>
       <c r="F2" s="8" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J2" s="5" t="n"/>
       <c r="L2" s="6" t="inlineStr">
@@ -30969,7 +31051,7 @@
         </is>
       </c>
       <c r="P2" s="8" t="n">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T2" s="5" t="n"/>
     </row>
@@ -33185,7 +33267,7 @@
         </is>
       </c>
       <c r="P2" s="8" t="n">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="T2" s="5" t="n"/>
     </row>
@@ -34702,7 +34784,7 @@
         </is>
       </c>
       <c r="P2" s="8" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="T2" s="5" t="n"/>
     </row>
@@ -36182,7 +36264,7 @@
         </is>
       </c>
       <c r="P44" s="8" t="n">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="T44" s="5" t="n"/>
     </row>
@@ -37601,7 +37683,7 @@
         </is>
       </c>
       <c r="F86" s="8" t="n">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="J86" s="5" t="n"/>
     </row>
@@ -37689,11 +37771,11 @@
       </c>
       <c r="C93" s="7" t="inlineStr">
         <is>
-          <t>Maria Aaby Ranneberg</t>
+          <t>Mathilde Heisel Westgaard</t>
         </is>
       </c>
       <c r="D93" s="7" t="n">
-        <v>2007</v>
+        <v>2009</v>
       </c>
       <c r="E93" s="15" t="n">
         <v>9.210000000000001</v>
@@ -37703,11 +37785,11 @@
       </c>
       <c r="G93" s="7" t="inlineStr">
         <is>
-          <t>Grimstad</t>
+          <t>Jessheim</t>
         </is>
       </c>
       <c r="H93" s="16" t="n">
-        <v>13.03</v>
+        <v>7.08</v>
       </c>
       <c r="J93" s="5" t="n"/>
     </row>
@@ -38052,11 +38134,11 @@
       </c>
       <c r="C111" s="7" t="inlineStr">
         <is>
-          <t>Mathilde Heisel Westgaard</t>
+          <t>Maria Aaby Ranneberg</t>
         </is>
       </c>
       <c r="D111" s="7" t="n">
-        <v>2009</v>
+        <v>2007</v>
       </c>
       <c r="E111" s="15" t="n">
         <v>9.210000000000001</v>
@@ -38066,11 +38148,11 @@
       </c>
       <c r="G111" s="7" t="inlineStr">
         <is>
-          <t>Jessheim</t>
+          <t>Grimstad</t>
         </is>
       </c>
       <c r="H111" s="16" t="n">
-        <v>7.08</v>
+        <v>13.03</v>
       </c>
       <c r="J111" s="5" t="n"/>
     </row>
@@ -40052,7 +40134,7 @@
         </is>
       </c>
       <c r="F44" s="8" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J44" s="5" t="n"/>
       <c r="L44" s="6" t="inlineStr">
@@ -40066,7 +40148,7 @@
         </is>
       </c>
       <c r="P44" s="8" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="T44" s="5" t="n"/>
     </row>
@@ -41462,7 +41544,7 @@
         </is>
       </c>
       <c r="F86" s="8" t="n">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J86" s="5" t="n"/>
       <c r="L86" s="6" t="inlineStr">
@@ -41476,7 +41558,7 @@
         </is>
       </c>
       <c r="P86" s="8" t="n">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="T86" s="5" t="n"/>
     </row>
@@ -42892,7 +42974,7 @@
         </is>
       </c>
       <c r="F128" s="8" t="n">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="J128" s="5" t="n"/>
       <c r="L128" s="6" t="inlineStr">
@@ -42906,7 +42988,7 @@
         </is>
       </c>
       <c r="P128" s="8" t="n">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="T128" s="5" t="n"/>
     </row>
@@ -45798,7 +45880,7 @@
         </is>
       </c>
       <c r="F44" s="8" t="n">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="J44" s="5" t="n"/>
     </row>
@@ -46609,7 +46691,7 @@
         </is>
       </c>
       <c r="P2" s="8" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="T2" s="5" t="n"/>
     </row>
@@ -47560,7 +47642,7 @@
     <row r="27" ht="13" customHeight="1">
       <c r="B27" s="14" t="inlineStr">
         <is>
-          <t>100m</t>
+          <t>60m</t>
         </is>
       </c>
       <c r="C27" s="7" t="inlineStr">
@@ -47572,18 +47654,18 @@
         <v>2006</v>
       </c>
       <c r="E27" s="15" t="n">
-        <v>12.64</v>
+        <v>8</v>
       </c>
       <c r="F27" s="7" t="n">
         <v>734</v>
       </c>
       <c r="G27" s="7" t="inlineStr">
         <is>
-          <t>Lillehammer</t>
+          <t>Steinkjer</t>
         </is>
       </c>
       <c r="H27" s="16" t="n">
-        <v>19.06</v>
+        <v>5.03</v>
       </c>
       <c r="J27" s="5" t="n"/>
       <c r="L27" s="14" t="inlineStr">
@@ -47620,7 +47702,7 @@
     <row r="28" ht="13" customHeight="1">
       <c r="B28" s="14" t="inlineStr">
         <is>
-          <t>60m</t>
+          <t>100m</t>
         </is>
       </c>
       <c r="C28" s="7" t="inlineStr">
@@ -47632,18 +47714,18 @@
         <v>2006</v>
       </c>
       <c r="E28" s="15" t="n">
-        <v>8</v>
+        <v>12.64</v>
       </c>
       <c r="F28" s="7" t="n">
         <v>734</v>
       </c>
       <c r="G28" s="7" t="inlineStr">
         <is>
-          <t>Steinkjer</t>
+          <t>Lillehammer</t>
         </is>
       </c>
       <c r="H28" s="16" t="n">
-        <v>5.03</v>
+        <v>19.06</v>
       </c>
       <c r="J28" s="5" t="n"/>
       <c r="L28" s="14" t="inlineStr">
@@ -48151,7 +48233,7 @@
         </is>
       </c>
       <c r="F44" s="8" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J44" s="5" t="n"/>
       <c r="L44" s="6" t="inlineStr">
@@ -51149,7 +51231,7 @@
         </is>
       </c>
       <c r="F128" s="8" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="J128" s="5" t="n"/>
       <c r="L128" s="6" t="inlineStr">
@@ -51163,7 +51245,7 @@
         </is>
       </c>
       <c r="P128" s="8" t="n">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="T128" s="5" t="n"/>
     </row>
@@ -52577,7 +52659,7 @@
         </is>
       </c>
       <c r="F170" s="8" t="n">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="J170" s="5" t="n"/>
       <c r="L170" s="6" t="inlineStr">
@@ -52603,7 +52685,7 @@
       </c>
       <c r="C171" s="7" t="inlineStr">
         <is>
-          <t>Varegg IL 2. lag</t>
+          <t>IL Fri</t>
         </is>
       </c>
       <c r="J171" s="5" t="n"/>
@@ -52614,7 +52696,7 @@
       </c>
       <c r="M171" s="7" t="inlineStr">
         <is>
-          <t>T&amp;IF Viking</t>
+          <t>Varegg IL 2. lag</t>
         </is>
       </c>
       <c r="T171" s="5" t="n"/>
@@ -52743,25 +52825,25 @@
       </c>
       <c r="C177" s="7" t="inlineStr">
         <is>
-          <t>Frida Askildsen Hovdevik</t>
+          <t>Julianne B. Gangdal</t>
         </is>
       </c>
       <c r="D177" s="7" t="n">
-        <v>2009</v>
+        <v>2010</v>
       </c>
       <c r="E177" s="15" t="n">
-        <v>9.51</v>
+        <v>10.73</v>
       </c>
       <c r="F177" s="7" t="n">
-        <v>365</v>
+        <v>144</v>
       </c>
       <c r="G177" s="7" t="inlineStr">
         <is>
-          <t>Leikvang</t>
+          <t>Arna</t>
         </is>
       </c>
       <c r="H177" s="16" t="n">
-        <v>29.01</v>
+        <v>15.08</v>
       </c>
       <c r="J177" s="5" t="n"/>
       <c r="L177" s="14" t="inlineStr">
@@ -52771,25 +52853,25 @@
       </c>
       <c r="M177" s="7" t="inlineStr">
         <is>
-          <t>Agnes Lervik-Kristensen</t>
+          <t>Frida Askildsen Hovdevik</t>
         </is>
       </c>
       <c r="N177" s="7" t="n">
-        <v>2008</v>
+        <v>2009</v>
       </c>
       <c r="O177" s="15" t="n">
-        <v>8.81</v>
+        <v>9.51</v>
       </c>
       <c r="P177" s="7" t="n">
-        <v>517</v>
+        <v>365</v>
       </c>
       <c r="Q177" s="7" t="inlineStr">
         <is>
-          <t>Bergen</t>
+          <t>Leikvang</t>
         </is>
       </c>
       <c r="R177" s="16" t="n">
-        <v>7.06</v>
+        <v>29.01</v>
       </c>
       <c r="T177" s="5" t="n"/>
     </row>
@@ -52801,25 +52883,25 @@
       </c>
       <c r="C178" s="7" t="inlineStr">
         <is>
-          <t>Alexandra Irgens</t>
+          <t>Signe-Marie Torvund</t>
         </is>
       </c>
       <c r="D178" s="7" t="n">
-        <v>2006</v>
+        <v>2004</v>
       </c>
       <c r="E178" s="15" t="n">
-        <v>13.29</v>
+        <v>15.14</v>
       </c>
       <c r="F178" s="7" t="n">
-        <v>622</v>
+        <v>353</v>
       </c>
       <c r="G178" s="7" t="inlineStr">
         <is>
-          <t>Rosendal</t>
+          <t>Arna</t>
         </is>
       </c>
       <c r="H178" s="16" t="n">
-        <v>4.06</v>
+        <v>22.06</v>
       </c>
       <c r="J178" s="5" t="n"/>
       <c r="L178" s="14" t="inlineStr">
@@ -52829,55 +52911,57 @@
       </c>
       <c r="M178" s="7" t="inlineStr">
         <is>
-          <t>Alva Grønnevik</t>
+          <t>Alexandra Irgens</t>
         </is>
       </c>
       <c r="N178" s="7" t="n">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="O178" s="15" t="n">
-        <v>14.54</v>
+        <v>13.29</v>
       </c>
       <c r="P178" s="7" t="n">
-        <v>433</v>
+        <v>622</v>
       </c>
       <c r="Q178" s="7" t="inlineStr">
         <is>
-          <t>Bergen</t>
+          <t>Rosendal</t>
         </is>
       </c>
       <c r="R178" s="16" t="n">
-        <v>10.05</v>
+        <v>4.06</v>
       </c>
       <c r="T178" s="5" t="n"/>
     </row>
     <row r="179" ht="13" customHeight="1">
       <c r="B179" s="14" t="inlineStr">
         <is>
-          <t>200m</t>
+          <t>800m</t>
         </is>
       </c>
       <c r="C179" s="7" t="inlineStr">
         <is>
-          <t>Alexandra Irgens</t>
+          <t>Vilde-Sofie Torvund</t>
         </is>
       </c>
       <c r="D179" s="7" t="n">
         <v>2006</v>
       </c>
-      <c r="E179" s="15" t="n">
-        <v>27.28</v>
+      <c r="E179" s="17" t="inlineStr">
+        <is>
+          <t>2,19,34</t>
+        </is>
       </c>
       <c r="F179" s="7" t="n">
-        <v>629</v>
+        <v>675</v>
       </c>
       <c r="G179" s="7" t="inlineStr">
         <is>
-          <t>Gøteborg/SWE</t>
+          <t>Kristiansand</t>
         </is>
       </c>
       <c r="H179" s="16" t="n">
-        <v>19.06</v>
+        <v>7.05</v>
       </c>
       <c r="J179" s="5" t="n"/>
       <c r="L179" s="14" t="inlineStr">
@@ -52887,57 +52971,57 @@
       </c>
       <c r="M179" s="7" t="inlineStr">
         <is>
-          <t>Naomi van den Broeck</t>
+          <t>Alexandra Irgens</t>
         </is>
       </c>
       <c r="N179" s="7" t="n">
-        <v>1996</v>
+        <v>2006</v>
       </c>
       <c r="O179" s="15" t="n">
-        <v>24.22</v>
+        <v>27.28</v>
       </c>
       <c r="P179" s="7" t="n">
-        <v>874</v>
+        <v>629</v>
       </c>
       <c r="Q179" s="7" t="inlineStr">
         <is>
-          <t>Fana</t>
+          <t>Gøteborg/SWE</t>
         </is>
       </c>
       <c r="R179" s="16" t="n">
-        <v>15.05</v>
+        <v>19.06</v>
       </c>
       <c r="T179" s="5" t="n"/>
     </row>
     <row r="180" ht="13" customHeight="1">
       <c r="B180" s="14" t="inlineStr">
         <is>
-          <t>400m</t>
+          <t>1500m</t>
         </is>
       </c>
       <c r="C180" s="7" t="inlineStr">
         <is>
-          <t>Victoria Osen</t>
+          <t>Vilde-Sofie Torvund</t>
         </is>
       </c>
       <c r="D180" s="7" t="n">
-        <v>2008</v>
+        <v>2006</v>
       </c>
       <c r="E180" s="17" t="inlineStr">
         <is>
-          <t>1,06,28</t>
+          <t>4,44,10</t>
         </is>
       </c>
       <c r="F180" s="7" t="n">
-        <v>507</v>
+        <v>700</v>
       </c>
       <c r="G180" s="7" t="inlineStr">
         <is>
-          <t>Leikvang</t>
+          <t>Fana</t>
         </is>
       </c>
       <c r="H180" s="16" t="n">
-        <v>20.02</v>
+        <v>28.05</v>
       </c>
       <c r="J180" s="5" t="n"/>
       <c r="L180" s="14" t="inlineStr">
@@ -52947,226 +53031,250 @@
       </c>
       <c r="M180" s="7" t="inlineStr">
         <is>
-          <t>Naomi van den Broeck</t>
+          <t>Victoria Osen</t>
         </is>
       </c>
       <c r="N180" s="7" t="n">
-        <v>1996</v>
-      </c>
-      <c r="O180" s="15" t="n">
-        <v>52.24</v>
+        <v>2008</v>
+      </c>
+      <c r="O180" s="17" t="inlineStr">
+        <is>
+          <t>1,06,28</t>
+        </is>
       </c>
       <c r="P180" s="7" t="n">
-        <v>965</v>
+        <v>507</v>
       </c>
       <c r="Q180" s="7" t="inlineStr">
         <is>
-          <t>Genève/SUI</t>
+          <t>Leikvang</t>
         </is>
       </c>
       <c r="R180" s="16" t="n">
-        <v>11.06</v>
+        <v>20.02</v>
       </c>
       <c r="T180" s="5" t="n"/>
     </row>
     <row r="181" ht="13" customHeight="1">
       <c r="B181" s="14" t="inlineStr">
         <is>
-          <t>800m</t>
+          <t>3000m</t>
         </is>
       </c>
       <c r="C181" s="7" t="inlineStr">
         <is>
-          <t>Berit Vide Lindvall</t>
+          <t>Vigdis Gaupholm Reigstad</t>
         </is>
       </c>
       <c r="D181" s="7" t="n">
-        <v>2007</v>
+        <v>1973</v>
       </c>
       <c r="E181" s="17" t="inlineStr">
         <is>
-          <t>2,27,59</t>
+          <t>10,44,31mx</t>
         </is>
       </c>
       <c r="F181" s="7" t="n">
-        <v>583</v>
+        <v>627</v>
       </c>
       <c r="G181" s="7" t="inlineStr">
         <is>
-          <t>Trondheim</t>
+          <t>Arna</t>
         </is>
       </c>
       <c r="H181" s="16" t="n">
-        <v>13.08</v>
+        <v>6.07</v>
       </c>
       <c r="J181" s="5" t="n"/>
       <c r="L181" s="14" t="inlineStr">
         <is>
-          <t>Lengde</t>
+          <t>800m</t>
         </is>
       </c>
       <c r="M181" s="7" t="inlineStr">
         <is>
-          <t>Agnes Lervik-Kristensen</t>
+          <t>Berit Vide Lindvall</t>
         </is>
       </c>
       <c r="N181" s="7" t="n">
-        <v>2008</v>
-      </c>
-      <c r="O181" s="15" t="n">
-        <v>4.15</v>
+        <v>2007</v>
+      </c>
+      <c r="O181" s="17" t="inlineStr">
+        <is>
+          <t>2,27,59</t>
+        </is>
       </c>
       <c r="P181" s="7" t="n">
-        <v>425</v>
+        <v>583</v>
       </c>
       <c r="Q181" s="7" t="inlineStr">
         <is>
-          <t>Leikvang</t>
+          <t>Trondheim</t>
         </is>
       </c>
       <c r="R181" s="16" t="n">
-        <v>19.03</v>
+        <v>13.08</v>
       </c>
       <c r="T181" s="5" t="n"/>
     </row>
     <row r="182" ht="13" customHeight="1">
       <c r="B182" s="14" t="inlineStr">
         <is>
-          <t>1500m</t>
+          <t>Kule</t>
         </is>
       </c>
       <c r="C182" s="7" t="inlineStr">
         <is>
-          <t>Frida Askildsen Hovdevik</t>
+          <t>Matilde Roe</t>
         </is>
       </c>
       <c r="D182" s="7" t="n">
-        <v>2009</v>
-      </c>
-      <c r="E182" s="17" t="inlineStr">
-        <is>
-          <t>5,33,97</t>
-        </is>
+        <v>1996</v>
+      </c>
+      <c r="E182" s="15" t="n">
+        <v>14.49</v>
       </c>
       <c r="F182" s="7" t="n">
-        <v>451</v>
+        <v>833</v>
       </c>
       <c r="G182" s="7" t="inlineStr">
         <is>
-          <t>Fana</t>
+          <t>Phoenix/AZ/USA</t>
         </is>
       </c>
       <c r="H182" s="16" t="n">
-        <v>28.05</v>
+        <v>3.04</v>
       </c>
       <c r="J182" s="5" t="n"/>
       <c r="L182" s="14" t="inlineStr">
         <is>
-          <t>Tresteg</t>
+          <t>1500m</t>
         </is>
       </c>
       <c r="M182" s="7" t="inlineStr">
         <is>
-          <t>Alva Grønnevik</t>
+          <t>Frida Askildsen Hovdevik</t>
         </is>
       </c>
       <c r="N182" s="7" t="n">
-        <v>2007</v>
-      </c>
-      <c r="O182" s="15" t="n">
-        <v>8.49</v>
+        <v>2009</v>
+      </c>
+      <c r="O182" s="17" t="inlineStr">
+        <is>
+          <t>5,33,97</t>
+        </is>
       </c>
       <c r="P182" s="7" t="n">
-        <v>390</v>
+        <v>451</v>
       </c>
       <c r="Q182" s="7" t="inlineStr">
         <is>
-          <t>Leikvang</t>
+          <t>Fana</t>
         </is>
       </c>
       <c r="R182" s="16" t="n">
-        <v>19.02</v>
+        <v>28.05</v>
       </c>
       <c r="T182" s="5" t="n"/>
     </row>
     <row r="183" ht="13" customHeight="1">
       <c r="B183" s="14" t="inlineStr">
         <is>
+          <t>Diskos</t>
+        </is>
+      </c>
+      <c r="C183" s="7" t="inlineStr">
+        <is>
+          <t>Matilde Roe</t>
+        </is>
+      </c>
+      <c r="D183" s="7" t="n">
+        <v>1996</v>
+      </c>
+      <c r="E183" s="15" t="n">
+        <v>51.11</v>
+      </c>
+      <c r="F183" s="7" t="n">
+        <v>877</v>
+      </c>
+      <c r="G183" s="7" t="inlineStr">
+        <is>
+          <t>Long Beach/CA/USA</t>
+        </is>
+      </c>
+      <c r="H183" s="16" t="n">
+        <v>16.04</v>
+      </c>
+      <c r="J183" s="5" t="n"/>
+      <c r="L183" s="14" t="inlineStr">
+        <is>
           <t>3000m</t>
         </is>
       </c>
-      <c r="C183" s="7" t="inlineStr">
+      <c r="M183" s="7" t="inlineStr">
         <is>
           <t>Julia Helene Rosenberg</t>
         </is>
       </c>
-      <c r="D183" s="7" t="n">
+      <c r="N183" s="7" t="n">
         <v>2006</v>
       </c>
-      <c r="E183" s="17" t="inlineStr">
+      <c r="O183" s="17" t="inlineStr">
         <is>
           <t>11,34,10</t>
         </is>
       </c>
-      <c r="F183" s="7" t="n">
+      <c r="P183" s="7" t="n">
         <v>516</v>
       </c>
-      <c r="G183" s="7" t="inlineStr">
+      <c r="Q183" s="7" t="inlineStr">
         <is>
           <t>Fana</t>
         </is>
       </c>
-      <c r="H183" s="16" t="n">
+      <c r="R183" s="16" t="n">
         <v>15.05</v>
       </c>
-      <c r="J183" s="5" t="n"/>
-      <c r="L183" s="14" t="n"/>
-      <c r="M183" s="7" t="n"/>
-      <c r="N183" s="7" t="n"/>
-      <c r="O183" s="7" t="n"/>
-      <c r="P183" s="7" t="n"/>
-      <c r="Q183" s="7" t="n"/>
-      <c r="R183" s="18" t="n"/>
       <c r="T183" s="5" t="n"/>
     </row>
     <row r="184" ht="13" customHeight="1">
-      <c r="B184" s="14" t="inlineStr">
+      <c r="B184" s="14" t="n"/>
+      <c r="C184" s="7" t="n"/>
+      <c r="D184" s="7" t="n"/>
+      <c r="E184" s="7" t="n"/>
+      <c r="F184" s="7" t="n"/>
+      <c r="G184" s="7" t="n"/>
+      <c r="H184" s="18" t="n"/>
+      <c r="J184" s="5" t="n"/>
+      <c r="L184" s="14" t="inlineStr">
         <is>
           <t>5000m</t>
         </is>
       </c>
-      <c r="C184" s="7" t="inlineStr">
+      <c r="M184" s="7" t="inlineStr">
         <is>
           <t>Hannah Silgjerd</t>
         </is>
       </c>
-      <c r="D184" s="7" t="n">
+      <c r="N184" s="7" t="n">
         <v>1999</v>
       </c>
-      <c r="E184" s="17" t="inlineStr">
+      <c r="O184" s="17" t="inlineStr">
         <is>
           <t>18,50,63mx</t>
         </is>
       </c>
-      <c r="F184" s="7" t="n">
+      <c r="P184" s="7" t="n">
         <v>619</v>
       </c>
-      <c r="G184" s="7" t="inlineStr">
+      <c r="Q184" s="7" t="inlineStr">
         <is>
           <t>Arna</t>
         </is>
       </c>
-      <c r="H184" s="16" t="n">
+      <c r="R184" s="16" t="n">
         <v>22.06</v>
       </c>
-      <c r="J184" s="5" t="n"/>
-      <c r="L184" s="14" t="n"/>
-      <c r="M184" s="7" t="n"/>
-      <c r="N184" s="7" t="n"/>
-      <c r="O184" s="7" t="n"/>
-      <c r="P184" s="7" t="n"/>
-      <c r="Q184" s="7" t="n"/>
-      <c r="R184" s="18" t="n"/>
       <c r="T184" s="5" t="n"/>
     </row>
     <row r="185" ht="13" customHeight="1">
@@ -53266,7 +53374,7 @@
         </is>
       </c>
       <c r="C190" s="21" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E190" s="20" t="inlineStr">
         <is>
@@ -53274,7 +53382,7 @@
         </is>
       </c>
       <c r="F190" s="21" t="n">
-        <v>4292</v>
+        <v>4209</v>
       </c>
       <c r="J190" s="5" t="n"/>
       <c r="L190" s="20" t="inlineStr">
@@ -53283,7 +53391,7 @@
         </is>
       </c>
       <c r="M190" s="21" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="O190" s="20" t="inlineStr">
         <is>
@@ -53291,7 +53399,7 @@
         </is>
       </c>
       <c r="P190" s="21" t="n">
-        <v>3604</v>
+        <v>4292</v>
       </c>
       <c r="T190" s="5" t="n"/>
     </row>
@@ -53394,30 +53502,32 @@
     <row r="195" ht="13" customHeight="1">
       <c r="B195" s="14" t="inlineStr">
         <is>
-          <t>200m</t>
+          <t>1500m</t>
         </is>
       </c>
       <c r="C195" s="7" t="inlineStr">
         <is>
-          <t>Erika Davodova</t>
+          <t>Vigdis Gaupholm Reigstad</t>
         </is>
       </c>
       <c r="D195" s="7" t="n">
-        <v>2003</v>
-      </c>
-      <c r="E195" s="15" t="n">
-        <v>27.64</v>
+        <v>1973</v>
+      </c>
+      <c r="E195" s="17" t="inlineStr">
+        <is>
+          <t>4,59,15</t>
+        </is>
       </c>
       <c r="F195" s="7" t="n">
-        <v>604</v>
+        <v>616</v>
       </c>
       <c r="G195" s="7" t="inlineStr">
         <is>
-          <t>Trondheim</t>
+          <t>Arna</t>
         </is>
       </c>
       <c r="H195" s="16" t="n">
-        <v>13.08</v>
+        <v>15.08</v>
       </c>
       <c r="J195" s="5" t="n"/>
       <c r="L195" s="14" t="inlineStr">
@@ -53427,143 +53537,147 @@
       </c>
       <c r="M195" s="7" t="inlineStr">
         <is>
-          <t>Agnes Lervik-Kristensen</t>
+          <t>Erika Davodova</t>
         </is>
       </c>
       <c r="N195" s="7" t="n">
-        <v>2008</v>
+        <v>2003</v>
       </c>
       <c r="O195" s="15" t="n">
-        <v>29.56</v>
+        <v>27.64</v>
       </c>
       <c r="P195" s="7" t="n">
-        <v>478</v>
+        <v>604</v>
       </c>
       <c r="Q195" s="7" t="inlineStr">
         <is>
-          <t>Bergen</t>
+          <t>Trondheim</t>
         </is>
       </c>
       <c r="R195" s="16" t="n">
-        <v>7.06</v>
+        <v>13.08</v>
       </c>
       <c r="T195" s="5" t="n"/>
     </row>
     <row r="196" ht="13" customHeight="1">
       <c r="B196" s="14" t="inlineStr">
         <is>
-          <t>200m</t>
+          <t>1500m</t>
         </is>
       </c>
       <c r="C196" s="7" t="inlineStr">
         <is>
-          <t>Nora Schilbred-Eriksen</t>
+          <t>Signe-Marie Torvund</t>
         </is>
       </c>
       <c r="D196" s="7" t="n">
-        <v>2009</v>
-      </c>
-      <c r="E196" s="15" t="n">
-        <v>29.58</v>
+        <v>2004</v>
+      </c>
+      <c r="E196" s="17" t="inlineStr">
+        <is>
+          <t>5,18,47</t>
+        </is>
       </c>
       <c r="F196" s="7" t="n">
-        <v>476</v>
+        <v>521</v>
       </c>
       <c r="G196" s="7" t="inlineStr">
         <is>
-          <t>Strandebarm</t>
+          <t>Arna</t>
         </is>
       </c>
       <c r="H196" s="16" t="n">
-        <v>19.06</v>
+        <v>15.08</v>
       </c>
       <c r="J196" s="5" t="n"/>
       <c r="L196" s="14" t="inlineStr">
         <is>
-          <t>60m</t>
+          <t>200m</t>
         </is>
       </c>
       <c r="M196" s="7" t="inlineStr">
         <is>
-          <t>Mari Haukeland Aarra</t>
+          <t>Nora Schilbred-Eriksen</t>
         </is>
       </c>
       <c r="N196" s="7" t="n">
-        <v>2007</v>
+        <v>2009</v>
       </c>
       <c r="O196" s="15" t="n">
-        <v>9</v>
+        <v>29.58</v>
       </c>
       <c r="P196" s="7" t="n">
-        <v>473</v>
+        <v>476</v>
       </c>
       <c r="Q196" s="7" t="inlineStr">
         <is>
-          <t>Bergen</t>
+          <t>Strandebarm</t>
         </is>
       </c>
       <c r="R196" s="16" t="n">
-        <v>7.06</v>
+        <v>19.06</v>
       </c>
       <c r="T196" s="5" t="n"/>
     </row>
     <row r="197" ht="13" customHeight="1">
       <c r="B197" s="14" t="inlineStr">
         <is>
-          <t>400m</t>
+          <t>1500m</t>
         </is>
       </c>
       <c r="C197" s="7" t="inlineStr">
         <is>
-          <t>Berit Vide Lindvall</t>
+          <t>Synne-Helen Torvund</t>
         </is>
       </c>
       <c r="D197" s="7" t="n">
-        <v>2007</v>
+        <v>2002</v>
       </c>
       <c r="E197" s="17" t="inlineStr">
         <is>
-          <t>1,08,98</t>
+          <t>5,40,76</t>
         </is>
       </c>
       <c r="F197" s="7" t="n">
-        <v>447</v>
+        <v>423</v>
       </c>
       <c r="G197" s="7" t="inlineStr">
         <is>
-          <t>Fana</t>
+          <t>Arna</t>
         </is>
       </c>
       <c r="H197" s="16" t="n">
-        <v>29.05</v>
+        <v>22.06</v>
       </c>
       <c r="J197" s="5" t="n"/>
       <c r="L197" s="14" t="inlineStr">
         <is>
-          <t>60m</t>
+          <t>400m</t>
         </is>
       </c>
       <c r="M197" s="7" t="inlineStr">
         <is>
-          <t>Alva Grønnevik</t>
+          <t>Berit Vide Lindvall</t>
         </is>
       </c>
       <c r="N197" s="7" t="n">
         <v>2007</v>
       </c>
-      <c r="O197" s="15" t="n">
-        <v>9.24</v>
+      <c r="O197" s="17" t="inlineStr">
+        <is>
+          <t>1,08,98</t>
+        </is>
       </c>
       <c r="P197" s="7" t="n">
-        <v>420</v>
+        <v>447</v>
       </c>
       <c r="Q197" s="7" t="inlineStr">
         <is>
-          <t>Bergen</t>
+          <t>Fana</t>
         </is>
       </c>
       <c r="R197" s="16" t="n">
-        <v>7.06</v>
+        <v>29.05</v>
       </c>
       <c r="T197" s="5" t="n"/>
     </row>
@@ -53575,192 +53689,196 @@
       </c>
       <c r="C198" s="7" t="inlineStr">
         <is>
-          <t>Nora Schilbred-Eriksen</t>
+          <t>Astrid Olafsdottir</t>
         </is>
       </c>
       <c r="D198" s="7" t="n">
-        <v>2009</v>
+        <v>1964</v>
       </c>
       <c r="E198" s="17" t="inlineStr">
         <is>
-          <t>5,42,33</t>
+          <t>6,09,68</t>
         </is>
       </c>
       <c r="F198" s="7" t="n">
-        <v>416</v>
+        <v>309</v>
       </c>
       <c r="G198" s="7" t="inlineStr">
         <is>
-          <t>Strandebarm</t>
+          <t>Arna</t>
         </is>
       </c>
       <c r="H198" s="16" t="n">
-        <v>19.06</v>
+        <v>15.08</v>
       </c>
       <c r="J198" s="5" t="n"/>
       <c r="L198" s="14" t="inlineStr">
         <is>
-          <t>200m</t>
+          <t>1500m</t>
         </is>
       </c>
       <c r="M198" s="7" t="inlineStr">
         <is>
-          <t>Alva Grønnevik</t>
+          <t>Nora Schilbred-Eriksen</t>
         </is>
       </c>
       <c r="N198" s="7" t="n">
-        <v>2007</v>
-      </c>
-      <c r="O198" s="15" t="n">
-        <v>30.63</v>
+        <v>2009</v>
+      </c>
+      <c r="O198" s="17" t="inlineStr">
+        <is>
+          <t>5,42,33</t>
+        </is>
       </c>
       <c r="P198" s="7" t="n">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="Q198" s="7" t="inlineStr">
         <is>
-          <t>Bergen</t>
+          <t>Strandebarm</t>
         </is>
       </c>
       <c r="R198" s="16" t="n">
-        <v>7.06</v>
+        <v>19.06</v>
       </c>
       <c r="T198" s="5" t="n"/>
     </row>
     <row r="199" ht="13" customHeight="1">
       <c r="B199" s="14" t="inlineStr">
         <is>
-          <t>800m</t>
+          <t>Diskos</t>
         </is>
       </c>
       <c r="C199" s="7" t="inlineStr">
         <is>
-          <t>Helene Osen</t>
+          <t>Ingunn Gatland Jacobsen</t>
         </is>
       </c>
       <c r="D199" s="7" t="n">
-        <v>2008</v>
-      </c>
-      <c r="E199" s="17" t="inlineStr">
-        <is>
-          <t>2,50,65</t>
-        </is>
+        <v>1967</v>
+      </c>
+      <c r="E199" s="15" t="n">
+        <v>17.19</v>
       </c>
       <c r="F199" s="7" t="n">
-        <v>376</v>
+        <v>304</v>
       </c>
       <c r="G199" s="7" t="inlineStr">
         <is>
-          <t>Leikvang</t>
+          <t>Osterøy</t>
         </is>
       </c>
       <c r="H199" s="16" t="n">
-        <v>19.02</v>
+        <v>20.06</v>
       </c>
       <c r="J199" s="5" t="n"/>
       <c r="L199" s="14" t="inlineStr">
         <is>
-          <t>200m</t>
+          <t>800m</t>
         </is>
       </c>
       <c r="M199" s="7" t="inlineStr">
         <is>
-          <t>Mari Haukeland Aarra</t>
+          <t>Helene Osen</t>
         </is>
       </c>
       <c r="N199" s="7" t="n">
-        <v>2007</v>
-      </c>
-      <c r="O199" s="15" t="n">
-        <v>30.9</v>
+        <v>2008</v>
+      </c>
+      <c r="O199" s="17" t="inlineStr">
+        <is>
+          <t>2,50,65</t>
+        </is>
       </c>
       <c r="P199" s="7" t="n">
-        <v>399</v>
+        <v>376</v>
       </c>
       <c r="Q199" s="7" t="inlineStr">
         <is>
+          <t>Leikvang</t>
+        </is>
+      </c>
+      <c r="R199" s="16" t="n">
+        <v>19.02</v>
+      </c>
+      <c r="T199" s="5" t="n"/>
+    </row>
+    <row r="200" ht="13" customHeight="1">
+      <c r="B200" s="14" t="inlineStr">
+        <is>
+          <t>1500m</t>
+        </is>
+      </c>
+      <c r="C200" s="7" t="inlineStr">
+        <is>
+          <t>Ragnhild Guri Korneliussen</t>
+        </is>
+      </c>
+      <c r="D200" s="7" t="n">
+        <v>1951</v>
+      </c>
+      <c r="E200" s="17" t="inlineStr">
+        <is>
+          <t>6,48,67</t>
+        </is>
+      </c>
+      <c r="F200" s="7" t="n">
+        <v>174</v>
+      </c>
+      <c r="G200" s="7" t="inlineStr">
+        <is>
+          <t>Arna</t>
+        </is>
+      </c>
+      <c r="H200" s="16" t="n">
+        <v>15.08</v>
+      </c>
+      <c r="J200" s="5" t="n"/>
+      <c r="L200" s="14" t="n"/>
+      <c r="M200" s="7" t="n"/>
+      <c r="N200" s="7" t="n"/>
+      <c r="O200" s="7" t="n"/>
+      <c r="P200" s="7" t="n"/>
+      <c r="Q200" s="7" t="n"/>
+      <c r="R200" s="18" t="n"/>
+      <c r="T200" s="5" t="n"/>
+    </row>
+    <row r="201" ht="13" customHeight="1">
+      <c r="B201" s="14" t="inlineStr">
+        <is>
+          <t>Diskos</t>
+        </is>
+      </c>
+      <c r="C201" s="7" t="inlineStr">
+        <is>
+          <t>Eldbjørg Sanden Søvik</t>
+        </is>
+      </c>
+      <c r="D201" s="7" t="n">
+        <v>1956</v>
+      </c>
+      <c r="E201" s="15" t="n">
+        <v>13.34</v>
+      </c>
+      <c r="F201" s="7" t="n">
+        <v>127</v>
+      </c>
+      <c r="G201" s="7" t="inlineStr">
+        <is>
           <t>Bergen</t>
         </is>
       </c>
-      <c r="R199" s="16" t="n">
-        <v>7.06</v>
-      </c>
-      <c r="T199" s="5" t="n"/>
-    </row>
-    <row r="200" ht="13" customHeight="1">
-      <c r="B200" s="14" t="n"/>
-      <c r="C200" s="7" t="n"/>
-      <c r="D200" s="7" t="n"/>
-      <c r="E200" s="7" t="n"/>
-      <c r="F200" s="7" t="n"/>
-      <c r="G200" s="7" t="n"/>
-      <c r="H200" s="18" t="n"/>
-      <c r="J200" s="5" t="n"/>
-      <c r="L200" s="14" t="inlineStr">
-        <is>
-          <t>Lengde</t>
-        </is>
-      </c>
-      <c r="M200" s="7" t="inlineStr">
-        <is>
-          <t>Alva Grønnevik</t>
-        </is>
-      </c>
-      <c r="N200" s="7" t="n">
-        <v>2007</v>
-      </c>
-      <c r="O200" s="15" t="n">
-        <v>3.94</v>
-      </c>
-      <c r="P200" s="7" t="n">
-        <v>372</v>
-      </c>
-      <c r="Q200" s="7" t="inlineStr">
-        <is>
-          <t>Bergen</t>
-        </is>
-      </c>
-      <c r="R200" s="16" t="n">
-        <v>10.05</v>
-      </c>
-      <c r="T200" s="5" t="n"/>
-    </row>
-    <row r="201" ht="13" customHeight="1">
-      <c r="B201" s="14" t="n"/>
-      <c r="C201" s="7" t="n"/>
-      <c r="D201" s="7" t="n"/>
-      <c r="E201" s="7" t="n"/>
-      <c r="F201" s="7" t="n"/>
-      <c r="G201" s="7" t="n"/>
-      <c r="H201" s="18" t="n"/>
+      <c r="H201" s="16" t="n">
+        <v>23.04</v>
+      </c>
       <c r="J201" s="5" t="n"/>
-      <c r="L201" s="14" t="inlineStr">
-        <is>
-          <t>Tresteg</t>
-        </is>
-      </c>
-      <c r="M201" s="7" t="inlineStr">
-        <is>
-          <t>Vera Semen Kjetland</t>
-        </is>
-      </c>
-      <c r="N201" s="7" t="n">
-        <v>2007</v>
-      </c>
-      <c r="O201" s="15" t="n">
-        <v>7.57</v>
-      </c>
-      <c r="P201" s="7" t="n">
-        <v>274</v>
-      </c>
-      <c r="Q201" s="7" t="inlineStr">
-        <is>
-          <t>Leikvang</t>
-        </is>
-      </c>
-      <c r="R201" s="16" t="n">
-        <v>19.02</v>
-      </c>
+      <c r="L201" s="14" t="n"/>
+      <c r="M201" s="7" t="n"/>
+      <c r="N201" s="7" t="n"/>
+      <c r="O201" s="7" t="n"/>
+      <c r="P201" s="7" t="n"/>
+      <c r="Q201" s="7" t="n"/>
+      <c r="R201" s="18" t="n"/>
       <c r="T201" s="5" t="n"/>
     </row>
     <row r="202" ht="13" customHeight="1">
@@ -53806,7 +53924,7 @@
         </is>
       </c>
       <c r="C204" s="21" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E204" s="20" t="inlineStr">
         <is>
@@ -53814,7 +53932,7 @@
         </is>
       </c>
       <c r="F204" s="21" t="n">
-        <v>2319</v>
+        <v>2474</v>
       </c>
       <c r="J204" s="5" t="n"/>
       <c r="L204" s="20" t="inlineStr">
@@ -53823,7 +53941,7 @@
         </is>
       </c>
       <c r="M204" s="21" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="O204" s="20" t="inlineStr">
         <is>
@@ -53831,7 +53949,7 @@
         </is>
       </c>
       <c r="P204" s="21" t="n">
-        <v>2830</v>
+        <v>2319</v>
       </c>
       <c r="T204" s="5" t="n"/>
     </row>
@@ -53846,7 +53964,7 @@
         </is>
       </c>
       <c r="C206" s="21" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E206" s="20" t="inlineStr">
         <is>
@@ -53854,7 +53972,7 @@
         </is>
       </c>
       <c r="F206" s="21" t="n">
-        <v>6611</v>
+        <v>6683</v>
       </c>
       <c r="J206" s="5" t="n"/>
       <c r="L206" s="20" t="inlineStr">
@@ -53871,7 +53989,7 @@
         </is>
       </c>
       <c r="P206" s="21" t="n">
-        <v>6434</v>
+        <v>6611</v>
       </c>
       <c r="T206" s="5" t="n"/>
     </row>
@@ -53886,7 +54004,7 @@
         </is>
       </c>
       <c r="C208" s="21" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J208" s="5" t="n"/>
       <c r="L208" s="20" t="inlineStr">
@@ -53895,7 +54013,7 @@
         </is>
       </c>
       <c r="M208" s="21" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="T208" s="5" t="n"/>
     </row>
@@ -53941,7 +54059,7 @@
         </is>
       </c>
       <c r="F212" s="8" t="n">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="J212" s="5" t="n"/>
       <c r="L212" s="6" t="inlineStr">
@@ -53955,7 +54073,7 @@
         </is>
       </c>
       <c r="P212" s="8" t="n">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="T212" s="5" t="n"/>
     </row>
@@ -53967,7 +54085,7 @@
       </c>
       <c r="C213" s="7" t="inlineStr">
         <is>
-          <t>Osterøy IL</t>
+          <t>T&amp;IF Viking</t>
         </is>
       </c>
       <c r="J213" s="5" t="n"/>
@@ -53978,7 +54096,7 @@
       </c>
       <c r="M213" s="7" t="inlineStr">
         <is>
-          <t>Ask Friidrett 2. lag</t>
+          <t>Osterøy IL</t>
         </is>
       </c>
       <c r="T213" s="5" t="n"/>
@@ -54102,358 +54220,354 @@
     <row r="219" ht="13" customHeight="1">
       <c r="B219" s="14" t="inlineStr">
         <is>
-          <t>800m</t>
+          <t>60m</t>
         </is>
       </c>
       <c r="C219" s="7" t="inlineStr">
         <is>
-          <t>Mirjam Mjelde</t>
+          <t>Agnes Lervik-Kristensen</t>
         </is>
       </c>
       <c r="D219" s="7" t="n">
-        <v>1969</v>
-      </c>
-      <c r="E219" s="17" t="inlineStr">
-        <is>
-          <t>2,41,45mx</t>
-        </is>
+        <v>2008</v>
+      </c>
+      <c r="E219" s="15" t="n">
+        <v>8.81</v>
       </c>
       <c r="F219" s="7" t="n">
-        <v>451</v>
+        <v>517</v>
       </c>
       <c r="G219" s="7" t="inlineStr">
         <is>
-          <t>Osterøy</t>
+          <t>Bergen</t>
         </is>
       </c>
       <c r="H219" s="16" t="n">
-        <v>14.07</v>
+        <v>7.06</v>
       </c>
       <c r="J219" s="5" t="n"/>
       <c r="L219" s="14" t="inlineStr">
         <is>
-          <t>60m</t>
+          <t>800m</t>
         </is>
       </c>
       <c r="M219" s="7" t="inlineStr">
         <is>
-          <t>Ingrid Straume-Sunde</t>
+          <t>Mirjam Mjelde</t>
         </is>
       </c>
       <c r="N219" s="7" t="n">
-        <v>2010</v>
-      </c>
-      <c r="O219" s="15" t="n">
-        <v>8.98</v>
+        <v>1969</v>
+      </c>
+      <c r="O219" s="17" t="inlineStr">
+        <is>
+          <t>2,41,45mx</t>
+        </is>
       </c>
       <c r="P219" s="7" t="n">
-        <v>477</v>
+        <v>451</v>
       </c>
       <c r="Q219" s="7" t="inlineStr">
         <is>
-          <t>Fana</t>
+          <t>Osterøy</t>
         </is>
       </c>
       <c r="R219" s="16" t="n">
-        <v>28.05</v>
+        <v>14.07</v>
       </c>
       <c r="T219" s="5" t="n"/>
     </row>
     <row r="220" ht="13" customHeight="1">
       <c r="B220" s="14" t="inlineStr">
         <is>
-          <t>1500m</t>
+          <t>100m</t>
         </is>
       </c>
       <c r="C220" s="7" t="inlineStr">
         <is>
-          <t>Mirjam Mjelde</t>
+          <t>Alva Grønnevik</t>
         </is>
       </c>
       <c r="D220" s="7" t="n">
-        <v>1969</v>
-      </c>
-      <c r="E220" s="17" t="inlineStr">
-        <is>
-          <t>5,35,19+</t>
-        </is>
+        <v>2007</v>
+      </c>
+      <c r="E220" s="15" t="n">
+        <v>14.54</v>
       </c>
       <c r="F220" s="7" t="n">
-        <v>446</v>
+        <v>433</v>
       </c>
       <c r="G220" s="7" t="inlineStr">
         <is>
-          <t>Arna</t>
+          <t>Bergen</t>
         </is>
       </c>
       <c r="H220" s="16" t="n">
-        <v>1.08</v>
+        <v>10.05</v>
       </c>
       <c r="J220" s="5" t="n"/>
       <c r="L220" s="14" t="inlineStr">
         <is>
-          <t>100m</t>
+          <t>1500m</t>
         </is>
       </c>
       <c r="M220" s="7" t="inlineStr">
         <is>
-          <t>Sofie Elise Indrebø</t>
+          <t>Mirjam Mjelde</t>
         </is>
       </c>
       <c r="N220" s="7" t="n">
-        <v>2010</v>
-      </c>
-      <c r="O220" s="15" t="n">
-        <v>14.5</v>
+        <v>1969</v>
+      </c>
+      <c r="O220" s="17" t="inlineStr">
+        <is>
+          <t>5,35,19+</t>
+        </is>
       </c>
       <c r="P220" s="7" t="n">
-        <v>438</v>
+        <v>446</v>
       </c>
       <c r="Q220" s="7" t="inlineStr">
         <is>
-          <t>Fana</t>
+          <t>Arna</t>
         </is>
       </c>
       <c r="R220" s="16" t="n">
-        <v>29.05</v>
+        <v>1.08</v>
       </c>
       <c r="T220" s="5" t="n"/>
     </row>
     <row r="221" ht="13" customHeight="1">
       <c r="B221" s="14" t="inlineStr">
         <is>
-          <t>3000m</t>
+          <t>200m</t>
         </is>
       </c>
       <c r="C221" s="7" t="inlineStr">
         <is>
-          <t>Nora Bergan</t>
+          <t>Naomi van den Broeck</t>
         </is>
       </c>
       <c r="D221" s="7" t="n">
-        <v>2004</v>
-      </c>
-      <c r="E221" s="17" t="inlineStr">
-        <is>
-          <t>11,26,42mx</t>
-        </is>
+        <v>1996</v>
+      </c>
+      <c r="E221" s="15" t="n">
+        <v>24.22</v>
       </c>
       <c r="F221" s="7" t="n">
-        <v>532</v>
+        <v>874</v>
       </c>
       <c r="G221" s="7" t="inlineStr">
         <is>
-          <t>Osterøy</t>
+          <t>Fana</t>
         </is>
       </c>
       <c r="H221" s="16" t="n">
-        <v>2.06</v>
+        <v>15.05</v>
       </c>
       <c r="J221" s="5" t="n"/>
       <c r="L221" s="14" t="inlineStr">
         <is>
-          <t>200m</t>
+          <t>3000m</t>
         </is>
       </c>
       <c r="M221" s="7" t="inlineStr">
         <is>
-          <t>Sofie Elise Indrebø</t>
+          <t>Nora Bergan</t>
         </is>
       </c>
       <c r="N221" s="7" t="n">
-        <v>2010</v>
-      </c>
-      <c r="O221" s="15" t="n">
-        <v>29.94</v>
+        <v>2004</v>
+      </c>
+      <c r="O221" s="17" t="inlineStr">
+        <is>
+          <t>11,26,42mx</t>
+        </is>
       </c>
       <c r="P221" s="7" t="n">
-        <v>454</v>
+        <v>532</v>
       </c>
       <c r="Q221" s="7" t="inlineStr">
         <is>
-          <t>Fana</t>
+          <t>Osterøy</t>
         </is>
       </c>
       <c r="R221" s="16" t="n">
-        <v>27.05</v>
+        <v>2.06</v>
       </c>
       <c r="T221" s="5" t="n"/>
     </row>
     <row r="222" ht="13" customHeight="1">
       <c r="B222" s="14" t="inlineStr">
         <is>
-          <t>Lengde u.t</t>
+          <t>400m</t>
         </is>
       </c>
       <c r="C222" s="7" t="inlineStr">
         <is>
-          <t>Helga Reigstad</t>
+          <t>Naomi van den Broeck</t>
         </is>
       </c>
       <c r="D222" s="7" t="n">
-        <v>1972</v>
+        <v>1996</v>
       </c>
       <c r="E222" s="15" t="n">
-        <v>2.01</v>
+        <v>52.24</v>
       </c>
       <c r="F222" s="7" t="n">
-        <v>255</v>
+        <v>965</v>
       </c>
       <c r="G222" s="7" t="inlineStr">
         <is>
-          <t>Osterøy</t>
+          <t>Genève/SUI</t>
         </is>
       </c>
       <c r="H222" s="16" t="n">
-        <v>17.01</v>
+        <v>11.06</v>
       </c>
       <c r="J222" s="5" t="n"/>
       <c r="L222" s="14" t="inlineStr">
         <is>
-          <t>800m</t>
+          <t>Lengde u.t</t>
         </is>
       </c>
       <c r="M222" s="7" t="inlineStr">
         <is>
-          <t>Pia Norheim</t>
+          <t>Helga Reigstad</t>
         </is>
       </c>
       <c r="N222" s="7" t="n">
-        <v>2005</v>
-      </c>
-      <c r="O222" s="17" t="inlineStr">
-        <is>
-          <t>2,30,04</t>
-        </is>
+        <v>1972</v>
+      </c>
+      <c r="O222" s="15" t="n">
+        <v>2.01</v>
       </c>
       <c r="P222" s="7" t="n">
-        <v>557</v>
+        <v>255</v>
       </c>
       <c r="Q222" s="7" t="inlineStr">
         <is>
-          <t>Leikvang</t>
+          <t>Osterøy</t>
         </is>
       </c>
       <c r="R222" s="16" t="n">
-        <v>19.02</v>
+        <v>17.01</v>
       </c>
       <c r="T222" s="5" t="n"/>
     </row>
     <row r="223" ht="13" customHeight="1">
       <c r="B223" s="14" t="inlineStr">
         <is>
-          <t>Kule</t>
+          <t>Lengde</t>
         </is>
       </c>
       <c r="C223" s="7" t="inlineStr">
         <is>
-          <t>Marianne Feidje Mjelde</t>
+          <t>Agnes Lervik-Kristensen</t>
         </is>
       </c>
       <c r="D223" s="7" t="n">
-        <v>2001</v>
+        <v>2008</v>
       </c>
       <c r="E223" s="15" t="n">
-        <v>9.5</v>
+        <v>4.15</v>
       </c>
       <c r="F223" s="7" t="n">
-        <v>554</v>
+        <v>425</v>
       </c>
       <c r="G223" s="7" t="inlineStr">
         <is>
-          <t>Osterøy</t>
+          <t>Leikvang</t>
         </is>
       </c>
       <c r="H223" s="16" t="n">
-        <v>13.06</v>
+        <v>19.03</v>
       </c>
       <c r="J223" s="5" t="n"/>
       <c r="L223" s="14" t="inlineStr">
         <is>
-          <t>1500m</t>
+          <t>Kule</t>
         </is>
       </c>
       <c r="M223" s="7" t="inlineStr">
         <is>
-          <t>Julia Varsi</t>
+          <t>Marianne Feidje Mjelde</t>
         </is>
       </c>
       <c r="N223" s="7" t="n">
-        <v>2005</v>
-      </c>
-      <c r="O223" s="17" t="inlineStr">
-        <is>
-          <t>5,31,81</t>
-        </is>
+        <v>2001</v>
+      </c>
+      <c r="O223" s="15" t="n">
+        <v>9.5</v>
       </c>
       <c r="P223" s="7" t="n">
-        <v>461</v>
+        <v>554</v>
       </c>
       <c r="Q223" s="7" t="inlineStr">
         <is>
-          <t>Fana</t>
+          <t>Osterøy</t>
         </is>
       </c>
       <c r="R223" s="16" t="n">
-        <v>28.05</v>
+        <v>13.06</v>
       </c>
       <c r="T223" s="5" t="n"/>
     </row>
     <row r="224" ht="13" customHeight="1">
       <c r="B224" s="14" t="inlineStr">
         <is>
-          <t>Diskos</t>
+          <t>Tresteg</t>
         </is>
       </c>
       <c r="C224" s="7" t="inlineStr">
         <is>
-          <t>Marianne Feidje Mjelde</t>
+          <t>Alva Grønnevik</t>
         </is>
       </c>
       <c r="D224" s="7" t="n">
-        <v>2001</v>
+        <v>2007</v>
       </c>
       <c r="E224" s="15" t="n">
-        <v>31.46</v>
+        <v>8.49</v>
       </c>
       <c r="F224" s="7" t="n">
-        <v>604</v>
+        <v>390</v>
       </c>
       <c r="G224" s="7" t="inlineStr">
         <is>
-          <t>Osterøy</t>
+          <t>Leikvang</t>
         </is>
       </c>
       <c r="H224" s="16" t="n">
-        <v>13.06</v>
+        <v>19.02</v>
       </c>
       <c r="J224" s="5" t="n"/>
       <c r="L224" s="14" t="inlineStr">
         <is>
-          <t>Lengde</t>
+          <t>Diskos</t>
         </is>
       </c>
       <c r="M224" s="7" t="inlineStr">
         <is>
-          <t>Sofie Elise Indrebø</t>
+          <t>Marianne Feidje Mjelde</t>
         </is>
       </c>
       <c r="N224" s="7" t="n">
-        <v>2010</v>
+        <v>2001</v>
       </c>
       <c r="O224" s="15" t="n">
-        <v>3.77</v>
+        <v>31.46</v>
       </c>
       <c r="P224" s="7" t="n">
-        <v>327</v>
+        <v>604</v>
       </c>
       <c r="Q224" s="7" t="inlineStr">
         <is>
-          <t>Leikvang</t>
+          <t>Osterøy</t>
         </is>
       </c>
       <c r="R224" s="16" t="n">
-        <v>29.01</v>
+        <v>13.06</v>
       </c>
       <c r="T224" s="5" t="n"/>
     </row>
@@ -54466,33 +54580,13 @@
       <c r="G225" s="7" t="n"/>
       <c r="H225" s="18" t="n"/>
       <c r="J225" s="5" t="n"/>
-      <c r="L225" s="14" t="inlineStr">
-        <is>
-          <t>Lengde u.t</t>
-        </is>
-      </c>
-      <c r="M225" s="7" t="inlineStr">
-        <is>
-          <t>Elin Hundven Eliassen</t>
-        </is>
-      </c>
-      <c r="N225" s="7" t="n">
-        <v>1973</v>
-      </c>
-      <c r="O225" s="15" t="n">
-        <v>2.23</v>
-      </c>
-      <c r="P225" s="7" t="n">
-        <v>443</v>
-      </c>
-      <c r="Q225" s="7" t="inlineStr">
-        <is>
-          <t>Leikvang</t>
-        </is>
-      </c>
-      <c r="R225" s="16" t="n">
-        <v>19.03</v>
-      </c>
+      <c r="L225" s="14" t="n"/>
+      <c r="M225" s="7" t="n"/>
+      <c r="N225" s="7" t="n"/>
+      <c r="O225" s="7" t="n"/>
+      <c r="P225" s="7" t="n"/>
+      <c r="Q225" s="7" t="n"/>
+      <c r="R225" s="18" t="n"/>
       <c r="T225" s="5" t="n"/>
     </row>
     <row r="226" ht="13" customHeight="1">
@@ -54618,7 +54712,7 @@
         </is>
       </c>
       <c r="F232" s="21" t="n">
-        <v>2842</v>
+        <v>3604</v>
       </c>
       <c r="J232" s="5" t="n"/>
       <c r="L232" s="20" t="inlineStr">
@@ -54627,7 +54721,7 @@
         </is>
       </c>
       <c r="M232" s="21" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="O232" s="20" t="inlineStr">
         <is>
@@ -54635,7 +54729,7 @@
         </is>
       </c>
       <c r="P232" s="21" t="n">
-        <v>3157</v>
+        <v>2842</v>
       </c>
       <c r="T232" s="5" t="n"/>
     </row>
@@ -54738,447 +54832,427 @@
     <row r="237" ht="13" customHeight="1">
       <c r="B237" s="14" t="inlineStr">
         <is>
-          <t>Diskos</t>
+          <t>200m</t>
         </is>
       </c>
       <c r="C237" s="7" t="inlineStr">
         <is>
-          <t>Helga Reigstad</t>
+          <t>Agnes Lervik-Kristensen</t>
         </is>
       </c>
       <c r="D237" s="7" t="n">
-        <v>1972</v>
+        <v>2008</v>
       </c>
       <c r="E237" s="15" t="n">
-        <v>30.75</v>
+        <v>29.56</v>
       </c>
       <c r="F237" s="7" t="n">
-        <v>593</v>
+        <v>478</v>
       </c>
       <c r="G237" s="7" t="inlineStr">
         <is>
-          <t>Osterøy</t>
+          <t>Bergen</t>
         </is>
       </c>
       <c r="H237" s="16" t="n">
-        <v>13.06</v>
+        <v>7.06</v>
       </c>
       <c r="J237" s="5" t="n"/>
       <c r="L237" s="14" t="inlineStr">
         <is>
-          <t>60m</t>
+          <t>Diskos</t>
         </is>
       </c>
       <c r="M237" s="7" t="inlineStr">
         <is>
-          <t>Sofie Elise Indrebø</t>
+          <t>Helga Reigstad</t>
         </is>
       </c>
       <c r="N237" s="7" t="n">
-        <v>2010</v>
+        <v>1972</v>
       </c>
       <c r="O237" s="15" t="n">
-        <v>9.029999999999999</v>
+        <v>30.75</v>
       </c>
       <c r="P237" s="7" t="n">
-        <v>466</v>
+        <v>593</v>
       </c>
       <c r="Q237" s="7" t="inlineStr">
         <is>
-          <t>Ravnanger</t>
+          <t>Osterøy</t>
         </is>
       </c>
       <c r="R237" s="16" t="n">
-        <v>20.04</v>
+        <v>13.06</v>
       </c>
       <c r="T237" s="5" t="n"/>
     </row>
     <row r="238" ht="13" customHeight="1">
       <c r="B238" s="14" t="inlineStr">
         <is>
-          <t>Kule</t>
+          <t>60m</t>
         </is>
       </c>
       <c r="C238" s="7" t="inlineStr">
         <is>
-          <t>Helga Reigstad</t>
+          <t>Mari Haukeland Aarra</t>
         </is>
       </c>
       <c r="D238" s="7" t="n">
-        <v>1972</v>
+        <v>2007</v>
       </c>
       <c r="E238" s="15" t="n">
-        <v>9.02</v>
+        <v>9</v>
       </c>
       <c r="F238" s="7" t="n">
-        <v>515</v>
+        <v>473</v>
       </c>
       <c r="G238" s="7" t="inlineStr">
         <is>
-          <t>Osterøy</t>
+          <t>Bergen</t>
         </is>
       </c>
       <c r="H238" s="16" t="n">
-        <v>23.05</v>
+        <v>7.06</v>
       </c>
       <c r="J238" s="5" t="n"/>
       <c r="L238" s="14" t="inlineStr">
         <is>
-          <t>200m</t>
+          <t>Kule</t>
         </is>
       </c>
       <c r="M238" s="7" t="inlineStr">
         <is>
-          <t>Ingrid Straume-Sunde</t>
+          <t>Helga Reigstad</t>
         </is>
       </c>
       <c r="N238" s="7" t="n">
-        <v>2010</v>
+        <v>1972</v>
       </c>
       <c r="O238" s="15" t="n">
-        <v>30.09</v>
+        <v>9.02</v>
       </c>
       <c r="P238" s="7" t="n">
-        <v>445</v>
+        <v>515</v>
       </c>
       <c r="Q238" s="7" t="inlineStr">
         <is>
-          <t>Fana</t>
+          <t>Osterøy</t>
         </is>
       </c>
       <c r="R238" s="16" t="n">
-        <v>15.05</v>
+        <v>23.05</v>
       </c>
       <c r="T238" s="5" t="n"/>
     </row>
     <row r="239" ht="13" customHeight="1">
       <c r="B239" s="14" t="inlineStr">
         <is>
-          <t>3000m</t>
+          <t>60m</t>
         </is>
       </c>
       <c r="C239" s="7" t="inlineStr">
         <is>
-          <t>Mirjam Mjelde</t>
+          <t>Alva Grønnevik</t>
         </is>
       </c>
       <c r="D239" s="7" t="n">
-        <v>1969</v>
-      </c>
-      <c r="E239" s="17" t="inlineStr">
-        <is>
-          <t>11,51,36mx</t>
-        </is>
+        <v>2007</v>
+      </c>
+      <c r="E239" s="15" t="n">
+        <v>9.24</v>
       </c>
       <c r="F239" s="7" t="n">
-        <v>481</v>
+        <v>420</v>
       </c>
       <c r="G239" s="7" t="inlineStr">
         <is>
-          <t>Osterøy</t>
+          <t>Bergen</t>
         </is>
       </c>
       <c r="H239" s="16" t="n">
-        <v>2.06</v>
+        <v>7.06</v>
       </c>
       <c r="J239" s="5" t="n"/>
       <c r="L239" s="14" t="inlineStr">
         <is>
-          <t>100m</t>
+          <t>3000m</t>
         </is>
       </c>
       <c r="M239" s="7" t="inlineStr">
         <is>
-          <t>Ingrid Straume-Sunde</t>
+          <t>Mirjam Mjelde</t>
         </is>
       </c>
       <c r="N239" s="7" t="n">
-        <v>2010</v>
-      </c>
-      <c r="O239" s="15" t="n">
-        <v>14.52</v>
+        <v>1969</v>
+      </c>
+      <c r="O239" s="17" t="inlineStr">
+        <is>
+          <t>11,51,36mx</t>
+        </is>
       </c>
       <c r="P239" s="7" t="n">
-        <v>435</v>
+        <v>481</v>
       </c>
       <c r="Q239" s="7" t="inlineStr">
         <is>
-          <t>Fana</t>
+          <t>Osterøy</t>
         </is>
       </c>
       <c r="R239" s="16" t="n">
-        <v>29.05</v>
+        <v>2.06</v>
       </c>
       <c r="T239" s="5" t="n"/>
     </row>
     <row r="240" ht="13" customHeight="1">
       <c r="B240" s="14" t="inlineStr">
         <is>
-          <t>3000m</t>
+          <t>200m</t>
         </is>
       </c>
       <c r="C240" s="7" t="inlineStr">
         <is>
-          <t>Ingri M Birkeland</t>
+          <t>Alva Grønnevik</t>
         </is>
       </c>
       <c r="D240" s="7" t="n">
-        <v>1984</v>
-      </c>
-      <c r="E240" s="17" t="inlineStr">
-        <is>
-          <t>12,07,15mx</t>
-        </is>
+        <v>2007</v>
+      </c>
+      <c r="E240" s="15" t="n">
+        <v>30.63</v>
       </c>
       <c r="F240" s="7" t="n">
-        <v>449</v>
+        <v>414</v>
       </c>
       <c r="G240" s="7" t="inlineStr">
         <is>
-          <t>Osterøy</t>
+          <t>Bergen</t>
         </is>
       </c>
       <c r="H240" s="16" t="n">
-        <v>2.06</v>
+        <v>7.06</v>
       </c>
       <c r="J240" s="5" t="n"/>
       <c r="L240" s="14" t="inlineStr">
         <is>
-          <t>60m</t>
+          <t>3000m</t>
         </is>
       </c>
       <c r="M240" s="7" t="inlineStr">
         <is>
-          <t>Ingrid Straume Sunde</t>
+          <t>Ingri M Birkeland</t>
         </is>
       </c>
       <c r="N240" s="7" t="n">
-        <v>2010</v>
-      </c>
-      <c r="O240" s="15" t="n">
-        <v>9.210000000000001</v>
+        <v>1984</v>
+      </c>
+      <c r="O240" s="17" t="inlineStr">
+        <is>
+          <t>12,07,15mx</t>
+        </is>
       </c>
       <c r="P240" s="7" t="n">
-        <v>427</v>
+        <v>449</v>
       </c>
       <c r="Q240" s="7" t="inlineStr">
         <is>
-          <t>Ravnanger</t>
+          <t>Osterøy</t>
         </is>
       </c>
       <c r="R240" s="16" t="n">
-        <v>20.04</v>
+        <v>2.06</v>
       </c>
       <c r="T240" s="5" t="n"/>
     </row>
     <row r="241" ht="13" customHeight="1">
       <c r="B241" s="14" t="inlineStr">
         <is>
-          <t>3000m</t>
+          <t>200m</t>
         </is>
       </c>
       <c r="C241" s="7" t="inlineStr">
         <is>
-          <t>Anne Lise Leiren Mastervik</t>
+          <t>Mari Haukeland Aarra</t>
         </is>
       </c>
       <c r="D241" s="7" t="n">
-        <v>1972</v>
-      </c>
-      <c r="E241" s="17" t="inlineStr">
-        <is>
-          <t>12,38,51mx</t>
-        </is>
+        <v>2007</v>
+      </c>
+      <c r="E241" s="15" t="n">
+        <v>30.9</v>
       </c>
       <c r="F241" s="7" t="n">
-        <v>390</v>
+        <v>399</v>
       </c>
       <c r="G241" s="7" t="inlineStr">
         <is>
-          <t>Osterøy</t>
+          <t>Bergen</t>
         </is>
       </c>
       <c r="H241" s="16" t="n">
-        <v>2.06</v>
+        <v>7.06</v>
       </c>
       <c r="J241" s="5" t="n"/>
       <c r="L241" s="14" t="inlineStr">
         <is>
-          <t>60m</t>
+          <t>3000m</t>
         </is>
       </c>
       <c r="M241" s="7" t="inlineStr">
         <is>
-          <t>Venja Lillebø</t>
+          <t>Anne Lise Leiren Mastervik</t>
         </is>
       </c>
       <c r="N241" s="7" t="n">
-        <v>2009</v>
-      </c>
-      <c r="O241" s="15" t="n">
-        <v>9.630000000000001</v>
+        <v>1972</v>
+      </c>
+      <c r="O241" s="17" t="inlineStr">
+        <is>
+          <t>12,38,51mx</t>
+        </is>
       </c>
       <c r="P241" s="7" t="n">
-        <v>341</v>
+        <v>390</v>
       </c>
       <c r="Q241" s="7" t="inlineStr">
         <is>
-          <t>Ravnanger</t>
+          <t>Osterøy</t>
         </is>
       </c>
       <c r="R241" s="16" t="n">
-        <v>20.07</v>
+        <v>2.06</v>
       </c>
       <c r="T241" s="5" t="n"/>
     </row>
     <row r="242" ht="13" customHeight="1">
       <c r="B242" s="14" t="inlineStr">
         <is>
-          <t>3000m</t>
+          <t>Lengde</t>
         </is>
       </c>
       <c r="C242" s="7" t="inlineStr">
         <is>
-          <t>Margrethe Fjellskålnes</t>
+          <t>Alva Grønnevik</t>
         </is>
       </c>
       <c r="D242" s="7" t="n">
         <v>2007</v>
       </c>
-      <c r="E242" s="17" t="inlineStr">
-        <is>
-          <t>12,47,51mx</t>
-        </is>
+      <c r="E242" s="15" t="n">
+        <v>3.94</v>
       </c>
       <c r="F242" s="7" t="n">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="G242" s="7" t="inlineStr">
         <is>
-          <t>Osterøy</t>
+          <t>Bergen</t>
         </is>
       </c>
       <c r="H242" s="16" t="n">
-        <v>2.06</v>
+        <v>10.05</v>
       </c>
       <c r="J242" s="5" t="n"/>
       <c r="L242" s="14" t="inlineStr">
         <is>
-          <t>Lengde u.t</t>
+          <t>3000m</t>
         </is>
       </c>
       <c r="M242" s="7" t="inlineStr">
         <is>
-          <t>Ingrid Straume Sunde</t>
+          <t>Margrethe Fjellskålnes</t>
         </is>
       </c>
       <c r="N242" s="7" t="n">
-        <v>2010</v>
-      </c>
-      <c r="O242" s="15" t="n">
-        <v>2.09</v>
+        <v>2007</v>
+      </c>
+      <c r="O242" s="17" t="inlineStr">
+        <is>
+          <t>12,47,51mx</t>
+        </is>
       </c>
       <c r="P242" s="7" t="n">
-        <v>328</v>
+        <v>374</v>
       </c>
       <c r="Q242" s="7" t="inlineStr">
         <is>
-          <t>Leikvang</t>
+          <t>Osterøy</t>
         </is>
       </c>
       <c r="R242" s="16" t="n">
-        <v>19.03</v>
+        <v>2.06</v>
       </c>
       <c r="T242" s="5" t="n"/>
     </row>
     <row r="243" ht="13" customHeight="1">
       <c r="B243" s="14" t="inlineStr">
         <is>
-          <t>800m</t>
+          <t>Tresteg</t>
         </is>
       </c>
       <c r="C243" s="7" t="inlineStr">
         <is>
-          <t>Anne Lise Leiren Mastervik</t>
+          <t>Vera Semen Kjetland</t>
         </is>
       </c>
       <c r="D243" s="7" t="n">
-        <v>1972</v>
-      </c>
-      <c r="E243" s="17" t="inlineStr">
-        <is>
-          <t>2,58,16mx</t>
-        </is>
+        <v>2007</v>
+      </c>
+      <c r="E243" s="15" t="n">
+        <v>7.57</v>
       </c>
       <c r="F243" s="7" t="n">
-        <v>319</v>
+        <v>274</v>
       </c>
       <c r="G243" s="7" t="inlineStr">
         <is>
-          <t>Osterøy</t>
+          <t>Leikvang</t>
         </is>
       </c>
       <c r="H243" s="16" t="n">
-        <v>23.05</v>
+        <v>19.02</v>
       </c>
       <c r="J243" s="5" t="n"/>
       <c r="L243" s="14" t="inlineStr">
         <is>
-          <t>Lengde u.t</t>
+          <t>800m</t>
         </is>
       </c>
       <c r="M243" s="7" t="inlineStr">
         <is>
-          <t>Venja Lillebø</t>
+          <t>Anne Lise Leiren Mastervik</t>
         </is>
       </c>
       <c r="N243" s="7" t="n">
-        <v>2009</v>
-      </c>
-      <c r="O243" s="15" t="n">
-        <v>1.97</v>
+        <v>1972</v>
+      </c>
+      <c r="O243" s="17" t="inlineStr">
+        <is>
+          <t>2,58,16mx</t>
+        </is>
       </c>
       <c r="P243" s="7" t="n">
-        <v>216</v>
+        <v>319</v>
       </c>
       <c r="Q243" s="7" t="inlineStr">
         <is>
-          <t>Askøy</t>
+          <t>Osterøy</t>
         </is>
       </c>
       <c r="R243" s="16" t="n">
-        <v>14.03</v>
+        <v>23.05</v>
       </c>
       <c r="T243" s="5" t="n"/>
     </row>
     <row r="244" ht="13" customHeight="1">
-      <c r="B244" s="14" t="inlineStr">
-        <is>
-          <t>Lengde u.t</t>
-        </is>
-      </c>
-      <c r="C244" s="7" t="inlineStr">
-        <is>
-          <t>Lena Hopland</t>
-        </is>
-      </c>
-      <c r="D244" s="7" t="n">
-        <v>2006</v>
-      </c>
-      <c r="E244" s="15" t="n">
-        <v>1.99</v>
-      </c>
-      <c r="F244" s="7" t="n">
-        <v>236</v>
-      </c>
-      <c r="G244" s="7" t="inlineStr">
-        <is>
-          <t>Osterøy</t>
-        </is>
-      </c>
-      <c r="H244" s="16" t="n">
-        <v>17.01</v>
-      </c>
+      <c r="B244" s="14" t="n"/>
+      <c r="C244" s="7" t="n"/>
+      <c r="D244" s="7" t="n"/>
+      <c r="E244" s="7" t="n"/>
+      <c r="F244" s="7" t="n"/>
+      <c r="G244" s="7" t="n"/>
+      <c r="H244" s="18" t="n"/>
       <c r="J244" s="5" t="n"/>
       <c r="L244" s="14" t="inlineStr">
         <is>
@@ -55187,25 +55261,25 @@
       </c>
       <c r="M244" s="7" t="inlineStr">
         <is>
-          <t>Sofie Elise Indrebø</t>
+          <t>Lena Hopland</t>
         </is>
       </c>
       <c r="N244" s="7" t="n">
-        <v>2010</v>
+        <v>2006</v>
       </c>
       <c r="O244" s="15" t="n">
-        <v>1.85</v>
+        <v>1.99</v>
       </c>
       <c r="P244" s="7" t="n">
-        <v>88</v>
+        <v>236</v>
       </c>
       <c r="Q244" s="7" t="inlineStr">
         <is>
-          <t>Askøy</t>
+          <t>Osterøy</t>
         </is>
       </c>
       <c r="R244" s="16" t="n">
-        <v>14.03</v>
+        <v>17.01</v>
       </c>
       <c r="T244" s="5" t="n"/>
     </row>
@@ -55234,7 +55308,7 @@
         </is>
       </c>
       <c r="C246" s="21" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E246" s="20" t="inlineStr">
         <is>
@@ -55242,7 +55316,7 @@
         </is>
       </c>
       <c r="F246" s="21" t="n">
-        <v>3357</v>
+        <v>2830</v>
       </c>
       <c r="J246" s="5" t="n"/>
       <c r="L246" s="20" t="inlineStr">
@@ -55259,7 +55333,7 @@
         </is>
       </c>
       <c r="P246" s="21" t="n">
-        <v>2746</v>
+        <v>3357</v>
       </c>
       <c r="T246" s="5" t="n"/>
     </row>
@@ -55274,7 +55348,7 @@
         </is>
       </c>
       <c r="C248" s="21" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E248" s="20" t="inlineStr">
         <is>
@@ -55282,7 +55356,7 @@
         </is>
       </c>
       <c r="F248" s="21" t="n">
-        <v>6199</v>
+        <v>6434</v>
       </c>
       <c r="J248" s="5" t="n"/>
       <c r="L248" s="20" t="inlineStr">
@@ -55291,7 +55365,7 @@
         </is>
       </c>
       <c r="M248" s="21" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="O248" s="20" t="inlineStr">
         <is>
@@ -55299,7 +55373,7 @@
         </is>
       </c>
       <c r="P248" s="21" t="n">
-        <v>5903</v>
+        <v>6199</v>
       </c>
       <c r="T248" s="5" t="n"/>
     </row>
@@ -55314,7 +55388,7 @@
         </is>
       </c>
       <c r="C250" s="21" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="J250" s="5" t="n"/>
       <c r="L250" s="20" t="inlineStr">
@@ -55323,7 +55397,7 @@
         </is>
       </c>
       <c r="M250" s="21" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="T250" s="5" t="n"/>
     </row>
@@ -55368,7 +55442,7 @@
         </is>
       </c>
       <c r="F254" s="8" t="n">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="J254" s="5" t="n"/>
     </row>
@@ -55380,7 +55454,7 @@
       </c>
       <c r="C255" s="7" t="inlineStr">
         <is>
-          <t>IL Fri</t>
+          <t>Ask Friidrett 2. lag</t>
         </is>
       </c>
       <c r="J255" s="5" t="n"/>
@@ -55456,25 +55530,25 @@
       </c>
       <c r="C261" s="7" t="inlineStr">
         <is>
-          <t>Maia Loftås</t>
+          <t>Ingrid Straume-Sunde</t>
         </is>
       </c>
       <c r="D261" s="7" t="n">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="E261" s="15" t="n">
-        <v>11.13</v>
+        <v>8.98</v>
       </c>
       <c r="F261" s="7" t="n">
-        <v>83</v>
+        <v>477</v>
       </c>
       <c r="G261" s="7" t="inlineStr">
         <is>
-          <t>Arna</t>
+          <t>Fana</t>
         </is>
       </c>
       <c r="H261" s="16" t="n">
-        <v>22.06</v>
+        <v>28.05</v>
       </c>
       <c r="J261" s="5" t="n"/>
     </row>
@@ -55486,49 +55560,47 @@
       </c>
       <c r="C262" s="7" t="inlineStr">
         <is>
-          <t>Signe-Marie Torvund</t>
+          <t>Sofie Elise Indrebø</t>
         </is>
       </c>
       <c r="D262" s="7" t="n">
-        <v>2004</v>
+        <v>2010</v>
       </c>
       <c r="E262" s="15" t="n">
-        <v>15.14</v>
+        <v>14.5</v>
       </c>
       <c r="F262" s="7" t="n">
-        <v>353</v>
+        <v>438</v>
       </c>
       <c r="G262" s="7" t="inlineStr">
         <is>
-          <t>Arna</t>
+          <t>Fana</t>
         </is>
       </c>
       <c r="H262" s="16" t="n">
-        <v>22.06</v>
+        <v>29.05</v>
       </c>
       <c r="J262" s="5" t="n"/>
     </row>
     <row r="263" ht="13" customHeight="1">
       <c r="B263" s="14" t="inlineStr">
         <is>
-          <t>800m</t>
+          <t>200m</t>
         </is>
       </c>
       <c r="C263" s="7" t="inlineStr">
         <is>
-          <t>Vilde-Sofie Torvund</t>
+          <t>Sofie Elise Indrebø</t>
         </is>
       </c>
       <c r="D263" s="7" t="n">
-        <v>2006</v>
-      </c>
-      <c r="E263" s="17" t="inlineStr">
-        <is>
-          <t>2,19,40</t>
-        </is>
+        <v>2010</v>
+      </c>
+      <c r="E263" s="15" t="n">
+        <v>29.94</v>
       </c>
       <c r="F263" s="7" t="n">
-        <v>675</v>
+        <v>454</v>
       </c>
       <c r="G263" s="7" t="inlineStr">
         <is>
@@ -55536,131 +55608,131 @@
         </is>
       </c>
       <c r="H263" s="16" t="n">
-        <v>14.05</v>
+        <v>27.05</v>
       </c>
       <c r="J263" s="5" t="n"/>
     </row>
     <row r="264" ht="13" customHeight="1">
       <c r="B264" s="14" t="inlineStr">
         <is>
-          <t>1500m</t>
+          <t>800m</t>
         </is>
       </c>
       <c r="C264" s="7" t="inlineStr">
         <is>
-          <t>Vilde-Sofie Torvund</t>
+          <t>Pia Norheim</t>
         </is>
       </c>
       <c r="D264" s="7" t="n">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="E264" s="17" t="inlineStr">
         <is>
-          <t>4,44,10</t>
+          <t>2,30,04</t>
         </is>
       </c>
       <c r="F264" s="7" t="n">
-        <v>700</v>
+        <v>557</v>
       </c>
       <c r="G264" s="7" t="inlineStr">
         <is>
-          <t>Fana</t>
+          <t>Leikvang</t>
         </is>
       </c>
       <c r="H264" s="16" t="n">
-        <v>28.05</v>
+        <v>19.02</v>
       </c>
       <c r="J264" s="5" t="n"/>
     </row>
     <row r="265" ht="13" customHeight="1">
       <c r="B265" s="14" t="inlineStr">
         <is>
-          <t>3000m</t>
+          <t>1500m</t>
         </is>
       </c>
       <c r="C265" s="7" t="inlineStr">
         <is>
-          <t>Vigdis Gaupholm Reigstad</t>
+          <t>Julia Varsi</t>
         </is>
       </c>
       <c r="D265" s="7" t="n">
-        <v>1973</v>
+        <v>2005</v>
       </c>
       <c r="E265" s="17" t="inlineStr">
         <is>
-          <t>10,44,31mx</t>
+          <t>5,31,81</t>
         </is>
       </c>
       <c r="F265" s="7" t="n">
-        <v>627</v>
+        <v>461</v>
       </c>
       <c r="G265" s="7" t="inlineStr">
         <is>
-          <t>Arna</t>
+          <t>Fana</t>
         </is>
       </c>
       <c r="H265" s="16" t="n">
-        <v>6.07</v>
+        <v>28.05</v>
       </c>
       <c r="J265" s="5" t="n"/>
     </row>
     <row r="266" ht="13" customHeight="1">
       <c r="B266" s="14" t="inlineStr">
         <is>
-          <t>Kule</t>
+          <t>Lengde</t>
         </is>
       </c>
       <c r="C266" s="7" t="inlineStr">
         <is>
-          <t>Matilde Roe</t>
+          <t>Sofie Elise Indrebø</t>
         </is>
       </c>
       <c r="D266" s="7" t="n">
-        <v>1996</v>
+        <v>2010</v>
       </c>
       <c r="E266" s="15" t="n">
-        <v>14.49</v>
+        <v>3.77</v>
       </c>
       <c r="F266" s="7" t="n">
-        <v>833</v>
+        <v>327</v>
       </c>
       <c r="G266" s="7" t="inlineStr">
         <is>
-          <t>Phoenix/AZ/USA</t>
+          <t>Leikvang</t>
         </is>
       </c>
       <c r="H266" s="16" t="n">
-        <v>3.04</v>
+        <v>29.01</v>
       </c>
       <c r="J266" s="5" t="n"/>
     </row>
     <row r="267" ht="13" customHeight="1">
       <c r="B267" s="14" t="inlineStr">
         <is>
-          <t>Diskos</t>
+          <t>Lengde u.t</t>
         </is>
       </c>
       <c r="C267" s="7" t="inlineStr">
         <is>
-          <t>Matilde Roe</t>
+          <t>Elin Hundven Eliassen</t>
         </is>
       </c>
       <c r="D267" s="7" t="n">
-        <v>1996</v>
+        <v>1973</v>
       </c>
       <c r="E267" s="15" t="n">
-        <v>51.11</v>
+        <v>2.23</v>
       </c>
       <c r="F267" s="7" t="n">
-        <v>877</v>
+        <v>443</v>
       </c>
       <c r="G267" s="7" t="inlineStr">
         <is>
-          <t>Long Beach/CA/USA</t>
+          <t>Leikvang</t>
         </is>
       </c>
       <c r="H267" s="16" t="n">
-        <v>16.04</v>
+        <v>19.03</v>
       </c>
       <c r="J267" s="5" t="n"/>
     </row>
@@ -55739,7 +55811,7 @@
         </is>
       </c>
       <c r="F274" s="21" t="n">
-        <v>4148</v>
+        <v>3157</v>
       </c>
       <c r="J274" s="5" t="n"/>
     </row>
@@ -55798,187 +55870,241 @@
     <row r="279" ht="13" customHeight="1">
       <c r="B279" s="14" t="inlineStr">
         <is>
-          <t>1500m</t>
+          <t>60m</t>
         </is>
       </c>
       <c r="C279" s="7" t="inlineStr">
         <is>
-          <t>Signe-Marie Torvund</t>
+          <t>Sofie Elise Indrebø</t>
         </is>
       </c>
       <c r="D279" s="7" t="n">
-        <v>2004</v>
-      </c>
-      <c r="E279" s="17" t="inlineStr">
-        <is>
-          <t>5,26,95+</t>
-        </is>
+        <v>2010</v>
+      </c>
+      <c r="E279" s="15" t="n">
+        <v>9.029999999999999</v>
       </c>
       <c r="F279" s="7" t="n">
-        <v>482</v>
+        <v>466</v>
       </c>
       <c r="G279" s="7" t="inlineStr">
         <is>
-          <t>Arna</t>
+          <t>Ravnanger</t>
         </is>
       </c>
       <c r="H279" s="16" t="n">
-        <v>1.08</v>
+        <v>20.04</v>
       </c>
       <c r="J279" s="5" t="n"/>
     </row>
     <row r="280" ht="13" customHeight="1">
       <c r="B280" s="14" t="inlineStr">
         <is>
-          <t>1500m</t>
+          <t>200m</t>
         </is>
       </c>
       <c r="C280" s="7" t="inlineStr">
         <is>
-          <t>Synne-Helen Torvund</t>
+          <t>Ingrid Straume-Sunde</t>
         </is>
       </c>
       <c r="D280" s="7" t="n">
-        <v>2002</v>
-      </c>
-      <c r="E280" s="17" t="inlineStr">
-        <is>
-          <t>5,40,76</t>
-        </is>
+        <v>2010</v>
+      </c>
+      <c r="E280" s="15" t="n">
+        <v>30.09</v>
       </c>
       <c r="F280" s="7" t="n">
-        <v>423</v>
+        <v>445</v>
       </c>
       <c r="G280" s="7" t="inlineStr">
         <is>
-          <t>Arna</t>
+          <t>Fana</t>
         </is>
       </c>
       <c r="H280" s="16" t="n">
-        <v>22.06</v>
+        <v>15.05</v>
       </c>
       <c r="J280" s="5" t="n"/>
     </row>
     <row r="281" ht="13" customHeight="1">
       <c r="B281" s="14" t="inlineStr">
         <is>
-          <t>Diskos</t>
+          <t>100m</t>
         </is>
       </c>
       <c r="C281" s="7" t="inlineStr">
         <is>
-          <t>Ingunn Gatland Jacobsen</t>
+          <t>Ingrid Straume-Sunde</t>
         </is>
       </c>
       <c r="D281" s="7" t="n">
-        <v>1967</v>
+        <v>2010</v>
       </c>
       <c r="E281" s="15" t="n">
-        <v>17.19</v>
+        <v>14.52</v>
       </c>
       <c r="F281" s="7" t="n">
-        <v>304</v>
+        <v>435</v>
       </c>
       <c r="G281" s="7" t="inlineStr">
         <is>
-          <t>Osterøy</t>
+          <t>Fana</t>
         </is>
       </c>
       <c r="H281" s="16" t="n">
-        <v>20.06</v>
+        <v>29.05</v>
       </c>
       <c r="J281" s="5" t="n"/>
     </row>
     <row r="282" ht="13" customHeight="1">
       <c r="B282" s="14" t="inlineStr">
         <is>
-          <t>3000m</t>
+          <t>60m</t>
         </is>
       </c>
       <c r="C282" s="7" t="inlineStr">
         <is>
-          <t>Kristin Brattabø</t>
+          <t>Ingrid Straume Sunde</t>
         </is>
       </c>
       <c r="D282" s="7" t="n">
-        <v>2011</v>
-      </c>
-      <c r="E282" s="17" t="inlineStr">
-        <is>
-          <t>15,15,94mx</t>
-        </is>
+        <v>2010</v>
+      </c>
+      <c r="E282" s="15" t="n">
+        <v>9.210000000000001</v>
       </c>
       <c r="F282" s="7" t="n">
-        <v>134</v>
+        <v>427</v>
       </c>
       <c r="G282" s="7" t="inlineStr">
         <is>
-          <t>Osterøy</t>
+          <t>Ravnanger</t>
         </is>
       </c>
       <c r="H282" s="16" t="n">
-        <v>2.06</v>
+        <v>20.04</v>
       </c>
       <c r="J282" s="5" t="n"/>
     </row>
     <row r="283" ht="13" customHeight="1">
       <c r="B283" s="14" t="inlineStr">
         <is>
-          <t>Diskos</t>
+          <t>60m</t>
         </is>
       </c>
       <c r="C283" s="7" t="inlineStr">
         <is>
-          <t>Eldbjørg Sanden Søvik</t>
+          <t>Venja Lillebø</t>
         </is>
       </c>
       <c r="D283" s="7" t="n">
-        <v>1956</v>
+        <v>2009</v>
       </c>
       <c r="E283" s="15" t="n">
-        <v>13.34</v>
+        <v>9.630000000000001</v>
       </c>
       <c r="F283" s="7" t="n">
-        <v>127</v>
+        <v>341</v>
       </c>
       <c r="G283" s="7" t="inlineStr">
         <is>
-          <t>Bergen</t>
+          <t>Ravnanger</t>
         </is>
       </c>
       <c r="H283" s="16" t="n">
-        <v>23.04</v>
+        <v>20.07</v>
       </c>
       <c r="J283" s="5" t="n"/>
     </row>
     <row r="284" ht="13" customHeight="1">
-      <c r="B284" s="14" t="n"/>
-      <c r="C284" s="7" t="n"/>
-      <c r="D284" s="7" t="n"/>
-      <c r="E284" s="7" t="n"/>
-      <c r="F284" s="7" t="n"/>
-      <c r="G284" s="7" t="n"/>
-      <c r="H284" s="18" t="n"/>
+      <c r="B284" s="14" t="inlineStr">
+        <is>
+          <t>Lengde u.t</t>
+        </is>
+      </c>
+      <c r="C284" s="7" t="inlineStr">
+        <is>
+          <t>Ingrid Straume Sunde</t>
+        </is>
+      </c>
+      <c r="D284" s="7" t="n">
+        <v>2010</v>
+      </c>
+      <c r="E284" s="15" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="F284" s="7" t="n">
+        <v>328</v>
+      </c>
+      <c r="G284" s="7" t="inlineStr">
+        <is>
+          <t>Leikvang</t>
+        </is>
+      </c>
+      <c r="H284" s="16" t="n">
+        <v>19.03</v>
+      </c>
       <c r="J284" s="5" t="n"/>
     </row>
     <row r="285" ht="13" customHeight="1">
-      <c r="B285" s="14" t="n"/>
-      <c r="C285" s="7" t="n"/>
-      <c r="D285" s="7" t="n"/>
-      <c r="E285" s="7" t="n"/>
-      <c r="F285" s="7" t="n"/>
-      <c r="G285" s="7" t="n"/>
-      <c r="H285" s="18" t="n"/>
+      <c r="B285" s="14" t="inlineStr">
+        <is>
+          <t>Lengde u.t</t>
+        </is>
+      </c>
+      <c r="C285" s="7" t="inlineStr">
+        <is>
+          <t>Venja Lillebø</t>
+        </is>
+      </c>
+      <c r="D285" s="7" t="n">
+        <v>2009</v>
+      </c>
+      <c r="E285" s="15" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="F285" s="7" t="n">
+        <v>216</v>
+      </c>
+      <c r="G285" s="7" t="inlineStr">
+        <is>
+          <t>Askøy</t>
+        </is>
+      </c>
+      <c r="H285" s="16" t="n">
+        <v>14.03</v>
+      </c>
       <c r="J285" s="5" t="n"/>
     </row>
     <row r="286" ht="13" customHeight="1">
-      <c r="B286" s="14" t="n"/>
-      <c r="C286" s="7" t="n"/>
-      <c r="D286" s="7" t="n"/>
-      <c r="E286" s="7" t="n"/>
-      <c r="F286" s="7" t="n"/>
-      <c r="G286" s="7" t="n"/>
-      <c r="H286" s="18" t="n"/>
+      <c r="B286" s="14" t="inlineStr">
+        <is>
+          <t>Lengde u.t</t>
+        </is>
+      </c>
+      <c r="C286" s="7" t="inlineStr">
+        <is>
+          <t>Sofie Elise Indrebø</t>
+        </is>
+      </c>
+      <c r="D286" s="7" t="n">
+        <v>2010</v>
+      </c>
+      <c r="E286" s="15" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="F286" s="7" t="n">
+        <v>88</v>
+      </c>
+      <c r="G286" s="7" t="inlineStr">
+        <is>
+          <t>Askøy</t>
+        </is>
+      </c>
+      <c r="H286" s="16" t="n">
+        <v>14.03</v>
+      </c>
       <c r="J286" s="5" t="n"/>
     </row>
     <row r="287" ht="13" customHeight="1">
@@ -55998,7 +56124,7 @@
         </is>
       </c>
       <c r="C288" s="21" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E288" s="20" t="inlineStr">
         <is>
@@ -56006,7 +56132,7 @@
         </is>
       </c>
       <c r="F288" s="21" t="n">
-        <v>1470</v>
+        <v>2746</v>
       </c>
       <c r="J288" s="5" t="n"/>
     </row>
@@ -56020,7 +56146,7 @@
         </is>
       </c>
       <c r="C290" s="21" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E290" s="20" t="inlineStr">
         <is>
@@ -56028,7 +56154,7 @@
         </is>
       </c>
       <c r="F290" s="21" t="n">
-        <v>5618</v>
+        <v>5903</v>
       </c>
       <c r="J290" s="5" t="n"/>
     </row>
@@ -56042,7 +56168,7 @@
         </is>
       </c>
       <c r="C292" s="21" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="J292" s="5" t="n"/>
     </row>
@@ -56139,7 +56265,7 @@
         </is>
       </c>
       <c r="F2" s="8" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J2" s="5" t="n"/>
       <c r="L2" s="6" t="inlineStr">
@@ -57669,7 +57795,7 @@
         </is>
       </c>
       <c r="P44" s="8" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="T44" s="5" t="n"/>
     </row>
@@ -59019,7 +59145,7 @@
         </is>
       </c>
       <c r="F86" s="8" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J86" s="5" t="n"/>
       <c r="L86" s="6" t="inlineStr">
@@ -59369,19 +59495,19 @@
       </c>
       <c r="E96" s="17" t="inlineStr">
         <is>
-          <t>5,06,91</t>
+          <t>5,06,89</t>
         </is>
       </c>
       <c r="F96" s="7" t="n">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="G96" s="7" t="inlineStr">
         <is>
-          <t>Oslo/Bi</t>
+          <t>Brandbu</t>
         </is>
       </c>
       <c r="H96" s="16" t="n">
-        <v>23.07</v>
+        <v>17.08</v>
       </c>
       <c r="J96" s="5" t="n"/>
       <c r="L96" s="14" t="inlineStr">
@@ -59435,11 +59561,11 @@
       </c>
       <c r="G97" s="7" t="inlineStr">
         <is>
-          <t>Hamar</t>
+          <t>Ulsteinvik</t>
         </is>
       </c>
       <c r="H97" s="16" t="n">
-        <v>21.05</v>
+        <v>20.03</v>
       </c>
       <c r="J97" s="5" t="n"/>
       <c r="L97" s="14" t="inlineStr">
@@ -59796,7 +59922,7 @@
         </is>
       </c>
       <c r="F106" s="21" t="n">
-        <v>6255</v>
+        <v>6256</v>
       </c>
       <c r="J106" s="5" t="n"/>
       <c r="L106" s="20" t="inlineStr">
@@ -60213,11 +60339,11 @@
       </c>
       <c r="C116" s="7" t="inlineStr">
         <is>
-          <t>Ella Gjefsen</t>
+          <t>Alice Nyiramucho</t>
         </is>
       </c>
       <c r="D116" s="7" t="n">
-        <v>2010</v>
+        <v>2011</v>
       </c>
       <c r="E116" s="15" t="n">
         <v>1.05</v>
@@ -60271,11 +60397,11 @@
       </c>
       <c r="C117" s="7" t="inlineStr">
         <is>
-          <t>Alice Nyiramucho</t>
+          <t>Ella Gjefsen</t>
         </is>
       </c>
       <c r="D117" s="7" t="n">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="E117" s="15" t="n">
         <v>1.05</v>
@@ -60289,7 +60415,7 @@
         </is>
       </c>
       <c r="H117" s="16" t="n">
-        <v>1.06</v>
+        <v>17.08</v>
       </c>
       <c r="J117" s="5" t="n"/>
       <c r="L117" s="14" t="n"/>
@@ -60412,7 +60538,7 @@
         </is>
       </c>
       <c r="F122" s="21" t="n">
-        <v>8104</v>
+        <v>8105</v>
       </c>
       <c r="J122" s="5" t="n"/>
       <c r="L122" s="20" t="inlineStr">
@@ -60499,7 +60625,7 @@
         </is>
       </c>
       <c r="F128" s="8" t="n">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="J128" s="5" t="n"/>
       <c r="L128" s="6" t="inlineStr">
@@ -60513,7 +60639,7 @@
         </is>
       </c>
       <c r="P128" s="8" t="n">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="T128" s="5" t="n"/>
     </row>
@@ -61735,7 +61861,7 @@
         </is>
       </c>
       <c r="F170" s="8" t="n">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="J170" s="5" t="n"/>
       <c r="L170" s="6" t="inlineStr">
@@ -64688,7 +64814,7 @@
         </is>
       </c>
       <c r="P44" s="8" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="T44" s="5" t="n"/>
     </row>
@@ -66210,7 +66336,7 @@
         </is>
       </c>
       <c r="F86" s="8" t="n">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J86" s="5" t="n"/>
       <c r="L86" s="6" t="inlineStr">
@@ -66224,7 +66350,7 @@
         </is>
       </c>
       <c r="P86" s="8" t="n">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="T86" s="5" t="n"/>
     </row>
@@ -69199,7 +69325,7 @@
         </is>
       </c>
       <c r="F44" s="8" t="n">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="J44" s="5" t="n"/>
       <c r="L44" s="6" t="inlineStr">
@@ -69213,7 +69339,7 @@
         </is>
       </c>
       <c r="P44" s="8" t="n">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="T44" s="5" t="n"/>
     </row>
@@ -69236,7 +69362,7 @@
       </c>
       <c r="M45" s="7" t="inlineStr">
         <is>
-          <t>IL Nybrott</t>
+          <t>Overhalla IL</t>
         </is>
       </c>
       <c r="T45" s="5" t="n"/>
@@ -69393,25 +69519,25 @@
       </c>
       <c r="M51" s="7" t="inlineStr">
         <is>
-          <t>Anna Reberg</t>
+          <t>Signe Asp Fossland</t>
         </is>
       </c>
       <c r="N51" s="7" t="n">
-        <v>2007</v>
+        <v>2008</v>
       </c>
       <c r="O51" s="15" t="n">
-        <v>8.859999999999999</v>
+        <v>8.9</v>
       </c>
       <c r="P51" s="7" t="n">
-        <v>505</v>
+        <v>495</v>
       </c>
       <c r="Q51" s="7" t="inlineStr">
         <is>
-          <t>Stjørdal</t>
+          <t>Lillehammer</t>
         </is>
       </c>
       <c r="R51" s="16" t="n">
-        <v>14.06</v>
+        <v>18.06</v>
       </c>
       <c r="T51" s="5" t="n"/>
     </row>
@@ -69451,25 +69577,25 @@
       </c>
       <c r="M52" s="7" t="inlineStr">
         <is>
-          <t>Anna Reberg</t>
+          <t>Signe Asp Fossland</t>
         </is>
       </c>
       <c r="N52" s="7" t="n">
-        <v>2007</v>
+        <v>2008</v>
       </c>
       <c r="O52" s="15" t="n">
-        <v>14.14</v>
+        <v>14.35</v>
       </c>
       <c r="P52" s="7" t="n">
-        <v>490</v>
+        <v>459</v>
       </c>
       <c r="Q52" s="7" t="inlineStr">
         <is>
-          <t>Stjørdal</t>
+          <t>Lillehammer</t>
         </is>
       </c>
       <c r="R52" s="16" t="n">
-        <v>14.06</v>
+        <v>19.06</v>
       </c>
       <c r="T52" s="5" t="n"/>
     </row>
@@ -69509,25 +69635,25 @@
       </c>
       <c r="M53" s="7" t="inlineStr">
         <is>
-          <t>Anna Reberg</t>
+          <t>Anna Skistad</t>
         </is>
       </c>
       <c r="N53" s="7" t="n">
-        <v>2007</v>
+        <v>2009</v>
       </c>
       <c r="O53" s="15" t="n">
-        <v>29.78</v>
+        <v>30.99</v>
       </c>
       <c r="P53" s="7" t="n">
-        <v>464</v>
+        <v>394</v>
       </c>
       <c r="Q53" s="7" t="inlineStr">
         <is>
-          <t>Ranheim</t>
+          <t>Steinkjer</t>
         </is>
       </c>
       <c r="R53" s="16" t="n">
-        <v>13.03</v>
+        <v>22.05</v>
       </c>
       <c r="T53" s="5" t="n"/>
     </row>
@@ -69569,7 +69695,7 @@
       </c>
       <c r="M54" s="7" t="inlineStr">
         <is>
-          <t>Nora Waldal Slettom</t>
+          <t>Linnea Cicilie Øyesvold-Grongstad</t>
         </is>
       </c>
       <c r="N54" s="7" t="n">
@@ -69577,19 +69703,19 @@
       </c>
       <c r="O54" s="17" t="inlineStr">
         <is>
-          <t>2,36,39</t>
+          <t>2,39,00</t>
         </is>
       </c>
       <c r="P54" s="7" t="n">
-        <v>496</v>
+        <v>473</v>
       </c>
       <c r="Q54" s="7" t="inlineStr">
         <is>
-          <t>Ranheim</t>
+          <t>Lillehammer</t>
         </is>
       </c>
       <c r="R54" s="16" t="n">
-        <v>13.03</v>
+        <v>19.06</v>
       </c>
       <c r="T54" s="5" t="n"/>
     </row>
@@ -69629,7 +69755,7 @@
       </c>
       <c r="M55" s="7" t="inlineStr">
         <is>
-          <t>Frida Wangberg Lund</t>
+          <t>Linnea Cicilie Øyesvold-Grongstad</t>
         </is>
       </c>
       <c r="N55" s="7" t="n">
@@ -69637,19 +69763,19 @@
       </c>
       <c r="O55" s="17" t="inlineStr">
         <is>
-          <t>5,13,6</t>
+          <t>5,12,39</t>
         </is>
       </c>
       <c r="P55" s="7" t="n">
-        <v>544</v>
+        <v>549</v>
       </c>
       <c r="Q55" s="7" t="inlineStr">
         <is>
-          <t>Stjørdal</t>
+          <t>Overhalla</t>
         </is>
       </c>
       <c r="R55" s="16" t="n">
-        <v>8.06</v>
+        <v>18.08</v>
       </c>
       <c r="T55" s="5" t="n"/>
     </row>
@@ -69689,25 +69815,25 @@
       </c>
       <c r="M56" s="7" t="inlineStr">
         <is>
-          <t>Emma Celine Sørvik</t>
+          <t>Signe Asp Fossland</t>
         </is>
       </c>
       <c r="N56" s="7" t="n">
         <v>2008</v>
       </c>
       <c r="O56" s="15" t="n">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="P56" s="7" t="n">
-        <v>418</v>
+        <v>518</v>
       </c>
       <c r="Q56" s="7" t="inlineStr">
         <is>
-          <t>Steinkjer</t>
+          <t>Overhalla</t>
         </is>
       </c>
       <c r="R56" s="16" t="n">
-        <v>22.05</v>
+        <v>18.08</v>
       </c>
       <c r="T56" s="5" t="n"/>
     </row>
@@ -69747,25 +69873,25 @@
       </c>
       <c r="M57" s="7" t="inlineStr">
         <is>
-          <t>Sara Sesseng</t>
+          <t>Signe Asp Fossland</t>
         </is>
       </c>
       <c r="N57" s="7" t="n">
         <v>2008</v>
       </c>
       <c r="O57" s="15" t="n">
-        <v>3.98</v>
+        <v>4.66</v>
       </c>
       <c r="P57" s="7" t="n">
-        <v>382</v>
+        <v>544</v>
       </c>
       <c r="Q57" s="7" t="inlineStr">
         <is>
-          <t>Stjørdal</t>
+          <t>Overhalla</t>
         </is>
       </c>
       <c r="R57" s="16" t="n">
-        <v>29.05</v>
+        <v>5.07</v>
       </c>
       <c r="T57" s="5" t="n"/>
     </row>
@@ -69798,33 +69924,13 @@
         <v>1.06</v>
       </c>
       <c r="J58" s="5" t="n"/>
-      <c r="L58" s="14" t="inlineStr">
-        <is>
-          <t>Tresteg</t>
-        </is>
-      </c>
-      <c r="M58" s="7" t="inlineStr">
-        <is>
-          <t>Sara Sesseng</t>
-        </is>
-      </c>
-      <c r="N58" s="7" t="n">
-        <v>2008</v>
-      </c>
-      <c r="O58" s="15" t="n">
-        <v>8.640000000000001</v>
-      </c>
-      <c r="P58" s="7" t="n">
-        <v>408</v>
-      </c>
-      <c r="Q58" s="7" t="inlineStr">
-        <is>
-          <t>Steinkjer</t>
-        </is>
-      </c>
-      <c r="R58" s="16" t="n">
-        <v>21.05</v>
-      </c>
+      <c r="L58" s="14" t="n"/>
+      <c r="M58" s="7" t="n"/>
+      <c r="N58" s="7" t="n"/>
+      <c r="O58" s="7" t="n"/>
+      <c r="P58" s="7" t="n"/>
+      <c r="Q58" s="7" t="n"/>
+      <c r="R58" s="18" t="n"/>
       <c r="T58" s="5" t="n"/>
     </row>
     <row r="59" ht="13" customHeight="1">
@@ -69961,7 +70067,7 @@
         </is>
       </c>
       <c r="M64" s="21" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="O64" s="20" t="inlineStr">
         <is>
@@ -69969,7 +70075,7 @@
         </is>
       </c>
       <c r="P64" s="21" t="n">
-        <v>3707</v>
+        <v>3432</v>
       </c>
       <c r="T64" s="5" t="n"/>
     </row>
@@ -70072,52 +70178,50 @@
     <row r="69" ht="13" customHeight="1">
       <c r="B69" s="14" t="inlineStr">
         <is>
-          <t>100m</t>
+          <t>Høyde</t>
         </is>
       </c>
       <c r="C69" s="7" t="inlineStr">
         <is>
-          <t>Thea Marielle Eidshaug Dahl</t>
+          <t>Sofia Aude Johansen</t>
         </is>
       </c>
       <c r="D69" s="7" t="n">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="E69" s="15" t="n">
-        <v>14</v>
+        <v>1.4</v>
       </c>
       <c r="F69" s="7" t="n">
-        <v>510</v>
+        <v>518</v>
       </c>
       <c r="G69" s="7" t="inlineStr">
         <is>
-          <t>Lillehammer</t>
+          <t>Overhalla</t>
         </is>
       </c>
       <c r="H69" s="16" t="n">
-        <v>19.06</v>
+        <v>18.08</v>
       </c>
       <c r="J69" s="5" t="n"/>
       <c r="L69" s="14" t="inlineStr">
         <is>
-          <t>1500m</t>
+          <t>60m</t>
         </is>
       </c>
       <c r="M69" s="7" t="inlineStr">
         <is>
-          <t>Nora Waldal Slettom</t>
+          <t>Kaja Viken</t>
         </is>
       </c>
       <c r="N69" s="7" t="n">
-        <v>2008</v>
-      </c>
-      <c r="O69" s="17" t="inlineStr">
-        <is>
-          <t>5,13,9</t>
-        </is>
+        <v>2010</v>
+      </c>
+      <c r="O69" s="15" t="n">
+        <v>9.210000000000001</v>
       </c>
       <c r="P69" s="7" t="n">
-        <v>542</v>
+        <v>427</v>
       </c>
       <c r="Q69" s="7" t="inlineStr">
         <is>
@@ -70125,29 +70229,29 @@
         </is>
       </c>
       <c r="R69" s="16" t="n">
-        <v>8.06</v>
+        <v>29.05</v>
       </c>
       <c r="T69" s="5" t="n"/>
     </row>
     <row r="70" ht="13" customHeight="1">
       <c r="B70" s="14" t="inlineStr">
         <is>
-          <t>60m</t>
+          <t>100m</t>
         </is>
       </c>
       <c r="C70" s="7" t="inlineStr">
         <is>
-          <t>Charlotte Nilsen Tangen</t>
+          <t>Thea Marielle Eidshaug Dahl</t>
         </is>
       </c>
       <c r="D70" s="7" t="n">
-        <v>2008</v>
+        <v>2009</v>
       </c>
       <c r="E70" s="15" t="n">
-        <v>8.859999999999999</v>
+        <v>14</v>
       </c>
       <c r="F70" s="7" t="n">
-        <v>505</v>
+        <v>510</v>
       </c>
       <c r="G70" s="7" t="inlineStr">
         <is>
@@ -70155,37 +70259,35 @@
         </is>
       </c>
       <c r="H70" s="16" t="n">
-        <v>18.06</v>
+        <v>19.06</v>
       </c>
       <c r="J70" s="5" t="n"/>
       <c r="L70" s="14" t="inlineStr">
         <is>
-          <t>1500m</t>
+          <t>60m</t>
         </is>
       </c>
       <c r="M70" s="7" t="inlineStr">
         <is>
-          <t>Johanna Rosling</t>
+          <t>Anna Skistad</t>
         </is>
       </c>
       <c r="N70" s="7" t="n">
-        <v>2007</v>
-      </c>
-      <c r="O70" s="17" t="inlineStr">
-        <is>
-          <t>5,25,7</t>
-        </is>
+        <v>2009</v>
+      </c>
+      <c r="O70" s="15" t="n">
+        <v>9.359999999999999</v>
       </c>
       <c r="P70" s="7" t="n">
-        <v>488</v>
+        <v>395</v>
       </c>
       <c r="Q70" s="7" t="inlineStr">
         <is>
-          <t>Stjørdal</t>
+          <t>Steinkjer</t>
         </is>
       </c>
       <c r="R70" s="16" t="n">
-        <v>8.06</v>
+        <v>21.05</v>
       </c>
       <c r="T70" s="5" t="n"/>
     </row>
@@ -70197,17 +70299,17 @@
       </c>
       <c r="C71" s="7" t="inlineStr">
         <is>
-          <t>Thea Marielle Eidshaug Dahl</t>
+          <t>Charlotte Nilsen Tangen</t>
         </is>
       </c>
       <c r="D71" s="7" t="n">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="E71" s="15" t="n">
-        <v>8.91</v>
+        <v>8.859999999999999</v>
       </c>
       <c r="F71" s="7" t="n">
-        <v>493</v>
+        <v>505</v>
       </c>
       <c r="G71" s="7" t="inlineStr">
         <is>
@@ -70220,52 +70322,52 @@
       <c r="J71" s="5" t="n"/>
       <c r="L71" s="14" t="inlineStr">
         <is>
-          <t>60m</t>
+          <t>Høyde</t>
         </is>
       </c>
       <c r="M71" s="7" t="inlineStr">
         <is>
-          <t>Mia Nicoline Steig Hamre</t>
+          <t>Victoria Ahlin</t>
         </is>
       </c>
       <c r="N71" s="7" t="n">
         <v>2008</v>
       </c>
       <c r="O71" s="15" t="n">
-        <v>9.029999999999999</v>
+        <v>1.27</v>
       </c>
       <c r="P71" s="7" t="n">
-        <v>466</v>
+        <v>385</v>
       </c>
       <c r="Q71" s="7" t="inlineStr">
         <is>
-          <t>Steinkjer</t>
+          <t>Overhalla</t>
         </is>
       </c>
       <c r="R71" s="16" t="n">
-        <v>21.05</v>
+        <v>5.07</v>
       </c>
       <c r="T71" s="5" t="n"/>
     </row>
     <row r="72" ht="13" customHeight="1">
       <c r="B72" s="14" t="inlineStr">
         <is>
-          <t>100m</t>
+          <t>60m</t>
         </is>
       </c>
       <c r="C72" s="7" t="inlineStr">
         <is>
-          <t>Charlotte Nilsen Tangen</t>
+          <t>Thea Marielle Eidshaug Dahl</t>
         </is>
       </c>
       <c r="D72" s="7" t="n">
-        <v>2008</v>
+        <v>2009</v>
       </c>
       <c r="E72" s="15" t="n">
-        <v>14.14</v>
+        <v>8.91</v>
       </c>
       <c r="F72" s="7" t="n">
-        <v>490</v>
+        <v>493</v>
       </c>
       <c r="G72" s="7" t="inlineStr">
         <is>
@@ -70273,7 +70375,7 @@
         </is>
       </c>
       <c r="H72" s="16" t="n">
-        <v>19.06</v>
+        <v>18.06</v>
       </c>
       <c r="J72" s="5" t="n"/>
       <c r="L72" s="14" t="inlineStr">
@@ -70283,32 +70385,32 @@
       </c>
       <c r="M72" s="7" t="inlineStr">
         <is>
-          <t>Sara Sesseng</t>
+          <t>Victoria Ahlin</t>
         </is>
       </c>
       <c r="N72" s="7" t="n">
         <v>2008</v>
       </c>
       <c r="O72" s="15" t="n">
-        <v>9.26</v>
+        <v>9.449999999999999</v>
       </c>
       <c r="P72" s="7" t="n">
-        <v>416</v>
+        <v>377</v>
       </c>
       <c r="Q72" s="7" t="inlineStr">
         <is>
-          <t>Overhalla</t>
+          <t>Steinkjer</t>
         </is>
       </c>
       <c r="R72" s="16" t="n">
-        <v>6.08</v>
+        <v>21.05</v>
       </c>
       <c r="T72" s="5" t="n"/>
     </row>
     <row r="73" ht="13" customHeight="1">
       <c r="B73" s="14" t="inlineStr">
         <is>
-          <t>Lengde</t>
+          <t>100m</t>
         </is>
       </c>
       <c r="C73" s="7" t="inlineStr">
@@ -70320,53 +70422,53 @@
         <v>2008</v>
       </c>
       <c r="E73" s="15" t="n">
-        <v>4.22</v>
+        <v>14.14</v>
       </c>
       <c r="F73" s="7" t="n">
-        <v>442</v>
+        <v>490</v>
       </c>
       <c r="G73" s="7" t="inlineStr">
         <is>
-          <t>Namsos</t>
+          <t>Lillehammer</t>
         </is>
       </c>
       <c r="H73" s="16" t="n">
-        <v>1.06</v>
+        <v>19.06</v>
       </c>
       <c r="J73" s="5" t="n"/>
       <c r="L73" s="14" t="inlineStr">
         <is>
-          <t>100m</t>
+          <t>60m</t>
         </is>
       </c>
       <c r="M73" s="7" t="inlineStr">
         <is>
-          <t>Sara Sesseng</t>
+          <t>Tuva Lysberg Lund</t>
         </is>
       </c>
       <c r="N73" s="7" t="n">
-        <v>2008</v>
-      </c>
-      <c r="O73" s="22" t="n">
-        <v>14.6</v>
+        <v>2007</v>
+      </c>
+      <c r="O73" s="15" t="n">
+        <v>9.5</v>
       </c>
       <c r="P73" s="7" t="n">
-        <v>392</v>
+        <v>367</v>
       </c>
       <c r="Q73" s="7" t="inlineStr">
         <is>
-          <t>Stjørdal</t>
+          <t>Steinkjer</t>
         </is>
       </c>
       <c r="R73" s="16" t="n">
-        <v>1.06</v>
+        <v>5.03</v>
       </c>
       <c r="T73" s="5" t="n"/>
     </row>
     <row r="74" ht="13" customHeight="1">
       <c r="B74" s="14" t="inlineStr">
         <is>
-          <t>200m</t>
+          <t>Lengde</t>
         </is>
       </c>
       <c r="C74" s="7" t="inlineStr">
@@ -70378,76 +70480,96 @@
         <v>2008</v>
       </c>
       <c r="E74" s="15" t="n">
-        <v>30.21</v>
+        <v>4.22</v>
       </c>
       <c r="F74" s="7" t="n">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="G74" s="7" t="inlineStr">
         <is>
-          <t>Steinkjer</t>
+          <t>Namsos</t>
         </is>
       </c>
       <c r="H74" s="16" t="n">
-        <v>22.05</v>
+        <v>1.06</v>
       </c>
       <c r="J74" s="5" t="n"/>
       <c r="L74" s="14" t="inlineStr">
         <is>
-          <t>Lengde</t>
+          <t>200m</t>
         </is>
       </c>
       <c r="M74" s="7" t="inlineStr">
         <is>
-          <t>Emma Celine Sørvik</t>
+          <t>Victoria Ahlin</t>
         </is>
       </c>
       <c r="N74" s="7" t="n">
         <v>2008</v>
       </c>
       <c r="O74" s="15" t="n">
-        <v>3.37</v>
+        <v>31.92</v>
       </c>
       <c r="P74" s="7" t="n">
-        <v>213</v>
+        <v>345</v>
       </c>
       <c r="Q74" s="7" t="inlineStr">
         <is>
+          <t>Lillehammer</t>
+        </is>
+      </c>
+      <c r="R74" s="16" t="n">
+        <v>16.06</v>
+      </c>
+      <c r="T74" s="5" t="n"/>
+    </row>
+    <row r="75" ht="13" customHeight="1">
+      <c r="B75" s="14" t="inlineStr">
+        <is>
+          <t>200m</t>
+        </is>
+      </c>
+      <c r="C75" s="7" t="inlineStr">
+        <is>
+          <t>Charlotte Nilsen Tangen</t>
+        </is>
+      </c>
+      <c r="D75" s="7" t="n">
+        <v>2008</v>
+      </c>
+      <c r="E75" s="15" t="n">
+        <v>30.21</v>
+      </c>
+      <c r="F75" s="7" t="n">
+        <v>439</v>
+      </c>
+      <c r="G75" s="7" t="inlineStr">
+        <is>
           <t>Steinkjer</t>
         </is>
       </c>
-      <c r="R74" s="16" t="n">
+      <c r="H75" s="16" t="n">
         <v>22.05</v>
       </c>
-      <c r="T74" s="5" t="n"/>
-    </row>
-    <row r="75" ht="13" customHeight="1">
-      <c r="B75" s="14" t="n"/>
-      <c r="C75" s="7" t="n"/>
-      <c r="D75" s="7" t="n"/>
-      <c r="E75" s="7" t="n"/>
-      <c r="F75" s="7" t="n"/>
-      <c r="G75" s="7" t="n"/>
-      <c r="H75" s="18" t="n"/>
       <c r="J75" s="5" t="n"/>
       <c r="L75" s="14" t="inlineStr">
         <is>
-          <t>Lengde</t>
+          <t>Høyde</t>
         </is>
       </c>
       <c r="M75" s="7" t="inlineStr">
         <is>
-          <t>Vanessa Bindu Sandy</t>
+          <t>Kaja Viken</t>
         </is>
       </c>
       <c r="N75" s="7" t="n">
-        <v>2008</v>
+        <v>2010</v>
       </c>
       <c r="O75" s="15" t="n">
-        <v>2.8</v>
+        <v>1.2</v>
       </c>
       <c r="P75" s="7" t="n">
-        <v>19</v>
+        <v>303</v>
       </c>
       <c r="Q75" s="7" t="inlineStr">
         <is>
@@ -70455,7 +70577,7 @@
         </is>
       </c>
       <c r="R75" s="16" t="n">
-        <v>29.05</v>
+        <v>28.05</v>
       </c>
       <c r="T75" s="5" t="n"/>
     </row>
@@ -70468,13 +70590,33 @@
       <c r="G76" s="7" t="n"/>
       <c r="H76" s="18" t="n"/>
       <c r="J76" s="5" t="n"/>
-      <c r="L76" s="14" t="n"/>
-      <c r="M76" s="7" t="n"/>
-      <c r="N76" s="7" t="n"/>
-      <c r="O76" s="7" t="n"/>
-      <c r="P76" s="7" t="n"/>
-      <c r="Q76" s="7" t="n"/>
-      <c r="R76" s="18" t="n"/>
+      <c r="L76" s="14" t="inlineStr">
+        <is>
+          <t>Lengde</t>
+        </is>
+      </c>
+      <c r="M76" s="7" t="inlineStr">
+        <is>
+          <t>Victoria Ahlin</t>
+        </is>
+      </c>
+      <c r="N76" s="7" t="n">
+        <v>2008</v>
+      </c>
+      <c r="O76" s="15" t="n">
+        <v>3.51</v>
+      </c>
+      <c r="P76" s="7" t="n">
+        <v>254</v>
+      </c>
+      <c r="Q76" s="7" t="inlineStr">
+        <is>
+          <t>Overhalla</t>
+        </is>
+      </c>
+      <c r="R76" s="16" t="n">
+        <v>19.05</v>
+      </c>
       <c r="T76" s="5" t="n"/>
     </row>
     <row r="77" ht="13" customHeight="1">
@@ -70502,7 +70644,7 @@
         </is>
       </c>
       <c r="C78" s="21" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E78" s="20" t="inlineStr">
         <is>
@@ -70510,7 +70652,7 @@
         </is>
       </c>
       <c r="F78" s="21" t="n">
-        <v>2879</v>
+        <v>3397</v>
       </c>
       <c r="J78" s="5" t="n"/>
       <c r="L78" s="20" t="inlineStr">
@@ -70519,7 +70661,7 @@
         </is>
       </c>
       <c r="M78" s="21" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="O78" s="20" t="inlineStr">
         <is>
@@ -70527,7 +70669,7 @@
         </is>
       </c>
       <c r="P78" s="21" t="n">
-        <v>2536</v>
+        <v>2853</v>
       </c>
       <c r="T78" s="5" t="n"/>
     </row>
@@ -70542,7 +70684,7 @@
         </is>
       </c>
       <c r="C80" s="21" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E80" s="20" t="inlineStr">
         <is>
@@ -70550,7 +70692,7 @@
         </is>
       </c>
       <c r="F80" s="21" t="n">
-        <v>8125</v>
+        <v>8643</v>
       </c>
       <c r="J80" s="5" t="n"/>
       <c r="L80" s="20" t="inlineStr">
@@ -70567,7 +70709,7 @@
         </is>
       </c>
       <c r="P80" s="21" t="n">
-        <v>6243</v>
+        <v>6285</v>
       </c>
       <c r="T80" s="5" t="n"/>
     </row>
@@ -70591,7 +70733,7 @@
         </is>
       </c>
       <c r="M82" s="21" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="T82" s="5" t="n"/>
     </row>
@@ -70636,7 +70778,7 @@
         </is>
       </c>
       <c r="F86" s="8" t="n">
-        <v>88</v>
+        <v>75</v>
       </c>
       <c r="J86" s="5" t="n"/>
     </row>
@@ -70648,7 +70790,7 @@
       </c>
       <c r="C87" s="7" t="inlineStr">
         <is>
-          <t>Overhalla IL</t>
+          <t>IL Nybrott</t>
         </is>
       </c>
       <c r="J87" s="5" t="n"/>
@@ -70724,25 +70866,25 @@
       </c>
       <c r="C93" s="7" t="inlineStr">
         <is>
-          <t>Signe Asp Fossland</t>
+          <t>Anna Reberg</t>
         </is>
       </c>
       <c r="D93" s="7" t="n">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="E93" s="15" t="n">
-        <v>8.9</v>
+        <v>8.859999999999999</v>
       </c>
       <c r="F93" s="7" t="n">
-        <v>495</v>
+        <v>505</v>
       </c>
       <c r="G93" s="7" t="inlineStr">
         <is>
-          <t>Lillehammer</t>
+          <t>Stjørdal</t>
         </is>
       </c>
       <c r="H93" s="16" t="n">
-        <v>18.06</v>
+        <v>14.06</v>
       </c>
       <c r="J93" s="5" t="n"/>
     </row>
@@ -70754,25 +70896,25 @@
       </c>
       <c r="C94" s="7" t="inlineStr">
         <is>
-          <t>Signe Asp Fossland</t>
+          <t>Anna Reberg</t>
         </is>
       </c>
       <c r="D94" s="7" t="n">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="E94" s="15" t="n">
-        <v>14.35</v>
+        <v>14.14</v>
       </c>
       <c r="F94" s="7" t="n">
-        <v>459</v>
+        <v>490</v>
       </c>
       <c r="G94" s="7" t="inlineStr">
         <is>
-          <t>Lillehammer</t>
+          <t>Stjørdal</t>
         </is>
       </c>
       <c r="H94" s="16" t="n">
-        <v>19.06</v>
+        <v>14.06</v>
       </c>
       <c r="J94" s="5" t="n"/>
     </row>
@@ -70784,25 +70926,25 @@
       </c>
       <c r="C95" s="7" t="inlineStr">
         <is>
-          <t>Anna Skistad</t>
+          <t>Anna Reberg</t>
         </is>
       </c>
       <c r="D95" s="7" t="n">
-        <v>2009</v>
+        <v>2007</v>
       </c>
       <c r="E95" s="15" t="n">
-        <v>30.99</v>
+        <v>29.78</v>
       </c>
       <c r="F95" s="7" t="n">
-        <v>394</v>
+        <v>464</v>
       </c>
       <c r="G95" s="7" t="inlineStr">
         <is>
-          <t>Steinkjer</t>
+          <t>Ranheim</t>
         </is>
       </c>
       <c r="H95" s="16" t="n">
-        <v>22.05</v>
+        <v>13.03</v>
       </c>
       <c r="J95" s="5" t="n"/>
     </row>
@@ -70814,7 +70956,7 @@
       </c>
       <c r="C96" s="7" t="inlineStr">
         <is>
-          <t>Linnea Cicilie Øyesvold-Grongstad</t>
+          <t>Nora Waldal Slettom</t>
         </is>
       </c>
       <c r="D96" s="7" t="n">
@@ -70822,100 +70964,142 @@
       </c>
       <c r="E96" s="17" t="inlineStr">
         <is>
-          <t>2,39,00</t>
+          <t>2,36,39</t>
         </is>
       </c>
       <c r="F96" s="7" t="n">
-        <v>473</v>
+        <v>496</v>
       </c>
       <c r="G96" s="7" t="inlineStr">
         <is>
-          <t>Lillehammer</t>
+          <t>Ranheim</t>
         </is>
       </c>
       <c r="H96" s="16" t="n">
-        <v>19.06</v>
+        <v>13.03</v>
       </c>
       <c r="J96" s="5" t="n"/>
     </row>
     <row r="97" ht="13" customHeight="1">
       <c r="B97" s="14" t="inlineStr">
         <is>
-          <t>Høyde</t>
+          <t>1500m</t>
         </is>
       </c>
       <c r="C97" s="7" t="inlineStr">
         <is>
-          <t>Victoria Ahlin</t>
+          <t>Frida Wangberg Lund</t>
         </is>
       </c>
       <c r="D97" s="7" t="n">
         <v>2008</v>
       </c>
-      <c r="E97" s="15" t="n">
-        <v>1.27</v>
+      <c r="E97" s="17" t="inlineStr">
+        <is>
+          <t>5,13,6</t>
+        </is>
       </c>
       <c r="F97" s="7" t="n">
-        <v>385</v>
+        <v>544</v>
       </c>
       <c r="G97" s="7" t="inlineStr">
         <is>
-          <t>Overhalla</t>
+          <t>Stjørdal</t>
         </is>
       </c>
       <c r="H97" s="16" t="n">
-        <v>5.07</v>
+        <v>8.06</v>
       </c>
       <c r="J97" s="5" t="n"/>
     </row>
     <row r="98" ht="13" customHeight="1">
       <c r="B98" s="14" t="inlineStr">
         <is>
-          <t>Lengde</t>
+          <t>Høyde</t>
         </is>
       </c>
       <c r="C98" s="7" t="inlineStr">
         <is>
-          <t>Signe Asp Fossland</t>
+          <t>Emma Celine Sørvik</t>
         </is>
       </c>
       <c r="D98" s="7" t="n">
         <v>2008</v>
       </c>
       <c r="E98" s="15" t="n">
-        <v>4.66</v>
+        <v>1.3</v>
       </c>
       <c r="F98" s="7" t="n">
-        <v>544</v>
+        <v>418</v>
       </c>
       <c r="G98" s="7" t="inlineStr">
         <is>
-          <t>Overhalla</t>
+          <t>Steinkjer</t>
         </is>
       </c>
       <c r="H98" s="16" t="n">
-        <v>5.07</v>
+        <v>22.05</v>
       </c>
       <c r="J98" s="5" t="n"/>
     </row>
     <row r="99" ht="13" customHeight="1">
-      <c r="B99" s="14" t="n"/>
-      <c r="C99" s="7" t="n"/>
-      <c r="D99" s="7" t="n"/>
-      <c r="E99" s="7" t="n"/>
-      <c r="F99" s="7" t="n"/>
-      <c r="G99" s="7" t="n"/>
-      <c r="H99" s="18" t="n"/>
+      <c r="B99" s="14" t="inlineStr">
+        <is>
+          <t>Lengde</t>
+        </is>
+      </c>
+      <c r="C99" s="7" t="inlineStr">
+        <is>
+          <t>Sara Sesseng</t>
+        </is>
+      </c>
+      <c r="D99" s="7" t="n">
+        <v>2008</v>
+      </c>
+      <c r="E99" s="15" t="n">
+        <v>3.98</v>
+      </c>
+      <c r="F99" s="7" t="n">
+        <v>382</v>
+      </c>
+      <c r="G99" s="7" t="inlineStr">
+        <is>
+          <t>Stjørdal</t>
+        </is>
+      </c>
+      <c r="H99" s="16" t="n">
+        <v>29.05</v>
+      </c>
       <c r="J99" s="5" t="n"/>
     </row>
     <row r="100" ht="13" customHeight="1">
-      <c r="B100" s="14" t="n"/>
-      <c r="C100" s="7" t="n"/>
-      <c r="D100" s="7" t="n"/>
-      <c r="E100" s="7" t="n"/>
-      <c r="F100" s="7" t="n"/>
-      <c r="G100" s="7" t="n"/>
-      <c r="H100" s="18" t="n"/>
+      <c r="B100" s="14" t="inlineStr">
+        <is>
+          <t>Tresteg</t>
+        </is>
+      </c>
+      <c r="C100" s="7" t="inlineStr">
+        <is>
+          <t>Sara Sesseng</t>
+        </is>
+      </c>
+      <c r="D100" s="7" t="n">
+        <v>2008</v>
+      </c>
+      <c r="E100" s="15" t="n">
+        <v>8.640000000000001</v>
+      </c>
+      <c r="F100" s="7" t="n">
+        <v>408</v>
+      </c>
+      <c r="G100" s="7" t="inlineStr">
+        <is>
+          <t>Steinkjer</t>
+        </is>
+      </c>
+      <c r="H100" s="16" t="n">
+        <v>21.05</v>
+      </c>
       <c r="J100" s="5" t="n"/>
     </row>
     <row r="101" ht="13" customHeight="1">
@@ -70975,7 +71159,7 @@
         </is>
       </c>
       <c r="C106" s="21" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E106" s="20" t="inlineStr">
         <is>
@@ -70983,7 +71167,7 @@
         </is>
       </c>
       <c r="F106" s="21" t="n">
-        <v>2750</v>
+        <v>3707</v>
       </c>
       <c r="J106" s="5" t="n"/>
     </row>
@@ -71042,22 +71226,24 @@
     <row r="111" ht="13" customHeight="1">
       <c r="B111" s="14" t="inlineStr">
         <is>
-          <t>60m</t>
+          <t>1500m</t>
         </is>
       </c>
       <c r="C111" s="7" t="inlineStr">
         <is>
-          <t>Kaja Viken</t>
+          <t>Nora Waldal Slettom</t>
         </is>
       </c>
       <c r="D111" s="7" t="n">
-        <v>2010</v>
-      </c>
-      <c r="E111" s="15" t="n">
-        <v>9.210000000000001</v>
+        <v>2008</v>
+      </c>
+      <c r="E111" s="17" t="inlineStr">
+        <is>
+          <t>5,13,9</t>
+        </is>
       </c>
       <c r="F111" s="7" t="n">
-        <v>427</v>
+        <v>542</v>
       </c>
       <c r="G111" s="7" t="inlineStr">
         <is>
@@ -71065,37 +71251,39 @@
         </is>
       </c>
       <c r="H111" s="16" t="n">
-        <v>29.05</v>
+        <v>8.06</v>
       </c>
       <c r="J111" s="5" t="n"/>
     </row>
     <row r="112" ht="13" customHeight="1">
       <c r="B112" s="14" t="inlineStr">
         <is>
-          <t>60m</t>
+          <t>1500m</t>
         </is>
       </c>
       <c r="C112" s="7" t="inlineStr">
         <is>
-          <t>Anna Skistad</t>
+          <t>Johanna Rosling</t>
         </is>
       </c>
       <c r="D112" s="7" t="n">
-        <v>2009</v>
-      </c>
-      <c r="E112" s="15" t="n">
-        <v>9.359999999999999</v>
+        <v>2007</v>
+      </c>
+      <c r="E112" s="17" t="inlineStr">
+        <is>
+          <t>5,25,7</t>
+        </is>
       </c>
       <c r="F112" s="7" t="n">
-        <v>395</v>
+        <v>488</v>
       </c>
       <c r="G112" s="7" t="inlineStr">
         <is>
-          <t>Steinkjer</t>
+          <t>Stjørdal</t>
         </is>
       </c>
       <c r="H112" s="16" t="n">
-        <v>21.05</v>
+        <v>8.06</v>
       </c>
       <c r="J112" s="5" t="n"/>
     </row>
@@ -71107,17 +71295,17 @@
       </c>
       <c r="C113" s="7" t="inlineStr">
         <is>
-          <t>Victoria Ahlin</t>
+          <t>Mia Nicoline Steig Hamre</t>
         </is>
       </c>
       <c r="D113" s="7" t="n">
         <v>2008</v>
       </c>
       <c r="E113" s="15" t="n">
-        <v>9.449999999999999</v>
+        <v>9.029999999999999</v>
       </c>
       <c r="F113" s="7" t="n">
-        <v>377</v>
+        <v>466</v>
       </c>
       <c r="G113" s="7" t="inlineStr">
         <is>
@@ -71137,85 +71325,85 @@
       </c>
       <c r="C114" s="7" t="inlineStr">
         <is>
-          <t>Tuva Lysberg Lund</t>
+          <t>Sara Sesseng</t>
         </is>
       </c>
       <c r="D114" s="7" t="n">
-        <v>2007</v>
+        <v>2008</v>
       </c>
       <c r="E114" s="15" t="n">
-        <v>9.5</v>
+        <v>9.26</v>
       </c>
       <c r="F114" s="7" t="n">
-        <v>367</v>
+        <v>416</v>
       </c>
       <c r="G114" s="7" t="inlineStr">
         <is>
-          <t>Steinkjer</t>
+          <t>Overhalla</t>
         </is>
       </c>
       <c r="H114" s="16" t="n">
-        <v>5.03</v>
+        <v>6.08</v>
       </c>
       <c r="J114" s="5" t="n"/>
     </row>
     <row r="115" ht="13" customHeight="1">
       <c r="B115" s="14" t="inlineStr">
         <is>
-          <t>200m</t>
+          <t>100m</t>
         </is>
       </c>
       <c r="C115" s="7" t="inlineStr">
         <is>
-          <t>Victoria Ahlin</t>
+          <t>Sara Sesseng</t>
         </is>
       </c>
       <c r="D115" s="7" t="n">
         <v>2008</v>
       </c>
-      <c r="E115" s="15" t="n">
-        <v>31.92</v>
+      <c r="E115" s="22" t="n">
+        <v>14.6</v>
       </c>
       <c r="F115" s="7" t="n">
-        <v>345</v>
+        <v>392</v>
       </c>
       <c r="G115" s="7" t="inlineStr">
         <is>
-          <t>Lillehammer</t>
+          <t>Stjørdal</t>
         </is>
       </c>
       <c r="H115" s="16" t="n">
-        <v>16.06</v>
+        <v>1.06</v>
       </c>
       <c r="J115" s="5" t="n"/>
     </row>
     <row r="116" ht="13" customHeight="1">
       <c r="B116" s="14" t="inlineStr">
         <is>
-          <t>Høyde</t>
+          <t>Lengde</t>
         </is>
       </c>
       <c r="C116" s="7" t="inlineStr">
         <is>
-          <t>Kaja Viken</t>
+          <t>Emma Celine Sørvik</t>
         </is>
       </c>
       <c r="D116" s="7" t="n">
-        <v>2010</v>
+        <v>2008</v>
       </c>
       <c r="E116" s="15" t="n">
-        <v>1.2</v>
+        <v>3.37</v>
       </c>
       <c r="F116" s="7" t="n">
-        <v>303</v>
+        <v>213</v>
       </c>
       <c r="G116" s="7" t="inlineStr">
         <is>
-          <t>Stjørdal</t>
+          <t>Steinkjer</t>
         </is>
       </c>
       <c r="H116" s="16" t="n">
-        <v>28.05</v>
+        <v>22.05</v>
       </c>
       <c r="J116" s="5" t="n"/>
     </row>
@@ -71227,56 +71415,36 @@
       </c>
       <c r="C117" s="7" t="inlineStr">
         <is>
-          <t>Victoria Ahlin</t>
+          <t>Vanessa Bindu Sandy</t>
         </is>
       </c>
       <c r="D117" s="7" t="n">
         <v>2008</v>
       </c>
       <c r="E117" s="15" t="n">
-        <v>3.51</v>
+        <v>2.8</v>
       </c>
       <c r="F117" s="7" t="n">
-        <v>254</v>
+        <v>19</v>
       </c>
       <c r="G117" s="7" t="inlineStr">
         <is>
-          <t>Overhalla</t>
+          <t>Stjørdal</t>
         </is>
       </c>
       <c r="H117" s="16" t="n">
-        <v>19.05</v>
+        <v>29.05</v>
       </c>
       <c r="J117" s="5" t="n"/>
     </row>
     <row r="118" ht="13" customHeight="1">
-      <c r="B118" s="14" t="inlineStr">
-        <is>
-          <t>Lengde</t>
-        </is>
-      </c>
-      <c r="C118" s="7" t="inlineStr">
-        <is>
-          <t>Tuva Lysberg Lund</t>
-        </is>
-      </c>
-      <c r="D118" s="7" t="n">
-        <v>2007</v>
-      </c>
-      <c r="E118" s="15" t="n">
-        <v>3.44</v>
-      </c>
-      <c r="F118" s="7" t="n">
-        <v>234</v>
-      </c>
-      <c r="G118" s="7" t="inlineStr">
-        <is>
-          <t>Overhalla</t>
-        </is>
-      </c>
-      <c r="H118" s="16" t="n">
-        <v>6.08</v>
-      </c>
+      <c r="B118" s="14" t="n"/>
+      <c r="C118" s="7" t="n"/>
+      <c r="D118" s="7" t="n"/>
+      <c r="E118" s="7" t="n"/>
+      <c r="F118" s="7" t="n"/>
+      <c r="G118" s="7" t="n"/>
+      <c r="H118" s="18" t="n"/>
       <c r="J118" s="5" t="n"/>
     </row>
     <row r="119" ht="13" customHeight="1">
@@ -71296,7 +71464,7 @@
         </is>
       </c>
       <c r="C120" s="21" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E120" s="20" t="inlineStr">
         <is>
@@ -71304,7 +71472,7 @@
         </is>
       </c>
       <c r="F120" s="21" t="n">
-        <v>2702</v>
+        <v>2536</v>
       </c>
       <c r="J120" s="5" t="n"/>
     </row>
@@ -71318,7 +71486,7 @@
         </is>
       </c>
       <c r="C122" s="21" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E122" s="20" t="inlineStr">
         <is>
@@ -71326,7 +71494,7 @@
         </is>
       </c>
       <c r="F122" s="21" t="n">
-        <v>5452</v>
+        <v>6243</v>
       </c>
       <c r="J122" s="5" t="n"/>
     </row>
@@ -71340,7 +71508,7 @@
         </is>
       </c>
       <c r="C124" s="21" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="J124" s="5" t="n"/>
     </row>

--- a/output/Lagserien 2022 kvinner 3. div.xlsx
+++ b/output/Lagserien 2022 kvinner 3. div.xlsx
@@ -15,15 +15,13 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Innlandet" sheetId="6" state="visible" r:id="rId6"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Møre og Romsdal" sheetId="7" state="visible" r:id="rId7"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Nord-Trøndelag" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Nordland" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Oslo" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Rogaland" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sogn og Fjordane" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sør-Trøndelag" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Telemark" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Troms" sheetId="15" state="visible" r:id="rId15"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Vestfold" sheetId="16" state="visible" r:id="rId16"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Østfold" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Oslo" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Rogaland" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sogn og Fjordane" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sør-Trøndelag" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Troms" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Vestfold" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Østfold" sheetId="15" state="visible" r:id="rId15"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -777,98 +775,6 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="0.5600000000000001" customWidth="1" style="1" min="1" max="1"/>
-    <col width="19.36" customWidth="1" style="1" min="2" max="2"/>
-    <col width="38.82" customWidth="1" style="1" min="3" max="3"/>
-    <col width="7.73" customWidth="1" style="1" min="4" max="4"/>
-    <col width="10.73" customWidth="1" style="1" min="5" max="5"/>
-    <col width="9.18" customWidth="1" style="1" min="6" max="6"/>
-    <col width="21.27" customWidth="1" style="1" min="7" max="7"/>
-    <col width="6.36" customWidth="1" style="1" min="8" max="8"/>
-    <col width="0.5600000000000001" customWidth="1" style="1" min="9" max="9"/>
-    <col width="4.73" customWidth="1" style="1" min="10" max="10"/>
-    <col width="0.5600000000000001" customWidth="1" style="1" min="11" max="11"/>
-    <col width="19.36" customWidth="1" style="1" min="12" max="12"/>
-    <col width="38.82" customWidth="1" style="1" min="13" max="13"/>
-    <col width="7.73" customWidth="1" style="1" min="14" max="14"/>
-    <col width="10.73" customWidth="1" style="1" min="15" max="15"/>
-    <col width="9.18" customWidth="1" style="1" min="16" max="16"/>
-    <col width="21.27" customWidth="1" style="1" min="17" max="17"/>
-    <col width="6.36" customWidth="1" style="1" min="18" max="18"/>
-    <col width="0.5600000000000001" customWidth="1" style="1" min="19" max="19"/>
-    <col width="4.73" customWidth="1" style="1" min="20" max="20"/>
-    <col width="13" customWidth="1" style="1" min="21" max="21"/>
-    <col width="13" customWidth="1" style="1" min="22" max="22"/>
-    <col width="13" customWidth="1" style="1" min="23" max="23"/>
-    <col width="13" customWidth="1" style="1" min="24" max="24"/>
-    <col width="13" customWidth="1" style="1" min="25" max="25"/>
-    <col width="13" customWidth="1" style="1" min="26" max="26"/>
-  </cols>
-  <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="0.5600000000000001" customWidth="1" style="1" min="1" max="1"/>
-    <col width="19.36" customWidth="1" style="1" min="2" max="2"/>
-    <col width="38.82" customWidth="1" style="1" min="3" max="3"/>
-    <col width="7.73" customWidth="1" style="1" min="4" max="4"/>
-    <col width="10.73" customWidth="1" style="1" min="5" max="5"/>
-    <col width="9.18" customWidth="1" style="1" min="6" max="6"/>
-    <col width="21.27" customWidth="1" style="1" min="7" max="7"/>
-    <col width="6.36" customWidth="1" style="1" min="8" max="8"/>
-    <col width="0.5600000000000001" customWidth="1" style="1" min="9" max="9"/>
-    <col width="4.73" customWidth="1" style="1" min="10" max="10"/>
-    <col width="0.5600000000000001" customWidth="1" style="1" min="11" max="11"/>
-    <col width="19.36" customWidth="1" style="1" min="12" max="12"/>
-    <col width="38.82" customWidth="1" style="1" min="13" max="13"/>
-    <col width="7.73" customWidth="1" style="1" min="14" max="14"/>
-    <col width="10.73" customWidth="1" style="1" min="15" max="15"/>
-    <col width="9.18" customWidth="1" style="1" min="16" max="16"/>
-    <col width="21.27" customWidth="1" style="1" min="17" max="17"/>
-    <col width="6.36" customWidth="1" style="1" min="18" max="18"/>
-    <col width="0.5600000000000001" customWidth="1" style="1" min="19" max="19"/>
-    <col width="4.73" customWidth="1" style="1" min="20" max="20"/>
-    <col width="13" customWidth="1" style="1" min="21" max="21"/>
-    <col width="13" customWidth="1" style="1" min="22" max="22"/>
-    <col width="13" customWidth="1" style="1" min="23" max="23"/>
-    <col width="13" customWidth="1" style="1" min="24" max="24"/>
-    <col width="13" customWidth="1" style="1" min="25" max="25"/>
-    <col width="13" customWidth="1" style="1" min="26" max="26"/>
-  </cols>
-  <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
